--- a/out/production/MScanner/file/MScanner.xlsx
+++ b/out/production/MScanner/file/MScanner.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="НалБанки" sheetId="22" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>№ изделия</t>
   </si>
@@ -64,13 +64,7 @@
     <t>6 мес</t>
   </si>
   <si>
-    <t>10 мес</t>
-  </si>
-  <si>
     <t>12 мес</t>
-  </si>
-  <si>
-    <t>15 мес</t>
   </si>
   <si>
     <t>18 мес</t>
@@ -242,6 +236,24 @@
   <si>
     <t>Версия сканнера</t>
   </si>
+  <si>
+    <t>48 мес</t>
+  </si>
+  <si>
+    <t>Предоплата:</t>
+  </si>
+  <si>
+    <t>% Альфы</t>
+  </si>
+  <si>
+    <t>% возн</t>
+  </si>
+  <si>
+    <t>% по кр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% </t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +266,7 @@
     <numFmt numFmtId="167" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="168" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +448,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +585,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1393,11 +1426,24 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1417,7 +1463,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1500,10 +1545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
@@ -1512,17 +1553,10 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1536,17 +1570,10 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1558,16 +1585,6 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1575,9 +1592,6 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1624,9 +1638,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="15" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1637,12 +1648,6 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="15" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1651,12 +1656,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1825,14 +1824,348 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="23" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,15 +2178,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1863,243 +2187,232 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2174,241 +2487,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2492,14 +2571,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>605789</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>4363</xdr:rowOff>
     </xdr:to>
@@ -2826,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2841,8 +2920,7 @@
     <col min="16" max="20" width="9.77734375" customWidth="1"/>
     <col min="21" max="21" width="10.77734375" customWidth="1"/>
     <col min="22" max="22" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.77734375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.77734375" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="9.77734375" hidden="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="9.77734375" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="9.88671875" customWidth="1" collapsed="1"/>
     <col min="27" max="72" width="9.77734375" customWidth="1" collapsed="1"/>
@@ -2879,8 +2957,8 @@
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>28</v>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
@@ -2894,853 +2972,837 @@
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="275" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="128" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="130" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="157" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="205" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="207" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="123">
+        <v>0.309</v>
+      </c>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="121">
+      <c r="C3" s="106">
         <v>1</v>
       </c>
-      <c r="D3" s="122">
+      <c r="D3" s="107">
         <v>0</v>
       </c>
-      <c r="E3" s="123">
+      <c r="E3" s="108">
         <v>0</v>
       </c>
-      <c r="F3" s="123">
+      <c r="F3" s="108">
         <v>0</v>
       </c>
-      <c r="G3" s="123">
+      <c r="G3" s="108">
         <v>0</v>
       </c>
-      <c r="H3" s="125">
+      <c r="H3" s="110">
         <v>0</v>
       </c>
-      <c r="I3" s="119">
+      <c r="I3" s="104">
         <v>40</v>
       </c>
-      <c r="J3" s="124">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K3" s="120">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="277">
-        <v>44504</v>
-      </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="12"/>
+      <c r="J3" s="109">
+        <v>0.185</v>
+      </c>
+      <c r="K3" s="105">
+        <v>3.25</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="114">
+        <v>44659</v>
+      </c>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="153">
+      <c r="C4" s="169">
         <f ca="1">TODAY()</f>
-        <v>44505</v>
-      </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="147">
+        <v>44659</v>
+      </c>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="163">
         <f>ROUNDUP((SUM(D3:I3)*J3 +SUM(D3:I3) )*K3,0)</f>
-        <v>119</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="150">
+        <v>155</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="166">
         <f>ROUNDUP((((SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)/2))*J3)+(SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)/2)))*K3,0)</f>
-        <v>119</v>
-      </c>
-      <c r="L4" s="117"/>
-      <c r="M4" s="276"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="L4" s="102"/>
+      <c r="M4" s="113"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="126">
+        <v>4.8</v>
+      </c>
+      <c r="X4" s="126">
+        <v>8.5</v>
+      </c>
       <c r="Y4" s="1"/>
-      <c r="AA4" s="12"/>
+      <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="117"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="32"/>
-      <c r="Y5" s="27"/>
-      <c r="AA5" s="12"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="102"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="127">
+        <v>11.8</v>
+      </c>
+      <c r="X5" s="127">
+        <v>4.8</v>
+      </c>
+      <c r="Y5" s="26"/>
+      <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="117"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="32"/>
-      <c r="Y6" s="27"/>
-      <c r="AA6" s="12"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="102"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="127">
+        <v>12.4</v>
+      </c>
+      <c r="X6" s="127">
+        <v>20.2</v>
+      </c>
+      <c r="Y6" s="26"/>
+      <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="2"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="134"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="12"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="127">
+        <v>15.6</v>
+      </c>
+      <c r="X7" s="127">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="198" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="198" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="186" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="192" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="192" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="132"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="143" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="151"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="128">
+        <v>22.7</v>
+      </c>
+      <c r="X8" s="128">
+        <v>37.9</v>
+      </c>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="D9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="39">
-        <f>I4*1.06</f>
-        <v>126.14</v>
-      </c>
-      <c r="E10" s="39">
-        <f>K4*1.06</f>
-        <v>126.14</v>
-      </c>
-      <c r="F10" s="40">
-        <f>ROUNDUP(PMT(X2/12,6,-D10),0)</f>
+      <c r="C10" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="154">
+        <f>I4-E15</f>
+        <v>155</v>
+      </c>
+      <c r="E10" s="154">
+        <f>K4-E15</f>
+        <v>155</v>
+      </c>
+      <c r="F10" s="37">
+        <f>ROUNDUP(PMT(X2/12,12,-D10),0)</f>
+        <v>16</v>
+      </c>
+      <c r="G10" s="117">
+        <f>ROUNDUP(PMT(X2/12,12,-E10),0)</f>
+        <v>16</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="41">
-        <f>ROUNDUP(PMT(X2/12,6,-E10),0)</f>
-        <v>22</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="39">
-        <f>I4*1.08</f>
-        <v>128.52000000000001</v>
-      </c>
-      <c r="E11" s="39">
-        <f>K4*1.08</f>
-        <v>128.52000000000001</v>
-      </c>
-      <c r="F11" s="40">
-        <f>ROUNDUP(PMT(X2/12,10,-D11),0)</f>
+      <c r="C11" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="40">
-        <f>ROUNDUP(PMT(X2/12,10,-E11),0)</f>
-        <v>14</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="47">
-        <f>I4*1.048</f>
-        <v>124.712</v>
-      </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="47">
-        <f>K4*1.048</f>
-        <v>124.712</v>
-      </c>
-      <c r="L11" s="40">
-        <f>I11*1.072/6</f>
-        <v>22.281877333333338</v>
-      </c>
-      <c r="M11" s="40">
-        <f>K11*1.072/6</f>
-        <v>22.281877333333338</v>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="37">
+        <f>ROUNDUP(PMT(X2/12,18,-D10),0)</f>
+        <v>11</v>
+      </c>
+      <c r="G11" s="37">
+        <f>ROUNDUP(PMT(X2/12,18,-E10),0)</f>
+        <v>11</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="36">
+        <f>ROUNDUP(($I$4-$E$15)/100*(100+W4),0)</f>
+        <v>163</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="36">
+        <f>ROUNDUP(($K$4-$E$15)/100*(100+W4),0)</f>
+        <v>163</v>
+      </c>
+      <c r="L11" s="37">
+        <f>(I11/100*(100+X4))/6</f>
+        <v>29.47583333333333</v>
+      </c>
+      <c r="M11" s="37">
+        <f>(K11/100*(100+X4))/6</f>
+        <v>29.47583333333333</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="39">
-        <f>I4*1.09</f>
-        <v>129.71</v>
-      </c>
-      <c r="E12" s="39">
-        <f>K4*1.09</f>
-        <v>129.71</v>
-      </c>
-      <c r="F12" s="40">
-        <f>ROUNDUP(PMT(X2/12,12,-D12),0)</f>
-        <v>12</v>
-      </c>
-      <c r="G12" s="40">
-        <f>ROUNDUP(PMT(X2/12,12,-E12),0)</f>
-        <v>12</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="47">
-        <f>I4*1.093</f>
-        <v>130.06700000000001</v>
-      </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="47">
-        <f>K4*1.093</f>
-        <v>130.06700000000001</v>
-      </c>
-      <c r="L12" s="40">
-        <f>I12*1.122/12</f>
-        <v>12.161264500000001</v>
-      </c>
-      <c r="M12" s="40">
-        <f>K12*1.122/12</f>
-        <v>12.161264500000001</v>
-      </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="C12" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="37">
+        <f>ROUNDUP(PMT(X2/12,24,-D10),0)</f>
+        <v>9</v>
+      </c>
+      <c r="G12" s="37">
+        <f>ROUNDUP(PMT(X2/12,24,-E10),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="36">
+        <f t="shared" ref="I12:I15" si="0">ROUNDUP(($I$4-$E$15)/100*(100+W5),0)</f>
+        <v>174</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="36">
+        <f t="shared" ref="K12:K15" si="1">ROUNDUP(($K$4-$E$15)/100*(100+W5),0)</f>
+        <v>174</v>
+      </c>
+      <c r="L12" s="37">
+        <f>(I12/100*(100+X5))/12</f>
+        <v>15.196</v>
+      </c>
+      <c r="M12" s="37">
+        <f>(K12/100*(100+X5))/12</f>
+        <v>15.196</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="39">
-        <f>I4*1.1</f>
-        <v>130.9</v>
-      </c>
-      <c r="E13" s="39">
-        <f>K4*1.1</f>
-        <v>130.9</v>
-      </c>
-      <c r="F13" s="40">
-        <f>ROUNDUP(PMT(X2/12,15,-D13),0)</f>
-        <v>10</v>
-      </c>
-      <c r="G13" s="40">
-        <f>ROUNDUP(PMT(X2/12,15,-E13),0)</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="47">
-        <f>I4*1.124</f>
-        <v>133.756</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="47">
-        <f>K4*1.124</f>
-        <v>133.756</v>
-      </c>
-      <c r="L13" s="40">
-        <f>I13*1.173/18</f>
-        <v>8.7164326666666678</v>
-      </c>
-      <c r="M13" s="40">
-        <f>K13*1.173/18</f>
-        <v>8.7164326666666678</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="C13" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="37">
+        <f>ROUNDUP(PMT(X2/12,36,-D10),0)</f>
+        <v>7</v>
+      </c>
+      <c r="G13" s="37">
+        <f>ROUNDUP(PMT(X2/12,36,-E10),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="36">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="36">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="L13" s="37">
+        <f>(I13/100*(100+X6))/18</f>
+        <v>11.68611111111111</v>
+      </c>
+      <c r="M13" s="37">
+        <f>(K13/100*(100+X6))/18</f>
+        <v>11.68611111111111</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="39">
-        <f>I4*1.135</f>
-        <v>135.065</v>
-      </c>
-      <c r="E14" s="39">
-        <f>K4*1.135</f>
-        <v>135.065</v>
-      </c>
-      <c r="F14" s="40">
-        <f>ROUNDUP(PMT(X2/12,18,-D14),0)</f>
-        <v>9</v>
-      </c>
-      <c r="G14" s="40">
-        <f>ROUNDUP(PMT(X2/12,18,-E14),0)</f>
-        <v>9</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="51">
-        <f>I4*1.157</f>
-        <v>137.68299999999999</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="51">
-        <f>K4*1.157</f>
-        <v>137.68299999999999</v>
-      </c>
-      <c r="L14" s="40">
-        <f>I14*1.224/24</f>
-        <v>7.021833</v>
-      </c>
-      <c r="M14" s="40">
-        <f>K14*1.224/24</f>
-        <v>7.021833</v>
+      <c r="C14" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="45">
+        <f>ROUNDUP(PMT(X2/12,48,-D10),0)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="45">
+        <f>ROUNDUP(PMT(X2/12,48,-E10),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="36">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="36">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="L14" s="37">
+        <f>(I14/100*(100+X7))/24</f>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="M14" s="37">
+        <f>(K14/100*(100+X7))/24</f>
+        <v>9.4500000000000011</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="39">
-        <f>I4*1.163</f>
-        <v>138.39699999999999</v>
-      </c>
-      <c r="E15" s="39">
-        <f>K4*1.163</f>
-        <v>138.39699999999999</v>
-      </c>
-      <c r="F15" s="40">
-        <f>ROUNDUP(PMT(X2/12,24,-D15),0)</f>
-        <v>7</v>
-      </c>
-      <c r="G15" s="40">
-        <f>ROUNDUP(PMT(X2/12,24,-E15),0)</f>
-        <v>7</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="56">
-        <f>I4*1.227</f>
-        <v>146.01300000000001</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="56">
-        <f>K4*1.227</f>
-        <v>146.01300000000001</v>
-      </c>
-      <c r="L15" s="54">
-        <f>I15*1.325/36</f>
-        <v>5.3740895833333333</v>
-      </c>
-      <c r="M15" s="54">
-        <f>K15*1.325/36</f>
-        <v>5.3740895833333333</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="C15" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="130"/>
+      <c r="E15" s="133">
+        <v>0</v>
+      </c>
+      <c r="F15" s="134"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="J15" s="47"/>
+      <c r="K15" s="36">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="L15" s="37">
+        <f>(I15/100*(100+X8))/36</f>
+        <v>7.3163611111111111</v>
+      </c>
+      <c r="M15" s="37">
+        <f>(K15/100*(100+X8))/36</f>
+        <v>7.3163611111111111</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="53">
-        <f>I4*1.24</f>
-        <v>147.56</v>
-      </c>
-      <c r="E16" s="53">
-        <f>K4*1.24</f>
-        <v>147.56</v>
-      </c>
-      <c r="F16" s="54">
-        <f>ROUNDUP(PMT(X2/12,36,-D16),0)</f>
-        <v>6</v>
-      </c>
-      <c r="G16" s="54">
-        <f>ROUNDUP(PMT(X2/12,36,-E16),0)</f>
-        <v>6</v>
-      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="121"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="32"/>
-      <c r="Z17" s="12"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="31"/>
+      <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="11"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="10"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="133"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="32"/>
-      <c r="Z18" s="12"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="31"/>
+      <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="177"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="172" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="173"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="192" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="188" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="189"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="32"/>
-      <c r="Z19" s="12"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="31"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="174"/>
-      <c r="M20" s="175"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="197"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="191"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="133"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="32"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="31"/>
       <c r="W20" s="2"/>
-      <c r="Z20" s="12"/>
+      <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="133"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="32"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="185"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="152"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="31"/>
       <c r="W21" s="2"/>
-      <c r="Z21" s="12"/>
+      <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="133"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="32"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="152"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="31"/>
       <c r="W22" s="2"/>
-      <c r="Z22" s="12"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="3"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="133"/>
-      <c r="S23" s="133"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="32"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="31"/>
       <c r="W23" s="2"/>
-      <c r="Z23" s="12"/>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="3"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="133"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="32"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="31"/>
       <c r="W24" s="2"/>
-      <c r="Z24" s="12"/>
+      <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="133"/>
-      <c r="R25" s="133"/>
-      <c r="S25" s="133"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="32"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="31"/>
       <c r="W25" s="2"/>
-      <c r="Z25" s="12"/>
+      <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
@@ -3754,16 +3816,16 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="32"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="31"/>
       <c r="W26" s="2"/>
-      <c r="Z26" s="12"/>
+      <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -3780,16 +3842,16 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="32"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="31"/>
       <c r="W27" s="2"/>
-      <c r="Z27" s="12"/>
+      <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
@@ -3806,16 +3868,16 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="133"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="32"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="31"/>
       <c r="W28" s="2"/>
-      <c r="Z28" s="12"/>
+      <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -3832,16 +3894,16 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="133"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="32"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="31"/>
       <c r="W29" s="2"/>
-      <c r="Z29" s="12"/>
+      <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -3858,16 +3920,16 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="133"/>
-      <c r="R30" s="133"/>
-      <c r="S30" s="133"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="32"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="31"/>
       <c r="W30" s="2"/>
-      <c r="Z30" s="12"/>
+      <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
@@ -3884,16 +3946,16 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="133"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="32"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="31"/>
       <c r="W31" s="2"/>
-      <c r="Z31" s="12"/>
+      <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -3910,16 +3972,16 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="133"/>
-      <c r="S32" s="133"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="32"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="31"/>
       <c r="W32" s="2"/>
-      <c r="Z32" s="12"/>
+      <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
@@ -3936,16 +3998,16 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="32"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="31"/>
       <c r="W33" s="2"/>
-      <c r="Z33" s="12"/>
+      <c r="Z33" s="11"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
@@ -3962,16 +4024,16 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="133"/>
-      <c r="Q34" s="133"/>
-      <c r="R34" s="133"/>
-      <c r="S34" s="133"/>
-      <c r="T34" s="134"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="32"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="152"/>
+      <c r="Q34" s="152"/>
+      <c r="R34" s="152"/>
+      <c r="S34" s="152"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="31"/>
       <c r="W34" s="2"/>
-      <c r="Z34" s="12"/>
+      <c r="Z34" s="11"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -3988,16 +4050,16 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="133"/>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="134"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="32"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="152"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="152"/>
+      <c r="T35" s="153"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="31"/>
       <c r="W35" s="2"/>
-      <c r="Z35" s="12"/>
+      <c r="Z35" s="11"/>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
@@ -4014,16 +4076,16 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="132"/>
-      <c r="P36" s="133"/>
-      <c r="Q36" s="133"/>
-      <c r="R36" s="133"/>
-      <c r="S36" s="133"/>
-      <c r="T36" s="134"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="32"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="152"/>
+      <c r="Q36" s="152"/>
+      <c r="R36" s="152"/>
+      <c r="S36" s="152"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="31"/>
       <c r="W36" s="2"/>
-      <c r="Z36" s="12"/>
+      <c r="Z36" s="11"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
@@ -4040,16 +4102,16 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="133"/>
-      <c r="S37" s="133"/>
-      <c r="T37" s="134"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="32"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="152"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="152"/>
+      <c r="S37" s="152"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="31"/>
       <c r="W37" s="2"/>
-      <c r="Z37" s="12"/>
+      <c r="Z37" s="11"/>
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -4066,16 +4128,16 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="133"/>
-      <c r="Q38" s="133"/>
-      <c r="R38" s="133"/>
-      <c r="S38" s="133"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="32"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="31"/>
       <c r="W38" s="2"/>
-      <c r="Z38" s="12"/>
+      <c r="Z38" s="11"/>
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
@@ -4092,14 +4154,14 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="32"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="153"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="31"/>
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4117,14 +4179,14 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="134"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="32"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="152"/>
+      <c r="Q40" s="152"/>
+      <c r="R40" s="152"/>
+      <c r="S40" s="152"/>
+      <c r="T40" s="153"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="31"/>
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4142,674 +4204,747 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="132"/>
-      <c r="P41" s="133"/>
-      <c r="Q41" s="133"/>
-      <c r="R41" s="133"/>
-      <c r="S41" s="133"/>
-      <c r="T41" s="134"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="32"/>
+      <c r="O41" s="151"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152"/>
+      <c r="R41" s="152"/>
+      <c r="S41" s="152"/>
+      <c r="T41" s="153"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="31"/>
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O42" s="132"/>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="133"/>
-      <c r="R42" s="133"/>
-      <c r="S42" s="133"/>
-      <c r="T42" s="134"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="32"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="152"/>
+      <c r="Q42" s="152"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="152"/>
+      <c r="T42" s="153"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="31"/>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O43" s="132"/>
-      <c r="P43" s="133"/>
-      <c r="Q43" s="133"/>
-      <c r="R43" s="133"/>
-      <c r="S43" s="133"/>
-      <c r="T43" s="134"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="32"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="153"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="31"/>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O44" s="132"/>
-      <c r="P44" s="133"/>
-      <c r="Q44" s="133"/>
-      <c r="R44" s="133"/>
-      <c r="S44" s="133"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="32"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="152"/>
+      <c r="Q44" s="152"/>
+      <c r="R44" s="152"/>
+      <c r="S44" s="152"/>
+      <c r="T44" s="153"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="31"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O45" s="132"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="133"/>
-      <c r="S45" s="133"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="32"/>
+      <c r="O45" s="151"/>
+      <c r="P45" s="152"/>
+      <c r="Q45" s="152"/>
+      <c r="R45" s="152"/>
+      <c r="S45" s="152"/>
+      <c r="T45" s="153"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="31"/>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O46" s="132"/>
-      <c r="P46" s="133"/>
-      <c r="Q46" s="133"/>
-      <c r="R46" s="133"/>
-      <c r="S46" s="133"/>
-      <c r="T46" s="134"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="32"/>
+      <c r="O46" s="151"/>
+      <c r="P46" s="152"/>
+      <c r="Q46" s="152"/>
+      <c r="R46" s="152"/>
+      <c r="S46" s="152"/>
+      <c r="T46" s="153"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="31"/>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O47" s="132"/>
-      <c r="P47" s="133"/>
-      <c r="Q47" s="133"/>
-      <c r="R47" s="133"/>
-      <c r="S47" s="133"/>
-      <c r="T47" s="134"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="32"/>
+      <c r="O47" s="151"/>
+      <c r="P47" s="152"/>
+      <c r="Q47" s="152"/>
+      <c r="R47" s="152"/>
+      <c r="S47" s="152"/>
+      <c r="T47" s="153"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="31"/>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O48" s="132"/>
-      <c r="P48" s="133"/>
-      <c r="Q48" s="133"/>
-      <c r="R48" s="133"/>
-      <c r="S48" s="133"/>
-      <c r="T48" s="134"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="32"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="152"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="152"/>
+      <c r="S48" s="152"/>
+      <c r="T48" s="153"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="31"/>
     </row>
     <row r="49" spans="15:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O49" s="132"/>
-      <c r="P49" s="133"/>
-      <c r="Q49" s="133"/>
-      <c r="R49" s="133"/>
-      <c r="S49" s="133"/>
-      <c r="T49" s="134"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="32"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="152"/>
+      <c r="Q49" s="152"/>
+      <c r="R49" s="152"/>
+      <c r="S49" s="152"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="31"/>
     </row>
     <row r="50" spans="15:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O50" s="132"/>
-      <c r="P50" s="133"/>
-      <c r="Q50" s="133"/>
-      <c r="R50" s="133"/>
-      <c r="S50" s="133"/>
-      <c r="T50" s="134"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="32"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
+      <c r="S50" s="152"/>
+      <c r="T50" s="153"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="31"/>
     </row>
     <row r="51" spans="15:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O51" s="132"/>
-      <c r="P51" s="133"/>
-      <c r="Q51" s="133"/>
-      <c r="R51" s="133"/>
-      <c r="S51" s="133"/>
-      <c r="T51" s="134"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="32"/>
+      <c r="O51" s="151"/>
+      <c r="P51" s="152"/>
+      <c r="Q51" s="152"/>
+      <c r="R51" s="152"/>
+      <c r="S51" s="152"/>
+      <c r="T51" s="153"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="31"/>
     </row>
     <row r="52" spans="15:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O52" s="132"/>
-      <c r="P52" s="133"/>
-      <c r="Q52" s="133"/>
-      <c r="R52" s="133"/>
-      <c r="S52" s="133"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="32"/>
+      <c r="O52" s="151"/>
+      <c r="P52" s="152"/>
+      <c r="Q52" s="152"/>
+      <c r="R52" s="152"/>
+      <c r="S52" s="152"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="31"/>
     </row>
     <row r="53" spans="15:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O53" s="132"/>
-      <c r="P53" s="133"/>
-      <c r="Q53" s="133"/>
-      <c r="R53" s="133"/>
-      <c r="S53" s="133"/>
-      <c r="T53" s="133"/>
-      <c r="U53" s="115"/>
-      <c r="V53" s="116"/>
+      <c r="O53" s="151"/>
+      <c r="P53" s="152"/>
+      <c r="Q53" s="152"/>
+      <c r="R53" s="152"/>
+      <c r="S53" s="152"/>
+      <c r="T53" s="152"/>
+      <c r="U53" s="100"/>
+      <c r="V53" s="101"/>
     </row>
     <row r="54" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O54" s="138"/>
-      <c r="P54" s="139"/>
-      <c r="Q54" s="139"/>
-      <c r="R54" s="139"/>
-      <c r="S54" s="139"/>
-      <c r="T54" s="140"/>
-      <c r="U54" s="114"/>
-      <c r="V54" s="31"/>
+      <c r="O54" s="202"/>
+      <c r="P54" s="203"/>
+      <c r="Q54" s="203"/>
+      <c r="R54" s="203"/>
+      <c r="S54" s="203"/>
+      <c r="T54" s="204"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="30"/>
     </row>
     <row r="55" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O55" s="132"/>
-      <c r="P55" s="133"/>
-      <c r="Q55" s="133"/>
-      <c r="R55" s="133"/>
-      <c r="S55" s="133"/>
-      <c r="T55" s="134"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="32"/>
+      <c r="O55" s="151"/>
+      <c r="P55" s="152"/>
+      <c r="Q55" s="152"/>
+      <c r="R55" s="152"/>
+      <c r="S55" s="152"/>
+      <c r="T55" s="153"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="31"/>
     </row>
     <row r="56" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O56" s="132"/>
-      <c r="P56" s="133"/>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="133"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="134"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="32"/>
+      <c r="O56" s="151"/>
+      <c r="P56" s="152"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152"/>
+      <c r="S56" s="152"/>
+      <c r="T56" s="153"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="31"/>
     </row>
     <row r="57" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O57" s="132"/>
-      <c r="P57" s="133"/>
-      <c r="Q57" s="133"/>
-      <c r="R57" s="133"/>
-      <c r="S57" s="133"/>
-      <c r="T57" s="134"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="32"/>
+      <c r="O57" s="151"/>
+      <c r="P57" s="152"/>
+      <c r="Q57" s="152"/>
+      <c r="R57" s="152"/>
+      <c r="S57" s="152"/>
+      <c r="T57" s="153"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="31"/>
     </row>
     <row r="58" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O58" s="132"/>
-      <c r="P58" s="133"/>
-      <c r="Q58" s="133"/>
-      <c r="R58" s="133"/>
-      <c r="S58" s="133"/>
-      <c r="T58" s="134"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="32"/>
+      <c r="O58" s="151"/>
+      <c r="P58" s="152"/>
+      <c r="Q58" s="152"/>
+      <c r="R58" s="152"/>
+      <c r="S58" s="152"/>
+      <c r="T58" s="153"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="31"/>
     </row>
     <row r="59" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O59" s="132"/>
-      <c r="P59" s="133"/>
-      <c r="Q59" s="133"/>
-      <c r="R59" s="133"/>
-      <c r="S59" s="133"/>
-      <c r="T59" s="134"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="32"/>
+      <c r="O59" s="151"/>
+      <c r="P59" s="152"/>
+      <c r="Q59" s="152"/>
+      <c r="R59" s="152"/>
+      <c r="S59" s="152"/>
+      <c r="T59" s="153"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="31"/>
     </row>
     <row r="60" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O60" s="132"/>
-      <c r="P60" s="133"/>
-      <c r="Q60" s="133"/>
-      <c r="R60" s="133"/>
-      <c r="S60" s="133"/>
-      <c r="T60" s="134"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="32"/>
+      <c r="O60" s="151"/>
+      <c r="P60" s="152"/>
+      <c r="Q60" s="152"/>
+      <c r="R60" s="152"/>
+      <c r="S60" s="152"/>
+      <c r="T60" s="153"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="31"/>
     </row>
     <row r="61" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O61" s="132"/>
-      <c r="P61" s="133"/>
-      <c r="Q61" s="133"/>
-      <c r="R61" s="133"/>
-      <c r="S61" s="133"/>
-      <c r="T61" s="134"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="32"/>
+      <c r="O61" s="151"/>
+      <c r="P61" s="152"/>
+      <c r="Q61" s="152"/>
+      <c r="R61" s="152"/>
+      <c r="S61" s="152"/>
+      <c r="T61" s="153"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="31"/>
     </row>
     <row r="62" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O62" s="132"/>
-      <c r="P62" s="133"/>
-      <c r="Q62" s="133"/>
-      <c r="R62" s="133"/>
-      <c r="S62" s="133"/>
-      <c r="T62" s="134"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="32"/>
+      <c r="O62" s="151"/>
+      <c r="P62" s="152"/>
+      <c r="Q62" s="152"/>
+      <c r="R62" s="152"/>
+      <c r="S62" s="152"/>
+      <c r="T62" s="153"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="31"/>
     </row>
     <row r="63" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O63" s="132"/>
-      <c r="P63" s="133"/>
-      <c r="Q63" s="133"/>
-      <c r="R63" s="133"/>
-      <c r="S63" s="133"/>
-      <c r="T63" s="134"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="32"/>
+      <c r="O63" s="151"/>
+      <c r="P63" s="152"/>
+      <c r="Q63" s="152"/>
+      <c r="R63" s="152"/>
+      <c r="S63" s="152"/>
+      <c r="T63" s="153"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="31"/>
     </row>
     <row r="64" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O64" s="132"/>
-      <c r="P64" s="133"/>
-      <c r="Q64" s="133"/>
-      <c r="R64" s="133"/>
-      <c r="S64" s="133"/>
-      <c r="T64" s="134"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="32"/>
+      <c r="O64" s="151"/>
+      <c r="P64" s="152"/>
+      <c r="Q64" s="152"/>
+      <c r="R64" s="152"/>
+      <c r="S64" s="152"/>
+      <c r="T64" s="153"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="31"/>
     </row>
     <row r="65" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O65" s="132"/>
-      <c r="P65" s="133"/>
-      <c r="Q65" s="133"/>
-      <c r="R65" s="133"/>
-      <c r="S65" s="133"/>
-      <c r="T65" s="134"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="32"/>
+      <c r="O65" s="151"/>
+      <c r="P65" s="152"/>
+      <c r="Q65" s="152"/>
+      <c r="R65" s="152"/>
+      <c r="S65" s="152"/>
+      <c r="T65" s="153"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="31"/>
     </row>
     <row r="66" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O66" s="132"/>
-      <c r="P66" s="133"/>
-      <c r="Q66" s="133"/>
-      <c r="R66" s="133"/>
-      <c r="S66" s="133"/>
-      <c r="T66" s="134"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="32"/>
+      <c r="O66" s="151"/>
+      <c r="P66" s="152"/>
+      <c r="Q66" s="152"/>
+      <c r="R66" s="152"/>
+      <c r="S66" s="152"/>
+      <c r="T66" s="153"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="31"/>
     </row>
     <row r="67" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O67" s="132"/>
-      <c r="P67" s="133"/>
-      <c r="Q67" s="133"/>
-      <c r="R67" s="133"/>
-      <c r="S67" s="133"/>
-      <c r="T67" s="134"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="32"/>
+      <c r="O67" s="151"/>
+      <c r="P67" s="152"/>
+      <c r="Q67" s="152"/>
+      <c r="R67" s="152"/>
+      <c r="S67" s="152"/>
+      <c r="T67" s="153"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="31"/>
     </row>
     <row r="68" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O68" s="132"/>
-      <c r="P68" s="133"/>
-      <c r="Q68" s="133"/>
-      <c r="R68" s="133"/>
-      <c r="S68" s="133"/>
-      <c r="T68" s="134"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="32"/>
+      <c r="O68" s="151"/>
+      <c r="P68" s="152"/>
+      <c r="Q68" s="152"/>
+      <c r="R68" s="152"/>
+      <c r="S68" s="152"/>
+      <c r="T68" s="153"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="31"/>
     </row>
     <row r="69" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O69" s="132"/>
-      <c r="P69" s="133"/>
-      <c r="Q69" s="133"/>
-      <c r="R69" s="133"/>
-      <c r="S69" s="133"/>
-      <c r="T69" s="134"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="32"/>
+      <c r="O69" s="151"/>
+      <c r="P69" s="152"/>
+      <c r="Q69" s="152"/>
+      <c r="R69" s="152"/>
+      <c r="S69" s="152"/>
+      <c r="T69" s="153"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="31"/>
     </row>
     <row r="70" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O70" s="132"/>
-      <c r="P70" s="133"/>
-      <c r="Q70" s="133"/>
-      <c r="R70" s="133"/>
-      <c r="S70" s="133"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="32"/>
+      <c r="O70" s="151"/>
+      <c r="P70" s="152"/>
+      <c r="Q70" s="152"/>
+      <c r="R70" s="152"/>
+      <c r="S70" s="152"/>
+      <c r="T70" s="153"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="31"/>
     </row>
     <row r="71" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O71" s="132"/>
-      <c r="P71" s="133"/>
-      <c r="Q71" s="133"/>
-      <c r="R71" s="133"/>
-      <c r="S71" s="133"/>
-      <c r="T71" s="134"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="32"/>
+      <c r="O71" s="151"/>
+      <c r="P71" s="152"/>
+      <c r="Q71" s="152"/>
+      <c r="R71" s="152"/>
+      <c r="S71" s="152"/>
+      <c r="T71" s="153"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="31"/>
     </row>
     <row r="72" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O72" s="132"/>
-      <c r="P72" s="133"/>
-      <c r="Q72" s="133"/>
-      <c r="R72" s="133"/>
-      <c r="S72" s="133"/>
-      <c r="T72" s="134"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="32"/>
+      <c r="O72" s="151"/>
+      <c r="P72" s="152"/>
+      <c r="Q72" s="152"/>
+      <c r="R72" s="152"/>
+      <c r="S72" s="152"/>
+      <c r="T72" s="153"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="31"/>
     </row>
     <row r="73" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O73" s="132"/>
-      <c r="P73" s="133"/>
-      <c r="Q73" s="133"/>
-      <c r="R73" s="133"/>
-      <c r="S73" s="133"/>
-      <c r="T73" s="134"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="32"/>
+      <c r="O73" s="151"/>
+      <c r="P73" s="152"/>
+      <c r="Q73" s="152"/>
+      <c r="R73" s="152"/>
+      <c r="S73" s="152"/>
+      <c r="T73" s="153"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="31"/>
     </row>
     <row r="74" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O74" s="132"/>
-      <c r="P74" s="133"/>
-      <c r="Q74" s="133"/>
-      <c r="R74" s="133"/>
-      <c r="S74" s="133"/>
-      <c r="T74" s="134"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="32"/>
+      <c r="O74" s="151"/>
+      <c r="P74" s="152"/>
+      <c r="Q74" s="152"/>
+      <c r="R74" s="152"/>
+      <c r="S74" s="152"/>
+      <c r="T74" s="153"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="31"/>
     </row>
     <row r="75" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O75" s="132"/>
-      <c r="P75" s="133"/>
-      <c r="Q75" s="133"/>
-      <c r="R75" s="133"/>
-      <c r="S75" s="133"/>
-      <c r="T75" s="134"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="32"/>
+      <c r="O75" s="151"/>
+      <c r="P75" s="152"/>
+      <c r="Q75" s="152"/>
+      <c r="R75" s="152"/>
+      <c r="S75" s="152"/>
+      <c r="T75" s="153"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="31"/>
     </row>
     <row r="76" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O76" s="132"/>
-      <c r="P76" s="133"/>
-      <c r="Q76" s="133"/>
-      <c r="R76" s="133"/>
-      <c r="S76" s="133"/>
-      <c r="T76" s="134"/>
-      <c r="U76" s="29"/>
-      <c r="V76" s="32"/>
+      <c r="O76" s="151"/>
+      <c r="P76" s="152"/>
+      <c r="Q76" s="152"/>
+      <c r="R76" s="152"/>
+      <c r="S76" s="152"/>
+      <c r="T76" s="153"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="31"/>
     </row>
     <row r="77" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O77" s="132"/>
-      <c r="P77" s="133"/>
-      <c r="Q77" s="133"/>
-      <c r="R77" s="133"/>
-      <c r="S77" s="133"/>
-      <c r="T77" s="134"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="32"/>
+      <c r="O77" s="151"/>
+      <c r="P77" s="152"/>
+      <c r="Q77" s="152"/>
+      <c r="R77" s="152"/>
+      <c r="S77" s="152"/>
+      <c r="T77" s="153"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="31"/>
     </row>
     <row r="78" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O78" s="132"/>
-      <c r="P78" s="133"/>
-      <c r="Q78" s="133"/>
-      <c r="R78" s="133"/>
-      <c r="S78" s="133"/>
-      <c r="T78" s="134"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="32"/>
+      <c r="O78" s="151"/>
+      <c r="P78" s="152"/>
+      <c r="Q78" s="152"/>
+      <c r="R78" s="152"/>
+      <c r="S78" s="152"/>
+      <c r="T78" s="153"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="31"/>
     </row>
     <row r="79" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O79" s="132"/>
-      <c r="P79" s="133"/>
-      <c r="Q79" s="133"/>
-      <c r="R79" s="133"/>
-      <c r="S79" s="133"/>
-      <c r="T79" s="134"/>
-      <c r="U79" s="29"/>
-      <c r="V79" s="32"/>
+      <c r="O79" s="151"/>
+      <c r="P79" s="152"/>
+      <c r="Q79" s="152"/>
+      <c r="R79" s="152"/>
+      <c r="S79" s="152"/>
+      <c r="T79" s="153"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="31"/>
     </row>
     <row r="80" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O80" s="132"/>
-      <c r="P80" s="133"/>
-      <c r="Q80" s="133"/>
-      <c r="R80" s="133"/>
-      <c r="S80" s="133"/>
-      <c r="T80" s="134"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="32"/>
+      <c r="O80" s="151"/>
+      <c r="P80" s="152"/>
+      <c r="Q80" s="152"/>
+      <c r="R80" s="152"/>
+      <c r="S80" s="152"/>
+      <c r="T80" s="153"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="31"/>
     </row>
     <row r="81" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O81" s="132"/>
-      <c r="P81" s="133"/>
-      <c r="Q81" s="133"/>
-      <c r="R81" s="133"/>
-      <c r="S81" s="133"/>
-      <c r="T81" s="134"/>
-      <c r="U81" s="29"/>
-      <c r="V81" s="32"/>
+      <c r="O81" s="151"/>
+      <c r="P81" s="152"/>
+      <c r="Q81" s="152"/>
+      <c r="R81" s="152"/>
+      <c r="S81" s="152"/>
+      <c r="T81" s="153"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="31"/>
     </row>
     <row r="82" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O82" s="132"/>
-      <c r="P82" s="133"/>
-      <c r="Q82" s="133"/>
-      <c r="R82" s="133"/>
-      <c r="S82" s="133"/>
-      <c r="T82" s="134"/>
-      <c r="U82" s="29"/>
-      <c r="V82" s="32"/>
+      <c r="O82" s="151"/>
+      <c r="P82" s="152"/>
+      <c r="Q82" s="152"/>
+      <c r="R82" s="152"/>
+      <c r="S82" s="152"/>
+      <c r="T82" s="153"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="31"/>
     </row>
     <row r="83" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O83" s="132"/>
-      <c r="P83" s="133"/>
-      <c r="Q83" s="133"/>
-      <c r="R83" s="133"/>
-      <c r="S83" s="133"/>
-      <c r="T83" s="134"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="32"/>
+      <c r="O83" s="151"/>
+      <c r="P83" s="152"/>
+      <c r="Q83" s="152"/>
+      <c r="R83" s="152"/>
+      <c r="S83" s="152"/>
+      <c r="T83" s="153"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="31"/>
     </row>
     <row r="84" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O84" s="132"/>
-      <c r="P84" s="133"/>
-      <c r="Q84" s="133"/>
-      <c r="R84" s="133"/>
-      <c r="S84" s="133"/>
-      <c r="T84" s="134"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="32"/>
+      <c r="O84" s="151"/>
+      <c r="P84" s="152"/>
+      <c r="Q84" s="152"/>
+      <c r="R84" s="152"/>
+      <c r="S84" s="152"/>
+      <c r="T84" s="153"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="31"/>
     </row>
     <row r="85" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O85" s="132"/>
-      <c r="P85" s="133"/>
-      <c r="Q85" s="133"/>
-      <c r="R85" s="133"/>
-      <c r="S85" s="133"/>
-      <c r="T85" s="134"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="32"/>
+      <c r="O85" s="151"/>
+      <c r="P85" s="152"/>
+      <c r="Q85" s="152"/>
+      <c r="R85" s="152"/>
+      <c r="S85" s="152"/>
+      <c r="T85" s="153"/>
+      <c r="U85" s="28"/>
+      <c r="V85" s="31"/>
     </row>
     <row r="86" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O86" s="132"/>
-      <c r="P86" s="133"/>
-      <c r="Q86" s="133"/>
-      <c r="R86" s="133"/>
-      <c r="S86" s="133"/>
-      <c r="T86" s="134"/>
-      <c r="U86" s="29"/>
-      <c r="V86" s="32"/>
+      <c r="O86" s="151"/>
+      <c r="P86" s="152"/>
+      <c r="Q86" s="152"/>
+      <c r="R86" s="152"/>
+      <c r="S86" s="152"/>
+      <c r="T86" s="153"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="31"/>
     </row>
     <row r="87" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O87" s="132"/>
-      <c r="P87" s="133"/>
-      <c r="Q87" s="133"/>
-      <c r="R87" s="133"/>
-      <c r="S87" s="133"/>
-      <c r="T87" s="134"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="32"/>
+      <c r="O87" s="151"/>
+      <c r="P87" s="152"/>
+      <c r="Q87" s="152"/>
+      <c r="R87" s="152"/>
+      <c r="S87" s="152"/>
+      <c r="T87" s="153"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="31"/>
     </row>
     <row r="88" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O88" s="132"/>
-      <c r="P88" s="133"/>
-      <c r="Q88" s="133"/>
-      <c r="R88" s="133"/>
-      <c r="S88" s="133"/>
-      <c r="T88" s="134"/>
-      <c r="U88" s="29"/>
-      <c r="V88" s="32"/>
+      <c r="O88" s="151"/>
+      <c r="P88" s="152"/>
+      <c r="Q88" s="152"/>
+      <c r="R88" s="152"/>
+      <c r="S88" s="152"/>
+      <c r="T88" s="153"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="31"/>
     </row>
     <row r="89" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O89" s="132"/>
-      <c r="P89" s="133"/>
-      <c r="Q89" s="133"/>
-      <c r="R89" s="133"/>
-      <c r="S89" s="133"/>
-      <c r="T89" s="134"/>
-      <c r="U89" s="29"/>
-      <c r="V89" s="32"/>
+      <c r="O89" s="151"/>
+      <c r="P89" s="152"/>
+      <c r="Q89" s="152"/>
+      <c r="R89" s="152"/>
+      <c r="S89" s="152"/>
+      <c r="T89" s="153"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="31"/>
     </row>
     <row r="90" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O90" s="132"/>
-      <c r="P90" s="133"/>
-      <c r="Q90" s="133"/>
-      <c r="R90" s="133"/>
-      <c r="S90" s="133"/>
-      <c r="T90" s="134"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="32"/>
+      <c r="O90" s="151"/>
+      <c r="P90" s="152"/>
+      <c r="Q90" s="152"/>
+      <c r="R90" s="152"/>
+      <c r="S90" s="152"/>
+      <c r="T90" s="153"/>
+      <c r="U90" s="28"/>
+      <c r="V90" s="31"/>
     </row>
     <row r="91" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O91" s="132"/>
-      <c r="P91" s="133"/>
-      <c r="Q91" s="133"/>
-      <c r="R91" s="133"/>
-      <c r="S91" s="133"/>
-      <c r="T91" s="134"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="32"/>
+      <c r="O91" s="151"/>
+      <c r="P91" s="152"/>
+      <c r="Q91" s="152"/>
+      <c r="R91" s="152"/>
+      <c r="S91" s="152"/>
+      <c r="T91" s="153"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="31"/>
     </row>
     <row r="92" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O92" s="132"/>
-      <c r="P92" s="133"/>
-      <c r="Q92" s="133"/>
-      <c r="R92" s="133"/>
-      <c r="S92" s="133"/>
-      <c r="T92" s="134"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="32"/>
+      <c r="O92" s="151"/>
+      <c r="P92" s="152"/>
+      <c r="Q92" s="152"/>
+      <c r="R92" s="152"/>
+      <c r="S92" s="152"/>
+      <c r="T92" s="153"/>
+      <c r="U92" s="28"/>
+      <c r="V92" s="31"/>
     </row>
     <row r="93" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O93" s="132"/>
-      <c r="P93" s="133"/>
-      <c r="Q93" s="133"/>
-      <c r="R93" s="133"/>
-      <c r="S93" s="133"/>
-      <c r="T93" s="134"/>
-      <c r="U93" s="29"/>
-      <c r="V93" s="32"/>
+      <c r="O93" s="151"/>
+      <c r="P93" s="152"/>
+      <c r="Q93" s="152"/>
+      <c r="R93" s="152"/>
+      <c r="S93" s="152"/>
+      <c r="T93" s="153"/>
+      <c r="U93" s="28"/>
+      <c r="V93" s="31"/>
     </row>
     <row r="94" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O94" s="132"/>
-      <c r="P94" s="133"/>
-      <c r="Q94" s="133"/>
-      <c r="R94" s="133"/>
-      <c r="S94" s="133"/>
-      <c r="T94" s="134"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="32"/>
+      <c r="O94" s="151"/>
+      <c r="P94" s="152"/>
+      <c r="Q94" s="152"/>
+      <c r="R94" s="152"/>
+      <c r="S94" s="152"/>
+      <c r="T94" s="153"/>
+      <c r="U94" s="28"/>
+      <c r="V94" s="31"/>
     </row>
     <row r="95" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O95" s="132"/>
-      <c r="P95" s="133"/>
-      <c r="Q95" s="133"/>
-      <c r="R95" s="133"/>
-      <c r="S95" s="133"/>
-      <c r="T95" s="134"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="32"/>
+      <c r="O95" s="151"/>
+      <c r="P95" s="152"/>
+      <c r="Q95" s="152"/>
+      <c r="R95" s="152"/>
+      <c r="S95" s="152"/>
+      <c r="T95" s="153"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="31"/>
     </row>
     <row r="96" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O96" s="132"/>
-      <c r="P96" s="133"/>
-      <c r="Q96" s="133"/>
-      <c r="R96" s="133"/>
-      <c r="S96" s="133"/>
-      <c r="T96" s="134"/>
-      <c r="U96" s="29"/>
-      <c r="V96" s="32"/>
+      <c r="O96" s="151"/>
+      <c r="P96" s="152"/>
+      <c r="Q96" s="152"/>
+      <c r="R96" s="152"/>
+      <c r="S96" s="152"/>
+      <c r="T96" s="153"/>
+      <c r="U96" s="28"/>
+      <c r="V96" s="31"/>
     </row>
     <row r="97" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O97" s="132"/>
-      <c r="P97" s="133"/>
-      <c r="Q97" s="133"/>
-      <c r="R97" s="133"/>
-      <c r="S97" s="133"/>
-      <c r="T97" s="134"/>
-      <c r="U97" s="29"/>
-      <c r="V97" s="32"/>
+      <c r="O97" s="151"/>
+      <c r="P97" s="152"/>
+      <c r="Q97" s="152"/>
+      <c r="R97" s="152"/>
+      <c r="S97" s="152"/>
+      <c r="T97" s="153"/>
+      <c r="U97" s="28"/>
+      <c r="V97" s="31"/>
     </row>
     <row r="98" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O98" s="132"/>
-      <c r="P98" s="133"/>
-      <c r="Q98" s="133"/>
-      <c r="R98" s="133"/>
-      <c r="S98" s="133"/>
-      <c r="T98" s="134"/>
-      <c r="U98" s="29"/>
-      <c r="V98" s="32"/>
+      <c r="O98" s="151"/>
+      <c r="P98" s="152"/>
+      <c r="Q98" s="152"/>
+      <c r="R98" s="152"/>
+      <c r="S98" s="152"/>
+      <c r="T98" s="153"/>
+      <c r="U98" s="28"/>
+      <c r="V98" s="31"/>
     </row>
     <row r="99" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O99" s="132"/>
-      <c r="P99" s="133"/>
-      <c r="Q99" s="133"/>
-      <c r="R99" s="133"/>
-      <c r="S99" s="133"/>
-      <c r="T99" s="134"/>
-      <c r="U99" s="29"/>
-      <c r="V99" s="32"/>
+      <c r="O99" s="151"/>
+      <c r="P99" s="152"/>
+      <c r="Q99" s="152"/>
+      <c r="R99" s="152"/>
+      <c r="S99" s="152"/>
+      <c r="T99" s="153"/>
+      <c r="U99" s="28"/>
+      <c r="V99" s="31"/>
     </row>
     <row r="100" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O100" s="132"/>
-      <c r="P100" s="133"/>
-      <c r="Q100" s="133"/>
-      <c r="R100" s="133"/>
-      <c r="S100" s="133"/>
-      <c r="T100" s="134"/>
-      <c r="U100" s="29"/>
-      <c r="V100" s="32"/>
+      <c r="O100" s="151"/>
+      <c r="P100" s="152"/>
+      <c r="Q100" s="152"/>
+      <c r="R100" s="152"/>
+      <c r="S100" s="152"/>
+      <c r="T100" s="153"/>
+      <c r="U100" s="28"/>
+      <c r="V100" s="31"/>
     </row>
     <row r="101" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O101" s="132"/>
-      <c r="P101" s="133"/>
-      <c r="Q101" s="133"/>
-      <c r="R101" s="133"/>
-      <c r="S101" s="133"/>
-      <c r="T101" s="134"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="32"/>
+      <c r="O101" s="151"/>
+      <c r="P101" s="152"/>
+      <c r="Q101" s="152"/>
+      <c r="R101" s="152"/>
+      <c r="S101" s="152"/>
+      <c r="T101" s="153"/>
+      <c r="U101" s="28"/>
+      <c r="V101" s="31"/>
     </row>
     <row r="102" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O102" s="132"/>
-      <c r="P102" s="133"/>
-      <c r="Q102" s="133"/>
-      <c r="R102" s="133"/>
-      <c r="S102" s="133"/>
-      <c r="T102" s="134"/>
-      <c r="U102" s="29"/>
-      <c r="V102" s="32"/>
+      <c r="O102" s="151"/>
+      <c r="P102" s="152"/>
+      <c r="Q102" s="152"/>
+      <c r="R102" s="152"/>
+      <c r="S102" s="152"/>
+      <c r="T102" s="153"/>
+      <c r="U102" s="28"/>
+      <c r="V102" s="31"/>
     </row>
     <row r="103" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O103" s="132"/>
-      <c r="P103" s="133"/>
-      <c r="Q103" s="133"/>
-      <c r="R103" s="133"/>
-      <c r="S103" s="133"/>
-      <c r="T103" s="134"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="32"/>
+      <c r="O103" s="151"/>
+      <c r="P103" s="152"/>
+      <c r="Q103" s="152"/>
+      <c r="R103" s="152"/>
+      <c r="S103" s="152"/>
+      <c r="T103" s="153"/>
+      <c r="U103" s="28"/>
+      <c r="V103" s="31"/>
     </row>
     <row r="104" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O104" s="132"/>
-      <c r="P104" s="133"/>
-      <c r="Q104" s="133"/>
-      <c r="R104" s="133"/>
-      <c r="S104" s="133"/>
-      <c r="T104" s="134"/>
-      <c r="U104" s="29"/>
-      <c r="V104" s="32"/>
+      <c r="O104" s="151"/>
+      <c r="P104" s="152"/>
+      <c r="Q104" s="152"/>
+      <c r="R104" s="152"/>
+      <c r="S104" s="152"/>
+      <c r="T104" s="153"/>
+      <c r="U104" s="28"/>
+      <c r="V104" s="31"/>
     </row>
     <row r="105" spans="15:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O105" s="135"/>
-      <c r="P105" s="136"/>
-      <c r="Q105" s="136"/>
-      <c r="R105" s="136"/>
-      <c r="S105" s="136"/>
-      <c r="T105" s="137"/>
-      <c r="U105" s="30"/>
-      <c r="V105" s="33"/>
+      <c r="O105" s="209"/>
+      <c r="P105" s="210"/>
+      <c r="Q105" s="210"/>
+      <c r="R105" s="210"/>
+      <c r="S105" s="210"/>
+      <c r="T105" s="211"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="32"/>
     </row>
   </sheetData>
   <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="I7:J7 H9:J9 Y6 K3 I6 K7:K9 E6:F7 G7 K6 E3:I3" name="Диапазон1_1_2_1"/>
+    <protectedRange sqref="I7:J7 H9:J9 Y6 K3 I6 E6:F7 G7 K6:K9 E3:I3" name="Диапазон1_1_2_1"/>
   </protectedRanges>
-  <mergeCells count="121">
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O10:T10"/>
+  <mergeCells count="125">
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="O104:T104"/>
+    <mergeCell ref="O105:T105"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="O100:T100"/>
+    <mergeCell ref="O101:T101"/>
+    <mergeCell ref="O102:T102"/>
+    <mergeCell ref="O103:T103"/>
+    <mergeCell ref="O94:T94"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="O96:T96"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="O98:T98"/>
+    <mergeCell ref="O89:T89"/>
+    <mergeCell ref="O90:T90"/>
+    <mergeCell ref="O91:T91"/>
+    <mergeCell ref="O92:T92"/>
+    <mergeCell ref="O93:T93"/>
+    <mergeCell ref="O84:T84"/>
+    <mergeCell ref="O85:T85"/>
+    <mergeCell ref="O86:T86"/>
+    <mergeCell ref="O87:T87"/>
+    <mergeCell ref="O88:T88"/>
+    <mergeCell ref="O79:T79"/>
+    <mergeCell ref="O80:T80"/>
+    <mergeCell ref="O81:T81"/>
+    <mergeCell ref="O82:T82"/>
+    <mergeCell ref="O83:T83"/>
+    <mergeCell ref="O74:T74"/>
+    <mergeCell ref="O75:T75"/>
+    <mergeCell ref="O76:T76"/>
+    <mergeCell ref="O77:T77"/>
+    <mergeCell ref="O78:T78"/>
+    <mergeCell ref="O69:T69"/>
+    <mergeCell ref="O70:T70"/>
+    <mergeCell ref="O71:T71"/>
+    <mergeCell ref="O72:T72"/>
+    <mergeCell ref="O73:T73"/>
+    <mergeCell ref="O64:T64"/>
+    <mergeCell ref="O65:T65"/>
+    <mergeCell ref="O66:T66"/>
+    <mergeCell ref="O67:T67"/>
+    <mergeCell ref="O68:T68"/>
+    <mergeCell ref="O59:T59"/>
+    <mergeCell ref="O60:T60"/>
+    <mergeCell ref="O61:T61"/>
+    <mergeCell ref="O62:T62"/>
+    <mergeCell ref="O63:T63"/>
+    <mergeCell ref="O54:T54"/>
+    <mergeCell ref="O55:T55"/>
+    <mergeCell ref="O56:T56"/>
+    <mergeCell ref="O57:T57"/>
+    <mergeCell ref="O58:T58"/>
+    <mergeCell ref="O44:T44"/>
+    <mergeCell ref="O45:T45"/>
+    <mergeCell ref="O46:T46"/>
+    <mergeCell ref="O47:T47"/>
+    <mergeCell ref="O53:T53"/>
+    <mergeCell ref="O48:T48"/>
+    <mergeCell ref="O49:T49"/>
+    <mergeCell ref="O50:T50"/>
+    <mergeCell ref="O51:T51"/>
+    <mergeCell ref="O52:T52"/>
+    <mergeCell ref="O39:T39"/>
+    <mergeCell ref="O40:T40"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O42:T42"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O37:T37"/>
+    <mergeCell ref="O38:T38"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O33:T33"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="O28:T28"/>
     <mergeCell ref="O2:T3"/>
     <mergeCell ref="O17:T17"/>
     <mergeCell ref="O18:T18"/>
@@ -4834,91 +4969,22 @@
     <mergeCell ref="C17:E18"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="O16:T16"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="O30:T30"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O33:T33"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="O27:T27"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="O39:T39"/>
-    <mergeCell ref="O40:T40"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O42:T42"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="O34:T34"/>
-    <mergeCell ref="O35:T35"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O37:T37"/>
-    <mergeCell ref="O38:T38"/>
-    <mergeCell ref="O44:T44"/>
-    <mergeCell ref="O45:T45"/>
-    <mergeCell ref="O46:T46"/>
-    <mergeCell ref="O47:T47"/>
-    <mergeCell ref="O53:T53"/>
-    <mergeCell ref="O48:T48"/>
-    <mergeCell ref="O49:T49"/>
-    <mergeCell ref="O50:T50"/>
-    <mergeCell ref="O51:T51"/>
-    <mergeCell ref="O52:T52"/>
-    <mergeCell ref="O59:T59"/>
-    <mergeCell ref="O60:T60"/>
-    <mergeCell ref="O61:T61"/>
-    <mergeCell ref="O62:T62"/>
-    <mergeCell ref="O63:T63"/>
-    <mergeCell ref="O54:T54"/>
-    <mergeCell ref="O55:T55"/>
-    <mergeCell ref="O56:T56"/>
-    <mergeCell ref="O57:T57"/>
-    <mergeCell ref="O58:T58"/>
-    <mergeCell ref="O69:T69"/>
-    <mergeCell ref="O70:T70"/>
-    <mergeCell ref="O71:T71"/>
-    <mergeCell ref="O72:T72"/>
-    <mergeCell ref="O73:T73"/>
-    <mergeCell ref="O64:T64"/>
-    <mergeCell ref="O65:T65"/>
-    <mergeCell ref="O66:T66"/>
-    <mergeCell ref="O67:T67"/>
-    <mergeCell ref="O68:T68"/>
-    <mergeCell ref="O79:T79"/>
-    <mergeCell ref="O80:T80"/>
-    <mergeCell ref="O81:T81"/>
-    <mergeCell ref="O82:T82"/>
-    <mergeCell ref="O83:T83"/>
-    <mergeCell ref="O74:T74"/>
-    <mergeCell ref="O75:T75"/>
-    <mergeCell ref="O76:T76"/>
-    <mergeCell ref="O77:T77"/>
-    <mergeCell ref="O78:T78"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="O104:T104"/>
-    <mergeCell ref="O105:T105"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="O100:T100"/>
-    <mergeCell ref="O101:T101"/>
-    <mergeCell ref="O102:T102"/>
-    <mergeCell ref="O103:T103"/>
-    <mergeCell ref="O94:T94"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="O96:T96"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="O98:T98"/>
-    <mergeCell ref="O89:T89"/>
-    <mergeCell ref="O90:T90"/>
-    <mergeCell ref="O91:T91"/>
-    <mergeCell ref="O92:T92"/>
-    <mergeCell ref="O93:T93"/>
-    <mergeCell ref="O84:T84"/>
-    <mergeCell ref="O85:T85"/>
-    <mergeCell ref="O86:T86"/>
-    <mergeCell ref="O87:T87"/>
-    <mergeCell ref="O88:T88"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="360" r:id="rId1"/>
@@ -4931,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT326"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4945,49 +5011,49 @@
     <col min="15" max="15" width="9.77734375" customWidth="1" collapsed="1"/>
     <col min="16" max="20" width="9.77734375" customWidth="1"/>
     <col min="21" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.77734375" hidden="1" customWidth="1" collapsed="1"/>
     <col min="23" max="25" width="9.77734375" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="9.88671875" customWidth="1" collapsed="1"/>
     <col min="27" max="72" width="9.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -5008,13 +5074,13 @@
       <c r="BC1" s="3"/>
     </row>
     <row r="2" spans="1:55" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>28</v>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
@@ -5028,50 +5094,50 @@
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="25" t="s">
+      <c r="J2" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="118" t="s">
+      <c r="M2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="109"/>
-      <c r="O2" s="261" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="267" t="s">
+      <c r="N2" s="94"/>
+      <c r="O2" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="253" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="246"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="223" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="242" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
@@ -5092,74 +5158,74 @@
       <c r="BC2" s="3"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="270">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="226">
         <v>1</v>
       </c>
-      <c r="D3" s="256">
+      <c r="D3" s="212">
         <f>НалБанки!D3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="256">
+      <c r="E3" s="212">
         <f>НалБанки!E3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="256">
+      <c r="F3" s="212">
         <f>НалБанки!F3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="256">
+      <c r="G3" s="212">
         <f>НалБанки!G3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="256">
+      <c r="H3" s="212">
         <f>НалБанки!H3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="258">
+      <c r="I3" s="214">
         <f>НалБанки!I3</f>
         <v>40</v>
       </c>
-      <c r="J3" s="105">
+      <c r="J3" s="90">
         <f>ROUNDUP((SUM(D3:I4)*L3+SUM(D3:G4,I3)*20%+SUM(D3:I4))*M3,0)</f>
-        <v>134</v>
-      </c>
-      <c r="K3" s="107">
+        <v>170</v>
+      </c>
+      <c r="K3" s="92">
         <f>ROUNDUP(((SUM(D3:F4,H3:I4)+(SUM(G3:G4)/2))*L3+((SUM(D3:F4,I3)+SUM(G3:G4)/2)*20%+(SUM(D3:F4,H3:I4)+SUM(G3:G4)/2)))*M3,0)</f>
-        <v>134</v>
-      </c>
-      <c r="L3" s="247">
+        <v>170</v>
+      </c>
+      <c r="L3" s="236">
         <f>8/92*1.2</f>
         <v>0.10434782608695652</v>
       </c>
-      <c r="M3" s="249">
+      <c r="M3" s="238">
         <f>НалБанки!K3</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="268"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="246"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
+        <v>3.25</v>
+      </c>
+      <c r="N3" s="94"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="224"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
@@ -5180,54 +5246,56 @@
       <c r="BC3" s="3"/>
     </row>
     <row r="4" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="271"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="106">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="91">
         <f>J3-(J3-H3*M3)/6</f>
-        <v>111.66666666666667</v>
-      </c>
-      <c r="K4" s="108">
+        <v>141.66666666666666</v>
+      </c>
+      <c r="K4" s="93">
         <f>K3-(K3-H3*M3)/6</f>
-        <v>111.66666666666667</v>
-      </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="250"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="66" t="s">
+        <v>141.66666666666666</v>
+      </c>
+      <c r="L4" s="237"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="269"/>
-      <c r="S4" s="255"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
+      <c r="P4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="225"/>
+      <c r="S4" s="244"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="287" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
@@ -5248,59 +5316,61 @@
       <c r="BC4" s="3"/>
     </row>
     <row r="5" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="273">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="229">
         <f ca="1">TODAY()</f>
-        <v>44505</v>
-      </c>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="69">
-        <f>ROUNDUP(J3*1.257,0)</f>
-        <v>169</v>
-      </c>
-      <c r="Q5" s="70">
-        <f>ROUNDUP(K3*1.257,0)</f>
-        <v>169</v>
-      </c>
-      <c r="R5" s="71">
+        <v>44659</v>
+      </c>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="59">
+        <f>ROUNDUP($J$3/100*(100+V5),0)</f>
+        <v>217</v>
+      </c>
+      <c r="Q5" s="59">
+        <f>ROUNDUP($K$3/100*(100+V5),0)</f>
+        <v>217</v>
+      </c>
+      <c r="R5" s="60">
         <f>P5/4</f>
-        <v>42.25</v>
-      </c>
-      <c r="S5" s="72">
+        <v>54.25</v>
+      </c>
+      <c r="S5" s="61">
         <f>Q5/4</f>
-        <v>42.25</v>
-      </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
+        <v>54.25</v>
+      </c>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="126">
+        <v>27.6</v>
+      </c>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
@@ -5321,56 +5391,58 @@
       <c r="BC5" s="3"/>
     </row>
     <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="73" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="74">
-        <f>ROUNDUP(J3*1.296,0)</f>
-        <v>174</v>
-      </c>
-      <c r="Q6" s="75">
-        <f>ROUNDUP(K3*1.296,0)</f>
-        <v>174</v>
-      </c>
-      <c r="R6" s="76">
+      <c r="P6" s="59">
+        <f t="shared" ref="P6:P9" si="0">ROUNDUP($J$3/100*(100+V6),0)</f>
+        <v>224</v>
+      </c>
+      <c r="Q6" s="59">
+        <f t="shared" ref="Q6:Q9" si="1">ROUNDUP($K$3/100*(100+V6),0)</f>
+        <v>224</v>
+      </c>
+      <c r="R6" s="63">
         <f>P6/6</f>
-        <v>29</v>
-      </c>
-      <c r="S6" s="77">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="S6" s="64">
         <f>Q6/6</f>
-        <v>29</v>
-      </c>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="127">
+        <v>31.6</v>
+      </c>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
@@ -5391,56 +5463,58 @@
       <c r="BC6" s="3"/>
     </row>
     <row r="7" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="74">
-        <f>ROUNDUP(J3*1.405,0)</f>
-        <v>189</v>
-      </c>
-      <c r="Q7" s="75">
-        <f>ROUNDUP(K3*1.405,0)</f>
-        <v>189</v>
-      </c>
-      <c r="R7" s="76">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="59">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="Q7" s="59">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="R7" s="63">
         <f>P7/12</f>
-        <v>15.75</v>
-      </c>
-      <c r="S7" s="77">
+        <v>20.25</v>
+      </c>
+      <c r="S7" s="64">
         <f>Q7/12</f>
-        <v>15.75</v>
-      </c>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
+        <v>20.25</v>
+      </c>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="127">
+        <v>42.9</v>
+      </c>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
@@ -5461,60 +5535,62 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="218" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="224" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="225"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="74">
-        <f>ROUNDUP(J3*1.627,0)</f>
-        <v>219</v>
-      </c>
-      <c r="Q8" s="75">
-        <f>ROUNDUP(K3*1.627,0)</f>
-        <v>219</v>
-      </c>
-      <c r="R8" s="76">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="245" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="246"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="251" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="252"/>
+      <c r="I8" s="253"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="59">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="Q8" s="59">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="R8" s="63">
         <f>P8/20</f>
-        <v>10.95</v>
-      </c>
-      <c r="S8" s="77">
+        <v>14.1</v>
+      </c>
+      <c r="S8" s="64">
         <f>Q8/20</f>
-        <v>10.95</v>
-      </c>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
+        <v>14.1</v>
+      </c>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="127">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
@@ -5535,56 +5611,58 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="229"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="79">
-        <f>ROUNDUP(J3*1.658,0)</f>
-        <v>223</v>
-      </c>
-      <c r="Q9" s="80">
-        <f>ROUNDUP(K3*1.658,0)</f>
-        <v>223</v>
-      </c>
-      <c r="R9" s="81">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="59">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="Q9" s="59">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="R9" s="66">
         <f>P9/24</f>
-        <v>9.2916666666666661</v>
-      </c>
-      <c r="S9" s="82">
+        <v>12</v>
+      </c>
+      <c r="S9" s="67">
         <f>Q9/24</f>
-        <v>9.2916666666666661</v>
-      </c>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="128">
+        <v>69</v>
+      </c>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
@@ -5605,54 +5683,54 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="230" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="232" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="234" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="236" t="s">
+      <c r="D10" s="259" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="261" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="238" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="240" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
+      <c r="H10" s="265" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="267" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
@@ -5673,42 +5751,42 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="264"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
@@ -5729,61 +5807,61 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="94" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="80">
+        <f t="shared" ref="D12:E16" si="2">P5*0.03</f>
+        <v>6.51</v>
+      </c>
+      <c r="E12" s="81">
+        <f t="shared" si="2"/>
+        <v>6.51</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="82">
+        <f>(P5-(SUM(H3:H4)*M3))/6</f>
+        <v>36.166666666666664</v>
+      </c>
+      <c r="I12" s="83">
+        <f>(Q5-(SUM(H3:H4)*M3))/6</f>
+        <v>36.166666666666664</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="R12" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="95">
-        <f t="shared" ref="D12:E16" si="0">P5*0.03</f>
-        <v>5.0699999999999994</v>
-      </c>
-      <c r="E12" s="96">
-        <f t="shared" si="0"/>
-        <v>5.0699999999999994</v>
-      </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="97">
-        <f>(P5-(SUM(H3:H4)*M3))/6</f>
-        <v>28.166666666666668</v>
-      </c>
-      <c r="I12" s="98">
-        <f>(Q5-(SUM(H3:H4)*M3))/6</f>
-        <v>28.166666666666668</v>
-      </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="R12" s="242" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="243"/>
-      <c r="T12" s="251" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="252"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="240" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="241"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
@@ -5804,61 +5882,61 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="73" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="95">
-        <f t="shared" si="0"/>
-        <v>5.22</v>
-      </c>
-      <c r="E13" s="96">
-        <f t="shared" si="0"/>
-        <v>5.22</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="73" t="s">
+      <c r="D13" s="80">
+        <f t="shared" si="2"/>
+        <v>6.72</v>
+      </c>
+      <c r="E13" s="81">
+        <f t="shared" si="2"/>
+        <v>6.72</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H13" s="82">
         <f>(P6-(SUM(H3:H4)*M3))/6</f>
-        <v>29</v>
-      </c>
-      <c r="I13" s="98">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="I13" s="83">
         <f>(Q6-(SUM(H3:H4)*M3))/6</f>
-        <v>29</v>
-      </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="245"/>
-      <c r="T13" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" s="109"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="R13" s="233"/>
+      <c r="S13" s="234"/>
+      <c r="T13" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="94"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
@@ -5879,71 +5957,71 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="95">
-        <f t="shared" si="0"/>
-        <v>5.67</v>
-      </c>
-      <c r="E14" s="96">
-        <f t="shared" si="0"/>
-        <v>5.67</v>
-      </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="97">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="80">
+        <f t="shared" si="2"/>
+        <v>7.29</v>
+      </c>
+      <c r="E14" s="81">
+        <f t="shared" si="2"/>
+        <v>7.29</v>
+      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="82">
         <f>(P7-(SUM(H3:H4)*M3))/6</f>
-        <v>31.5</v>
-      </c>
-      <c r="I14" s="98">
+        <v>40.5</v>
+      </c>
+      <c r="I14" s="83">
         <f>(Q7-(SUM(H3:H4)*M3))/6</f>
-        <v>31.5</v>
-      </c>
-      <c r="J14" s="110"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="206" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="207"/>
-      <c r="Q14" s="210">
+        <v>40.5</v>
+      </c>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="275" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="276"/>
+      <c r="Q14" s="279">
         <v>0.02</v>
       </c>
-      <c r="R14" s="216">
+      <c r="R14" s="285">
         <f>IF(R12="ЖЕЛ",J4*Q14,K4*Q14)</f>
-        <v>2.2333333333333334</v>
-      </c>
-      <c r="S14" s="217"/>
-      <c r="T14" s="200">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="S14" s="286"/>
+      <c r="T14" s="269">
         <f>J4</f>
-        <v>111.66666666666667</v>
-      </c>
-      <c r="U14" s="203">
+        <v>141.66666666666666</v>
+      </c>
+      <c r="U14" s="272">
         <f>K4</f>
-        <v>111.66666666666667</v>
-      </c>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
+        <v>141.66666666666666</v>
+      </c>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
@@ -5964,58 +6042,58 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="95">
-        <f t="shared" si="0"/>
-        <v>6.5699999999999994</v>
-      </c>
-      <c r="E15" s="96">
-        <f t="shared" si="0"/>
-        <v>6.5699999999999994</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="97">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="80">
+        <f t="shared" si="2"/>
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="E15" s="81">
+        <f t="shared" si="2"/>
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="F15" s="77"/>
+      <c r="G15" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="82">
         <f>(P8-(SUM(H3:H4)*M3))/6</f>
-        <v>36.5</v>
-      </c>
-      <c r="I15" s="98">
+        <v>47</v>
+      </c>
+      <c r="I15" s="83">
         <f>(Q8-(SUM(H3:H4)*M3))/6</f>
-        <v>36.5</v>
-      </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="211"/>
-      <c r="R15" s="214"/>
-      <c r="S15" s="215"/>
-      <c r="T15" s="201"/>
-      <c r="U15" s="204"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="277"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="283"/>
+      <c r="S15" s="284"/>
+      <c r="T15" s="270"/>
+      <c r="U15" s="273"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
@@ -6036,65 +6114,65 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="100">
-        <f t="shared" si="0"/>
-        <v>6.6899999999999995</v>
-      </c>
-      <c r="E16" s="101">
-        <f t="shared" si="0"/>
-        <v>6.6899999999999995</v>
-      </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="102">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="85">
+        <f t="shared" si="2"/>
+        <v>8.64</v>
+      </c>
+      <c r="E16" s="86">
+        <f t="shared" si="2"/>
+        <v>8.64</v>
+      </c>
+      <c r="F16" s="77"/>
+      <c r="G16" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="87">
         <f>(P9-(SUM(H3:H4)*M3))/6</f>
-        <v>37.166666666666664</v>
-      </c>
-      <c r="I16" s="103">
+        <v>48</v>
+      </c>
+      <c r="I16" s="88">
         <f>(Q9-(SUM(H3:H4)*M3))/6</f>
-        <v>37.166666666666664</v>
-      </c>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="206" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="207"/>
-      <c r="Q16" s="210">
+        <v>48</v>
+      </c>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="275" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="276"/>
+      <c r="Q16" s="279">
         <v>0</v>
       </c>
-      <c r="R16" s="212">
+      <c r="R16" s="281">
         <f>IF(R12="ЖЕЛ",J4*Q16,K4*Q16)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="213"/>
-      <c r="T16" s="201"/>
-      <c r="U16" s="204"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
+      <c r="S16" s="282"/>
+      <c r="T16" s="270"/>
+      <c r="U16" s="273"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
@@ -6115,42 +6193,42 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="209"/>
-      <c r="Q17" s="211"/>
-      <c r="R17" s="214"/>
-      <c r="S17" s="215"/>
-      <c r="T17" s="202"/>
-      <c r="U17" s="205"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="277"/>
+      <c r="P17" s="278"/>
+      <c r="Q17" s="280"/>
+      <c r="R17" s="283"/>
+      <c r="S17" s="284"/>
+      <c r="T17" s="271"/>
+      <c r="U17" s="274"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
@@ -6171,42 +6249,42 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
@@ -6227,42 +6305,42 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
@@ -6283,42 +6361,42 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
@@ -6339,42 +6417,42 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
@@ -6395,42 +6473,42 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="33"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
@@ -6451,42 +6529,42 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
@@ -6507,42 +6585,42 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
@@ -6563,42 +6641,42 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
@@ -6619,42 +6697,42 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
@@ -6675,42 +6753,42 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
@@ -6731,42 +6809,42 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
@@ -6787,42 +6865,42 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
@@ -6843,42 +6921,42 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="33"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
@@ -6899,42 +6977,42 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
@@ -6955,42 +7033,42 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
@@ -7011,42 +7089,42 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
@@ -7067,42 +7145,42 @@
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
@@ -7123,42 +7201,42 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
@@ -7179,42 +7257,42 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
@@ -7235,42 +7313,42 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
@@ -7291,42 +7369,42 @@
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
@@ -7347,42 +7425,42 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
@@ -7403,42 +7481,42 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
@@ -7459,42 +7537,42 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
@@ -7515,42 +7593,42 @@
       <c r="BC41" s="3"/>
     </row>
     <row r="42" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="33"/>
+      <c r="AE42" s="33"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
@@ -13256,6 +13334,29 @@
     <protectedRange sqref="L3:L4 J3:K3" name="Диапазон1_1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="34">
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:S15"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S2:S4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C6:F6"/>
@@ -13267,29 +13368,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:S17"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:S15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">

--- a/out/production/MScanner/file/MScanner.xlsx
+++ b/out/production/MScanner/file/MScanner.xlsx
@@ -2050,20 +2050,17 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2074,15 +2071,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2101,85 +2089,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2296,6 +2219,12 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="20" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2313,6 +2242,9 @@
     <xf numFmtId="1" fontId="20" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -2375,107 +2307,267 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2534,172 +2626,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -3199,27 +3199,27 @@
       <c r="K2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="198" t="s">
+      <c r="L2" s="252" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="199"/>
+      <c r="M2" s="253"/>
       <c r="N2" s="87" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="107"/>
       <c r="P2" s="107"/>
-      <c r="R2" s="192" t="s">
+      <c r="R2" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="270" t="s">
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="272" t="s">
+      <c r="Y2" s="173" t="s">
         <v>26</v>
       </c>
       <c r="Z2" s="90" t="s">
@@ -3262,21 +3262,21 @@
       <c r="K3" s="110">
         <v>2.85</v>
       </c>
-      <c r="L3" s="200"/>
-      <c r="M3" s="201"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="255"/>
       <c r="N3" s="89">
-        <v>44995</v>
+        <v>45098</v>
       </c>
       <c r="O3" s="108"/>
       <c r="P3" s="108"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="273"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="250"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="174"/>
       <c r="Z3" s="92" t="s">
         <v>36</v>
       </c>
@@ -3290,21 +3290,21 @@
     <row r="4" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="212">
+      <c r="C4" s="189">
         <f ca="1">TODAY()</f>
-        <v>44995</v>
-      </c>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="206">
+        <v>45098</v>
+      </c>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="260">
         <f>ROUNDUP((SUM(D3:I3)*J3 +SUM(D3:I3) )*K3,0)</f>
         <v>144</v>
       </c>
       <c r="J4" s="29"/>
-      <c r="K4" s="209">
+      <c r="K4" s="263">
         <f>ROUNDUP((((SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)*0.75))*J3)+(SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)*0.75)))*K3,0)</f>
         <v>144</v>
       </c>
@@ -3313,12 +3313,12 @@
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="88"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="189"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="189"/>
-      <c r="V4" s="189"/>
-      <c r="W4" s="190"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="267"/>
+      <c r="T4" s="267"/>
+      <c r="U4" s="267"/>
+      <c r="V4" s="267"/>
+      <c r="W4" s="268"/>
       <c r="X4" s="78"/>
       <c r="Y4" s="119"/>
       <c r="Z4" s="116">
@@ -3333,17 +3333,17 @@
     <row r="5" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="249" t="s">
+      <c r="C5" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="207"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="261"/>
       <c r="J5" s="29"/>
-      <c r="K5" s="210"/>
+      <c r="K5" s="264"/>
       <c r="L5" s="79"/>
       <c r="M5" s="79"/>
       <c r="O5" s="131" t="s">
@@ -3352,12 +3352,12 @@
       <c r="P5" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="176"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="178"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="177"/>
       <c r="X5" s="24"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="117">
@@ -3372,29 +3372,29 @@
     <row r="6" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="252"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="208"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="262"/>
       <c r="J6" s="29"/>
-      <c r="K6" s="211"/>
+      <c r="K6" s="265"/>
       <c r="L6" s="79"/>
       <c r="M6" s="79"/>
-      <c r="O6" s="171">
+      <c r="O6" s="272">
         <v>0.184</v>
       </c>
-      <c r="P6" s="255">
+      <c r="P6" s="235">
         <v>0.27900000000000003</v>
       </c>
-      <c r="R6" s="176"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="177"/>
-      <c r="W6" s="178"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="177"/>
       <c r="X6" s="24"/>
       <c r="Y6" s="27"/>
       <c r="Z6" s="117">
@@ -3420,14 +3420,14 @@
       <c r="K7" s="9"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="256"/>
-      <c r="R7" s="176"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="178"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="236"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="177"/>
       <c r="X7" s="24"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="117">
@@ -3443,25 +3443,25 @@
     <row r="8" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="229" t="s">
+      <c r="C8" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="246" t="s">
+      <c r="D8" s="207"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="246" t="s">
+      <c r="G8" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="235" t="s">
+      <c r="H8" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="237"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="214"/>
       <c r="N8" s="136"/>
       <c r="O8" s="137" t="s">
         <v>40</v>
@@ -3469,12 +3469,12 @@
       <c r="P8" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="176"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="178"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="177"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="118">
@@ -3490,30 +3490,30 @@
     <row r="9" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
-      <c r="M9" s="240"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="216"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="217"/>
       <c r="N9" s="136"/>
-      <c r="O9" s="225">
+      <c r="O9" s="202">
         <v>0.16700000000000001</v>
       </c>
-      <c r="P9" s="227">
+      <c r="P9" s="204">
         <v>0.22</v>
       </c>
-      <c r="R9" s="185"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="187"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="182"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="183"/>
       <c r="X9" s="24"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="109"/>
@@ -3534,29 +3534,29 @@
       <c r="E10" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
       <c r="H10" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="241" t="s">
+      <c r="I10" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="242"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="202" t="s">
+      <c r="J10" s="219"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="203"/>
+      <c r="M10" s="257"/>
       <c r="N10" s="136"/>
-      <c r="O10" s="226"/>
-      <c r="P10" s="228"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="177"/>
-      <c r="U10" s="177"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="178"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="205"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="177"/>
       <c r="X10" s="24"/>
       <c r="Y10" s="27"/>
       <c r="Z10" s="8"/>
@@ -3590,17 +3590,17 @@
       <c r="H11" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="248">
+      <c r="I11" s="227">
         <f>ROUNDUP(PMT($P$9/12,6,-$O$20),0)</f>
         <v>26</v>
       </c>
-      <c r="J11" s="248"/>
-      <c r="K11" s="248"/>
-      <c r="L11" s="174">
+      <c r="J11" s="227"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="221">
         <f>ROUNDUP(PMT($P$9/12,6,-$P$20),0)</f>
         <v>26</v>
       </c>
-      <c r="M11" s="175"/>
+      <c r="M11" s="222"/>
       <c r="N11" s="136"/>
       <c r="O11" s="139" t="s">
         <v>58</v>
@@ -3609,12 +3609,12 @@
         <v>59</v>
       </c>
       <c r="Q11" s="16"/>
-      <c r="R11" s="176"/>
-      <c r="S11" s="177"/>
-      <c r="T11" s="177"/>
-      <c r="U11" s="177"/>
-      <c r="V11" s="177"/>
-      <c r="W11" s="178"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="177"/>
       <c r="X11" s="24"/>
       <c r="Y11" s="27"/>
       <c r="Z11" s="8"/>
@@ -3648,17 +3648,17 @@
       <c r="H12" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="173">
+      <c r="I12" s="228">
         <f>ROUNDUP(PMT($P$9/12,12,-$O$20),0)</f>
         <v>14</v>
       </c>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="174">
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="221">
         <f>ROUNDUP(PMT($P$9/12,12,-$P$20),0)</f>
         <v>14</v>
       </c>
-      <c r="M12" s="175"/>
+      <c r="M12" s="222"/>
       <c r="N12" s="136"/>
       <c r="O12" s="101">
         <v>1.6</v>
@@ -3667,12 +3667,12 @@
         <v>0</v>
       </c>
       <c r="Q12" s="16"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="177"/>
-      <c r="T12" s="177"/>
-      <c r="U12" s="177"/>
-      <c r="V12" s="177"/>
-      <c r="W12" s="178"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="177"/>
       <c r="X12" s="24"/>
       <c r="Y12" s="27"/>
       <c r="Z12" s="8"/>
@@ -3706,17 +3706,17 @@
       <c r="H13" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="173">
+      <c r="I13" s="228">
         <f>ROUNDUP(PMT($P$9/12,18,-$O$20),0)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="174">
+      <c r="J13" s="228"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="221">
         <f>ROUNDUP(PMT($P$9/12,18,-$P$20),0)</f>
         <v>10</v>
       </c>
-      <c r="M13" s="175"/>
+      <c r="M13" s="222"/>
       <c r="N13" s="136"/>
       <c r="O13" s="101">
         <v>1.6</v>
@@ -3725,12 +3725,12 @@
         <v>0</v>
       </c>
       <c r="Q13" s="17"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="177"/>
-      <c r="W13" s="178"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="177"/>
       <c r="X13" s="24"/>
       <c r="Y13" s="27"/>
       <c r="Z13" s="8"/>
@@ -3764,17 +3764,17 @@
       <c r="H14" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="173">
+      <c r="I14" s="228">
         <f>ROUNDUP(PMT($P$9/12,24,-$O$20),0)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="174">
+      <c r="J14" s="228"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="221">
         <f>ROUNDUP(PMT($P$9/12,24,-$P$20),0)</f>
         <v>8</v>
       </c>
-      <c r="M14" s="175"/>
+      <c r="M14" s="222"/>
       <c r="N14" s="136"/>
       <c r="O14" s="101">
         <v>1.6</v>
@@ -3783,12 +3783,12 @@
         <v>0</v>
       </c>
       <c r="Q14" s="18"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="177"/>
-      <c r="T14" s="177"/>
-      <c r="U14" s="177"/>
-      <c r="V14" s="177"/>
-      <c r="W14" s="178"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="177"/>
       <c r="X14" s="24"/>
       <c r="Y14" s="27"/>
       <c r="Z14" s="8"/>
@@ -3822,17 +3822,17 @@
       <c r="H15" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="173">
+      <c r="I15" s="228">
         <f>ROUNDUP(PMT($P$9/12,36,-$O$20),0)</f>
         <v>6</v>
       </c>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="174">
+      <c r="J15" s="228"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="221">
         <f>ROUNDUP(PMT($P$9/12,36,-$P$20),0)</f>
         <v>6</v>
       </c>
-      <c r="M15" s="175"/>
+      <c r="M15" s="222"/>
       <c r="N15" s="136"/>
       <c r="O15" s="101">
         <v>1.6</v>
@@ -3841,12 +3841,12 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="177"/>
-      <c r="U15" s="177"/>
-      <c r="V15" s="177"/>
-      <c r="W15" s="178"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="177"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="27"/>
       <c r="Z15" s="8"/>
@@ -3880,17 +3880,17 @@
       <c r="H16" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="191">
+      <c r="I16" s="245">
         <f>ROUNDUP(PMT($P$9/12,48,-$O$20),0)</f>
         <v>5</v>
       </c>
-      <c r="J16" s="191"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="244">
+      <c r="J16" s="245"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="223">
         <f>ROUNDUP(PMT($P$9/12,48,-$P$20),0)</f>
         <v>5</v>
       </c>
-      <c r="M16" s="245"/>
+      <c r="M16" s="224"/>
       <c r="N16" s="136"/>
       <c r="O16" s="133">
         <v>1.6</v>
@@ -3899,12 +3899,12 @@
         <v>0</v>
       </c>
       <c r="Q16" s="18"/>
-      <c r="R16" s="176"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="178"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="177"/>
       <c r="X16" s="24"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="8"/>
@@ -3935,16 +3935,16 @@
         <f>ROUNDUP(PMT($O$9/12,24,-E17),0)</f>
         <v>8</v>
       </c>
-      <c r="H17" s="257" t="s">
+      <c r="H17" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="258"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="259"/>
-      <c r="L17" s="204" t="s">
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="239"/>
+      <c r="L17" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="204" t="s">
+      <c r="M17" s="258" t="s">
         <v>17</v>
       </c>
       <c r="N17" s="136"/>
@@ -3953,12 +3953,12 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="176"/>
-      <c r="S17" s="177"/>
-      <c r="T17" s="177"/>
-      <c r="U17" s="177"/>
-      <c r="V17" s="177"/>
-      <c r="W17" s="178"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="177"/>
       <c r="X17" s="24"/>
       <c r="Y17" s="27"/>
       <c r="Z17" s="8"/>
@@ -3999,20 +3999,20 @@
       <c r="K18" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="259"/>
       <c r="N18" s="136"/>
-      <c r="O18" s="223" t="s">
+      <c r="O18" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="224"/>
+      <c r="P18" s="201"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="177"/>
-      <c r="U18" s="177"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="178"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="177"/>
       <c r="X18" s="24"/>
       <c r="Y18" s="27"/>
       <c r="AC18" s="8"/>
@@ -4067,12 +4067,12 @@
         <v>23</v>
       </c>
       <c r="Q19" s="3"/>
-      <c r="R19" s="176"/>
-      <c r="S19" s="177"/>
-      <c r="T19" s="177"/>
-      <c r="U19" s="177"/>
-      <c r="V19" s="177"/>
-      <c r="W19" s="178"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="177"/>
       <c r="X19" s="24"/>
       <c r="Y19" s="27"/>
       <c r="AC19" s="8"/>
@@ -4080,15 +4080,15 @@
     <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="260" t="s">
+      <c r="C20" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="261"/>
-      <c r="E20" s="262"/>
-      <c r="F20" s="263" t="s">
+      <c r="D20" s="241"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="263" t="s">
+      <c r="G20" s="243" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="106" t="s">
@@ -4121,12 +4121,12 @@
         <v>144</v>
       </c>
       <c r="Q20" s="3"/>
-      <c r="R20" s="176"/>
-      <c r="S20" s="177"/>
-      <c r="T20" s="177"/>
-      <c r="U20" s="177"/>
-      <c r="V20" s="177"/>
-      <c r="W20" s="178"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="176"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="176"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="177"/>
       <c r="X20" s="24"/>
       <c r="Y20" s="27"/>
       <c r="AC20" s="8"/>
@@ -4143,8 +4143,8 @@
       <c r="E21" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="264"/>
-      <c r="G21" s="264"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
       <c r="H21" s="106" t="s">
         <v>12</v>
       </c>
@@ -4171,12 +4171,12 @@
         <v>57</v>
       </c>
       <c r="Q21" s="6"/>
-      <c r="R21" s="176"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
-      <c r="U21" s="177"/>
-      <c r="V21" s="177"/>
-      <c r="W21" s="178"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="176"/>
+      <c r="W21" s="177"/>
       <c r="X21" s="24"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="2"/>
@@ -4230,12 +4230,12 @@
         <v>4.2</v>
       </c>
       <c r="Q22" s="20"/>
-      <c r="R22" s="176"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
-      <c r="U22" s="177"/>
-      <c r="V22" s="177"/>
-      <c r="W22" s="178"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="176"/>
+      <c r="T22" s="176"/>
+      <c r="U22" s="176"/>
+      <c r="V22" s="176"/>
+      <c r="W22" s="177"/>
       <c r="X22" s="24"/>
       <c r="Y22" s="27"/>
       <c r="Z22" s="2"/>
@@ -4289,12 +4289,12 @@
         <v>5.3</v>
       </c>
       <c r="Q23" s="20"/>
-      <c r="R23" s="176"/>
-      <c r="S23" s="177"/>
-      <c r="T23" s="177"/>
-      <c r="U23" s="177"/>
-      <c r="V23" s="177"/>
-      <c r="W23" s="178"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="177"/>
       <c r="X23" s="24"/>
       <c r="Y23" s="27"/>
       <c r="Z23" s="2"/>
@@ -4346,12 +4346,12 @@
       <c r="O24" s="160"/>
       <c r="P24" s="136"/>
       <c r="Q24" s="20"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-      <c r="V24" s="186"/>
-      <c r="W24" s="187"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="182"/>
+      <c r="T24" s="182"/>
+      <c r="U24" s="182"/>
+      <c r="V24" s="182"/>
+      <c r="W24" s="183"/>
       <c r="X24" s="24"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="2"/>
@@ -4379,27 +4379,27 @@
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,24,-E25),0)</f>
         <v>~8</v>
       </c>
-      <c r="H25" s="265" t="s">
+      <c r="H25" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="266"/>
-      <c r="J25" s="266"/>
-      <c r="K25" s="267"/>
-      <c r="L25" s="268" t="s">
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="268" t="s">
+      <c r="M25" s="187" t="s">
         <v>17</v>
       </c>
       <c r="N25" s="136"/>
       <c r="O25" s="160"/>
       <c r="P25" s="136"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="177"/>
-      <c r="V25" s="177"/>
-      <c r="W25" s="178"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
+      <c r="U25" s="176"/>
+      <c r="V25" s="176"/>
+      <c r="W25" s="177"/>
       <c r="X25" s="24"/>
       <c r="Y25" s="27"/>
       <c r="Z25" s="2"/>
@@ -4437,17 +4437,17 @@
       <c r="K26" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="269"/>
-      <c r="M26" s="269"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
       <c r="N26" s="136"/>
       <c r="O26" s="160"/>
       <c r="P26" s="136"/>
-      <c r="R26" s="176"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="178"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="177"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="27"/>
       <c r="Z26" s="2"/>
@@ -4479,12 +4479,12 @@
       <c r="N27" s="136"/>
       <c r="O27" s="136"/>
       <c r="P27" s="136"/>
-      <c r="R27" s="176"/>
-      <c r="S27" s="177"/>
-      <c r="T27" s="177"/>
-      <c r="U27" s="177"/>
-      <c r="V27" s="177"/>
-      <c r="W27" s="178"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="176"/>
+      <c r="V27" s="176"/>
+      <c r="W27" s="177"/>
       <c r="X27" s="24"/>
       <c r="Y27" s="27"/>
       <c r="Z27" s="2"/>
@@ -4516,12 +4516,12 @@
       <c r="N28" s="136"/>
       <c r="O28" s="136"/>
       <c r="P28" s="136"/>
-      <c r="R28" s="176"/>
-      <c r="S28" s="177"/>
-      <c r="T28" s="177"/>
-      <c r="U28" s="177"/>
-      <c r="V28" s="177"/>
-      <c r="W28" s="178"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="177"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="27"/>
       <c r="Z28" s="2"/>
@@ -4530,24 +4530,24 @@
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="215" t="s">
+      <c r="C29" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="216"/>
-      <c r="E29" s="219">
+      <c r="D29" s="193"/>
+      <c r="E29" s="196">
         <v>0</v>
       </c>
-      <c r="F29" s="220"/>
+      <c r="F29" s="197"/>
       <c r="N29" s="146"/>
       <c r="O29" s="146"/>
       <c r="P29" s="146"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="176"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
-      <c r="U29" s="177"/>
-      <c r="V29" s="177"/>
-      <c r="W29" s="178"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="177"/>
       <c r="X29" s="24"/>
       <c r="Y29" s="27"/>
       <c r="Z29" s="2"/>
@@ -4556,20 +4556,20 @@
     <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="222"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="199"/>
       <c r="N30" s="146"/>
       <c r="O30" s="146"/>
       <c r="P30" s="146"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="176"/>
-      <c r="S30" s="177"/>
-      <c r="T30" s="177"/>
-      <c r="U30" s="177"/>
-      <c r="V30" s="177"/>
-      <c r="W30" s="178"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="177"/>
       <c r="X30" s="24"/>
       <c r="Y30" s="27"/>
       <c r="Z30" s="2"/>
@@ -4587,12 +4587,12 @@
       <c r="O31" s="146"/>
       <c r="P31" s="146"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="176"/>
-      <c r="S31" s="177"/>
-      <c r="T31" s="177"/>
-      <c r="U31" s="177"/>
-      <c r="V31" s="177"/>
-      <c r="W31" s="178"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
+      <c r="U31" s="176"/>
+      <c r="V31" s="176"/>
+      <c r="W31" s="177"/>
       <c r="X31" s="24"/>
       <c r="Y31" s="27"/>
       <c r="Z31" s="2"/>
@@ -4606,12 +4606,12 @@
       <c r="O32" s="146"/>
       <c r="P32" s="146"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="176"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="177"/>
-      <c r="V32" s="177"/>
-      <c r="W32" s="178"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="176"/>
+      <c r="V32" s="176"/>
+      <c r="W32" s="177"/>
       <c r="X32" s="24"/>
       <c r="Y32" s="27"/>
       <c r="Z32" s="2"/>
@@ -4626,12 +4626,12 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="176"/>
-      <c r="S33" s="177"/>
-      <c r="T33" s="177"/>
-      <c r="U33" s="177"/>
-      <c r="V33" s="177"/>
-      <c r="W33" s="178"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="176"/>
+      <c r="T33" s="176"/>
+      <c r="U33" s="176"/>
+      <c r="V33" s="176"/>
+      <c r="W33" s="177"/>
       <c r="X33" s="24"/>
       <c r="Y33" s="27"/>
       <c r="Z33" s="2"/>
@@ -4649,12 +4649,12 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="176"/>
-      <c r="S34" s="177"/>
-      <c r="T34" s="177"/>
-      <c r="U34" s="177"/>
-      <c r="V34" s="177"/>
-      <c r="W34" s="178"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="176"/>
+      <c r="T34" s="176"/>
+      <c r="U34" s="176"/>
+      <c r="V34" s="176"/>
+      <c r="W34" s="177"/>
       <c r="X34" s="24"/>
       <c r="Y34" s="27"/>
       <c r="Z34" s="2"/>
@@ -4672,12 +4672,12 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="176"/>
-      <c r="S35" s="177"/>
-      <c r="T35" s="177"/>
-      <c r="U35" s="177"/>
-      <c r="V35" s="177"/>
-      <c r="W35" s="178"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="176"/>
+      <c r="T35" s="176"/>
+      <c r="U35" s="176"/>
+      <c r="V35" s="176"/>
+      <c r="W35" s="177"/>
       <c r="X35" s="24"/>
       <c r="Y35" s="27"/>
       <c r="Z35" s="2"/>
@@ -4694,12 +4694,12 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="176"/>
-      <c r="S36" s="177"/>
-      <c r="T36" s="177"/>
-      <c r="U36" s="177"/>
-      <c r="V36" s="177"/>
-      <c r="W36" s="178"/>
+      <c r="R36" s="175"/>
+      <c r="S36" s="176"/>
+      <c r="T36" s="176"/>
+      <c r="U36" s="176"/>
+      <c r="V36" s="176"/>
+      <c r="W36" s="177"/>
       <c r="X36" s="24"/>
       <c r="Y36" s="27"/>
       <c r="Z36" s="2"/>
@@ -4716,12 +4716,12 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="176"/>
-      <c r="S37" s="177"/>
-      <c r="T37" s="177"/>
-      <c r="U37" s="177"/>
-      <c r="V37" s="177"/>
-      <c r="W37" s="178"/>
+      <c r="R37" s="175"/>
+      <c r="S37" s="176"/>
+      <c r="T37" s="176"/>
+      <c r="U37" s="176"/>
+      <c r="V37" s="176"/>
+      <c r="W37" s="177"/>
       <c r="X37" s="24"/>
       <c r="Y37" s="27"/>
       <c r="Z37" s="2"/>
@@ -4738,12 +4738,12 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="176"/>
-      <c r="S38" s="177"/>
-      <c r="T38" s="177"/>
-      <c r="U38" s="177"/>
-      <c r="V38" s="177"/>
-      <c r="W38" s="178"/>
+      <c r="R38" s="175"/>
+      <c r="S38" s="176"/>
+      <c r="T38" s="176"/>
+      <c r="U38" s="176"/>
+      <c r="V38" s="176"/>
+      <c r="W38" s="177"/>
       <c r="X38" s="24"/>
       <c r="Y38" s="27"/>
       <c r="Z38" s="2"/>
@@ -4767,12 +4767,12 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="176"/>
-      <c r="S39" s="177"/>
-      <c r="T39" s="177"/>
-      <c r="U39" s="177"/>
-      <c r="V39" s="177"/>
-      <c r="W39" s="178"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="176"/>
+      <c r="T39" s="176"/>
+      <c r="U39" s="176"/>
+      <c r="V39" s="176"/>
+      <c r="W39" s="177"/>
       <c r="X39" s="24"/>
       <c r="Y39" s="27"/>
       <c r="Z39" s="2"/>
@@ -4796,12 +4796,12 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="176"/>
-      <c r="S40" s="177"/>
-      <c r="T40" s="177"/>
-      <c r="U40" s="177"/>
-      <c r="V40" s="177"/>
-      <c r="W40" s="178"/>
+      <c r="R40" s="175"/>
+      <c r="S40" s="176"/>
+      <c r="T40" s="176"/>
+      <c r="U40" s="176"/>
+      <c r="V40" s="176"/>
+      <c r="W40" s="177"/>
       <c r="X40" s="24"/>
       <c r="Y40" s="27"/>
       <c r="Z40" s="2"/>
@@ -4820,12 +4820,12 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="176"/>
-      <c r="S41" s="177"/>
-      <c r="T41" s="177"/>
-      <c r="U41" s="177"/>
-      <c r="V41" s="177"/>
-      <c r="W41" s="178"/>
+      <c r="R41" s="175"/>
+      <c r="S41" s="176"/>
+      <c r="T41" s="176"/>
+      <c r="U41" s="176"/>
+      <c r="V41" s="176"/>
+      <c r="W41" s="177"/>
       <c r="X41" s="24"/>
       <c r="Y41" s="27"/>
       <c r="Z41" s="2"/>
@@ -4843,12 +4843,12 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="176"/>
-      <c r="S42" s="177"/>
-      <c r="T42" s="177"/>
-      <c r="U42" s="177"/>
-      <c r="V42" s="177"/>
-      <c r="W42" s="178"/>
+      <c r="R42" s="175"/>
+      <c r="S42" s="176"/>
+      <c r="T42" s="176"/>
+      <c r="U42" s="176"/>
+      <c r="V42" s="176"/>
+      <c r="W42" s="177"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="27"/>
       <c r="Z42" s="2"/>
@@ -4866,673 +4866,673 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="176"/>
-      <c r="S43" s="177"/>
-      <c r="T43" s="177"/>
-      <c r="U43" s="177"/>
-      <c r="V43" s="177"/>
-      <c r="W43" s="178"/>
+      <c r="R43" s="175"/>
+      <c r="S43" s="176"/>
+      <c r="T43" s="176"/>
+      <c r="U43" s="176"/>
+      <c r="V43" s="176"/>
+      <c r="W43" s="177"/>
       <c r="X43" s="24"/>
       <c r="Y43" s="27"/>
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R44" s="176"/>
-      <c r="S44" s="177"/>
-      <c r="T44" s="177"/>
-      <c r="U44" s="177"/>
-      <c r="V44" s="177"/>
-      <c r="W44" s="178"/>
+      <c r="R44" s="175"/>
+      <c r="S44" s="176"/>
+      <c r="T44" s="176"/>
+      <c r="U44" s="176"/>
+      <c r="V44" s="176"/>
+      <c r="W44" s="177"/>
       <c r="X44" s="24"/>
       <c r="Y44" s="27"/>
     </row>
     <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R45" s="176"/>
-      <c r="S45" s="177"/>
-      <c r="T45" s="177"/>
-      <c r="U45" s="177"/>
-      <c r="V45" s="177"/>
-      <c r="W45" s="178"/>
+      <c r="R45" s="175"/>
+      <c r="S45" s="176"/>
+      <c r="T45" s="176"/>
+      <c r="U45" s="176"/>
+      <c r="V45" s="176"/>
+      <c r="W45" s="177"/>
       <c r="X45" s="24"/>
       <c r="Y45" s="27"/>
     </row>
     <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R46" s="176"/>
-      <c r="S46" s="177"/>
-      <c r="T46" s="177"/>
-      <c r="U46" s="177"/>
-      <c r="V46" s="177"/>
-      <c r="W46" s="178"/>
+      <c r="R46" s="175"/>
+      <c r="S46" s="176"/>
+      <c r="T46" s="176"/>
+      <c r="U46" s="176"/>
+      <c r="V46" s="176"/>
+      <c r="W46" s="177"/>
       <c r="X46" s="24"/>
       <c r="Y46" s="27"/>
     </row>
     <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R47" s="176"/>
-      <c r="S47" s="177"/>
-      <c r="T47" s="177"/>
-      <c r="U47" s="177"/>
-      <c r="V47" s="177"/>
-      <c r="W47" s="178"/>
+      <c r="R47" s="175"/>
+      <c r="S47" s="176"/>
+      <c r="T47" s="176"/>
+      <c r="U47" s="176"/>
+      <c r="V47" s="176"/>
+      <c r="W47" s="177"/>
       <c r="X47" s="24"/>
       <c r="Y47" s="27"/>
     </row>
     <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R48" s="176"/>
-      <c r="S48" s="177"/>
-      <c r="T48" s="177"/>
-      <c r="U48" s="177"/>
-      <c r="V48" s="177"/>
-      <c r="W48" s="178"/>
+      <c r="R48" s="175"/>
+      <c r="S48" s="176"/>
+      <c r="T48" s="176"/>
+      <c r="U48" s="176"/>
+      <c r="V48" s="176"/>
+      <c r="W48" s="177"/>
       <c r="X48" s="24"/>
       <c r="Y48" s="27"/>
     </row>
     <row r="49" spans="18:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R49" s="176"/>
-      <c r="S49" s="177"/>
-      <c r="T49" s="177"/>
-      <c r="U49" s="177"/>
-      <c r="V49" s="177"/>
-      <c r="W49" s="178"/>
+      <c r="R49" s="175"/>
+      <c r="S49" s="176"/>
+      <c r="T49" s="176"/>
+      <c r="U49" s="176"/>
+      <c r="V49" s="176"/>
+      <c r="W49" s="177"/>
       <c r="X49" s="24"/>
       <c r="Y49" s="27"/>
     </row>
     <row r="50" spans="18:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R50" s="176"/>
-      <c r="S50" s="177"/>
-      <c r="T50" s="177"/>
-      <c r="U50" s="177"/>
-      <c r="V50" s="177"/>
-      <c r="W50" s="178"/>
+      <c r="R50" s="175"/>
+      <c r="S50" s="176"/>
+      <c r="T50" s="176"/>
+      <c r="U50" s="176"/>
+      <c r="V50" s="176"/>
+      <c r="W50" s="177"/>
       <c r="X50" s="24"/>
       <c r="Y50" s="27"/>
     </row>
     <row r="51" spans="18:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R51" s="176"/>
-      <c r="S51" s="177"/>
-      <c r="T51" s="177"/>
-      <c r="U51" s="177"/>
-      <c r="V51" s="177"/>
-      <c r="W51" s="178"/>
+      <c r="R51" s="175"/>
+      <c r="S51" s="176"/>
+      <c r="T51" s="176"/>
+      <c r="U51" s="176"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="177"/>
       <c r="X51" s="24"/>
       <c r="Y51" s="27"/>
     </row>
     <row r="52" spans="18:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R52" s="176"/>
-      <c r="S52" s="177"/>
-      <c r="T52" s="177"/>
-      <c r="U52" s="177"/>
-      <c r="V52" s="177"/>
-      <c r="W52" s="178"/>
+      <c r="R52" s="175"/>
+      <c r="S52" s="176"/>
+      <c r="T52" s="176"/>
+      <c r="U52" s="176"/>
+      <c r="V52" s="176"/>
+      <c r="W52" s="177"/>
       <c r="X52" s="24"/>
       <c r="Y52" s="27"/>
     </row>
     <row r="53" spans="18:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R53" s="176"/>
-      <c r="S53" s="177"/>
-      <c r="T53" s="177"/>
-      <c r="U53" s="177"/>
-      <c r="V53" s="177"/>
-      <c r="W53" s="178"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="176"/>
+      <c r="T53" s="176"/>
+      <c r="U53" s="176"/>
+      <c r="V53" s="176"/>
+      <c r="W53" s="177"/>
       <c r="X53" s="24"/>
       <c r="Y53" s="27"/>
     </row>
     <row r="54" spans="18:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R54" s="176"/>
-      <c r="S54" s="177"/>
-      <c r="T54" s="177"/>
-      <c r="U54" s="177"/>
-      <c r="V54" s="177"/>
-      <c r="W54" s="178"/>
+      <c r="R54" s="175"/>
+      <c r="S54" s="176"/>
+      <c r="T54" s="176"/>
+      <c r="U54" s="176"/>
+      <c r="V54" s="176"/>
+      <c r="W54" s="177"/>
       <c r="X54" s="24"/>
       <c r="Y54" s="27"/>
     </row>
     <row r="55" spans="18:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R55" s="176"/>
-      <c r="S55" s="177"/>
-      <c r="T55" s="177"/>
-      <c r="U55" s="177"/>
-      <c r="V55" s="177"/>
-      <c r="W55" s="178"/>
+      <c r="R55" s="175"/>
+      <c r="S55" s="176"/>
+      <c r="T55" s="176"/>
+      <c r="U55" s="176"/>
+      <c r="V55" s="176"/>
+      <c r="W55" s="177"/>
       <c r="X55" s="24"/>
       <c r="Y55" s="27"/>
     </row>
     <row r="56" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R56" s="182"/>
-      <c r="S56" s="183"/>
-      <c r="T56" s="183"/>
-      <c r="U56" s="183"/>
-      <c r="V56" s="183"/>
-      <c r="W56" s="184"/>
+      <c r="R56" s="178"/>
+      <c r="S56" s="179"/>
+      <c r="T56" s="179"/>
+      <c r="U56" s="179"/>
+      <c r="V56" s="179"/>
+      <c r="W56" s="180"/>
       <c r="X56" s="78"/>
       <c r="Y56" s="26"/>
     </row>
     <row r="57" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R57" s="176"/>
-      <c r="S57" s="177"/>
-      <c r="T57" s="177"/>
-      <c r="U57" s="177"/>
-      <c r="V57" s="177"/>
-      <c r="W57" s="178"/>
+      <c r="R57" s="175"/>
+      <c r="S57" s="176"/>
+      <c r="T57" s="176"/>
+      <c r="U57" s="176"/>
+      <c r="V57" s="176"/>
+      <c r="W57" s="177"/>
       <c r="X57" s="24"/>
       <c r="Y57" s="27"/>
     </row>
     <row r="58" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R58" s="176"/>
-      <c r="S58" s="177"/>
-      <c r="T58" s="177"/>
-      <c r="U58" s="177"/>
-      <c r="V58" s="177"/>
-      <c r="W58" s="178"/>
+      <c r="R58" s="175"/>
+      <c r="S58" s="176"/>
+      <c r="T58" s="176"/>
+      <c r="U58" s="176"/>
+      <c r="V58" s="176"/>
+      <c r="W58" s="177"/>
       <c r="X58" s="24"/>
       <c r="Y58" s="27"/>
     </row>
     <row r="59" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R59" s="176"/>
-      <c r="S59" s="177"/>
-      <c r="T59" s="177"/>
-      <c r="U59" s="177"/>
-      <c r="V59" s="177"/>
-      <c r="W59" s="178"/>
+      <c r="R59" s="175"/>
+      <c r="S59" s="176"/>
+      <c r="T59" s="176"/>
+      <c r="U59" s="176"/>
+      <c r="V59" s="176"/>
+      <c r="W59" s="177"/>
       <c r="X59" s="24"/>
       <c r="Y59" s="27"/>
     </row>
     <row r="60" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R60" s="176"/>
-      <c r="S60" s="177"/>
-      <c r="T60" s="177"/>
-      <c r="U60" s="177"/>
-      <c r="V60" s="177"/>
-      <c r="W60" s="178"/>
+      <c r="R60" s="175"/>
+      <c r="S60" s="176"/>
+      <c r="T60" s="176"/>
+      <c r="U60" s="176"/>
+      <c r="V60" s="176"/>
+      <c r="W60" s="177"/>
       <c r="X60" s="24"/>
       <c r="Y60" s="27"/>
     </row>
     <row r="61" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R61" s="176"/>
-      <c r="S61" s="177"/>
-      <c r="T61" s="177"/>
-      <c r="U61" s="177"/>
-      <c r="V61" s="177"/>
-      <c r="W61" s="178"/>
+      <c r="R61" s="175"/>
+      <c r="S61" s="176"/>
+      <c r="T61" s="176"/>
+      <c r="U61" s="176"/>
+      <c r="V61" s="176"/>
+      <c r="W61" s="177"/>
       <c r="X61" s="24"/>
       <c r="Y61" s="27"/>
     </row>
     <row r="62" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R62" s="176"/>
-      <c r="S62" s="177"/>
-      <c r="T62" s="177"/>
-      <c r="U62" s="177"/>
-      <c r="V62" s="177"/>
-      <c r="W62" s="178"/>
+      <c r="R62" s="175"/>
+      <c r="S62" s="176"/>
+      <c r="T62" s="176"/>
+      <c r="U62" s="176"/>
+      <c r="V62" s="176"/>
+      <c r="W62" s="177"/>
       <c r="X62" s="24"/>
       <c r="Y62" s="27"/>
     </row>
     <row r="63" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R63" s="176"/>
-      <c r="S63" s="177"/>
-      <c r="T63" s="177"/>
-      <c r="U63" s="177"/>
-      <c r="V63" s="177"/>
-      <c r="W63" s="178"/>
+      <c r="R63" s="175"/>
+      <c r="S63" s="176"/>
+      <c r="T63" s="176"/>
+      <c r="U63" s="176"/>
+      <c r="V63" s="176"/>
+      <c r="W63" s="177"/>
       <c r="X63" s="24"/>
       <c r="Y63" s="27"/>
     </row>
     <row r="64" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R64" s="176"/>
-      <c r="S64" s="177"/>
-      <c r="T64" s="177"/>
-      <c r="U64" s="177"/>
-      <c r="V64" s="177"/>
-      <c r="W64" s="178"/>
+      <c r="R64" s="175"/>
+      <c r="S64" s="176"/>
+      <c r="T64" s="176"/>
+      <c r="U64" s="176"/>
+      <c r="V64" s="176"/>
+      <c r="W64" s="177"/>
       <c r="X64" s="24"/>
       <c r="Y64" s="27"/>
     </row>
     <row r="65" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R65" s="176"/>
-      <c r="S65" s="177"/>
-      <c r="T65" s="177"/>
-      <c r="U65" s="177"/>
-      <c r="V65" s="177"/>
-      <c r="W65" s="178"/>
+      <c r="R65" s="175"/>
+      <c r="S65" s="176"/>
+      <c r="T65" s="176"/>
+      <c r="U65" s="176"/>
+      <c r="V65" s="176"/>
+      <c r="W65" s="177"/>
       <c r="X65" s="24"/>
       <c r="Y65" s="27"/>
     </row>
     <row r="66" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R66" s="176"/>
-      <c r="S66" s="177"/>
-      <c r="T66" s="177"/>
-      <c r="U66" s="177"/>
-      <c r="V66" s="177"/>
-      <c r="W66" s="178"/>
+      <c r="R66" s="175"/>
+      <c r="S66" s="176"/>
+      <c r="T66" s="176"/>
+      <c r="U66" s="176"/>
+      <c r="V66" s="176"/>
+      <c r="W66" s="177"/>
       <c r="X66" s="24"/>
       <c r="Y66" s="27"/>
     </row>
     <row r="67" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R67" s="176"/>
-      <c r="S67" s="177"/>
-      <c r="T67" s="177"/>
-      <c r="U67" s="177"/>
-      <c r="V67" s="177"/>
-      <c r="W67" s="178"/>
+      <c r="R67" s="175"/>
+      <c r="S67" s="176"/>
+      <c r="T67" s="176"/>
+      <c r="U67" s="176"/>
+      <c r="V67" s="176"/>
+      <c r="W67" s="177"/>
       <c r="X67" s="24"/>
       <c r="Y67" s="27"/>
     </row>
     <row r="68" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R68" s="176"/>
-      <c r="S68" s="177"/>
-      <c r="T68" s="177"/>
-      <c r="U68" s="177"/>
-      <c r="V68" s="177"/>
-      <c r="W68" s="178"/>
+      <c r="R68" s="175"/>
+      <c r="S68" s="176"/>
+      <c r="T68" s="176"/>
+      <c r="U68" s="176"/>
+      <c r="V68" s="176"/>
+      <c r="W68" s="177"/>
       <c r="X68" s="24"/>
       <c r="Y68" s="27"/>
     </row>
     <row r="69" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R69" s="176"/>
-      <c r="S69" s="177"/>
-      <c r="T69" s="177"/>
-      <c r="U69" s="177"/>
-      <c r="V69" s="177"/>
-      <c r="W69" s="178"/>
+      <c r="R69" s="175"/>
+      <c r="S69" s="176"/>
+      <c r="T69" s="176"/>
+      <c r="U69" s="176"/>
+      <c r="V69" s="176"/>
+      <c r="W69" s="177"/>
       <c r="X69" s="24"/>
       <c r="Y69" s="27"/>
     </row>
     <row r="70" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R70" s="176"/>
-      <c r="S70" s="177"/>
-      <c r="T70" s="177"/>
-      <c r="U70" s="177"/>
-      <c r="V70" s="177"/>
-      <c r="W70" s="178"/>
+      <c r="R70" s="175"/>
+      <c r="S70" s="176"/>
+      <c r="T70" s="176"/>
+      <c r="U70" s="176"/>
+      <c r="V70" s="176"/>
+      <c r="W70" s="177"/>
       <c r="X70" s="24"/>
       <c r="Y70" s="27"/>
     </row>
     <row r="71" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R71" s="176"/>
-      <c r="S71" s="177"/>
-      <c r="T71" s="177"/>
-      <c r="U71" s="177"/>
-      <c r="V71" s="177"/>
-      <c r="W71" s="178"/>
+      <c r="R71" s="175"/>
+      <c r="S71" s="176"/>
+      <c r="T71" s="176"/>
+      <c r="U71" s="176"/>
+      <c r="V71" s="176"/>
+      <c r="W71" s="177"/>
       <c r="X71" s="24"/>
       <c r="Y71" s="27"/>
     </row>
     <row r="72" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R72" s="176"/>
-      <c r="S72" s="177"/>
-      <c r="T72" s="177"/>
-      <c r="U72" s="177"/>
-      <c r="V72" s="177"/>
-      <c r="W72" s="178"/>
+      <c r="R72" s="175"/>
+      <c r="S72" s="176"/>
+      <c r="T72" s="176"/>
+      <c r="U72" s="176"/>
+      <c r="V72" s="176"/>
+      <c r="W72" s="177"/>
       <c r="X72" s="24"/>
       <c r="Y72" s="27"/>
     </row>
     <row r="73" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R73" s="176"/>
-      <c r="S73" s="177"/>
-      <c r="T73" s="177"/>
-      <c r="U73" s="177"/>
-      <c r="V73" s="177"/>
-      <c r="W73" s="178"/>
+      <c r="R73" s="175"/>
+      <c r="S73" s="176"/>
+      <c r="T73" s="176"/>
+      <c r="U73" s="176"/>
+      <c r="V73" s="176"/>
+      <c r="W73" s="177"/>
       <c r="X73" s="24"/>
       <c r="Y73" s="27"/>
     </row>
     <row r="74" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R74" s="176"/>
-      <c r="S74" s="177"/>
-      <c r="T74" s="177"/>
-      <c r="U74" s="177"/>
-      <c r="V74" s="177"/>
-      <c r="W74" s="178"/>
+      <c r="R74" s="175"/>
+      <c r="S74" s="176"/>
+      <c r="T74" s="176"/>
+      <c r="U74" s="176"/>
+      <c r="V74" s="176"/>
+      <c r="W74" s="177"/>
       <c r="X74" s="24"/>
       <c r="Y74" s="27"/>
     </row>
     <row r="75" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R75" s="176"/>
-      <c r="S75" s="177"/>
-      <c r="T75" s="177"/>
-      <c r="U75" s="177"/>
-      <c r="V75" s="177"/>
-      <c r="W75" s="178"/>
+      <c r="R75" s="175"/>
+      <c r="S75" s="176"/>
+      <c r="T75" s="176"/>
+      <c r="U75" s="176"/>
+      <c r="V75" s="176"/>
+      <c r="W75" s="177"/>
       <c r="X75" s="24"/>
       <c r="Y75" s="27"/>
     </row>
     <row r="76" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R76" s="176"/>
-      <c r="S76" s="177"/>
-      <c r="T76" s="177"/>
-      <c r="U76" s="177"/>
-      <c r="V76" s="177"/>
-      <c r="W76" s="178"/>
+      <c r="R76" s="175"/>
+      <c r="S76" s="176"/>
+      <c r="T76" s="176"/>
+      <c r="U76" s="176"/>
+      <c r="V76" s="176"/>
+      <c r="W76" s="177"/>
       <c r="X76" s="24"/>
       <c r="Y76" s="27"/>
     </row>
     <row r="77" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R77" s="176"/>
-      <c r="S77" s="177"/>
-      <c r="T77" s="177"/>
-      <c r="U77" s="177"/>
-      <c r="V77" s="177"/>
-      <c r="W77" s="178"/>
+      <c r="R77" s="175"/>
+      <c r="S77" s="176"/>
+      <c r="T77" s="176"/>
+      <c r="U77" s="176"/>
+      <c r="V77" s="176"/>
+      <c r="W77" s="177"/>
       <c r="X77" s="24"/>
       <c r="Y77" s="27"/>
     </row>
     <row r="78" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R78" s="176"/>
-      <c r="S78" s="177"/>
-      <c r="T78" s="177"/>
-      <c r="U78" s="177"/>
-      <c r="V78" s="177"/>
-      <c r="W78" s="178"/>
+      <c r="R78" s="175"/>
+      <c r="S78" s="176"/>
+      <c r="T78" s="176"/>
+      <c r="U78" s="176"/>
+      <c r="V78" s="176"/>
+      <c r="W78" s="177"/>
       <c r="X78" s="24"/>
       <c r="Y78" s="27"/>
     </row>
     <row r="79" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R79" s="176"/>
-      <c r="S79" s="177"/>
-      <c r="T79" s="177"/>
-      <c r="U79" s="177"/>
-      <c r="V79" s="177"/>
-      <c r="W79" s="178"/>
+      <c r="R79" s="175"/>
+      <c r="S79" s="176"/>
+      <c r="T79" s="176"/>
+      <c r="U79" s="176"/>
+      <c r="V79" s="176"/>
+      <c r="W79" s="177"/>
       <c r="X79" s="24"/>
       <c r="Y79" s="27"/>
     </row>
     <row r="80" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R80" s="176"/>
-      <c r="S80" s="177"/>
-      <c r="T80" s="177"/>
-      <c r="U80" s="177"/>
-      <c r="V80" s="177"/>
-      <c r="W80" s="178"/>
+      <c r="R80" s="175"/>
+      <c r="S80" s="176"/>
+      <c r="T80" s="176"/>
+      <c r="U80" s="176"/>
+      <c r="V80" s="176"/>
+      <c r="W80" s="177"/>
       <c r="X80" s="24"/>
       <c r="Y80" s="27"/>
     </row>
     <row r="81" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R81" s="176"/>
-      <c r="S81" s="177"/>
-      <c r="T81" s="177"/>
-      <c r="U81" s="177"/>
-      <c r="V81" s="177"/>
-      <c r="W81" s="178"/>
+      <c r="R81" s="175"/>
+      <c r="S81" s="176"/>
+      <c r="T81" s="176"/>
+      <c r="U81" s="176"/>
+      <c r="V81" s="176"/>
+      <c r="W81" s="177"/>
       <c r="X81" s="24"/>
       <c r="Y81" s="27"/>
     </row>
     <row r="82" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R82" s="176"/>
-      <c r="S82" s="177"/>
-      <c r="T82" s="177"/>
-      <c r="U82" s="177"/>
-      <c r="V82" s="177"/>
-      <c r="W82" s="178"/>
+      <c r="R82" s="175"/>
+      <c r="S82" s="176"/>
+      <c r="T82" s="176"/>
+      <c r="U82" s="176"/>
+      <c r="V82" s="176"/>
+      <c r="W82" s="177"/>
       <c r="X82" s="24"/>
       <c r="Y82" s="27"/>
     </row>
     <row r="83" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R83" s="176"/>
-      <c r="S83" s="177"/>
-      <c r="T83" s="177"/>
-      <c r="U83" s="177"/>
-      <c r="V83" s="177"/>
-      <c r="W83" s="178"/>
+      <c r="R83" s="175"/>
+      <c r="S83" s="176"/>
+      <c r="T83" s="176"/>
+      <c r="U83" s="176"/>
+      <c r="V83" s="176"/>
+      <c r="W83" s="177"/>
       <c r="X83" s="24"/>
       <c r="Y83" s="27"/>
     </row>
     <row r="84" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R84" s="176"/>
-      <c r="S84" s="177"/>
-      <c r="T84" s="177"/>
-      <c r="U84" s="177"/>
-      <c r="V84" s="177"/>
-      <c r="W84" s="178"/>
+      <c r="R84" s="175"/>
+      <c r="S84" s="176"/>
+      <c r="T84" s="176"/>
+      <c r="U84" s="176"/>
+      <c r="V84" s="176"/>
+      <c r="W84" s="177"/>
       <c r="X84" s="24"/>
       <c r="Y84" s="27"/>
     </row>
     <row r="85" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R85" s="176"/>
-      <c r="S85" s="177"/>
-      <c r="T85" s="177"/>
-      <c r="U85" s="177"/>
-      <c r="V85" s="177"/>
-      <c r="W85" s="178"/>
+      <c r="R85" s="175"/>
+      <c r="S85" s="176"/>
+      <c r="T85" s="176"/>
+      <c r="U85" s="176"/>
+      <c r="V85" s="176"/>
+      <c r="W85" s="177"/>
       <c r="X85" s="24"/>
       <c r="Y85" s="27"/>
     </row>
     <row r="86" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R86" s="176"/>
-      <c r="S86" s="177"/>
-      <c r="T86" s="177"/>
-      <c r="U86" s="177"/>
-      <c r="V86" s="177"/>
-      <c r="W86" s="178"/>
+      <c r="R86" s="175"/>
+      <c r="S86" s="176"/>
+      <c r="T86" s="176"/>
+      <c r="U86" s="176"/>
+      <c r="V86" s="176"/>
+      <c r="W86" s="177"/>
       <c r="X86" s="24"/>
       <c r="Y86" s="27"/>
     </row>
     <row r="87" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R87" s="176"/>
-      <c r="S87" s="177"/>
-      <c r="T87" s="177"/>
-      <c r="U87" s="177"/>
-      <c r="V87" s="177"/>
-      <c r="W87" s="178"/>
+      <c r="R87" s="175"/>
+      <c r="S87" s="176"/>
+      <c r="T87" s="176"/>
+      <c r="U87" s="176"/>
+      <c r="V87" s="176"/>
+      <c r="W87" s="177"/>
       <c r="X87" s="24"/>
       <c r="Y87" s="27"/>
     </row>
     <row r="88" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R88" s="176"/>
-      <c r="S88" s="177"/>
-      <c r="T88" s="177"/>
-      <c r="U88" s="177"/>
-      <c r="V88" s="177"/>
-      <c r="W88" s="178"/>
+      <c r="R88" s="175"/>
+      <c r="S88" s="176"/>
+      <c r="T88" s="176"/>
+      <c r="U88" s="176"/>
+      <c r="V88" s="176"/>
+      <c r="W88" s="177"/>
       <c r="X88" s="24"/>
       <c r="Y88" s="27"/>
     </row>
     <row r="89" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R89" s="176"/>
-      <c r="S89" s="177"/>
-      <c r="T89" s="177"/>
-      <c r="U89" s="177"/>
-      <c r="V89" s="177"/>
-      <c r="W89" s="178"/>
+      <c r="R89" s="175"/>
+      <c r="S89" s="176"/>
+      <c r="T89" s="176"/>
+      <c r="U89" s="176"/>
+      <c r="V89" s="176"/>
+      <c r="W89" s="177"/>
       <c r="X89" s="24"/>
       <c r="Y89" s="27"/>
     </row>
     <row r="90" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R90" s="176"/>
-      <c r="S90" s="177"/>
-      <c r="T90" s="177"/>
-      <c r="U90" s="177"/>
-      <c r="V90" s="177"/>
-      <c r="W90" s="178"/>
+      <c r="R90" s="175"/>
+      <c r="S90" s="176"/>
+      <c r="T90" s="176"/>
+      <c r="U90" s="176"/>
+      <c r="V90" s="176"/>
+      <c r="W90" s="177"/>
       <c r="X90" s="24"/>
       <c r="Y90" s="27"/>
     </row>
     <row r="91" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R91" s="176"/>
-      <c r="S91" s="177"/>
-      <c r="T91" s="177"/>
-      <c r="U91" s="177"/>
-      <c r="V91" s="177"/>
-      <c r="W91" s="178"/>
+      <c r="R91" s="175"/>
+      <c r="S91" s="176"/>
+      <c r="T91" s="176"/>
+      <c r="U91" s="176"/>
+      <c r="V91" s="176"/>
+      <c r="W91" s="177"/>
       <c r="X91" s="24"/>
       <c r="Y91" s="27"/>
     </row>
     <row r="92" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R92" s="176"/>
-      <c r="S92" s="177"/>
-      <c r="T92" s="177"/>
-      <c r="U92" s="177"/>
-      <c r="V92" s="177"/>
-      <c r="W92" s="178"/>
+      <c r="R92" s="175"/>
+      <c r="S92" s="176"/>
+      <c r="T92" s="176"/>
+      <c r="U92" s="176"/>
+      <c r="V92" s="176"/>
+      <c r="W92" s="177"/>
       <c r="X92" s="24"/>
       <c r="Y92" s="27"/>
     </row>
     <row r="93" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R93" s="176"/>
-      <c r="S93" s="177"/>
-      <c r="T93" s="177"/>
-      <c r="U93" s="177"/>
-      <c r="V93" s="177"/>
-      <c r="W93" s="178"/>
+      <c r="R93" s="175"/>
+      <c r="S93" s="176"/>
+      <c r="T93" s="176"/>
+      <c r="U93" s="176"/>
+      <c r="V93" s="176"/>
+      <c r="W93" s="177"/>
       <c r="X93" s="24"/>
       <c r="Y93" s="27"/>
     </row>
     <row r="94" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R94" s="176"/>
-      <c r="S94" s="177"/>
-      <c r="T94" s="177"/>
-      <c r="U94" s="177"/>
-      <c r="V94" s="177"/>
-      <c r="W94" s="178"/>
+      <c r="R94" s="175"/>
+      <c r="S94" s="176"/>
+      <c r="T94" s="176"/>
+      <c r="U94" s="176"/>
+      <c r="V94" s="176"/>
+      <c r="W94" s="177"/>
       <c r="X94" s="24"/>
       <c r="Y94" s="27"/>
     </row>
     <row r="95" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R95" s="176"/>
-      <c r="S95" s="177"/>
-      <c r="T95" s="177"/>
-      <c r="U95" s="177"/>
-      <c r="V95" s="177"/>
-      <c r="W95" s="178"/>
+      <c r="R95" s="175"/>
+      <c r="S95" s="176"/>
+      <c r="T95" s="176"/>
+      <c r="U95" s="176"/>
+      <c r="V95" s="176"/>
+      <c r="W95" s="177"/>
       <c r="X95" s="24"/>
       <c r="Y95" s="27"/>
     </row>
     <row r="96" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R96" s="176"/>
-      <c r="S96" s="177"/>
-      <c r="T96" s="177"/>
-      <c r="U96" s="177"/>
-      <c r="V96" s="177"/>
-      <c r="W96" s="178"/>
+      <c r="R96" s="175"/>
+      <c r="S96" s="176"/>
+      <c r="T96" s="176"/>
+      <c r="U96" s="176"/>
+      <c r="V96" s="176"/>
+      <c r="W96" s="177"/>
       <c r="X96" s="24"/>
       <c r="Y96" s="27"/>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R97" s="176"/>
-      <c r="S97" s="177"/>
-      <c r="T97" s="177"/>
-      <c r="U97" s="177"/>
-      <c r="V97" s="177"/>
-      <c r="W97" s="178"/>
+      <c r="R97" s="175"/>
+      <c r="S97" s="176"/>
+      <c r="T97" s="176"/>
+      <c r="U97" s="176"/>
+      <c r="V97" s="176"/>
+      <c r="W97" s="177"/>
       <c r="X97" s="24"/>
       <c r="Y97" s="27"/>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R98" s="176"/>
-      <c r="S98" s="177"/>
-      <c r="T98" s="177"/>
-      <c r="U98" s="177"/>
-      <c r="V98" s="177"/>
-      <c r="W98" s="178"/>
+      <c r="R98" s="175"/>
+      <c r="S98" s="176"/>
+      <c r="T98" s="176"/>
+      <c r="U98" s="176"/>
+      <c r="V98" s="176"/>
+      <c r="W98" s="177"/>
       <c r="X98" s="24"/>
       <c r="Y98" s="27"/>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R99" s="176"/>
-      <c r="S99" s="177"/>
-      <c r="T99" s="177"/>
-      <c r="U99" s="177"/>
-      <c r="V99" s="177"/>
-      <c r="W99" s="178"/>
+      <c r="R99" s="175"/>
+      <c r="S99" s="176"/>
+      <c r="T99" s="176"/>
+      <c r="U99" s="176"/>
+      <c r="V99" s="176"/>
+      <c r="W99" s="177"/>
       <c r="X99" s="24"/>
       <c r="Y99" s="27"/>
     </row>
     <row r="100" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R100" s="176"/>
-      <c r="S100" s="177"/>
-      <c r="T100" s="177"/>
-      <c r="U100" s="177"/>
-      <c r="V100" s="177"/>
-      <c r="W100" s="178"/>
+      <c r="R100" s="175"/>
+      <c r="S100" s="176"/>
+      <c r="T100" s="176"/>
+      <c r="U100" s="176"/>
+      <c r="V100" s="176"/>
+      <c r="W100" s="177"/>
       <c r="X100" s="24"/>
       <c r="Y100" s="27"/>
     </row>
     <row r="101" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R101" s="176"/>
-      <c r="S101" s="177"/>
-      <c r="T101" s="177"/>
-      <c r="U101" s="177"/>
-      <c r="V101" s="177"/>
-      <c r="W101" s="178"/>
+      <c r="R101" s="175"/>
+      <c r="S101" s="176"/>
+      <c r="T101" s="176"/>
+      <c r="U101" s="176"/>
+      <c r="V101" s="176"/>
+      <c r="W101" s="177"/>
       <c r="X101" s="24"/>
       <c r="Y101" s="27"/>
     </row>
     <row r="102" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R102" s="176"/>
-      <c r="S102" s="177"/>
-      <c r="T102" s="177"/>
-      <c r="U102" s="177"/>
-      <c r="V102" s="177"/>
-      <c r="W102" s="178"/>
+      <c r="R102" s="175"/>
+      <c r="S102" s="176"/>
+      <c r="T102" s="176"/>
+      <c r="U102" s="176"/>
+      <c r="V102" s="176"/>
+      <c r="W102" s="177"/>
       <c r="X102" s="24"/>
       <c r="Y102" s="27"/>
     </row>
     <row r="103" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R103" s="176"/>
-      <c r="S103" s="177"/>
-      <c r="T103" s="177"/>
-      <c r="U103" s="177"/>
-      <c r="V103" s="177"/>
-      <c r="W103" s="178"/>
+      <c r="R103" s="175"/>
+      <c r="S103" s="176"/>
+      <c r="T103" s="176"/>
+      <c r="U103" s="176"/>
+      <c r="V103" s="176"/>
+      <c r="W103" s="177"/>
       <c r="X103" s="24"/>
       <c r="Y103" s="27"/>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R104" s="176"/>
-      <c r="S104" s="177"/>
-      <c r="T104" s="177"/>
-      <c r="U104" s="177"/>
-      <c r="V104" s="177"/>
-      <c r="W104" s="178"/>
+      <c r="R104" s="175"/>
+      <c r="S104" s="176"/>
+      <c r="T104" s="176"/>
+      <c r="U104" s="176"/>
+      <c r="V104" s="176"/>
+      <c r="W104" s="177"/>
       <c r="X104" s="24"/>
       <c r="Y104" s="27"/>
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R105" s="176"/>
-      <c r="S105" s="177"/>
-      <c r="T105" s="177"/>
-      <c r="U105" s="177"/>
-      <c r="V105" s="177"/>
-      <c r="W105" s="178"/>
+      <c r="R105" s="175"/>
+      <c r="S105" s="176"/>
+      <c r="T105" s="176"/>
+      <c r="U105" s="176"/>
+      <c r="V105" s="176"/>
+      <c r="W105" s="177"/>
       <c r="X105" s="24"/>
       <c r="Y105" s="27"/>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R106" s="176"/>
-      <c r="S106" s="177"/>
-      <c r="T106" s="177"/>
-      <c r="U106" s="177"/>
-      <c r="V106" s="177"/>
-      <c r="W106" s="178"/>
+      <c r="R106" s="175"/>
+      <c r="S106" s="176"/>
+      <c r="T106" s="176"/>
+      <c r="U106" s="176"/>
+      <c r="V106" s="176"/>
+      <c r="W106" s="177"/>
       <c r="X106" s="24"/>
       <c r="Y106" s="27"/>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R107" s="176"/>
-      <c r="S107" s="177"/>
-      <c r="T107" s="177"/>
-      <c r="U107" s="177"/>
-      <c r="V107" s="177"/>
-      <c r="W107" s="178"/>
+      <c r="R107" s="175"/>
+      <c r="S107" s="176"/>
+      <c r="T107" s="176"/>
+      <c r="U107" s="176"/>
+      <c r="V107" s="176"/>
+      <c r="W107" s="177"/>
       <c r="X107" s="24"/>
       <c r="Y107" s="27"/>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R108" s="182"/>
-      <c r="S108" s="183"/>
-      <c r="T108" s="183"/>
-      <c r="U108" s="183"/>
-      <c r="V108" s="183"/>
-      <c r="W108" s="184"/>
+      <c r="R108" s="178"/>
+      <c r="S108" s="179"/>
+      <c r="T108" s="179"/>
+      <c r="U108" s="179"/>
+      <c r="V108" s="179"/>
+      <c r="W108" s="180"/>
       <c r="X108" s="78"/>
       <c r="Y108" s="26"/>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R109" s="176"/>
-      <c r="S109" s="177"/>
-      <c r="T109" s="177"/>
-      <c r="U109" s="177"/>
-      <c r="V109" s="177"/>
-      <c r="W109" s="178"/>
+      <c r="R109" s="175"/>
+      <c r="S109" s="176"/>
+      <c r="T109" s="176"/>
+      <c r="U109" s="176"/>
+      <c r="V109" s="176"/>
+      <c r="W109" s="177"/>
       <c r="X109" s="24"/>
       <c r="Y109" s="27"/>
       <c r="AC109" t="s">
@@ -5540,1012 +5540,1012 @@
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R110" s="176"/>
-      <c r="S110" s="177"/>
-      <c r="T110" s="177"/>
-      <c r="U110" s="177"/>
-      <c r="V110" s="177"/>
-      <c r="W110" s="178"/>
+      <c r="R110" s="175"/>
+      <c r="S110" s="176"/>
+      <c r="T110" s="176"/>
+      <c r="U110" s="176"/>
+      <c r="V110" s="176"/>
+      <c r="W110" s="177"/>
       <c r="X110" s="24"/>
       <c r="Y110" s="27"/>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R111" s="176"/>
-      <c r="S111" s="177"/>
-      <c r="T111" s="177"/>
-      <c r="U111" s="177"/>
-      <c r="V111" s="177"/>
-      <c r="W111" s="178"/>
+      <c r="R111" s="175"/>
+      <c r="S111" s="176"/>
+      <c r="T111" s="176"/>
+      <c r="U111" s="176"/>
+      <c r="V111" s="176"/>
+      <c r="W111" s="177"/>
       <c r="X111" s="24"/>
       <c r="Y111" s="27"/>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="R112" s="185"/>
-      <c r="S112" s="186"/>
-      <c r="T112" s="186"/>
-      <c r="U112" s="186"/>
-      <c r="V112" s="186"/>
-      <c r="W112" s="187"/>
+      <c r="R112" s="181"/>
+      <c r="S112" s="182"/>
+      <c r="T112" s="182"/>
+      <c r="U112" s="182"/>
+      <c r="V112" s="182"/>
+      <c r="W112" s="183"/>
       <c r="X112" s="24"/>
       <c r="Y112" s="27"/>
     </row>
     <row r="113" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R113" s="176"/>
-      <c r="S113" s="177"/>
-      <c r="T113" s="177"/>
-      <c r="U113" s="177"/>
-      <c r="V113" s="177"/>
-      <c r="W113" s="178"/>
+      <c r="R113" s="175"/>
+      <c r="S113" s="176"/>
+      <c r="T113" s="176"/>
+      <c r="U113" s="176"/>
+      <c r="V113" s="176"/>
+      <c r="W113" s="177"/>
       <c r="X113" s="24"/>
       <c r="Y113" s="27"/>
     </row>
     <row r="114" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R114" s="176"/>
-      <c r="S114" s="177"/>
-      <c r="T114" s="177"/>
-      <c r="U114" s="177"/>
-      <c r="V114" s="177"/>
-      <c r="W114" s="178"/>
+      <c r="R114" s="175"/>
+      <c r="S114" s="176"/>
+      <c r="T114" s="176"/>
+      <c r="U114" s="176"/>
+      <c r="V114" s="176"/>
+      <c r="W114" s="177"/>
       <c r="X114" s="24"/>
       <c r="Y114" s="27"/>
     </row>
     <row r="115" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R115" s="176"/>
-      <c r="S115" s="177"/>
-      <c r="T115" s="177"/>
-      <c r="U115" s="177"/>
-      <c r="V115" s="177"/>
-      <c r="W115" s="178"/>
+      <c r="R115" s="175"/>
+      <c r="S115" s="176"/>
+      <c r="T115" s="176"/>
+      <c r="U115" s="176"/>
+      <c r="V115" s="176"/>
+      <c r="W115" s="177"/>
       <c r="X115" s="24"/>
       <c r="Y115" s="27"/>
     </row>
     <row r="116" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R116" s="176"/>
-      <c r="S116" s="177"/>
-      <c r="T116" s="177"/>
-      <c r="U116" s="177"/>
-      <c r="V116" s="177"/>
-      <c r="W116" s="178"/>
+      <c r="R116" s="175"/>
+      <c r="S116" s="176"/>
+      <c r="T116" s="176"/>
+      <c r="U116" s="176"/>
+      <c r="V116" s="176"/>
+      <c r="W116" s="177"/>
       <c r="X116" s="24"/>
       <c r="Y116" s="27"/>
     </row>
     <row r="117" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R117" s="176"/>
-      <c r="S117" s="177"/>
-      <c r="T117" s="177"/>
-      <c r="U117" s="177"/>
-      <c r="V117" s="177"/>
-      <c r="W117" s="178"/>
+      <c r="R117" s="175"/>
+      <c r="S117" s="176"/>
+      <c r="T117" s="176"/>
+      <c r="U117" s="176"/>
+      <c r="V117" s="176"/>
+      <c r="W117" s="177"/>
       <c r="X117" s="24"/>
       <c r="Y117" s="27"/>
     </row>
     <row r="118" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R118" s="176"/>
-      <c r="S118" s="177"/>
-      <c r="T118" s="177"/>
-      <c r="U118" s="177"/>
-      <c r="V118" s="177"/>
-      <c r="W118" s="178"/>
+      <c r="R118" s="175"/>
+      <c r="S118" s="176"/>
+      <c r="T118" s="176"/>
+      <c r="U118" s="176"/>
+      <c r="V118" s="176"/>
+      <c r="W118" s="177"/>
       <c r="X118" s="24"/>
       <c r="Y118" s="27"/>
     </row>
     <row r="119" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R119" s="176"/>
-      <c r="S119" s="177"/>
-      <c r="T119" s="177"/>
-      <c r="U119" s="177"/>
-      <c r="V119" s="177"/>
-      <c r="W119" s="178"/>
+      <c r="R119" s="175"/>
+      <c r="S119" s="176"/>
+      <c r="T119" s="176"/>
+      <c r="U119" s="176"/>
+      <c r="V119" s="176"/>
+      <c r="W119" s="177"/>
       <c r="X119" s="24"/>
       <c r="Y119" s="27"/>
     </row>
     <row r="120" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R120" s="176"/>
-      <c r="S120" s="177"/>
-      <c r="T120" s="177"/>
-      <c r="U120" s="177"/>
-      <c r="V120" s="177"/>
-      <c r="W120" s="178"/>
+      <c r="R120" s="175"/>
+      <c r="S120" s="176"/>
+      <c r="T120" s="176"/>
+      <c r="U120" s="176"/>
+      <c r="V120" s="176"/>
+      <c r="W120" s="177"/>
       <c r="X120" s="24"/>
       <c r="Y120" s="27"/>
     </row>
     <row r="121" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R121" s="176"/>
-      <c r="S121" s="177"/>
-      <c r="T121" s="177"/>
-      <c r="U121" s="177"/>
-      <c r="V121" s="177"/>
-      <c r="W121" s="178"/>
+      <c r="R121" s="175"/>
+      <c r="S121" s="176"/>
+      <c r="T121" s="176"/>
+      <c r="U121" s="176"/>
+      <c r="V121" s="176"/>
+      <c r="W121" s="177"/>
       <c r="X121" s="24"/>
       <c r="Y121" s="27"/>
     </row>
     <row r="122" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R122" s="176"/>
-      <c r="S122" s="177"/>
-      <c r="T122" s="177"/>
-      <c r="U122" s="177"/>
-      <c r="V122" s="177"/>
-      <c r="W122" s="178"/>
+      <c r="R122" s="175"/>
+      <c r="S122" s="176"/>
+      <c r="T122" s="176"/>
+      <c r="U122" s="176"/>
+      <c r="V122" s="176"/>
+      <c r="W122" s="177"/>
       <c r="X122" s="24"/>
       <c r="Y122" s="27"/>
     </row>
     <row r="123" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R123" s="176"/>
-      <c r="S123" s="177"/>
-      <c r="T123" s="177"/>
-      <c r="U123" s="177"/>
-      <c r="V123" s="177"/>
-      <c r="W123" s="178"/>
+      <c r="R123" s="175"/>
+      <c r="S123" s="176"/>
+      <c r="T123" s="176"/>
+      <c r="U123" s="176"/>
+      <c r="V123" s="176"/>
+      <c r="W123" s="177"/>
       <c r="X123" s="24"/>
       <c r="Y123" s="27"/>
     </row>
     <row r="124" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R124" s="176"/>
-      <c r="S124" s="177"/>
-      <c r="T124" s="177"/>
-      <c r="U124" s="177"/>
-      <c r="V124" s="177"/>
-      <c r="W124" s="178"/>
+      <c r="R124" s="175"/>
+      <c r="S124" s="176"/>
+      <c r="T124" s="176"/>
+      <c r="U124" s="176"/>
+      <c r="V124" s="176"/>
+      <c r="W124" s="177"/>
       <c r="X124" s="24"/>
       <c r="Y124" s="27"/>
     </row>
     <row r="125" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R125" s="176"/>
-      <c r="S125" s="177"/>
-      <c r="T125" s="177"/>
-      <c r="U125" s="177"/>
-      <c r="V125" s="177"/>
-      <c r="W125" s="178"/>
+      <c r="R125" s="175"/>
+      <c r="S125" s="176"/>
+      <c r="T125" s="176"/>
+      <c r="U125" s="176"/>
+      <c r="V125" s="176"/>
+      <c r="W125" s="177"/>
       <c r="X125" s="24"/>
       <c r="Y125" s="27"/>
     </row>
     <row r="126" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R126" s="176"/>
-      <c r="S126" s="177"/>
-      <c r="T126" s="177"/>
-      <c r="U126" s="177"/>
-      <c r="V126" s="177"/>
-      <c r="W126" s="178"/>
+      <c r="R126" s="175"/>
+      <c r="S126" s="176"/>
+      <c r="T126" s="176"/>
+      <c r="U126" s="176"/>
+      <c r="V126" s="176"/>
+      <c r="W126" s="177"/>
       <c r="X126" s="24"/>
       <c r="Y126" s="27"/>
     </row>
     <row r="127" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R127" s="185"/>
-      <c r="S127" s="186"/>
-      <c r="T127" s="186"/>
-      <c r="U127" s="186"/>
-      <c r="V127" s="186"/>
-      <c r="W127" s="187"/>
+      <c r="R127" s="181"/>
+      <c r="S127" s="182"/>
+      <c r="T127" s="182"/>
+      <c r="U127" s="182"/>
+      <c r="V127" s="182"/>
+      <c r="W127" s="183"/>
       <c r="X127" s="24"/>
       <c r="Y127" s="27"/>
     </row>
     <row r="128" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R128" s="176"/>
-      <c r="S128" s="177"/>
-      <c r="T128" s="177"/>
-      <c r="U128" s="177"/>
-      <c r="V128" s="177"/>
-      <c r="W128" s="178"/>
+      <c r="R128" s="175"/>
+      <c r="S128" s="176"/>
+      <c r="T128" s="176"/>
+      <c r="U128" s="176"/>
+      <c r="V128" s="176"/>
+      <c r="W128" s="177"/>
       <c r="X128" s="24"/>
       <c r="Y128" s="27"/>
     </row>
     <row r="129" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R129" s="176"/>
-      <c r="S129" s="177"/>
-      <c r="T129" s="177"/>
-      <c r="U129" s="177"/>
-      <c r="V129" s="177"/>
-      <c r="W129" s="178"/>
+      <c r="R129" s="175"/>
+      <c r="S129" s="176"/>
+      <c r="T129" s="176"/>
+      <c r="U129" s="176"/>
+      <c r="V129" s="176"/>
+      <c r="W129" s="177"/>
       <c r="X129" s="24"/>
       <c r="Y129" s="27"/>
     </row>
     <row r="130" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R130" s="176"/>
-      <c r="S130" s="177"/>
-      <c r="T130" s="177"/>
-      <c r="U130" s="177"/>
-      <c r="V130" s="177"/>
-      <c r="W130" s="178"/>
+      <c r="R130" s="175"/>
+      <c r="S130" s="176"/>
+      <c r="T130" s="176"/>
+      <c r="U130" s="176"/>
+      <c r="V130" s="176"/>
+      <c r="W130" s="177"/>
       <c r="X130" s="24"/>
       <c r="Y130" s="27"/>
     </row>
     <row r="131" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R131" s="176"/>
-      <c r="S131" s="177"/>
-      <c r="T131" s="177"/>
-      <c r="U131" s="177"/>
-      <c r="V131" s="177"/>
-      <c r="W131" s="178"/>
+      <c r="R131" s="175"/>
+      <c r="S131" s="176"/>
+      <c r="T131" s="176"/>
+      <c r="U131" s="176"/>
+      <c r="V131" s="176"/>
+      <c r="W131" s="177"/>
       <c r="X131" s="24"/>
       <c r="Y131" s="27"/>
     </row>
     <row r="132" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R132" s="176"/>
-      <c r="S132" s="177"/>
-      <c r="T132" s="177"/>
-      <c r="U132" s="177"/>
-      <c r="V132" s="177"/>
-      <c r="W132" s="178"/>
+      <c r="R132" s="175"/>
+      <c r="S132" s="176"/>
+      <c r="T132" s="176"/>
+      <c r="U132" s="176"/>
+      <c r="V132" s="176"/>
+      <c r="W132" s="177"/>
       <c r="X132" s="24"/>
       <c r="Y132" s="27"/>
     </row>
     <row r="133" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R133" s="176"/>
-      <c r="S133" s="177"/>
-      <c r="T133" s="177"/>
-      <c r="U133" s="177"/>
-      <c r="V133" s="177"/>
-      <c r="W133" s="178"/>
+      <c r="R133" s="175"/>
+      <c r="S133" s="176"/>
+      <c r="T133" s="176"/>
+      <c r="U133" s="176"/>
+      <c r="V133" s="176"/>
+      <c r="W133" s="177"/>
       <c r="X133" s="24"/>
       <c r="Y133" s="27"/>
     </row>
     <row r="134" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R134" s="176"/>
-      <c r="S134" s="177"/>
-      <c r="T134" s="177"/>
-      <c r="U134" s="177"/>
-      <c r="V134" s="177"/>
-      <c r="W134" s="178"/>
+      <c r="R134" s="175"/>
+      <c r="S134" s="176"/>
+      <c r="T134" s="176"/>
+      <c r="U134" s="176"/>
+      <c r="V134" s="176"/>
+      <c r="W134" s="177"/>
       <c r="X134" s="24"/>
       <c r="Y134" s="27"/>
     </row>
     <row r="135" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R135" s="176"/>
-      <c r="S135" s="177"/>
-      <c r="T135" s="177"/>
-      <c r="U135" s="177"/>
-      <c r="V135" s="177"/>
-      <c r="W135" s="178"/>
+      <c r="R135" s="175"/>
+      <c r="S135" s="176"/>
+      <c r="T135" s="176"/>
+      <c r="U135" s="176"/>
+      <c r="V135" s="176"/>
+      <c r="W135" s="177"/>
       <c r="X135" s="24"/>
       <c r="Y135" s="27"/>
     </row>
     <row r="136" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R136" s="176"/>
-      <c r="S136" s="177"/>
-      <c r="T136" s="177"/>
-      <c r="U136" s="177"/>
-      <c r="V136" s="177"/>
-      <c r="W136" s="178"/>
+      <c r="R136" s="175"/>
+      <c r="S136" s="176"/>
+      <c r="T136" s="176"/>
+      <c r="U136" s="176"/>
+      <c r="V136" s="176"/>
+      <c r="W136" s="177"/>
       <c r="X136" s="24"/>
       <c r="Y136" s="27"/>
     </row>
     <row r="137" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R137" s="176"/>
-      <c r="S137" s="177"/>
-      <c r="T137" s="177"/>
-      <c r="U137" s="177"/>
-      <c r="V137" s="177"/>
-      <c r="W137" s="178"/>
+      <c r="R137" s="175"/>
+      <c r="S137" s="176"/>
+      <c r="T137" s="176"/>
+      <c r="U137" s="176"/>
+      <c r="V137" s="176"/>
+      <c r="W137" s="177"/>
       <c r="X137" s="24"/>
       <c r="Y137" s="27"/>
     </row>
     <row r="138" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R138" s="176"/>
-      <c r="S138" s="177"/>
-      <c r="T138" s="177"/>
-      <c r="U138" s="177"/>
-      <c r="V138" s="177"/>
-      <c r="W138" s="178"/>
+      <c r="R138" s="175"/>
+      <c r="S138" s="176"/>
+      <c r="T138" s="176"/>
+      <c r="U138" s="176"/>
+      <c r="V138" s="176"/>
+      <c r="W138" s="177"/>
       <c r="X138" s="24"/>
       <c r="Y138" s="27"/>
     </row>
     <row r="139" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R139" s="176"/>
-      <c r="S139" s="177"/>
-      <c r="T139" s="177"/>
-      <c r="U139" s="177"/>
-      <c r="V139" s="177"/>
-      <c r="W139" s="178"/>
+      <c r="R139" s="175"/>
+      <c r="S139" s="176"/>
+      <c r="T139" s="176"/>
+      <c r="U139" s="176"/>
+      <c r="V139" s="176"/>
+      <c r="W139" s="177"/>
       <c r="X139" s="24"/>
       <c r="Y139" s="27"/>
     </row>
     <row r="140" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R140" s="176"/>
-      <c r="S140" s="177"/>
-      <c r="T140" s="177"/>
-      <c r="U140" s="177"/>
-      <c r="V140" s="177"/>
-      <c r="W140" s="178"/>
+      <c r="R140" s="175"/>
+      <c r="S140" s="176"/>
+      <c r="T140" s="176"/>
+      <c r="U140" s="176"/>
+      <c r="V140" s="176"/>
+      <c r="W140" s="177"/>
       <c r="X140" s="24"/>
       <c r="Y140" s="27"/>
     </row>
     <row r="141" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R141" s="176"/>
-      <c r="S141" s="177"/>
-      <c r="T141" s="177"/>
-      <c r="U141" s="177"/>
-      <c r="V141" s="177"/>
-      <c r="W141" s="178"/>
+      <c r="R141" s="175"/>
+      <c r="S141" s="176"/>
+      <c r="T141" s="176"/>
+      <c r="U141" s="176"/>
+      <c r="V141" s="176"/>
+      <c r="W141" s="177"/>
       <c r="X141" s="24"/>
       <c r="Y141" s="27"/>
     </row>
     <row r="142" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R142" s="176"/>
-      <c r="S142" s="177"/>
-      <c r="T142" s="177"/>
-      <c r="U142" s="177"/>
-      <c r="V142" s="177"/>
-      <c r="W142" s="178"/>
+      <c r="R142" s="175"/>
+      <c r="S142" s="176"/>
+      <c r="T142" s="176"/>
+      <c r="U142" s="176"/>
+      <c r="V142" s="176"/>
+      <c r="W142" s="177"/>
       <c r="X142" s="24"/>
       <c r="Y142" s="27"/>
     </row>
     <row r="143" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R143" s="176"/>
-      <c r="S143" s="177"/>
-      <c r="T143" s="177"/>
-      <c r="U143" s="177"/>
-      <c r="V143" s="177"/>
-      <c r="W143" s="178"/>
+      <c r="R143" s="175"/>
+      <c r="S143" s="176"/>
+      <c r="T143" s="176"/>
+      <c r="U143" s="176"/>
+      <c r="V143" s="176"/>
+      <c r="W143" s="177"/>
       <c r="X143" s="24"/>
       <c r="Y143" s="27"/>
     </row>
     <row r="144" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R144" s="176"/>
-      <c r="S144" s="177"/>
-      <c r="T144" s="177"/>
-      <c r="U144" s="177"/>
-      <c r="V144" s="177"/>
-      <c r="W144" s="178"/>
+      <c r="R144" s="175"/>
+      <c r="S144" s="176"/>
+      <c r="T144" s="176"/>
+      <c r="U144" s="176"/>
+      <c r="V144" s="176"/>
+      <c r="W144" s="177"/>
       <c r="X144" s="24"/>
       <c r="Y144" s="27"/>
     </row>
     <row r="145" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R145" s="176"/>
-      <c r="S145" s="177"/>
-      <c r="T145" s="177"/>
-      <c r="U145" s="177"/>
-      <c r="V145" s="177"/>
-      <c r="W145" s="178"/>
+      <c r="R145" s="175"/>
+      <c r="S145" s="176"/>
+      <c r="T145" s="176"/>
+      <c r="U145" s="176"/>
+      <c r="V145" s="176"/>
+      <c r="W145" s="177"/>
       <c r="X145" s="24"/>
       <c r="Y145" s="27"/>
     </row>
     <row r="146" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R146" s="176"/>
-      <c r="S146" s="177"/>
-      <c r="T146" s="177"/>
-      <c r="U146" s="177"/>
-      <c r="V146" s="177"/>
-      <c r="W146" s="178"/>
+      <c r="R146" s="175"/>
+      <c r="S146" s="176"/>
+      <c r="T146" s="176"/>
+      <c r="U146" s="176"/>
+      <c r="V146" s="176"/>
+      <c r="W146" s="177"/>
       <c r="X146" s="24"/>
       <c r="Y146" s="27"/>
     </row>
     <row r="147" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R147" s="176"/>
-      <c r="S147" s="177"/>
-      <c r="T147" s="177"/>
-      <c r="U147" s="177"/>
-      <c r="V147" s="177"/>
-      <c r="W147" s="178"/>
+      <c r="R147" s="175"/>
+      <c r="S147" s="176"/>
+      <c r="T147" s="176"/>
+      <c r="U147" s="176"/>
+      <c r="V147" s="176"/>
+      <c r="W147" s="177"/>
       <c r="X147" s="24"/>
       <c r="Y147" s="27"/>
     </row>
     <row r="148" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R148" s="176"/>
-      <c r="S148" s="177"/>
-      <c r="T148" s="177"/>
-      <c r="U148" s="177"/>
-      <c r="V148" s="177"/>
-      <c r="W148" s="178"/>
+      <c r="R148" s="175"/>
+      <c r="S148" s="176"/>
+      <c r="T148" s="176"/>
+      <c r="U148" s="176"/>
+      <c r="V148" s="176"/>
+      <c r="W148" s="177"/>
       <c r="X148" s="24"/>
       <c r="Y148" s="27"/>
     </row>
     <row r="149" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R149" s="176"/>
-      <c r="S149" s="177"/>
-      <c r="T149" s="177"/>
-      <c r="U149" s="177"/>
-      <c r="V149" s="177"/>
-      <c r="W149" s="178"/>
+      <c r="R149" s="175"/>
+      <c r="S149" s="176"/>
+      <c r="T149" s="176"/>
+      <c r="U149" s="176"/>
+      <c r="V149" s="176"/>
+      <c r="W149" s="177"/>
       <c r="X149" s="24"/>
       <c r="Y149" s="27"/>
     </row>
     <row r="150" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R150" s="176"/>
-      <c r="S150" s="177"/>
-      <c r="T150" s="177"/>
-      <c r="U150" s="177"/>
-      <c r="V150" s="177"/>
-      <c r="W150" s="178"/>
+      <c r="R150" s="175"/>
+      <c r="S150" s="176"/>
+      <c r="T150" s="176"/>
+      <c r="U150" s="176"/>
+      <c r="V150" s="176"/>
+      <c r="W150" s="177"/>
       <c r="X150" s="24"/>
       <c r="Y150" s="27"/>
     </row>
     <row r="151" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R151" s="176"/>
-      <c r="S151" s="177"/>
-      <c r="T151" s="177"/>
-      <c r="U151" s="177"/>
-      <c r="V151" s="177"/>
-      <c r="W151" s="178"/>
+      <c r="R151" s="175"/>
+      <c r="S151" s="176"/>
+      <c r="T151" s="176"/>
+      <c r="U151" s="176"/>
+      <c r="V151" s="176"/>
+      <c r="W151" s="177"/>
       <c r="X151" s="24"/>
       <c r="Y151" s="27"/>
     </row>
     <row r="152" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R152" s="176"/>
-      <c r="S152" s="177"/>
-      <c r="T152" s="177"/>
-      <c r="U152" s="177"/>
-      <c r="V152" s="177"/>
-      <c r="W152" s="178"/>
+      <c r="R152" s="175"/>
+      <c r="S152" s="176"/>
+      <c r="T152" s="176"/>
+      <c r="U152" s="176"/>
+      <c r="V152" s="176"/>
+      <c r="W152" s="177"/>
       <c r="X152" s="24"/>
       <c r="Y152" s="27"/>
     </row>
     <row r="153" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R153" s="176"/>
-      <c r="S153" s="177"/>
-      <c r="T153" s="177"/>
-      <c r="U153" s="177"/>
-      <c r="V153" s="177"/>
-      <c r="W153" s="178"/>
+      <c r="R153" s="175"/>
+      <c r="S153" s="176"/>
+      <c r="T153" s="176"/>
+      <c r="U153" s="176"/>
+      <c r="V153" s="176"/>
+      <c r="W153" s="177"/>
       <c r="X153" s="24"/>
       <c r="Y153" s="27"/>
     </row>
     <row r="154" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R154" s="176"/>
-      <c r="S154" s="177"/>
-      <c r="T154" s="177"/>
-      <c r="U154" s="177"/>
-      <c r="V154" s="177"/>
-      <c r="W154" s="178"/>
+      <c r="R154" s="175"/>
+      <c r="S154" s="176"/>
+      <c r="T154" s="176"/>
+      <c r="U154" s="176"/>
+      <c r="V154" s="176"/>
+      <c r="W154" s="177"/>
       <c r="X154" s="24"/>
       <c r="Y154" s="27"/>
     </row>
     <row r="155" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R155" s="176"/>
-      <c r="S155" s="177"/>
-      <c r="T155" s="177"/>
-      <c r="U155" s="177"/>
-      <c r="V155" s="177"/>
-      <c r="W155" s="178"/>
+      <c r="R155" s="175"/>
+      <c r="S155" s="176"/>
+      <c r="T155" s="176"/>
+      <c r="U155" s="176"/>
+      <c r="V155" s="176"/>
+      <c r="W155" s="177"/>
       <c r="X155" s="24"/>
       <c r="Y155" s="27"/>
     </row>
     <row r="156" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R156" s="176"/>
-      <c r="S156" s="177"/>
-      <c r="T156" s="177"/>
-      <c r="U156" s="177"/>
-      <c r="V156" s="177"/>
-      <c r="W156" s="178"/>
+      <c r="R156" s="175"/>
+      <c r="S156" s="176"/>
+      <c r="T156" s="176"/>
+      <c r="U156" s="176"/>
+      <c r="V156" s="176"/>
+      <c r="W156" s="177"/>
       <c r="X156" s="24"/>
       <c r="Y156" s="27"/>
     </row>
     <row r="157" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R157" s="176"/>
-      <c r="S157" s="177"/>
-      <c r="T157" s="177"/>
-      <c r="U157" s="177"/>
-      <c r="V157" s="177"/>
-      <c r="W157" s="178"/>
+      <c r="R157" s="175"/>
+      <c r="S157" s="176"/>
+      <c r="T157" s="176"/>
+      <c r="U157" s="176"/>
+      <c r="V157" s="176"/>
+      <c r="W157" s="177"/>
       <c r="X157" s="24"/>
       <c r="Y157" s="27"/>
     </row>
     <row r="158" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R158" s="176"/>
-      <c r="S158" s="177"/>
-      <c r="T158" s="177"/>
-      <c r="U158" s="177"/>
-      <c r="V158" s="177"/>
-      <c r="W158" s="178"/>
+      <c r="R158" s="175"/>
+      <c r="S158" s="176"/>
+      <c r="T158" s="176"/>
+      <c r="U158" s="176"/>
+      <c r="V158" s="176"/>
+      <c r="W158" s="177"/>
       <c r="X158" s="24"/>
       <c r="Y158" s="27"/>
     </row>
     <row r="159" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R159" s="182"/>
-      <c r="S159" s="183"/>
-      <c r="T159" s="183"/>
-      <c r="U159" s="183"/>
-      <c r="V159" s="183"/>
-      <c r="W159" s="184"/>
+      <c r="R159" s="178"/>
+      <c r="S159" s="179"/>
+      <c r="T159" s="179"/>
+      <c r="U159" s="179"/>
+      <c r="V159" s="179"/>
+      <c r="W159" s="180"/>
       <c r="X159" s="78"/>
       <c r="Y159" s="26"/>
     </row>
     <row r="160" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R160" s="176"/>
-      <c r="S160" s="177"/>
-      <c r="T160" s="177"/>
-      <c r="U160" s="177"/>
-      <c r="V160" s="177"/>
-      <c r="W160" s="178"/>
+      <c r="R160" s="175"/>
+      <c r="S160" s="176"/>
+      <c r="T160" s="176"/>
+      <c r="U160" s="176"/>
+      <c r="V160" s="176"/>
+      <c r="W160" s="177"/>
       <c r="X160" s="24"/>
       <c r="Y160" s="27"/>
     </row>
     <row r="161" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R161" s="176"/>
-      <c r="S161" s="177"/>
-      <c r="T161" s="177"/>
-      <c r="U161" s="177"/>
-      <c r="V161" s="177"/>
-      <c r="W161" s="178"/>
+      <c r="R161" s="175"/>
+      <c r="S161" s="176"/>
+      <c r="T161" s="176"/>
+      <c r="U161" s="176"/>
+      <c r="V161" s="176"/>
+      <c r="W161" s="177"/>
       <c r="X161" s="24"/>
       <c r="Y161" s="27"/>
     </row>
     <row r="162" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R162" s="176"/>
-      <c r="S162" s="177"/>
-      <c r="T162" s="177"/>
-      <c r="U162" s="177"/>
-      <c r="V162" s="177"/>
-      <c r="W162" s="178"/>
+      <c r="R162" s="175"/>
+      <c r="S162" s="176"/>
+      <c r="T162" s="176"/>
+      <c r="U162" s="176"/>
+      <c r="V162" s="176"/>
+      <c r="W162" s="177"/>
       <c r="X162" s="24"/>
       <c r="Y162" s="27"/>
     </row>
     <row r="163" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R163" s="176"/>
-      <c r="S163" s="177"/>
-      <c r="T163" s="177"/>
-      <c r="U163" s="177"/>
-      <c r="V163" s="177"/>
-      <c r="W163" s="178"/>
+      <c r="R163" s="175"/>
+      <c r="S163" s="176"/>
+      <c r="T163" s="176"/>
+      <c r="U163" s="176"/>
+      <c r="V163" s="176"/>
+      <c r="W163" s="177"/>
       <c r="X163" s="24"/>
       <c r="Y163" s="27"/>
     </row>
     <row r="164" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R164" s="176"/>
-      <c r="S164" s="177"/>
-      <c r="T164" s="177"/>
-      <c r="U164" s="177"/>
-      <c r="V164" s="177"/>
-      <c r="W164" s="178"/>
+      <c r="R164" s="175"/>
+      <c r="S164" s="176"/>
+      <c r="T164" s="176"/>
+      <c r="U164" s="176"/>
+      <c r="V164" s="176"/>
+      <c r="W164" s="177"/>
       <c r="X164" s="24"/>
       <c r="Y164" s="27"/>
     </row>
     <row r="165" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R165" s="176"/>
-      <c r="S165" s="177"/>
-      <c r="T165" s="177"/>
-      <c r="U165" s="177"/>
-      <c r="V165" s="177"/>
-      <c r="W165" s="178"/>
+      <c r="R165" s="175"/>
+      <c r="S165" s="176"/>
+      <c r="T165" s="176"/>
+      <c r="U165" s="176"/>
+      <c r="V165" s="176"/>
+      <c r="W165" s="177"/>
       <c r="X165" s="24"/>
       <c r="Y165" s="27"/>
     </row>
     <row r="166" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R166" s="176"/>
-      <c r="S166" s="177"/>
-      <c r="T166" s="177"/>
-      <c r="U166" s="177"/>
-      <c r="V166" s="177"/>
-      <c r="W166" s="178"/>
+      <c r="R166" s="175"/>
+      <c r="S166" s="176"/>
+      <c r="T166" s="176"/>
+      <c r="U166" s="176"/>
+      <c r="V166" s="176"/>
+      <c r="W166" s="177"/>
       <c r="X166" s="24"/>
       <c r="Y166" s="27"/>
     </row>
     <row r="167" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R167" s="176"/>
-      <c r="S167" s="177"/>
-      <c r="T167" s="177"/>
-      <c r="U167" s="177"/>
-      <c r="V167" s="177"/>
-      <c r="W167" s="178"/>
+      <c r="R167" s="175"/>
+      <c r="S167" s="176"/>
+      <c r="T167" s="176"/>
+      <c r="U167" s="176"/>
+      <c r="V167" s="176"/>
+      <c r="W167" s="177"/>
       <c r="X167" s="24"/>
       <c r="Y167" s="27"/>
     </row>
     <row r="168" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R168" s="176"/>
-      <c r="S168" s="177"/>
-      <c r="T168" s="177"/>
-      <c r="U168" s="177"/>
-      <c r="V168" s="177"/>
-      <c r="W168" s="178"/>
+      <c r="R168" s="175"/>
+      <c r="S168" s="176"/>
+      <c r="T168" s="176"/>
+      <c r="U168" s="176"/>
+      <c r="V168" s="176"/>
+      <c r="W168" s="177"/>
       <c r="X168" s="24"/>
       <c r="Y168" s="27"/>
     </row>
     <row r="169" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R169" s="176"/>
-      <c r="S169" s="177"/>
-      <c r="T169" s="177"/>
-      <c r="U169" s="177"/>
-      <c r="V169" s="177"/>
-      <c r="W169" s="178"/>
+      <c r="R169" s="175"/>
+      <c r="S169" s="176"/>
+      <c r="T169" s="176"/>
+      <c r="U169" s="176"/>
+      <c r="V169" s="176"/>
+      <c r="W169" s="177"/>
       <c r="X169" s="24"/>
       <c r="Y169" s="27"/>
     </row>
     <row r="170" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R170" s="176"/>
-      <c r="S170" s="177"/>
-      <c r="T170" s="177"/>
-      <c r="U170" s="177"/>
-      <c r="V170" s="177"/>
-      <c r="W170" s="178"/>
+      <c r="R170" s="175"/>
+      <c r="S170" s="176"/>
+      <c r="T170" s="176"/>
+      <c r="U170" s="176"/>
+      <c r="V170" s="176"/>
+      <c r="W170" s="177"/>
       <c r="X170" s="24"/>
       <c r="Y170" s="27"/>
     </row>
     <row r="171" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R171" s="176"/>
-      <c r="S171" s="177"/>
-      <c r="T171" s="177"/>
-      <c r="U171" s="177"/>
-      <c r="V171" s="177"/>
-      <c r="W171" s="178"/>
+      <c r="R171" s="175"/>
+      <c r="S171" s="176"/>
+      <c r="T171" s="176"/>
+      <c r="U171" s="176"/>
+      <c r="V171" s="176"/>
+      <c r="W171" s="177"/>
       <c r="X171" s="24"/>
       <c r="Y171" s="27"/>
     </row>
     <row r="172" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R172" s="176"/>
-      <c r="S172" s="177"/>
-      <c r="T172" s="177"/>
-      <c r="U172" s="177"/>
-      <c r="V172" s="177"/>
-      <c r="W172" s="178"/>
+      <c r="R172" s="175"/>
+      <c r="S172" s="176"/>
+      <c r="T172" s="176"/>
+      <c r="U172" s="176"/>
+      <c r="V172" s="176"/>
+      <c r="W172" s="177"/>
       <c r="X172" s="24"/>
       <c r="Y172" s="27"/>
     </row>
     <row r="173" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R173" s="176"/>
-      <c r="S173" s="177"/>
-      <c r="T173" s="177"/>
-      <c r="U173" s="177"/>
-      <c r="V173" s="177"/>
-      <c r="W173" s="178"/>
+      <c r="R173" s="175"/>
+      <c r="S173" s="176"/>
+      <c r="T173" s="176"/>
+      <c r="U173" s="176"/>
+      <c r="V173" s="176"/>
+      <c r="W173" s="177"/>
       <c r="X173" s="24"/>
       <c r="Y173" s="27"/>
     </row>
     <row r="174" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R174" s="176"/>
-      <c r="S174" s="177"/>
-      <c r="T174" s="177"/>
-      <c r="U174" s="177"/>
-      <c r="V174" s="177"/>
-      <c r="W174" s="178"/>
+      <c r="R174" s="175"/>
+      <c r="S174" s="176"/>
+      <c r="T174" s="176"/>
+      <c r="U174" s="176"/>
+      <c r="V174" s="176"/>
+      <c r="W174" s="177"/>
       <c r="X174" s="24"/>
       <c r="Y174" s="27"/>
     </row>
     <row r="175" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R175" s="176"/>
-      <c r="S175" s="177"/>
-      <c r="T175" s="177"/>
-      <c r="U175" s="177"/>
-      <c r="V175" s="177"/>
-      <c r="W175" s="178"/>
+      <c r="R175" s="175"/>
+      <c r="S175" s="176"/>
+      <c r="T175" s="176"/>
+      <c r="U175" s="176"/>
+      <c r="V175" s="176"/>
+      <c r="W175" s="177"/>
       <c r="X175" s="24"/>
       <c r="Y175" s="27"/>
     </row>
     <row r="176" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R176" s="176"/>
-      <c r="S176" s="177"/>
-      <c r="T176" s="177"/>
-      <c r="U176" s="177"/>
-      <c r="V176" s="177"/>
-      <c r="W176" s="178"/>
+      <c r="R176" s="175"/>
+      <c r="S176" s="176"/>
+      <c r="T176" s="176"/>
+      <c r="U176" s="176"/>
+      <c r="V176" s="176"/>
+      <c r="W176" s="177"/>
       <c r="X176" s="24"/>
       <c r="Y176" s="27"/>
     </row>
     <row r="177" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R177" s="176"/>
-      <c r="S177" s="177"/>
-      <c r="T177" s="177"/>
-      <c r="U177" s="177"/>
-      <c r="V177" s="177"/>
-      <c r="W177" s="178"/>
+      <c r="R177" s="175"/>
+      <c r="S177" s="176"/>
+      <c r="T177" s="176"/>
+      <c r="U177" s="176"/>
+      <c r="V177" s="176"/>
+      <c r="W177" s="177"/>
       <c r="X177" s="24"/>
       <c r="Y177" s="27"/>
     </row>
     <row r="178" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R178" s="176"/>
-      <c r="S178" s="177"/>
-      <c r="T178" s="177"/>
-      <c r="U178" s="177"/>
-      <c r="V178" s="177"/>
-      <c r="W178" s="178"/>
+      <c r="R178" s="175"/>
+      <c r="S178" s="176"/>
+      <c r="T178" s="176"/>
+      <c r="U178" s="176"/>
+      <c r="V178" s="176"/>
+      <c r="W178" s="177"/>
       <c r="X178" s="24"/>
       <c r="Y178" s="27"/>
     </row>
     <row r="179" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R179" s="176"/>
-      <c r="S179" s="177"/>
-      <c r="T179" s="177"/>
-      <c r="U179" s="177"/>
-      <c r="V179" s="177"/>
-      <c r="W179" s="178"/>
+      <c r="R179" s="175"/>
+      <c r="S179" s="176"/>
+      <c r="T179" s="176"/>
+      <c r="U179" s="176"/>
+      <c r="V179" s="176"/>
+      <c r="W179" s="177"/>
       <c r="X179" s="24"/>
       <c r="Y179" s="27"/>
     </row>
     <row r="180" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R180" s="176"/>
-      <c r="S180" s="177"/>
-      <c r="T180" s="177"/>
-      <c r="U180" s="177"/>
-      <c r="V180" s="177"/>
-      <c r="W180" s="178"/>
+      <c r="R180" s="175"/>
+      <c r="S180" s="176"/>
+      <c r="T180" s="176"/>
+      <c r="U180" s="176"/>
+      <c r="V180" s="176"/>
+      <c r="W180" s="177"/>
       <c r="X180" s="24"/>
       <c r="Y180" s="27"/>
     </row>
     <row r="181" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R181" s="176"/>
-      <c r="S181" s="177"/>
-      <c r="T181" s="177"/>
-      <c r="U181" s="177"/>
-      <c r="V181" s="177"/>
-      <c r="W181" s="178"/>
+      <c r="R181" s="175"/>
+      <c r="S181" s="176"/>
+      <c r="T181" s="176"/>
+      <c r="U181" s="176"/>
+      <c r="V181" s="176"/>
+      <c r="W181" s="177"/>
       <c r="X181" s="24"/>
       <c r="Y181" s="27"/>
     </row>
     <row r="182" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R182" s="176"/>
-      <c r="S182" s="177"/>
-      <c r="T182" s="177"/>
-      <c r="U182" s="177"/>
-      <c r="V182" s="177"/>
-      <c r="W182" s="178"/>
+      <c r="R182" s="175"/>
+      <c r="S182" s="176"/>
+      <c r="T182" s="176"/>
+      <c r="U182" s="176"/>
+      <c r="V182" s="176"/>
+      <c r="W182" s="177"/>
       <c r="X182" s="24"/>
       <c r="Y182" s="27"/>
     </row>
     <row r="183" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R183" s="176"/>
-      <c r="S183" s="177"/>
-      <c r="T183" s="177"/>
-      <c r="U183" s="177"/>
-      <c r="V183" s="177"/>
-      <c r="W183" s="178"/>
+      <c r="R183" s="175"/>
+      <c r="S183" s="176"/>
+      <c r="T183" s="176"/>
+      <c r="U183" s="176"/>
+      <c r="V183" s="176"/>
+      <c r="W183" s="177"/>
       <c r="X183" s="24"/>
       <c r="Y183" s="27"/>
     </row>
     <row r="184" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R184" s="176"/>
-      <c r="S184" s="177"/>
-      <c r="T184" s="177"/>
-      <c r="U184" s="177"/>
-      <c r="V184" s="177"/>
-      <c r="W184" s="178"/>
+      <c r="R184" s="175"/>
+      <c r="S184" s="176"/>
+      <c r="T184" s="176"/>
+      <c r="U184" s="176"/>
+      <c r="V184" s="176"/>
+      <c r="W184" s="177"/>
       <c r="X184" s="24"/>
       <c r="Y184" s="27"/>
     </row>
     <row r="185" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R185" s="176"/>
-      <c r="S185" s="177"/>
-      <c r="T185" s="177"/>
-      <c r="U185" s="177"/>
-      <c r="V185" s="177"/>
-      <c r="W185" s="178"/>
+      <c r="R185" s="175"/>
+      <c r="S185" s="176"/>
+      <c r="T185" s="176"/>
+      <c r="U185" s="176"/>
+      <c r="V185" s="176"/>
+      <c r="W185" s="177"/>
       <c r="X185" s="24"/>
       <c r="Y185" s="27"/>
     </row>
     <row r="186" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R186" s="176"/>
-      <c r="S186" s="177"/>
-      <c r="T186" s="177"/>
-      <c r="U186" s="177"/>
-      <c r="V186" s="177"/>
-      <c r="W186" s="178"/>
+      <c r="R186" s="175"/>
+      <c r="S186" s="176"/>
+      <c r="T186" s="176"/>
+      <c r="U186" s="176"/>
+      <c r="V186" s="176"/>
+      <c r="W186" s="177"/>
       <c r="X186" s="24"/>
       <c r="Y186" s="27"/>
     </row>
     <row r="187" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R187" s="176"/>
-      <c r="S187" s="177"/>
-      <c r="T187" s="177"/>
-      <c r="U187" s="177"/>
-      <c r="V187" s="177"/>
-      <c r="W187" s="178"/>
+      <c r="R187" s="175"/>
+      <c r="S187" s="176"/>
+      <c r="T187" s="176"/>
+      <c r="U187" s="176"/>
+      <c r="V187" s="176"/>
+      <c r="W187" s="177"/>
       <c r="X187" s="24"/>
       <c r="Y187" s="27"/>
     </row>
     <row r="188" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R188" s="176"/>
-      <c r="S188" s="177"/>
-      <c r="T188" s="177"/>
-      <c r="U188" s="177"/>
-      <c r="V188" s="177"/>
-      <c r="W188" s="178"/>
+      <c r="R188" s="175"/>
+      <c r="S188" s="176"/>
+      <c r="T188" s="176"/>
+      <c r="U188" s="176"/>
+      <c r="V188" s="176"/>
+      <c r="W188" s="177"/>
       <c r="X188" s="24"/>
       <c r="Y188" s="27"/>
     </row>
     <row r="189" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R189" s="176"/>
-      <c r="S189" s="177"/>
-      <c r="T189" s="177"/>
-      <c r="U189" s="177"/>
-      <c r="V189" s="177"/>
-      <c r="W189" s="178"/>
+      <c r="R189" s="175"/>
+      <c r="S189" s="176"/>
+      <c r="T189" s="176"/>
+      <c r="U189" s="176"/>
+      <c r="V189" s="176"/>
+      <c r="W189" s="177"/>
       <c r="X189" s="24"/>
       <c r="Y189" s="27"/>
     </row>
     <row r="190" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R190" s="176"/>
-      <c r="S190" s="177"/>
-      <c r="T190" s="177"/>
-      <c r="U190" s="177"/>
-      <c r="V190" s="177"/>
-      <c r="W190" s="178"/>
+      <c r="R190" s="175"/>
+      <c r="S190" s="176"/>
+      <c r="T190" s="176"/>
+      <c r="U190" s="176"/>
+      <c r="V190" s="176"/>
+      <c r="W190" s="177"/>
       <c r="X190" s="24"/>
       <c r="Y190" s="27"/>
     </row>
     <row r="191" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R191" s="176"/>
-      <c r="S191" s="177"/>
-      <c r="T191" s="177"/>
-      <c r="U191" s="177"/>
-      <c r="V191" s="177"/>
-      <c r="W191" s="178"/>
+      <c r="R191" s="175"/>
+      <c r="S191" s="176"/>
+      <c r="T191" s="176"/>
+      <c r="U191" s="176"/>
+      <c r="V191" s="176"/>
+      <c r="W191" s="177"/>
       <c r="X191" s="24"/>
       <c r="Y191" s="27"/>
     </row>
     <row r="192" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R192" s="176"/>
-      <c r="S192" s="177"/>
-      <c r="T192" s="177"/>
-      <c r="U192" s="177"/>
-      <c r="V192" s="177"/>
-      <c r="W192" s="178"/>
+      <c r="R192" s="175"/>
+      <c r="S192" s="176"/>
+      <c r="T192" s="176"/>
+      <c r="U192" s="176"/>
+      <c r="V192" s="176"/>
+      <c r="W192" s="177"/>
       <c r="X192" s="24"/>
       <c r="Y192" s="27"/>
     </row>
     <row r="193" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R193" s="176"/>
-      <c r="S193" s="177"/>
-      <c r="T193" s="177"/>
-      <c r="U193" s="177"/>
-      <c r="V193" s="177"/>
-      <c r="W193" s="178"/>
+      <c r="R193" s="175"/>
+      <c r="S193" s="176"/>
+      <c r="T193" s="176"/>
+      <c r="U193" s="176"/>
+      <c r="V193" s="176"/>
+      <c r="W193" s="177"/>
       <c r="X193" s="24"/>
       <c r="Y193" s="27"/>
     </row>
     <row r="194" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R194" s="176"/>
-      <c r="S194" s="177"/>
-      <c r="T194" s="177"/>
-      <c r="U194" s="177"/>
-      <c r="V194" s="177"/>
-      <c r="W194" s="178"/>
+      <c r="R194" s="175"/>
+      <c r="S194" s="176"/>
+      <c r="T194" s="176"/>
+      <c r="U194" s="176"/>
+      <c r="V194" s="176"/>
+      <c r="W194" s="177"/>
       <c r="X194" s="24"/>
       <c r="Y194" s="27"/>
     </row>
     <row r="195" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R195" s="176"/>
-      <c r="S195" s="177"/>
-      <c r="T195" s="177"/>
-      <c r="U195" s="177"/>
-      <c r="V195" s="177"/>
-      <c r="W195" s="178"/>
+      <c r="R195" s="175"/>
+      <c r="S195" s="176"/>
+      <c r="T195" s="176"/>
+      <c r="U195" s="176"/>
+      <c r="V195" s="176"/>
+      <c r="W195" s="177"/>
       <c r="X195" s="24"/>
       <c r="Y195" s="27"/>
     </row>
     <row r="196" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R196" s="176"/>
-      <c r="S196" s="177"/>
-      <c r="T196" s="177"/>
-      <c r="U196" s="177"/>
-      <c r="V196" s="177"/>
-      <c r="W196" s="178"/>
+      <c r="R196" s="175"/>
+      <c r="S196" s="176"/>
+      <c r="T196" s="176"/>
+      <c r="U196" s="176"/>
+      <c r="V196" s="176"/>
+      <c r="W196" s="177"/>
       <c r="X196" s="24"/>
       <c r="Y196" s="27"/>
     </row>
     <row r="197" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R197" s="176"/>
-      <c r="S197" s="177"/>
-      <c r="T197" s="177"/>
-      <c r="U197" s="177"/>
-      <c r="V197" s="177"/>
-      <c r="W197" s="178"/>
+      <c r="R197" s="175"/>
+      <c r="S197" s="176"/>
+      <c r="T197" s="176"/>
+      <c r="U197" s="176"/>
+      <c r="V197" s="176"/>
+      <c r="W197" s="177"/>
       <c r="X197" s="24"/>
       <c r="Y197" s="27"/>
     </row>
     <row r="198" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R198" s="176"/>
-      <c r="S198" s="177"/>
-      <c r="T198" s="177"/>
-      <c r="U198" s="177"/>
-      <c r="V198" s="177"/>
-      <c r="W198" s="178"/>
+      <c r="R198" s="175"/>
+      <c r="S198" s="176"/>
+      <c r="T198" s="176"/>
+      <c r="U198" s="176"/>
+      <c r="V198" s="176"/>
+      <c r="W198" s="177"/>
       <c r="X198" s="24"/>
       <c r="Y198" s="27"/>
     </row>
     <row r="199" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R199" s="176"/>
-      <c r="S199" s="177"/>
-      <c r="T199" s="177"/>
-      <c r="U199" s="177"/>
-      <c r="V199" s="177"/>
-      <c r="W199" s="178"/>
+      <c r="R199" s="175"/>
+      <c r="S199" s="176"/>
+      <c r="T199" s="176"/>
+      <c r="U199" s="176"/>
+      <c r="V199" s="176"/>
+      <c r="W199" s="177"/>
       <c r="X199" s="24"/>
       <c r="Y199" s="27"/>
     </row>
     <row r="200" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R200" s="176"/>
-      <c r="S200" s="177"/>
-      <c r="T200" s="177"/>
-      <c r="U200" s="177"/>
-      <c r="V200" s="177"/>
-      <c r="W200" s="178"/>
+      <c r="R200" s="175"/>
+      <c r="S200" s="176"/>
+      <c r="T200" s="176"/>
+      <c r="U200" s="176"/>
+      <c r="V200" s="176"/>
+      <c r="W200" s="177"/>
       <c r="X200" s="24"/>
       <c r="Y200" s="27"/>
     </row>
     <row r="201" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R201" s="176"/>
-      <c r="S201" s="177"/>
-      <c r="T201" s="177"/>
-      <c r="U201" s="177"/>
-      <c r="V201" s="177"/>
-      <c r="W201" s="178"/>
+      <c r="R201" s="175"/>
+      <c r="S201" s="176"/>
+      <c r="T201" s="176"/>
+      <c r="U201" s="176"/>
+      <c r="V201" s="176"/>
+      <c r="W201" s="177"/>
       <c r="X201" s="24"/>
       <c r="Y201" s="27"/>
     </row>
     <row r="202" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R202" s="176"/>
-      <c r="S202" s="177"/>
-      <c r="T202" s="177"/>
-      <c r="U202" s="177"/>
-      <c r="V202" s="177"/>
-      <c r="W202" s="178"/>
+      <c r="R202" s="175"/>
+      <c r="S202" s="176"/>
+      <c r="T202" s="176"/>
+      <c r="U202" s="176"/>
+      <c r="V202" s="176"/>
+      <c r="W202" s="177"/>
       <c r="X202" s="24"/>
       <c r="Y202" s="27"/>
     </row>
     <row r="203" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R203" s="176"/>
-      <c r="S203" s="177"/>
-      <c r="T203" s="177"/>
-      <c r="U203" s="177"/>
-      <c r="V203" s="177"/>
-      <c r="W203" s="178"/>
+      <c r="R203" s="175"/>
+      <c r="S203" s="176"/>
+      <c r="T203" s="176"/>
+      <c r="U203" s="176"/>
+      <c r="V203" s="176"/>
+      <c r="W203" s="177"/>
       <c r="X203" s="24"/>
       <c r="Y203" s="27"/>
     </row>
     <row r="204" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R204" s="176"/>
-      <c r="S204" s="177"/>
-      <c r="T204" s="177"/>
-      <c r="U204" s="177"/>
-      <c r="V204" s="177"/>
-      <c r="W204" s="178"/>
+      <c r="R204" s="175"/>
+      <c r="S204" s="176"/>
+      <c r="T204" s="176"/>
+      <c r="U204" s="176"/>
+      <c r="V204" s="176"/>
+      <c r="W204" s="177"/>
       <c r="X204" s="24"/>
       <c r="Y204" s="27"/>
     </row>
     <row r="205" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R205" s="176"/>
-      <c r="S205" s="177"/>
-      <c r="T205" s="177"/>
-      <c r="U205" s="177"/>
-      <c r="V205" s="177"/>
-      <c r="W205" s="178"/>
+      <c r="R205" s="175"/>
+      <c r="S205" s="176"/>
+      <c r="T205" s="176"/>
+      <c r="U205" s="176"/>
+      <c r="V205" s="176"/>
+      <c r="W205" s="177"/>
       <c r="X205" s="24"/>
       <c r="Y205" s="27"/>
     </row>
     <row r="206" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R206" s="176"/>
-      <c r="S206" s="177"/>
-      <c r="T206" s="177"/>
-      <c r="U206" s="177"/>
-      <c r="V206" s="177"/>
-      <c r="W206" s="178"/>
+      <c r="R206" s="175"/>
+      <c r="S206" s="176"/>
+      <c r="T206" s="176"/>
+      <c r="U206" s="176"/>
+      <c r="V206" s="176"/>
+      <c r="W206" s="177"/>
       <c r="X206" s="24"/>
       <c r="Y206" s="27"/>
     </row>
     <row r="207" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R207" s="176"/>
-      <c r="S207" s="177"/>
-      <c r="T207" s="177"/>
-      <c r="U207" s="177"/>
-      <c r="V207" s="177"/>
-      <c r="W207" s="178"/>
+      <c r="R207" s="175"/>
+      <c r="S207" s="176"/>
+      <c r="T207" s="176"/>
+      <c r="U207" s="176"/>
+      <c r="V207" s="176"/>
+      <c r="W207" s="177"/>
       <c r="X207" s="24"/>
       <c r="Y207" s="27"/>
     </row>
     <row r="208" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R208" s="176"/>
-      <c r="S208" s="177"/>
-      <c r="T208" s="177"/>
-      <c r="U208" s="177"/>
-      <c r="V208" s="177"/>
-      <c r="W208" s="178"/>
+      <c r="R208" s="175"/>
+      <c r="S208" s="176"/>
+      <c r="T208" s="176"/>
+      <c r="U208" s="176"/>
+      <c r="V208" s="176"/>
+      <c r="W208" s="177"/>
       <c r="X208" s="24"/>
       <c r="Y208" s="27"/>
     </row>
     <row r="209" spans="18:25" x14ac:dyDescent="0.3">
-      <c r="R209" s="176"/>
-      <c r="S209" s="177"/>
-      <c r="T209" s="177"/>
-      <c r="U209" s="177"/>
-      <c r="V209" s="177"/>
-      <c r="W209" s="178"/>
+      <c r="R209" s="175"/>
+      <c r="S209" s="176"/>
+      <c r="T209" s="176"/>
+      <c r="U209" s="176"/>
+      <c r="V209" s="176"/>
+      <c r="W209" s="177"/>
       <c r="X209" s="24"/>
       <c r="Y209" s="27"/>
     </row>
     <row r="210" spans="18:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R210" s="179"/>
-      <c r="S210" s="180"/>
-      <c r="T210" s="180"/>
-      <c r="U210" s="180"/>
-      <c r="V210" s="180"/>
-      <c r="W210" s="181"/>
+      <c r="R210" s="269"/>
+      <c r="S210" s="270"/>
+      <c r="T210" s="270"/>
+      <c r="U210" s="270"/>
+      <c r="V210" s="270"/>
+      <c r="W210" s="271"/>
       <c r="X210" s="25"/>
       <c r="Y210" s="28"/>
     </row>
@@ -6555,6 +6555,232 @@
     <protectedRange sqref="I7:J7 AB6 K3 I6 E6:F7 G7 K6:K7 E3:I3" name="Диапазон1_1_2_1"/>
   </protectedRanges>
   <mergeCells count="250">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="R207:W207"/>
+    <mergeCell ref="R208:W208"/>
+    <mergeCell ref="R209:W209"/>
+    <mergeCell ref="R175:W175"/>
+    <mergeCell ref="R176:W176"/>
+    <mergeCell ref="R177:W177"/>
+    <mergeCell ref="R178:W178"/>
+    <mergeCell ref="R179:W179"/>
+    <mergeCell ref="R197:W197"/>
+    <mergeCell ref="R180:W180"/>
+    <mergeCell ref="R181:W181"/>
+    <mergeCell ref="R191:W191"/>
+    <mergeCell ref="R192:W192"/>
+    <mergeCell ref="R193:W193"/>
+    <mergeCell ref="R194:W194"/>
+    <mergeCell ref="R195:W195"/>
+    <mergeCell ref="R196:W196"/>
+    <mergeCell ref="R166:W166"/>
+    <mergeCell ref="R174:W174"/>
+    <mergeCell ref="R165:W165"/>
+    <mergeCell ref="R182:W182"/>
+    <mergeCell ref="R190:W190"/>
+    <mergeCell ref="R167:W167"/>
+    <mergeCell ref="R168:W168"/>
+    <mergeCell ref="R169:W169"/>
+    <mergeCell ref="R170:W170"/>
+    <mergeCell ref="R171:W171"/>
+    <mergeCell ref="R172:W172"/>
+    <mergeCell ref="R173:W173"/>
+    <mergeCell ref="R210:W210"/>
+    <mergeCell ref="R198:W198"/>
+    <mergeCell ref="R199:W199"/>
+    <mergeCell ref="R200:W200"/>
+    <mergeCell ref="R201:W201"/>
+    <mergeCell ref="R202:W202"/>
+    <mergeCell ref="R203:W203"/>
+    <mergeCell ref="R204:W204"/>
+    <mergeCell ref="R205:W205"/>
+    <mergeCell ref="R206:W206"/>
+    <mergeCell ref="R189:W189"/>
+    <mergeCell ref="R183:W183"/>
+    <mergeCell ref="R184:W184"/>
+    <mergeCell ref="R185:W185"/>
+    <mergeCell ref="R186:W186"/>
+    <mergeCell ref="R187:W187"/>
+    <mergeCell ref="R157:W157"/>
+    <mergeCell ref="R158:W158"/>
+    <mergeCell ref="R159:W159"/>
+    <mergeCell ref="R160:W160"/>
+    <mergeCell ref="R161:W161"/>
+    <mergeCell ref="R162:W162"/>
+    <mergeCell ref="R163:W163"/>
+    <mergeCell ref="R164:W164"/>
+    <mergeCell ref="R147:W147"/>
+    <mergeCell ref="R155:W155"/>
+    <mergeCell ref="R156:W156"/>
+    <mergeCell ref="R188:W188"/>
+    <mergeCell ref="R148:W148"/>
+    <mergeCell ref="R149:W149"/>
+    <mergeCell ref="R150:W150"/>
+    <mergeCell ref="R151:W151"/>
+    <mergeCell ref="R152:W152"/>
+    <mergeCell ref="R153:W153"/>
+    <mergeCell ref="R154:W154"/>
+    <mergeCell ref="R130:W130"/>
+    <mergeCell ref="R131:W131"/>
+    <mergeCell ref="R132:W132"/>
+    <mergeCell ref="R133:W133"/>
+    <mergeCell ref="R134:W134"/>
+    <mergeCell ref="R135:W135"/>
+    <mergeCell ref="R136:W136"/>
+    <mergeCell ref="R137:W137"/>
+    <mergeCell ref="R138:W138"/>
+    <mergeCell ref="R139:W139"/>
+    <mergeCell ref="R140:W140"/>
+    <mergeCell ref="R141:W141"/>
+    <mergeCell ref="R142:W142"/>
+    <mergeCell ref="R143:W143"/>
+    <mergeCell ref="R144:W144"/>
+    <mergeCell ref="R145:W145"/>
+    <mergeCell ref="R146:W146"/>
+    <mergeCell ref="R121:W121"/>
+    <mergeCell ref="R122:W122"/>
+    <mergeCell ref="R123:W123"/>
+    <mergeCell ref="R124:W124"/>
+    <mergeCell ref="R125:W125"/>
+    <mergeCell ref="R126:W126"/>
+    <mergeCell ref="R127:W127"/>
+    <mergeCell ref="R128:W128"/>
+    <mergeCell ref="R129:W129"/>
+    <mergeCell ref="R112:W112"/>
+    <mergeCell ref="R113:W113"/>
+    <mergeCell ref="R114:W114"/>
+    <mergeCell ref="R115:W115"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="R110:W110"/>
+    <mergeCell ref="R111:W111"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="R108:W108"/>
+    <mergeCell ref="R109:W109"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="H8:M9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R55:W55"/>
+    <mergeCell ref="R50:W50"/>
+    <mergeCell ref="R51:W51"/>
+    <mergeCell ref="R52:W52"/>
+    <mergeCell ref="R53:W53"/>
+    <mergeCell ref="R54:W54"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R35:W35"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="R61:W61"/>
+    <mergeCell ref="R62:W62"/>
+    <mergeCell ref="R63:W63"/>
+    <mergeCell ref="R64:W64"/>
+    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="R56:W56"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="R59:W59"/>
+    <mergeCell ref="R60:W60"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="R73:W73"/>
+    <mergeCell ref="R74:W74"/>
+    <mergeCell ref="R75:W75"/>
+    <mergeCell ref="R66:W66"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="R81:W81"/>
+    <mergeCell ref="R82:W82"/>
+    <mergeCell ref="R83:W83"/>
+    <mergeCell ref="R84:W84"/>
+    <mergeCell ref="R85:W85"/>
+    <mergeCell ref="R76:W76"/>
+    <mergeCell ref="R77:W77"/>
+    <mergeCell ref="R78:W78"/>
+    <mergeCell ref="R79:W79"/>
+    <mergeCell ref="R80:W80"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="R106:W106"/>
@@ -6579,232 +6805,6 @@
     <mergeCell ref="R88:W88"/>
     <mergeCell ref="R89:W89"/>
     <mergeCell ref="R90:W90"/>
-    <mergeCell ref="R81:W81"/>
-    <mergeCell ref="R82:W82"/>
-    <mergeCell ref="R83:W83"/>
-    <mergeCell ref="R84:W84"/>
-    <mergeCell ref="R85:W85"/>
-    <mergeCell ref="R76:W76"/>
-    <mergeCell ref="R77:W77"/>
-    <mergeCell ref="R78:W78"/>
-    <mergeCell ref="R79:W79"/>
-    <mergeCell ref="R80:W80"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="R73:W73"/>
-    <mergeCell ref="R74:W74"/>
-    <mergeCell ref="R75:W75"/>
-    <mergeCell ref="R66:W66"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="R61:W61"/>
-    <mergeCell ref="R62:W62"/>
-    <mergeCell ref="R63:W63"/>
-    <mergeCell ref="R64:W64"/>
-    <mergeCell ref="R65:W65"/>
-    <mergeCell ref="R56:W56"/>
-    <mergeCell ref="R57:W57"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="R59:W59"/>
-    <mergeCell ref="R60:W60"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R55:W55"/>
-    <mergeCell ref="R50:W50"/>
-    <mergeCell ref="R51:W51"/>
-    <mergeCell ref="R52:W52"/>
-    <mergeCell ref="R53:W53"/>
-    <mergeCell ref="R54:W54"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R35:W35"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="H8:M9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C5:H6"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="R108:W108"/>
-    <mergeCell ref="R109:W109"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="R110:W110"/>
-    <mergeCell ref="R111:W111"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="R37:W37"/>
-    <mergeCell ref="R38:W38"/>
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="R112:W112"/>
-    <mergeCell ref="R113:W113"/>
-    <mergeCell ref="R114:W114"/>
-    <mergeCell ref="R115:W115"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="R146:W146"/>
-    <mergeCell ref="R121:W121"/>
-    <mergeCell ref="R122:W122"/>
-    <mergeCell ref="R123:W123"/>
-    <mergeCell ref="R124:W124"/>
-    <mergeCell ref="R125:W125"/>
-    <mergeCell ref="R126:W126"/>
-    <mergeCell ref="R127:W127"/>
-    <mergeCell ref="R128:W128"/>
-    <mergeCell ref="R129:W129"/>
-    <mergeCell ref="R188:W188"/>
-    <mergeCell ref="R148:W148"/>
-    <mergeCell ref="R149:W149"/>
-    <mergeCell ref="R150:W150"/>
-    <mergeCell ref="R151:W151"/>
-    <mergeCell ref="R152:W152"/>
-    <mergeCell ref="R153:W153"/>
-    <mergeCell ref="R154:W154"/>
-    <mergeCell ref="R130:W130"/>
-    <mergeCell ref="R131:W131"/>
-    <mergeCell ref="R132:W132"/>
-    <mergeCell ref="R133:W133"/>
-    <mergeCell ref="R134:W134"/>
-    <mergeCell ref="R135:W135"/>
-    <mergeCell ref="R136:W136"/>
-    <mergeCell ref="R137:W137"/>
-    <mergeCell ref="R138:W138"/>
-    <mergeCell ref="R139:W139"/>
-    <mergeCell ref="R140:W140"/>
-    <mergeCell ref="R141:W141"/>
-    <mergeCell ref="R142:W142"/>
-    <mergeCell ref="R143:W143"/>
-    <mergeCell ref="R144:W144"/>
-    <mergeCell ref="R145:W145"/>
-    <mergeCell ref="R157:W157"/>
-    <mergeCell ref="R158:W158"/>
-    <mergeCell ref="R159:W159"/>
-    <mergeCell ref="R160:W160"/>
-    <mergeCell ref="R161:W161"/>
-    <mergeCell ref="R162:W162"/>
-    <mergeCell ref="R163:W163"/>
-    <mergeCell ref="R164:W164"/>
-    <mergeCell ref="R147:W147"/>
-    <mergeCell ref="R155:W155"/>
-    <mergeCell ref="R156:W156"/>
-    <mergeCell ref="R190:W190"/>
-    <mergeCell ref="R167:W167"/>
-    <mergeCell ref="R168:W168"/>
-    <mergeCell ref="R169:W169"/>
-    <mergeCell ref="R170:W170"/>
-    <mergeCell ref="R171:W171"/>
-    <mergeCell ref="R172:W172"/>
-    <mergeCell ref="R173:W173"/>
-    <mergeCell ref="R210:W210"/>
-    <mergeCell ref="R198:W198"/>
-    <mergeCell ref="R199:W199"/>
-    <mergeCell ref="R200:W200"/>
-    <mergeCell ref="R201:W201"/>
-    <mergeCell ref="R202:W202"/>
-    <mergeCell ref="R203:W203"/>
-    <mergeCell ref="R204:W204"/>
-    <mergeCell ref="R205:W205"/>
-    <mergeCell ref="R206:W206"/>
-    <mergeCell ref="R189:W189"/>
-    <mergeCell ref="R183:W183"/>
-    <mergeCell ref="R184:W184"/>
-    <mergeCell ref="R185:W185"/>
-    <mergeCell ref="R186:W186"/>
-    <mergeCell ref="R187:W187"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="R207:W207"/>
-    <mergeCell ref="R208:W208"/>
-    <mergeCell ref="R209:W209"/>
-    <mergeCell ref="R175:W175"/>
-    <mergeCell ref="R176:W176"/>
-    <mergeCell ref="R177:W177"/>
-    <mergeCell ref="R178:W178"/>
-    <mergeCell ref="R179:W179"/>
-    <mergeCell ref="R197:W197"/>
-    <mergeCell ref="R180:W180"/>
-    <mergeCell ref="R181:W181"/>
-    <mergeCell ref="R191:W191"/>
-    <mergeCell ref="R192:W192"/>
-    <mergeCell ref="R193:W193"/>
-    <mergeCell ref="R194:W194"/>
-    <mergeCell ref="R195:W195"/>
-    <mergeCell ref="R196:W196"/>
-    <mergeCell ref="R166:W166"/>
-    <mergeCell ref="R174:W174"/>
-    <mergeCell ref="R165:W165"/>
-    <mergeCell ref="R182:W182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="360" r:id="rId1"/>
@@ -6930,22 +6930,22 @@
         <v>6</v>
       </c>
       <c r="N2" s="73"/>
-      <c r="O2" s="279" t="s">
+      <c r="O2" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="281"/>
-      <c r="R2" s="285" t="s">
+      <c r="P2" s="336"/>
+      <c r="Q2" s="337"/>
+      <c r="R2" s="341" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="304" t="s">
+      <c r="S2" s="327" t="s">
         <v>17</v>
       </c>
       <c r="T2" s="73"/>
       <c r="U2" s="73"/>
       <c r="V2" s="73"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
+      <c r="W2" s="320"/>
+      <c r="X2" s="320"/>
       <c r="Y2" s="29"/>
       <c r="Z2" s="29"/>
       <c r="AA2" s="29"/>
@@ -6980,30 +6980,30 @@
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
-      <c r="C3" s="288">
+      <c r="C3" s="344">
         <v>1</v>
       </c>
-      <c r="D3" s="274">
+      <c r="D3" s="330">
         <f>НалБанки!D3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="274">
+      <c r="E3" s="330">
         <f>НалБанки!E3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="274">
+      <c r="F3" s="330">
         <f>НалБанки!F3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274">
+      <c r="G3" s="330">
         <f>НалБанки!G3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="274">
+      <c r="H3" s="330">
         <f>НалБанки!H3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="276">
+      <c r="I3" s="332">
         <f>НалБанки!I3</f>
         <v>40</v>
       </c>
@@ -7015,25 +7015,25 @@
         <f>ROUNDUP(((SUM(D3:F4,H3:I4)+(SUM(G3:G4)*0.75))*L3+((SUM(D3:F4,I3)+SUM(G3:G4)*0.75)*20%+(SUM(D3:F4,H3:I4)+SUM(G3:G4)*0.75)))*M3,0)</f>
         <v>149</v>
       </c>
-      <c r="L3" s="298">
+      <c r="L3" s="321">
         <f>8/92*1.2</f>
         <v>0.10434782608695652</v>
       </c>
-      <c r="M3" s="300">
+      <c r="M3" s="323">
         <f>НалБанки!K3</f>
         <v>2.85</v>
       </c>
       <c r="N3" s="73"/>
-      <c r="O3" s="282"/>
-      <c r="P3" s="283"/>
-      <c r="Q3" s="284"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="305"/>
+      <c r="O3" s="338"/>
+      <c r="P3" s="339"/>
+      <c r="Q3" s="340"/>
+      <c r="R3" s="342"/>
+      <c r="S3" s="328"/>
       <c r="T3" s="73"/>
       <c r="U3" s="73"/>
       <c r="V3" s="73"/>
-      <c r="W3" s="297"/>
-      <c r="X3" s="297"/>
+      <c r="W3" s="320"/>
+      <c r="X3" s="320"/>
       <c r="Y3" s="29"/>
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
@@ -7068,13 +7068,13 @@
     <row r="4" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="277"/>
+      <c r="C4" s="345"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="346"/>
+      <c r="H4" s="331"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="70">
         <f>J3-(J3-H3*M3)/6</f>
         <v>124.16666666666667</v>
@@ -7083,8 +7083,8 @@
         <f>K3-(K3-H3*M3)/6</f>
         <v>124.16666666666667</v>
       </c>
-      <c r="L4" s="299"/>
-      <c r="M4" s="301"/>
+      <c r="L4" s="322"/>
+      <c r="M4" s="324"/>
       <c r="N4" s="73"/>
       <c r="O4" s="35" t="s">
         <v>8</v>
@@ -7095,8 +7095,8 @@
       <c r="Q4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="287"/>
-      <c r="S4" s="306"/>
+      <c r="R4" s="343"/>
+      <c r="S4" s="329"/>
       <c r="T4" s="73"/>
       <c r="U4" s="73"/>
       <c r="V4" s="97" t="s">
@@ -7138,15 +7138,15 @@
     <row r="5" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="291">
+      <c r="C5" s="347">
         <f ca="1">TODAY()</f>
-        <v>44995</v>
-      </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
+        <v>45098</v>
+      </c>
+      <c r="D5" s="348"/>
+      <c r="E5" s="348"/>
+      <c r="F5" s="348"/>
+      <c r="G5" s="348"/>
+      <c r="H5" s="348"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
@@ -7213,10 +7213,10 @@
     <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
+      <c r="C6" s="334"/>
+      <c r="D6" s="334"/>
+      <c r="E6" s="334"/>
+      <c r="F6" s="334"/>
       <c r="G6" s="29"/>
       <c r="H6" s="49"/>
       <c r="I6" s="30"/>
@@ -7357,17 +7357,17 @@
     <row r="8" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
-      <c r="C8" s="307" t="s">
+      <c r="C8" s="292" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="308"/>
-      <c r="E8" s="309"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="294"/>
       <c r="F8" s="54"/>
-      <c r="G8" s="313" t="s">
+      <c r="G8" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="314"/>
-      <c r="I8" s="315"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="300"/>
       <c r="J8" s="74"/>
       <c r="K8" s="75"/>
       <c r="L8" s="75"/>
@@ -7433,13 +7433,13 @@
     <row r="9" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="310"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="312"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="297"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="317"/>
-      <c r="I9" s="318"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="303"/>
       <c r="J9" s="74"/>
       <c r="K9" s="75"/>
       <c r="L9" s="75"/>
@@ -7505,23 +7505,23 @@
     <row r="10" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="319" t="s">
+      <c r="C10" s="304" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="321" t="s">
+      <c r="D10" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="323" t="s">
+      <c r="E10" s="308" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="57"/>
-      <c r="G10" s="325" t="s">
+      <c r="G10" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="327" t="s">
+      <c r="H10" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="329" t="s">
+      <c r="I10" s="314" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="74"/>
@@ -7573,13 +7573,13 @@
     <row r="11" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="320"/>
-      <c r="D11" s="322"/>
-      <c r="E11" s="324"/>
+      <c r="C11" s="305"/>
+      <c r="D11" s="307"/>
+      <c r="E11" s="309"/>
       <c r="F11" s="51"/>
-      <c r="G11" s="326"/>
-      <c r="H11" s="328"/>
-      <c r="I11" s="330"/>
+      <c r="G11" s="311"/>
+      <c r="H11" s="313"/>
+      <c r="I11" s="315"/>
       <c r="J11" s="74"/>
       <c r="K11" s="75"/>
       <c r="L11" s="75"/>
@@ -7659,14 +7659,14 @@
       <c r="N12" s="73"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
-      <c r="R12" s="293" t="s">
+      <c r="R12" s="316" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="294"/>
-      <c r="T12" s="302" t="s">
+      <c r="S12" s="317"/>
+      <c r="T12" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="303"/>
+      <c r="U12" s="326"/>
       <c r="V12" s="73"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -7734,8 +7734,8 @@
       <c r="N13" s="73"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
-      <c r="R13" s="295"/>
-      <c r="S13" s="296"/>
+      <c r="R13" s="318"/>
+      <c r="S13" s="319"/>
       <c r="T13" s="76" t="s">
         <v>22</v>
       </c>
@@ -7807,23 +7807,23 @@
       <c r="L14" s="75"/>
       <c r="M14" s="75"/>
       <c r="N14" s="73"/>
-      <c r="O14" s="337" t="s">
+      <c r="O14" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="338"/>
-      <c r="Q14" s="341">
+      <c r="P14" s="281"/>
+      <c r="Q14" s="284">
         <v>0.02</v>
       </c>
-      <c r="R14" s="347">
+      <c r="R14" s="290">
         <f>IF(R12="ЖЕЛ",J4*Q14,K4*Q14)</f>
         <v>2.4833333333333334</v>
       </c>
-      <c r="S14" s="348"/>
-      <c r="T14" s="331">
+      <c r="S14" s="291"/>
+      <c r="T14" s="274">
         <f>J4</f>
         <v>124.16666666666667</v>
       </c>
-      <c r="U14" s="334">
+      <c r="U14" s="277">
         <f>K4</f>
         <v>124.16666666666667</v>
       </c>
@@ -7892,13 +7892,13 @@
       <c r="L15" s="75"/>
       <c r="M15" s="75"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="339"/>
-      <c r="P15" s="340"/>
-      <c r="Q15" s="342"/>
-      <c r="R15" s="345"/>
-      <c r="S15" s="346"/>
-      <c r="T15" s="332"/>
-      <c r="U15" s="335"/>
+      <c r="O15" s="282"/>
+      <c r="P15" s="283"/>
+      <c r="Q15" s="285"/>
+      <c r="R15" s="288"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="275"/>
+      <c r="U15" s="278"/>
       <c r="V15" s="29"/>
       <c r="W15" s="32"/>
       <c r="X15" s="32"/>
@@ -7964,20 +7964,20 @@
       <c r="L16" s="75"/>
       <c r="M16" s="75"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="337" t="s">
+      <c r="O16" s="280" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="338"/>
-      <c r="Q16" s="341">
+      <c r="P16" s="281"/>
+      <c r="Q16" s="284">
         <v>0</v>
       </c>
-      <c r="R16" s="343">
+      <c r="R16" s="286">
         <f>IF(R12="ЖЕЛ",J4*Q16,K4*Q16)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="344"/>
-      <c r="T16" s="332"/>
-      <c r="U16" s="335"/>
+      <c r="S16" s="287"/>
+      <c r="T16" s="275"/>
+      <c r="U16" s="278"/>
       <c r="V16" s="29"/>
       <c r="W16" s="32"/>
       <c r="X16" s="32"/>
@@ -8027,13 +8027,13 @@
       <c r="L17" s="63"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="339"/>
-      <c r="P17" s="340"/>
-      <c r="Q17" s="342"/>
-      <c r="R17" s="345"/>
-      <c r="S17" s="346"/>
-      <c r="T17" s="333"/>
-      <c r="U17" s="336"/>
+      <c r="O17" s="282"/>
+      <c r="P17" s="283"/>
+      <c r="Q17" s="285"/>
+      <c r="R17" s="288"/>
+      <c r="S17" s="289"/>
+      <c r="T17" s="276"/>
+      <c r="U17" s="279"/>
       <c r="V17" s="29"/>
       <c r="W17" s="32"/>
       <c r="X17" s="32"/>
@@ -15154,29 +15154,6 @@
     <protectedRange sqref="L3:L4 J3:K3" name="Диапазон1_1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="34">
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:S17"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:S15"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S2:S4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C6:F6"/>
@@ -15188,6 +15165,29 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C5:H5"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:S15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">

--- a/out/production/MScanner/file/MScanner.xlsx
+++ b/out/production/MScanner/file/MScanner.xlsx
@@ -1570,7 +1570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1947,10 +1947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
@@ -2088,10 +2084,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="26" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -2153,64 +2145,60 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2225,6 +2213,18 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
@@ -2235,6 +2235,162 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2341,14 +2497,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="19" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -2357,14 +2505,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="19" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -2373,14 +2513,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2433,203 +2565,291 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="1" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2705,231 +2925,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="26" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3349,7 +3345,7 @@
   <dimension ref="A1:BT210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3360,8 +3356,8 @@
     <col min="13" max="13" width="9.77734375" style="9" customWidth="1" collapsed="1"/>
     <col min="14" max="15" width="9.77734375" style="9" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="3.77734375" style="9" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.77734375" style="144" customWidth="1" collapsed="1"/>
-    <col min="18" max="22" width="9.77734375" style="144" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" style="143" customWidth="1" collapsed="1"/>
+    <col min="18" max="22" width="9.77734375" style="143" customWidth="1"/>
     <col min="23" max="23" width="10.77734375" style="9" customWidth="1"/>
     <col min="24" max="24" width="10.77734375" style="9" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="9.77734375" style="9" customWidth="1" collapsed="1"/>
@@ -3387,12 +3383,12 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
       <c r="W1" s="10"/>
       <c r="X1" s="12"/>
     </row>
@@ -3423,29 +3419,29 @@
       <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="238" t="s">
+      <c r="K2" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="239"/>
-      <c r="M2" s="108" t="s">
+      <c r="L2" s="202"/>
+      <c r="M2" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="109"/>
-      <c r="O2" s="152" t="s">
+      <c r="N2" s="108"/>
+      <c r="O2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="232" t="s">
+      <c r="Q2" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="233"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="173" t="s">
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="265" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="175" t="s">
+      <c r="X2" s="267" t="s">
         <v>25</v>
       </c>
       <c r="Y2" s="105"/>
@@ -3455,147 +3451,147 @@
     <row r="3" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="106">
+      <c r="C3" s="104">
         <v>0</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="104">
         <v>0</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="104">
         <v>0</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="104">
         <v>0</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="104">
         <v>0</v>
       </c>
       <c r="H3" s="104">
         <v>0</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="104">
         <v>40</v>
       </c>
-      <c r="J3" s="145">
+      <c r="J3" s="355">
         <v>3.2</v>
       </c>
-      <c r="K3" s="240"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="110">
+      <c r="K3" s="203"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="109">
         <v>45188</v>
       </c>
-      <c r="N3" s="111"/>
-      <c r="O3" s="153">
+      <c r="N3" s="110"/>
+      <c r="O3" s="151">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="236"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="236"/>
-      <c r="U3" s="236"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="176"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="266"/>
+      <c r="X3" s="268"/>
       <c r="Y3" s="105"/>
-      <c r="Z3" s="112"/>
+      <c r="Z3" s="111"/>
       <c r="AA3" s="105"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="248">
+      <c r="C4" s="211">
         <f ca="1">TODAY()</f>
-        <v>45188</v>
-      </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="242">
+        <v>45364</v>
+      </c>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="205">
         <f>ROUNDUP((SUM(C3:I3)*O3 +SUM(C3:I3) )*J3,0)</f>
         <v>164</v>
       </c>
-      <c r="J4" s="245">
+      <c r="J4" s="208">
         <f>ROUNDUP((((SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)*0.75))*O3)+(SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)*0.75)))*J3,0)</f>
         <v>164</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="Q4" s="266"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="267"/>
-      <c r="U4" s="267"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="116"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="115"/>
       <c r="Y4" s="1"/>
       <c r="AA4" s="105"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="251" t="s">
+      <c r="C5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="246"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="N5" s="117" t="s">
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="209"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="N5" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="118" t="s">
+      <c r="O5" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="178"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="178"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="121"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="175"/>
+      <c r="U5" s="175"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="120"/>
       <c r="AA5" s="105"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="247"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="N6" s="280">
+      <c r="C6" s="217"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="N6" s="168">
         <v>0.184</v>
       </c>
-      <c r="O6" s="257">
+      <c r="O6" s="220">
         <v>0.27900000000000003</v>
       </c>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="178"/>
-      <c r="U6" s="178"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="121"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="120"/>
       <c r="AA6" s="105"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3611,56 +3607,56 @@
       <c r="J7" s="103"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="258"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
-      <c r="U7" s="178"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="120"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="221"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="175"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="175"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="119"/>
       <c r="Y7" s="105"/>
-      <c r="Z7" s="112"/>
+      <c r="Z7" s="111"/>
       <c r="AA7" s="105"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="234" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="213" t="s">
+      <c r="D8" s="235"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="213" t="s">
+      <c r="G8" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="201" t="s">
+      <c r="H8" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="123" t="s">
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="242"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="124" t="s">
+      <c r="O8" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="178"/>
-      <c r="U8" s="178"/>
-      <c r="V8" s="179"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="120"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="119"/>
       <c r="Y8" s="105"/>
       <c r="Z8" s="105"/>
       <c r="AA8" s="105"/>
@@ -3668,31 +3664,31 @@
     <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="193">
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="232">
         <v>0.16700000000000001</v>
       </c>
-      <c r="O9" s="193">
+      <c r="O9" s="232">
         <v>0.22</v>
       </c>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="260"/>
-      <c r="S9" s="260"/>
-      <c r="T9" s="260"/>
-      <c r="U9" s="260"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="120"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="185"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="119"/>
       <c r="Y9" s="105"/>
       <c r="Z9" s="105"/>
       <c r="AA9" s="105"/>
@@ -3709,30 +3705,30 @@
       <c r="E10" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
       <c r="H10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="207" t="s">
+      <c r="I10" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="208"/>
-      <c r="K10" s="262" t="s">
+      <c r="J10" s="247"/>
+      <c r="K10" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="263"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="194"/>
-      <c r="O10" s="194"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="178"/>
-      <c r="U10" s="178"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="120"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="119"/>
       <c r="Y10" s="105"/>
       <c r="Z10" s="105"/>
       <c r="AA10" s="105"/>
@@ -3743,11 +3739,11 @@
       <c r="C11" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="124">
         <f>ROUNDUP($N$20*1.016,0)</f>
         <v>167</v>
       </c>
-      <c r="E11" s="126">
+      <c r="E11" s="125">
         <f>ROUNDUP($O$20*1.016,0)</f>
         <v>167</v>
       </c>
@@ -3762,32 +3758,32 @@
       <c r="H11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="215">
+      <c r="I11" s="250">
         <f>ROUNDUP(PMT($O$9/12,6,-$N$20),0)</f>
         <v>30</v>
       </c>
-      <c r="J11" s="216"/>
-      <c r="K11" s="209">
+      <c r="J11" s="251"/>
+      <c r="K11" s="172">
         <f>ROUNDUP(PMT($O$9/12,6,-$O$20),0)</f>
         <v>30</v>
       </c>
-      <c r="L11" s="210"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="127" t="s">
+      <c r="L11" s="173"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="128" t="s">
+      <c r="O11" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="178"/>
-      <c r="U11" s="178"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="120"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="119"/>
       <c r="Y11" s="105"/>
       <c r="Z11" s="105"/>
       <c r="AA11" s="105"/>
@@ -3798,11 +3794,11 @@
       <c r="C12" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="125">
+      <c r="D12" s="124">
         <f>ROUNDUP($N$20*1.021,0)</f>
         <v>168</v>
       </c>
-      <c r="E12" s="126">
+      <c r="E12" s="125">
         <f>ROUNDUP($O$20*1.021,0)</f>
         <v>168</v>
       </c>
@@ -3817,32 +3813,32 @@
       <c r="H12" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="217">
+      <c r="I12" s="170">
         <f>ROUNDUP(PMT($O$9/12,12,-$N$20),0)</f>
         <v>16</v>
       </c>
-      <c r="J12" s="218"/>
-      <c r="K12" s="209">
+      <c r="J12" s="171"/>
+      <c r="K12" s="172">
         <f>ROUNDUP(PMT($O$9/12,12,-$O$20),0)</f>
         <v>16</v>
       </c>
-      <c r="L12" s="210"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="126">
+      <c r="L12" s="173"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="125">
         <v>1.6</v>
       </c>
-      <c r="O12" s="125">
+      <c r="O12" s="124">
         <v>0</v>
       </c>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="179"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="120"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="175"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="119"/>
       <c r="Y12" s="105"/>
       <c r="Z12" s="105"/>
       <c r="AA12" s="105"/>
@@ -3853,11 +3849,11 @@
       <c r="C13" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="125">
+      <c r="D13" s="124">
         <f>ROUNDUP($N$20*1.031,0)</f>
         <v>170</v>
       </c>
-      <c r="E13" s="126">
+      <c r="E13" s="125">
         <f>ROUNDUP($O$20*1.031,0)</f>
         <v>170</v>
       </c>
@@ -3872,32 +3868,32 @@
       <c r="H13" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="217">
+      <c r="I13" s="170">
         <f>ROUNDUP(PMT($O$9/12,18,-$N$20),0)</f>
         <v>11</v>
       </c>
-      <c r="J13" s="218"/>
-      <c r="K13" s="209">
+      <c r="J13" s="171"/>
+      <c r="K13" s="172">
         <f>ROUNDUP(PMT($O$9/12,18,-$O$20),0)</f>
         <v>11</v>
       </c>
-      <c r="L13" s="210"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="126">
+      <c r="L13" s="173"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="125">
         <v>1.6</v>
       </c>
-      <c r="O13" s="130">
+      <c r="O13" s="129">
         <v>0</v>
       </c>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="179"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="120"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="119"/>
       <c r="Y13" s="105"/>
       <c r="Z13" s="105"/>
       <c r="AA13" s="105"/>
@@ -3908,11 +3904,11 @@
       <c r="C14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="125">
+      <c r="D14" s="124">
         <f>ROUNDUP($N$20*1.037,0)</f>
         <v>171</v>
       </c>
-      <c r="E14" s="126">
+      <c r="E14" s="125">
         <f>ROUNDUP($O$20*1.037,0)</f>
         <v>171</v>
       </c>
@@ -3927,32 +3923,32 @@
       <c r="H14" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="217">
+      <c r="I14" s="170">
         <f>ROUNDUP(PMT($O$9/12,24,-$N$20),0)</f>
         <v>9</v>
       </c>
-      <c r="J14" s="218"/>
-      <c r="K14" s="209">
+      <c r="J14" s="171"/>
+      <c r="K14" s="172">
         <f>ROUNDUP(PMT($O$9/12,24,-$O$20),0)</f>
         <v>9</v>
       </c>
-      <c r="L14" s="210"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="126">
+      <c r="L14" s="173"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="125">
         <v>1.6</v>
       </c>
-      <c r="O14" s="130">
+      <c r="O14" s="129">
         <v>0</v>
       </c>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="178"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="178"/>
-      <c r="V14" s="179"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="120"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="119"/>
       <c r="Y14" s="105"/>
       <c r="Z14" s="105"/>
       <c r="AA14" s="105"/>
@@ -3963,11 +3959,11 @@
       <c r="C15" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="125">
+      <c r="D15" s="124">
         <f>ROUNDUP($N$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="E15" s="126">
+      <c r="E15" s="125">
         <f>ROUNDUP($O$20*1.042,0)</f>
         <v>171</v>
       </c>
@@ -3982,32 +3978,32 @@
       <c r="H15" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="217">
+      <c r="I15" s="170">
         <f>ROUNDUP(PMT($O$9/12,36,-$N$20),0)</f>
         <v>7</v>
       </c>
-      <c r="J15" s="218"/>
-      <c r="K15" s="209">
+      <c r="J15" s="171"/>
+      <c r="K15" s="172">
         <f>ROUNDUP(PMT($O$9/12,36,-$O$20),0)</f>
         <v>7</v>
       </c>
-      <c r="L15" s="210"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="126">
+      <c r="L15" s="173"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="125">
         <v>1.6</v>
       </c>
-      <c r="O15" s="130">
+      <c r="O15" s="129">
         <v>0</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="178"/>
-      <c r="V15" s="179"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="120"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="119"/>
       <c r="Y15" s="105"/>
       <c r="Z15" s="105"/>
       <c r="AA15" s="105"/>
@@ -4018,11 +4014,11 @@
       <c r="C16" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="125">
+      <c r="D16" s="124">
         <f>ROUNDUP($N$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="E16" s="126">
+      <c r="E16" s="125">
         <f>ROUNDUP($O$20*1.042,0)</f>
         <v>171</v>
       </c>
@@ -4037,32 +4033,32 @@
       <c r="H16" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="230">
+      <c r="I16" s="263">
         <f>ROUNDUP(PMT($O$9/12,48,-$N$20),0)</f>
         <v>6</v>
       </c>
-      <c r="J16" s="231"/>
-      <c r="K16" s="211">
+      <c r="J16" s="264"/>
+      <c r="K16" s="248">
         <f>ROUNDUP(PMT($O$9/12,48,-$O$20),0)</f>
         <v>6</v>
       </c>
-      <c r="L16" s="212"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="133">
+      <c r="L16" s="249"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="132">
         <v>1.6</v>
       </c>
-      <c r="O16" s="130">
+      <c r="O16" s="129">
         <v>0</v>
       </c>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="178"/>
-      <c r="V16" s="179"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="120"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
+      <c r="U16" s="175"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="119"/>
       <c r="Y16" s="105"/>
       <c r="Z16" s="105"/>
       <c r="AA16" s="105"/>
@@ -4073,11 +4069,11 @@
       <c r="C17" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="125">
+      <c r="D17" s="124">
         <f>ROUNDUP($N$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="E17" s="126">
+      <c r="E17" s="125">
         <f>ROUNDUP($O$20*1.042,0)</f>
         <v>171</v>
       </c>
@@ -4089,31 +4085,31 @@
         <f>ROUNDUP(PMT($N$9/12,24,-E17),0)</f>
         <v>9</v>
       </c>
-      <c r="H17" s="225" t="s">
+      <c r="H17" s="258" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="226"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="213" t="s">
+      <c r="I17" s="259"/>
+      <c r="J17" s="260"/>
+      <c r="K17" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="213" t="s">
+      <c r="L17" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="122"/>
+      <c r="M17" s="121"/>
       <c r="N17" s="93"/>
-      <c r="O17" s="146">
+      <c r="O17" s="144">
         <v>0</v>
       </c>
       <c r="P17" s="10"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
-      <c r="U17" s="178"/>
-      <c r="V17" s="179"/>
-      <c r="W17" s="119"/>
-      <c r="X17" s="120"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="119"/>
       <c r="Y17" s="105"/>
       <c r="Z17" s="105"/>
       <c r="AA17" s="105"/>
@@ -4124,11 +4120,11 @@
       <c r="C18" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="125">
+      <c r="D18" s="124">
         <f>ROUNDUP($N$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="E18" s="126">
+      <c r="E18" s="125">
         <f>ROUNDUP($O$20*1.042,0)</f>
         <v>171</v>
       </c>
@@ -4149,22 +4145,22 @@
       <c r="J18" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="191" t="s">
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="192"/>
+      <c r="O18" s="231"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="178"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="120"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="119"/>
       <c r="Z18" s="105"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4173,11 +4169,11 @@
       <c r="C19" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="135">
+      <c r="D19" s="134">
         <f>ROUNDUP($N$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="E19" s="133">
+      <c r="E19" s="132">
         <f>ROUNDUP($O$20*1.042,0)</f>
         <v>171</v>
       </c>
@@ -4200,15 +4196,15 @@
         <f>ROUNDUP($O$20/100*(100+O22),0)</f>
         <v>171</v>
       </c>
-      <c r="K19" s="126">
+      <c r="K19" s="125">
         <f>ROUNDUP(I19/4,0)</f>
         <v>43</v>
       </c>
-      <c r="L19" s="138">
+      <c r="L19" s="137">
         <f>ROUNDUP(J19/4,0)</f>
         <v>43</v>
       </c>
-      <c r="M19" s="122"/>
+      <c r="M19" s="121"/>
       <c r="N19" s="85" t="s">
         <v>21</v>
       </c>
@@ -4216,28 +4212,28 @@
         <v>22</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="178"/>
-      <c r="T19" s="178"/>
-      <c r="U19" s="178"/>
-      <c r="V19" s="179"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="120"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="175"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="119"/>
       <c r="Z19" s="105"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="222" t="s">
+      <c r="C20" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="223"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="228" t="s">
+      <c r="D20" s="256"/>
+      <c r="E20" s="257"/>
+      <c r="F20" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="228" t="s">
+      <c r="G20" s="261" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="68" t="s">
@@ -4251,15 +4247,15 @@
         <f>ROUNDUP($O$20/100*(100+O23),0)</f>
         <v>173</v>
       </c>
-      <c r="K20" s="139">
+      <c r="K20" s="138">
         <f>ROUNDUP(I20/5,0)</f>
         <v>35</v>
       </c>
-      <c r="L20" s="134">
+      <c r="L20" s="133">
         <f>ROUNDUP(J20/5,0)</f>
         <v>35</v>
       </c>
-      <c r="M20" s="122"/>
+      <c r="M20" s="121"/>
       <c r="N20" s="86">
         <f>I4-E37</f>
         <v>164</v>
@@ -4269,14 +4265,14 @@
         <v>164</v>
       </c>
       <c r="P20" s="10"/>
-      <c r="Q20" s="177"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="179"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="120"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="175"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="119"/>
       <c r="Z20" s="105"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4291,35 +4287,35 @@
       <c r="E21" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="229"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="219" t="s">
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="220"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="264" t="s">
+      <c r="I21" s="253"/>
+      <c r="J21" s="254"/>
+      <c r="K21" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="264" t="s">
+      <c r="L21" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="122"/>
-      <c r="N21" s="151" t="s">
+      <c r="M21" s="121"/>
+      <c r="N21" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="147" t="s">
+      <c r="O21" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="178"/>
-      <c r="S21" s="178"/>
-      <c r="T21" s="178"/>
-      <c r="U21" s="178"/>
-      <c r="V21" s="179"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="120"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="176"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="119"/>
       <c r="Z21" s="105"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4353,24 +4349,24 @@
       <c r="J22" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="265"/>
-      <c r="L22" s="265"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="167">
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="274">
         <v>0.14599999999999999</v>
       </c>
-      <c r="O22" s="125">
+      <c r="O22" s="124">
         <v>4.2</v>
       </c>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="178"/>
-      <c r="T22" s="178"/>
-      <c r="U22" s="178"/>
-      <c r="V22" s="179"/>
-      <c r="W22" s="119"/>
-      <c r="X22" s="120"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="175"/>
+      <c r="V22" s="176"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="119"/>
       <c r="Z22" s="105"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4414,20 +4410,20 @@
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,6,-J23),0)</f>
         <v>~30</v>
       </c>
-      <c r="M23" s="122"/>
-      <c r="N23" s="168"/>
-      <c r="O23" s="134">
+      <c r="M23" s="121"/>
+      <c r="N23" s="275"/>
+      <c r="O23" s="133">
         <v>5.3</v>
       </c>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
-      <c r="T23" s="178"/>
-      <c r="U23" s="178"/>
-      <c r="V23" s="179"/>
-      <c r="W23" s="119"/>
-      <c r="X23" s="120"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="119"/>
       <c r="Z23" s="105"/>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4471,18 +4467,18 @@
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,12,-J24),0)</f>
         <v>~16</v>
       </c>
-      <c r="M24" s="122"/>
+      <c r="M24" s="121"/>
       <c r="N24" s="94"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="260"/>
-      <c r="T24" s="260"/>
-      <c r="U24" s="260"/>
-      <c r="V24" s="261"/>
-      <c r="W24" s="119"/>
-      <c r="X24" s="120"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="185"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="119"/>
       <c r="Z24" s="105"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4526,17 +4522,17 @@
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,18,-J25),0)</f>
         <v>~12</v>
       </c>
-      <c r="M25" s="122"/>
+      <c r="M25" s="121"/>
       <c r="N25" s="94"/>
-      <c r="O25" s="122"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="178"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="179"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="120"/>
+      <c r="O25" s="121"/>
+      <c r="Q25" s="174"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="176"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="119"/>
       <c r="Z25" s="105"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4580,29 +4576,29 @@
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,24,-J26),0)</f>
         <v>~9</v>
       </c>
-      <c r="M26" s="122"/>
+      <c r="M26" s="121"/>
       <c r="N26" s="94"/>
-      <c r="O26" s="122"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="178"/>
-      <c r="S26" s="178"/>
-      <c r="T26" s="178"/>
-      <c r="U26" s="178"/>
-      <c r="V26" s="179"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="120"/>
+      <c r="O26" s="121"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="119"/>
       <c r="Z26" s="105"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="162" t="s">
+      <c r="C27" s="269" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="164"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="270"/>
+      <c r="G27" s="271"/>
       <c r="H27" s="69" t="s">
         <v>13</v>
       </c>
@@ -4622,33 +4618,33 @@
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,36,-J27),0)</f>
         <v>~7</v>
       </c>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="179"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="120"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="176"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="119"/>
       <c r="Z27" s="105"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="171" t="s">
+      <c r="D28" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="172"/>
-      <c r="F28" s="171" t="s">
+      <c r="E28" s="279"/>
+      <c r="F28" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="172"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="75" t="s">
         <v>43</v>
       </c>
@@ -4668,231 +4664,231 @@
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,60,-J28),0)</f>
         <v>~6</v>
       </c>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="178"/>
-      <c r="T28" s="178"/>
-      <c r="U28" s="178"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="119"/>
-      <c r="X28" s="120"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="Q28" s="174"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="119"/>
       <c r="Z28" s="105"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="169">
+      <c r="D29" s="276">
         <f>ROUNDUP(PMT($N$22/12,13,-$N$20),0)</f>
         <v>14</v>
       </c>
-      <c r="E29" s="170"/>
-      <c r="F29" s="169">
+      <c r="E29" s="277"/>
+      <c r="F29" s="276">
         <f>ROUNDUP(PMT($N$22/12,13,-$O$20),0)</f>
         <v>14</v>
       </c>
-      <c r="G29" s="170"/>
-      <c r="H29" s="162" t="s">
+      <c r="G29" s="277"/>
+      <c r="H29" s="269" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="165" t="s">
+      <c r="I29" s="270"/>
+      <c r="J29" s="271"/>
+      <c r="K29" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="165" t="s">
+      <c r="L29" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
-      <c r="U29" s="178"/>
-      <c r="V29" s="179"/>
-      <c r="W29" s="119"/>
-      <c r="X29" s="120"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="119"/>
       <c r="Z29" s="105"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="148" t="s">
+      <c r="C30" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="169">
+      <c r="D30" s="276">
         <f>ROUNDUP(PMT($N$22/12,15,-$N$20),0)</f>
         <v>13</v>
       </c>
-      <c r="E30" s="170"/>
-      <c r="F30" s="169">
+      <c r="E30" s="277"/>
+      <c r="F30" s="276">
         <f>ROUNDUP(PMT($N$22/12,15,-$O$20),0)</f>
         <v>13</v>
       </c>
-      <c r="G30" s="170"/>
-      <c r="H30" s="159" t="s">
+      <c r="G30" s="277"/>
+      <c r="H30" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="160" t="s">
+      <c r="I30" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="161" t="s">
+      <c r="J30" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="140"/>
-      <c r="O30" s="140"/>
+      <c r="K30" s="273"/>
+      <c r="L30" s="273"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="177"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178"/>
-      <c r="U30" s="178"/>
-      <c r="V30" s="179"/>
-      <c r="W30" s="119"/>
-      <c r="X30" s="120"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="119"/>
       <c r="Z30" s="105"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="169">
+      <c r="D31" s="276">
         <f>ROUNDUP(PMT($N$22/12,18,-$N$20),0)</f>
         <v>11</v>
       </c>
-      <c r="E31" s="170"/>
-      <c r="F31" s="169">
+      <c r="E31" s="277"/>
+      <c r="F31" s="276">
         <f>ROUNDUP(PMT($N$22/12,18,-$O$20),0)</f>
         <v>11</v>
       </c>
-      <c r="G31" s="170"/>
-      <c r="H31" s="157" t="s">
+      <c r="G31" s="277"/>
+      <c r="H31" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="156">
+      <c r="I31" s="154">
         <f>ROUNDUP($N$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="J31" s="156">
+      <c r="J31" s="154">
         <f>ROUNDUP($O$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="K31" s="158" t="str">
+      <c r="K31" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,24,-I31),0)</f>
         <v>&lt; 9</v>
       </c>
-      <c r="L31" s="158" t="str">
+      <c r="L31" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,24,-J31),0)</f>
         <v>&lt; 9</v>
       </c>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="140"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="177"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="178"/>
-      <c r="U31" s="178"/>
-      <c r="V31" s="179"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="120"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="175"/>
+      <c r="V31" s="176"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="119"/>
       <c r="Z31" s="105"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="169">
+      <c r="D32" s="276">
         <f>ROUNDUP(PMT($N$22/12,24,-$N$20),0)</f>
         <v>8</v>
       </c>
-      <c r="E32" s="170"/>
-      <c r="F32" s="169">
+      <c r="E32" s="277"/>
+      <c r="F32" s="276">
         <f>ROUNDUP(PMT($N$22/12,24,-$O$20),0)</f>
         <v>8</v>
       </c>
-      <c r="G32" s="170"/>
-      <c r="H32" s="154" t="s">
+      <c r="G32" s="277"/>
+      <c r="H32" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="156">
+      <c r="I32" s="154">
         <f t="shared" ref="I32:I34" si="2">ROUNDUP($N$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="J32" s="156">
+      <c r="J32" s="154">
         <f t="shared" ref="J32:J34" si="3">ROUNDUP($O$20*1.042,0)</f>
         <v>171</v>
       </c>
-      <c r="K32" s="158" t="str">
+      <c r="K32" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,36,-I32),0)</f>
         <v>&lt; 6</v>
       </c>
-      <c r="L32" s="158" t="str">
+      <c r="L32" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,36,-J32),0)</f>
         <v>&lt; 6</v>
       </c>
-      <c r="M32" s="140"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="140"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="178"/>
-      <c r="S32" s="178"/>
-      <c r="T32" s="178"/>
-      <c r="U32" s="178"/>
-      <c r="V32" s="179"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="120"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="176"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="119"/>
       <c r="Z32" s="105"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="148" t="s">
+      <c r="C33" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="169">
+      <c r="D33" s="276">
         <f>ROUNDUP(PMT($N$22/12,36,-$N$20),0)</f>
         <v>6</v>
       </c>
-      <c r="E33" s="170"/>
-      <c r="F33" s="169">
+      <c r="E33" s="277"/>
+      <c r="F33" s="276">
         <f>ROUNDUP(PMT($N$22/12,36,-$O$20),0)</f>
         <v>6</v>
       </c>
-      <c r="G33" s="170"/>
-      <c r="H33" s="154" t="s">
+      <c r="G33" s="277"/>
+      <c r="H33" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="156">
+      <c r="I33" s="154">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="J33" s="156">
+      <c r="J33" s="154">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
-      <c r="K33" s="158" t="str">
+      <c r="K33" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,48,-I33),0)</f>
         <v>&lt; 5</v>
       </c>
-      <c r="L33" s="158" t="str">
+      <c r="L33" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,48,-J33),0)</f>
         <v>&lt; 5</v>
       </c>
@@ -4900,48 +4896,48 @@
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="178"/>
-      <c r="S33" s="178"/>
-      <c r="T33" s="178"/>
-      <c r="U33" s="178"/>
-      <c r="V33" s="179"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="120"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="176"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="119"/>
       <c r="Z33" s="105"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="149" t="s">
+      <c r="C34" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="169">
+      <c r="D34" s="276">
         <f>ROUNDUP(PMT($N$22/12,48,-$N$20),0)</f>
         <v>5</v>
       </c>
-      <c r="E34" s="170"/>
-      <c r="F34" s="169">
+      <c r="E34" s="277"/>
+      <c r="F34" s="276">
         <f>ROUNDUP(PMT($N$22/12,48,-$O$20),0)</f>
         <v>5</v>
       </c>
-      <c r="G34" s="170"/>
-      <c r="H34" s="155" t="s">
+      <c r="G34" s="277"/>
+      <c r="H34" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="156">
+      <c r="I34" s="154">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="J34" s="156">
+      <c r="J34" s="154">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
-      <c r="K34" s="158" t="str">
+      <c r="K34" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,60,-I34),0)</f>
         <v>&lt; 5</v>
       </c>
-      <c r="L34" s="158" t="str">
+      <c r="L34" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,60,-J34),0)</f>
         <v>&lt; 5</v>
       </c>
@@ -4949,44 +4945,44 @@
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="177"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="178"/>
-      <c r="U34" s="178"/>
-      <c r="V34" s="179"/>
-      <c r="W34" s="119"/>
-      <c r="X34" s="120"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="175"/>
+      <c r="V34" s="176"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="119"/>
       <c r="Z34" s="105"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="149" t="s">
+      <c r="C35" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="169">
+      <c r="D35" s="276">
         <f>ROUNDUP(PMT($N$22/12,60,-$N$20),0)</f>
         <v>4</v>
       </c>
-      <c r="E35" s="170"/>
-      <c r="F35" s="169">
+      <c r="E35" s="277"/>
+      <c r="F35" s="276">
         <f>ROUNDUP(PMT($N$22/12,60,-$O$20),0)</f>
         <v>4</v>
       </c>
-      <c r="G35" s="170"/>
+      <c r="G35" s="277"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="177"/>
-      <c r="R35" s="178"/>
-      <c r="S35" s="178"/>
-      <c r="T35" s="178"/>
-      <c r="U35" s="178"/>
-      <c r="V35" s="179"/>
-      <c r="W35" s="119"/>
-      <c r="X35" s="120"/>
+      <c r="Q35" s="174"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="175"/>
+      <c r="T35" s="175"/>
+      <c r="U35" s="175"/>
+      <c r="V35" s="176"/>
+      <c r="W35" s="118"/>
+      <c r="X35" s="119"/>
       <c r="Z35" s="105"/>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5000,60 +4996,60 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="178"/>
-      <c r="S36" s="178"/>
-      <c r="T36" s="178"/>
-      <c r="U36" s="178"/>
-      <c r="V36" s="179"/>
-      <c r="W36" s="119"/>
-      <c r="X36" s="120"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="175"/>
+      <c r="S36" s="175"/>
+      <c r="T36" s="175"/>
+      <c r="U36" s="175"/>
+      <c r="V36" s="176"/>
+      <c r="W36" s="118"/>
+      <c r="X36" s="119"/>
       <c r="Z36" s="105"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="183" t="s">
+      <c r="C37" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="184"/>
-      <c r="E37" s="187">
+      <c r="D37" s="223"/>
+      <c r="E37" s="226">
         <v>0</v>
       </c>
-      <c r="F37" s="188"/>
+      <c r="F37" s="227"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
-      <c r="Q37" s="177"/>
-      <c r="R37" s="178"/>
-      <c r="S37" s="178"/>
-      <c r="T37" s="178"/>
-      <c r="U37" s="178"/>
-      <c r="V37" s="179"/>
-      <c r="W37" s="119"/>
-      <c r="X37" s="120"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="175"/>
+      <c r="S37" s="175"/>
+      <c r="T37" s="175"/>
+      <c r="U37" s="175"/>
+      <c r="V37" s="176"/>
+      <c r="W37" s="118"/>
+      <c r="X37" s="119"/>
       <c r="Z37" s="105"/>
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="189"/>
-      <c r="F38" s="190"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="225"/>
+      <c r="E38" s="228"/>
+      <c r="F38" s="229"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
-      <c r="Q38" s="177"/>
-      <c r="R38" s="178"/>
-      <c r="S38" s="178"/>
-      <c r="T38" s="178"/>
-      <c r="U38" s="178"/>
-      <c r="V38" s="179"/>
-      <c r="W38" s="119"/>
-      <c r="X38" s="120"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="175"/>
+      <c r="S38" s="175"/>
+      <c r="T38" s="175"/>
+      <c r="U38" s="175"/>
+      <c r="V38" s="176"/>
+      <c r="W38" s="118"/>
+      <c r="X38" s="119"/>
       <c r="Z38" s="105"/>
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5073,28 +5069,28 @@
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="178"/>
-      <c r="S39" s="178"/>
-      <c r="T39" s="178"/>
-      <c r="U39" s="178"/>
-      <c r="V39" s="179"/>
-      <c r="W39" s="119"/>
-      <c r="X39" s="120"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="175"/>
+      <c r="T39" s="175"/>
+      <c r="U39" s="175"/>
+      <c r="V39" s="176"/>
+      <c r="W39" s="118"/>
+      <c r="X39" s="119"/>
       <c r="Z39" s="105"/>
     </row>
     <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="272" t="s">
+      <c r="C40" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="273"/>
-      <c r="E40" s="276">
+      <c r="D40" s="161"/>
+      <c r="E40" s="164">
         <f>C3*J3</f>
         <v>0</v>
       </c>
-      <c r="F40" s="277"/>
+      <c r="F40" s="165"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -5104,23 +5100,23 @@
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="178"/>
-      <c r="S40" s="178"/>
-      <c r="T40" s="178"/>
-      <c r="U40" s="178"/>
-      <c r="V40" s="179"/>
-      <c r="W40" s="119"/>
-      <c r="X40" s="120"/>
+      <c r="Q40" s="174"/>
+      <c r="R40" s="175"/>
+      <c r="S40" s="175"/>
+      <c r="T40" s="175"/>
+      <c r="U40" s="175"/>
+      <c r="V40" s="176"/>
+      <c r="W40" s="118"/>
+      <c r="X40" s="119"/>
       <c r="Z40" s="105"/>
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="274"/>
-      <c r="D41" s="275"/>
-      <c r="E41" s="278"/>
-      <c r="F41" s="279"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="167"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -5129,14 +5125,14 @@
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="178"/>
-      <c r="S41" s="178"/>
-      <c r="T41" s="178"/>
-      <c r="U41" s="178"/>
-      <c r="V41" s="179"/>
-      <c r="W41" s="119"/>
-      <c r="X41" s="120"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="175"/>
+      <c r="S41" s="175"/>
+      <c r="T41" s="175"/>
+      <c r="U41" s="175"/>
+      <c r="V41" s="176"/>
+      <c r="W41" s="118"/>
+      <c r="X41" s="119"/>
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
@@ -5149,14 +5145,14 @@
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
-      <c r="Q42" s="177"/>
-      <c r="R42" s="178"/>
-      <c r="S42" s="178"/>
-      <c r="T42" s="178"/>
-      <c r="U42" s="178"/>
-      <c r="V42" s="179"/>
-      <c r="W42" s="119"/>
-      <c r="X42" s="120"/>
+      <c r="Q42" s="174"/>
+      <c r="R42" s="175"/>
+      <c r="S42" s="175"/>
+      <c r="T42" s="175"/>
+      <c r="U42" s="175"/>
+      <c r="V42" s="176"/>
+      <c r="W42" s="118"/>
+      <c r="X42" s="119"/>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
@@ -5165,134 +5161,134 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
-      <c r="Q43" s="177"/>
-      <c r="R43" s="178"/>
-      <c r="S43" s="178"/>
-      <c r="T43" s="178"/>
-      <c r="U43" s="178"/>
-      <c r="V43" s="179"/>
-      <c r="W43" s="119"/>
-      <c r="X43" s="120"/>
+      <c r="Q43" s="174"/>
+      <c r="R43" s="175"/>
+      <c r="S43" s="175"/>
+      <c r="T43" s="175"/>
+      <c r="U43" s="175"/>
+      <c r="V43" s="176"/>
+      <c r="W43" s="118"/>
+      <c r="X43" s="119"/>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q44" s="177"/>
-      <c r="R44" s="178"/>
-      <c r="S44" s="178"/>
-      <c r="T44" s="178"/>
-      <c r="U44" s="178"/>
-      <c r="V44" s="179"/>
-      <c r="W44" s="119"/>
-      <c r="X44" s="120"/>
+      <c r="Q44" s="174"/>
+      <c r="R44" s="175"/>
+      <c r="S44" s="175"/>
+      <c r="T44" s="175"/>
+      <c r="U44" s="175"/>
+      <c r="V44" s="176"/>
+      <c r="W44" s="118"/>
+      <c r="X44" s="119"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q45" s="177"/>
-      <c r="R45" s="178"/>
-      <c r="S45" s="178"/>
-      <c r="T45" s="178"/>
-      <c r="U45" s="178"/>
-      <c r="V45" s="179"/>
-      <c r="W45" s="119"/>
-      <c r="X45" s="120"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="175"/>
+      <c r="S45" s="175"/>
+      <c r="T45" s="175"/>
+      <c r="U45" s="175"/>
+      <c r="V45" s="176"/>
+      <c r="W45" s="118"/>
+      <c r="X45" s="119"/>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q46" s="177"/>
-      <c r="R46" s="178"/>
-      <c r="S46" s="178"/>
-      <c r="T46" s="178"/>
-      <c r="U46" s="178"/>
-      <c r="V46" s="179"/>
-      <c r="W46" s="119"/>
-      <c r="X46" s="120"/>
+      <c r="Q46" s="174"/>
+      <c r="R46" s="175"/>
+      <c r="S46" s="175"/>
+      <c r="T46" s="175"/>
+      <c r="U46" s="175"/>
+      <c r="V46" s="176"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="119"/>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q47" s="177"/>
-      <c r="R47" s="178"/>
-      <c r="S47" s="178"/>
-      <c r="T47" s="178"/>
-      <c r="U47" s="178"/>
-      <c r="V47" s="179"/>
-      <c r="W47" s="119"/>
-      <c r="X47" s="120"/>
+      <c r="Q47" s="174"/>
+      <c r="R47" s="175"/>
+      <c r="S47" s="175"/>
+      <c r="T47" s="175"/>
+      <c r="U47" s="175"/>
+      <c r="V47" s="176"/>
+      <c r="W47" s="118"/>
+      <c r="X47" s="119"/>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q48" s="177"/>
-      <c r="R48" s="178"/>
-      <c r="S48" s="178"/>
-      <c r="T48" s="178"/>
-      <c r="U48" s="178"/>
-      <c r="V48" s="179"/>
-      <c r="W48" s="119"/>
-      <c r="X48" s="120"/>
+      <c r="Q48" s="174"/>
+      <c r="R48" s="175"/>
+      <c r="S48" s="175"/>
+      <c r="T48" s="175"/>
+      <c r="U48" s="175"/>
+      <c r="V48" s="176"/>
+      <c r="W48" s="118"/>
+      <c r="X48" s="119"/>
     </row>
     <row r="49" spans="17:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q49" s="177"/>
-      <c r="R49" s="178"/>
-      <c r="S49" s="178"/>
-      <c r="T49" s="178"/>
-      <c r="U49" s="178"/>
-      <c r="V49" s="179"/>
-      <c r="W49" s="119"/>
-      <c r="X49" s="120"/>
+      <c r="Q49" s="174"/>
+      <c r="R49" s="175"/>
+      <c r="S49" s="175"/>
+      <c r="T49" s="175"/>
+      <c r="U49" s="175"/>
+      <c r="V49" s="176"/>
+      <c r="W49" s="118"/>
+      <c r="X49" s="119"/>
     </row>
     <row r="50" spans="17:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q50" s="177"/>
-      <c r="R50" s="178"/>
-      <c r="S50" s="178"/>
-      <c r="T50" s="178"/>
-      <c r="U50" s="178"/>
-      <c r="V50" s="179"/>
-      <c r="W50" s="119"/>
-      <c r="X50" s="120"/>
+      <c r="Q50" s="174"/>
+      <c r="R50" s="175"/>
+      <c r="S50" s="175"/>
+      <c r="T50" s="175"/>
+      <c r="U50" s="175"/>
+      <c r="V50" s="176"/>
+      <c r="W50" s="118"/>
+      <c r="X50" s="119"/>
     </row>
     <row r="51" spans="17:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q51" s="177"/>
-      <c r="R51" s="178"/>
-      <c r="S51" s="178"/>
-      <c r="T51" s="178"/>
-      <c r="U51" s="178"/>
-      <c r="V51" s="179"/>
-      <c r="W51" s="119"/>
-      <c r="X51" s="120"/>
+      <c r="Q51" s="174"/>
+      <c r="R51" s="175"/>
+      <c r="S51" s="175"/>
+      <c r="T51" s="175"/>
+      <c r="U51" s="175"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="118"/>
+      <c r="X51" s="119"/>
     </row>
     <row r="52" spans="17:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q52" s="177"/>
-      <c r="R52" s="178"/>
-      <c r="S52" s="178"/>
-      <c r="T52" s="178"/>
-      <c r="U52" s="178"/>
-      <c r="V52" s="179"/>
-      <c r="W52" s="119"/>
-      <c r="X52" s="120"/>
+      <c r="Q52" s="174"/>
+      <c r="R52" s="175"/>
+      <c r="S52" s="175"/>
+      <c r="T52" s="175"/>
+      <c r="U52" s="175"/>
+      <c r="V52" s="176"/>
+      <c r="W52" s="118"/>
+      <c r="X52" s="119"/>
     </row>
     <row r="53" spans="17:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q53" s="177"/>
-      <c r="R53" s="178"/>
-      <c r="S53" s="178"/>
-      <c r="T53" s="178"/>
-      <c r="U53" s="178"/>
-      <c r="V53" s="179"/>
-      <c r="W53" s="119"/>
-      <c r="X53" s="120"/>
+      <c r="Q53" s="174"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="175"/>
+      <c r="T53" s="175"/>
+      <c r="U53" s="175"/>
+      <c r="V53" s="176"/>
+      <c r="W53" s="118"/>
+      <c r="X53" s="119"/>
     </row>
     <row r="54" spans="17:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q54" s="177"/>
-      <c r="R54" s="178"/>
-      <c r="S54" s="178"/>
-      <c r="T54" s="178"/>
-      <c r="U54" s="178"/>
-      <c r="V54" s="179"/>
-      <c r="W54" s="119"/>
-      <c r="X54" s="120"/>
+      <c r="Q54" s="174"/>
+      <c r="R54" s="175"/>
+      <c r="S54" s="175"/>
+      <c r="T54" s="175"/>
+      <c r="U54" s="175"/>
+      <c r="V54" s="176"/>
+      <c r="W54" s="118"/>
+      <c r="X54" s="119"/>
     </row>
     <row r="55" spans="17:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q55" s="177"/>
-      <c r="R55" s="178"/>
-      <c r="S55" s="178"/>
-      <c r="T55" s="178"/>
-      <c r="U55" s="178"/>
-      <c r="V55" s="179"/>
-      <c r="W55" s="119"/>
-      <c r="X55" s="120"/>
+      <c r="Q55" s="174"/>
+      <c r="R55" s="175"/>
+      <c r="S55" s="175"/>
+      <c r="T55" s="175"/>
+      <c r="U55" s="175"/>
+      <c r="V55" s="176"/>
+      <c r="W55" s="118"/>
+      <c r="X55" s="119"/>
     </row>
     <row r="56" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q56" s="180"/>
@@ -5301,518 +5297,518 @@
       <c r="T56" s="181"/>
       <c r="U56" s="181"/>
       <c r="V56" s="182"/>
-      <c r="W56" s="115"/>
-      <c r="X56" s="141"/>
+      <c r="W56" s="114"/>
+      <c r="X56" s="140"/>
     </row>
     <row r="57" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q57" s="177"/>
-      <c r="R57" s="178"/>
-      <c r="S57" s="178"/>
-      <c r="T57" s="178"/>
-      <c r="U57" s="178"/>
-      <c r="V57" s="179"/>
-      <c r="W57" s="119"/>
-      <c r="X57" s="120"/>
+      <c r="Q57" s="174"/>
+      <c r="R57" s="175"/>
+      <c r="S57" s="175"/>
+      <c r="T57" s="175"/>
+      <c r="U57" s="175"/>
+      <c r="V57" s="176"/>
+      <c r="W57" s="118"/>
+      <c r="X57" s="119"/>
     </row>
     <row r="58" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q58" s="177"/>
-      <c r="R58" s="178"/>
-      <c r="S58" s="178"/>
-      <c r="T58" s="178"/>
-      <c r="U58" s="178"/>
-      <c r="V58" s="179"/>
-      <c r="W58" s="119"/>
-      <c r="X58" s="120"/>
+      <c r="Q58" s="174"/>
+      <c r="R58" s="175"/>
+      <c r="S58" s="175"/>
+      <c r="T58" s="175"/>
+      <c r="U58" s="175"/>
+      <c r="V58" s="176"/>
+      <c r="W58" s="118"/>
+      <c r="X58" s="119"/>
     </row>
     <row r="59" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q59" s="177"/>
-      <c r="R59" s="178"/>
-      <c r="S59" s="178"/>
-      <c r="T59" s="178"/>
-      <c r="U59" s="178"/>
-      <c r="V59" s="179"/>
-      <c r="W59" s="119"/>
-      <c r="X59" s="120"/>
+      <c r="Q59" s="174"/>
+      <c r="R59" s="175"/>
+      <c r="S59" s="175"/>
+      <c r="T59" s="175"/>
+      <c r="U59" s="175"/>
+      <c r="V59" s="176"/>
+      <c r="W59" s="118"/>
+      <c r="X59" s="119"/>
     </row>
     <row r="60" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q60" s="177"/>
-      <c r="R60" s="178"/>
-      <c r="S60" s="178"/>
-      <c r="T60" s="178"/>
-      <c r="U60" s="178"/>
-      <c r="V60" s="179"/>
-      <c r="W60" s="119"/>
-      <c r="X60" s="120"/>
+      <c r="Q60" s="174"/>
+      <c r="R60" s="175"/>
+      <c r="S60" s="175"/>
+      <c r="T60" s="175"/>
+      <c r="U60" s="175"/>
+      <c r="V60" s="176"/>
+      <c r="W60" s="118"/>
+      <c r="X60" s="119"/>
     </row>
     <row r="61" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q61" s="177"/>
-      <c r="R61" s="178"/>
-      <c r="S61" s="178"/>
-      <c r="T61" s="178"/>
-      <c r="U61" s="178"/>
-      <c r="V61" s="179"/>
-      <c r="W61" s="119"/>
-      <c r="X61" s="120"/>
+      <c r="Q61" s="174"/>
+      <c r="R61" s="175"/>
+      <c r="S61" s="175"/>
+      <c r="T61" s="175"/>
+      <c r="U61" s="175"/>
+      <c r="V61" s="176"/>
+      <c r="W61" s="118"/>
+      <c r="X61" s="119"/>
     </row>
     <row r="62" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q62" s="177"/>
-      <c r="R62" s="178"/>
-      <c r="S62" s="178"/>
-      <c r="T62" s="178"/>
-      <c r="U62" s="178"/>
-      <c r="V62" s="179"/>
-      <c r="W62" s="119"/>
-      <c r="X62" s="120"/>
+      <c r="Q62" s="174"/>
+      <c r="R62" s="175"/>
+      <c r="S62" s="175"/>
+      <c r="T62" s="175"/>
+      <c r="U62" s="175"/>
+      <c r="V62" s="176"/>
+      <c r="W62" s="118"/>
+      <c r="X62" s="119"/>
     </row>
     <row r="63" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q63" s="177"/>
-      <c r="R63" s="178"/>
-      <c r="S63" s="178"/>
-      <c r="T63" s="178"/>
-      <c r="U63" s="178"/>
-      <c r="V63" s="179"/>
-      <c r="W63" s="119"/>
-      <c r="X63" s="120"/>
+      <c r="Q63" s="174"/>
+      <c r="R63" s="175"/>
+      <c r="S63" s="175"/>
+      <c r="T63" s="175"/>
+      <c r="U63" s="175"/>
+      <c r="V63" s="176"/>
+      <c r="W63" s="118"/>
+      <c r="X63" s="119"/>
     </row>
     <row r="64" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q64" s="177"/>
-      <c r="R64" s="178"/>
-      <c r="S64" s="178"/>
-      <c r="T64" s="178"/>
-      <c r="U64" s="178"/>
-      <c r="V64" s="179"/>
-      <c r="W64" s="119"/>
-      <c r="X64" s="120"/>
+      <c r="Q64" s="174"/>
+      <c r="R64" s="175"/>
+      <c r="S64" s="175"/>
+      <c r="T64" s="175"/>
+      <c r="U64" s="175"/>
+      <c r="V64" s="176"/>
+      <c r="W64" s="118"/>
+      <c r="X64" s="119"/>
     </row>
     <row r="65" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q65" s="177"/>
-      <c r="R65" s="178"/>
-      <c r="S65" s="178"/>
-      <c r="T65" s="178"/>
-      <c r="U65" s="178"/>
-      <c r="V65" s="179"/>
-      <c r="W65" s="119"/>
-      <c r="X65" s="120"/>
+      <c r="Q65" s="174"/>
+      <c r="R65" s="175"/>
+      <c r="S65" s="175"/>
+      <c r="T65" s="175"/>
+      <c r="U65" s="175"/>
+      <c r="V65" s="176"/>
+      <c r="W65" s="118"/>
+      <c r="X65" s="119"/>
     </row>
     <row r="66" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q66" s="177"/>
-      <c r="R66" s="178"/>
-      <c r="S66" s="178"/>
-      <c r="T66" s="178"/>
-      <c r="U66" s="178"/>
-      <c r="V66" s="179"/>
-      <c r="W66" s="119"/>
-      <c r="X66" s="120"/>
+      <c r="Q66" s="174"/>
+      <c r="R66" s="175"/>
+      <c r="S66" s="175"/>
+      <c r="T66" s="175"/>
+      <c r="U66" s="175"/>
+      <c r="V66" s="176"/>
+      <c r="W66" s="118"/>
+      <c r="X66" s="119"/>
     </row>
     <row r="67" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q67" s="177"/>
-      <c r="R67" s="178"/>
-      <c r="S67" s="178"/>
-      <c r="T67" s="178"/>
-      <c r="U67" s="178"/>
-      <c r="V67" s="179"/>
-      <c r="W67" s="119"/>
-      <c r="X67" s="120"/>
+      <c r="Q67" s="174"/>
+      <c r="R67" s="175"/>
+      <c r="S67" s="175"/>
+      <c r="T67" s="175"/>
+      <c r="U67" s="175"/>
+      <c r="V67" s="176"/>
+      <c r="W67" s="118"/>
+      <c r="X67" s="119"/>
     </row>
     <row r="68" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q68" s="177"/>
-      <c r="R68" s="178"/>
-      <c r="S68" s="178"/>
-      <c r="T68" s="178"/>
-      <c r="U68" s="178"/>
-      <c r="V68" s="179"/>
-      <c r="W68" s="119"/>
-      <c r="X68" s="120"/>
+      <c r="Q68" s="174"/>
+      <c r="R68" s="175"/>
+      <c r="S68" s="175"/>
+      <c r="T68" s="175"/>
+      <c r="U68" s="175"/>
+      <c r="V68" s="176"/>
+      <c r="W68" s="118"/>
+      <c r="X68" s="119"/>
     </row>
     <row r="69" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q69" s="177"/>
-      <c r="R69" s="178"/>
-      <c r="S69" s="178"/>
-      <c r="T69" s="178"/>
-      <c r="U69" s="178"/>
-      <c r="V69" s="179"/>
-      <c r="W69" s="119"/>
-      <c r="X69" s="120"/>
+      <c r="Q69" s="174"/>
+      <c r="R69" s="175"/>
+      <c r="S69" s="175"/>
+      <c r="T69" s="175"/>
+      <c r="U69" s="175"/>
+      <c r="V69" s="176"/>
+      <c r="W69" s="118"/>
+      <c r="X69" s="119"/>
     </row>
     <row r="70" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q70" s="177"/>
-      <c r="R70" s="178"/>
-      <c r="S70" s="178"/>
-      <c r="T70" s="178"/>
-      <c r="U70" s="178"/>
-      <c r="V70" s="179"/>
-      <c r="W70" s="119"/>
-      <c r="X70" s="120"/>
+      <c r="Q70" s="174"/>
+      <c r="R70" s="175"/>
+      <c r="S70" s="175"/>
+      <c r="T70" s="175"/>
+      <c r="U70" s="175"/>
+      <c r="V70" s="176"/>
+      <c r="W70" s="118"/>
+      <c r="X70" s="119"/>
     </row>
     <row r="71" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q71" s="177"/>
-      <c r="R71" s="178"/>
-      <c r="S71" s="178"/>
-      <c r="T71" s="178"/>
-      <c r="U71" s="178"/>
-      <c r="V71" s="179"/>
-      <c r="W71" s="119"/>
-      <c r="X71" s="120"/>
+      <c r="Q71" s="174"/>
+      <c r="R71" s="175"/>
+      <c r="S71" s="175"/>
+      <c r="T71" s="175"/>
+      <c r="U71" s="175"/>
+      <c r="V71" s="176"/>
+      <c r="W71" s="118"/>
+      <c r="X71" s="119"/>
     </row>
     <row r="72" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q72" s="177"/>
-      <c r="R72" s="178"/>
-      <c r="S72" s="178"/>
-      <c r="T72" s="178"/>
-      <c r="U72" s="178"/>
-      <c r="V72" s="179"/>
-      <c r="W72" s="119"/>
-      <c r="X72" s="120"/>
+      <c r="Q72" s="174"/>
+      <c r="R72" s="175"/>
+      <c r="S72" s="175"/>
+      <c r="T72" s="175"/>
+      <c r="U72" s="175"/>
+      <c r="V72" s="176"/>
+      <c r="W72" s="118"/>
+      <c r="X72" s="119"/>
     </row>
     <row r="73" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q73" s="177"/>
-      <c r="R73" s="178"/>
-      <c r="S73" s="178"/>
-      <c r="T73" s="178"/>
-      <c r="U73" s="178"/>
-      <c r="V73" s="179"/>
-      <c r="W73" s="119"/>
-      <c r="X73" s="120"/>
+      <c r="Q73" s="174"/>
+      <c r="R73" s="175"/>
+      <c r="S73" s="175"/>
+      <c r="T73" s="175"/>
+      <c r="U73" s="175"/>
+      <c r="V73" s="176"/>
+      <c r="W73" s="118"/>
+      <c r="X73" s="119"/>
     </row>
     <row r="74" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q74" s="177"/>
-      <c r="R74" s="178"/>
-      <c r="S74" s="178"/>
-      <c r="T74" s="178"/>
-      <c r="U74" s="178"/>
-      <c r="V74" s="179"/>
-      <c r="W74" s="119"/>
-      <c r="X74" s="120"/>
+      <c r="Q74" s="174"/>
+      <c r="R74" s="175"/>
+      <c r="S74" s="175"/>
+      <c r="T74" s="175"/>
+      <c r="U74" s="175"/>
+      <c r="V74" s="176"/>
+      <c r="W74" s="118"/>
+      <c r="X74" s="119"/>
     </row>
     <row r="75" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q75" s="177"/>
-      <c r="R75" s="178"/>
-      <c r="S75" s="178"/>
-      <c r="T75" s="178"/>
-      <c r="U75" s="178"/>
-      <c r="V75" s="179"/>
-      <c r="W75" s="119"/>
-      <c r="X75" s="120"/>
+      <c r="Q75" s="174"/>
+      <c r="R75" s="175"/>
+      <c r="S75" s="175"/>
+      <c r="T75" s="175"/>
+      <c r="U75" s="175"/>
+      <c r="V75" s="176"/>
+      <c r="W75" s="118"/>
+      <c r="X75" s="119"/>
     </row>
     <row r="76" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q76" s="177"/>
-      <c r="R76" s="178"/>
-      <c r="S76" s="178"/>
-      <c r="T76" s="178"/>
-      <c r="U76" s="178"/>
-      <c r="V76" s="179"/>
-      <c r="W76" s="119"/>
-      <c r="X76" s="120"/>
+      <c r="Q76" s="174"/>
+      <c r="R76" s="175"/>
+      <c r="S76" s="175"/>
+      <c r="T76" s="175"/>
+      <c r="U76" s="175"/>
+      <c r="V76" s="176"/>
+      <c r="W76" s="118"/>
+      <c r="X76" s="119"/>
     </row>
     <row r="77" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q77" s="177"/>
-      <c r="R77" s="178"/>
-      <c r="S77" s="178"/>
-      <c r="T77" s="178"/>
-      <c r="U77" s="178"/>
-      <c r="V77" s="179"/>
-      <c r="W77" s="119"/>
-      <c r="X77" s="120"/>
+      <c r="Q77" s="174"/>
+      <c r="R77" s="175"/>
+      <c r="S77" s="175"/>
+      <c r="T77" s="175"/>
+      <c r="U77" s="175"/>
+      <c r="V77" s="176"/>
+      <c r="W77" s="118"/>
+      <c r="X77" s="119"/>
     </row>
     <row r="78" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q78" s="177"/>
-      <c r="R78" s="178"/>
-      <c r="S78" s="178"/>
-      <c r="T78" s="178"/>
-      <c r="U78" s="178"/>
-      <c r="V78" s="179"/>
-      <c r="W78" s="119"/>
-      <c r="X78" s="120"/>
+      <c r="Q78" s="174"/>
+      <c r="R78" s="175"/>
+      <c r="S78" s="175"/>
+      <c r="T78" s="175"/>
+      <c r="U78" s="175"/>
+      <c r="V78" s="176"/>
+      <c r="W78" s="118"/>
+      <c r="X78" s="119"/>
     </row>
     <row r="79" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q79" s="177"/>
-      <c r="R79" s="178"/>
-      <c r="S79" s="178"/>
-      <c r="T79" s="178"/>
-      <c r="U79" s="178"/>
-      <c r="V79" s="179"/>
-      <c r="W79" s="119"/>
-      <c r="X79" s="120"/>
+      <c r="Q79" s="174"/>
+      <c r="R79" s="175"/>
+      <c r="S79" s="175"/>
+      <c r="T79" s="175"/>
+      <c r="U79" s="175"/>
+      <c r="V79" s="176"/>
+      <c r="W79" s="118"/>
+      <c r="X79" s="119"/>
     </row>
     <row r="80" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q80" s="177"/>
-      <c r="R80" s="178"/>
-      <c r="S80" s="178"/>
-      <c r="T80" s="178"/>
-      <c r="U80" s="178"/>
-      <c r="V80" s="179"/>
-      <c r="W80" s="119"/>
-      <c r="X80" s="120"/>
+      <c r="Q80" s="174"/>
+      <c r="R80" s="175"/>
+      <c r="S80" s="175"/>
+      <c r="T80" s="175"/>
+      <c r="U80" s="175"/>
+      <c r="V80" s="176"/>
+      <c r="W80" s="118"/>
+      <c r="X80" s="119"/>
     </row>
     <row r="81" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q81" s="177"/>
-      <c r="R81" s="178"/>
-      <c r="S81" s="178"/>
-      <c r="T81" s="178"/>
-      <c r="U81" s="178"/>
-      <c r="V81" s="179"/>
-      <c r="W81" s="119"/>
-      <c r="X81" s="120"/>
+      <c r="Q81" s="174"/>
+      <c r="R81" s="175"/>
+      <c r="S81" s="175"/>
+      <c r="T81" s="175"/>
+      <c r="U81" s="175"/>
+      <c r="V81" s="176"/>
+      <c r="W81" s="118"/>
+      <c r="X81" s="119"/>
     </row>
     <row r="82" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q82" s="177"/>
-      <c r="R82" s="178"/>
-      <c r="S82" s="178"/>
-      <c r="T82" s="178"/>
-      <c r="U82" s="178"/>
-      <c r="V82" s="179"/>
-      <c r="W82" s="119"/>
-      <c r="X82" s="120"/>
+      <c r="Q82" s="174"/>
+      <c r="R82" s="175"/>
+      <c r="S82" s="175"/>
+      <c r="T82" s="175"/>
+      <c r="U82" s="175"/>
+      <c r="V82" s="176"/>
+      <c r="W82" s="118"/>
+      <c r="X82" s="119"/>
     </row>
     <row r="83" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q83" s="177"/>
-      <c r="R83" s="178"/>
-      <c r="S83" s="178"/>
-      <c r="T83" s="178"/>
-      <c r="U83" s="178"/>
-      <c r="V83" s="179"/>
-      <c r="W83" s="119"/>
-      <c r="X83" s="120"/>
+      <c r="Q83" s="174"/>
+      <c r="R83" s="175"/>
+      <c r="S83" s="175"/>
+      <c r="T83" s="175"/>
+      <c r="U83" s="175"/>
+      <c r="V83" s="176"/>
+      <c r="W83" s="118"/>
+      <c r="X83" s="119"/>
     </row>
     <row r="84" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q84" s="177"/>
-      <c r="R84" s="178"/>
-      <c r="S84" s="178"/>
-      <c r="T84" s="178"/>
-      <c r="U84" s="178"/>
-      <c r="V84" s="179"/>
-      <c r="W84" s="119"/>
-      <c r="X84" s="120"/>
+      <c r="Q84" s="174"/>
+      <c r="R84" s="175"/>
+      <c r="S84" s="175"/>
+      <c r="T84" s="175"/>
+      <c r="U84" s="175"/>
+      <c r="V84" s="176"/>
+      <c r="W84" s="118"/>
+      <c r="X84" s="119"/>
     </row>
     <row r="85" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q85" s="177"/>
-      <c r="R85" s="178"/>
-      <c r="S85" s="178"/>
-      <c r="T85" s="178"/>
-      <c r="U85" s="178"/>
-      <c r="V85" s="179"/>
-      <c r="W85" s="119"/>
-      <c r="X85" s="120"/>
+      <c r="Q85" s="174"/>
+      <c r="R85" s="175"/>
+      <c r="S85" s="175"/>
+      <c r="T85" s="175"/>
+      <c r="U85" s="175"/>
+      <c r="V85" s="176"/>
+      <c r="W85" s="118"/>
+      <c r="X85" s="119"/>
     </row>
     <row r="86" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q86" s="177"/>
-      <c r="R86" s="178"/>
-      <c r="S86" s="178"/>
-      <c r="T86" s="178"/>
-      <c r="U86" s="178"/>
-      <c r="V86" s="179"/>
-      <c r="W86" s="119"/>
-      <c r="X86" s="120"/>
+      <c r="Q86" s="174"/>
+      <c r="R86" s="175"/>
+      <c r="S86" s="175"/>
+      <c r="T86" s="175"/>
+      <c r="U86" s="175"/>
+      <c r="V86" s="176"/>
+      <c r="W86" s="118"/>
+      <c r="X86" s="119"/>
     </row>
     <row r="87" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q87" s="177"/>
-      <c r="R87" s="178"/>
-      <c r="S87" s="178"/>
-      <c r="T87" s="178"/>
-      <c r="U87" s="178"/>
-      <c r="V87" s="179"/>
-      <c r="W87" s="119"/>
-      <c r="X87" s="120"/>
+      <c r="Q87" s="174"/>
+      <c r="R87" s="175"/>
+      <c r="S87" s="175"/>
+      <c r="T87" s="175"/>
+      <c r="U87" s="175"/>
+      <c r="V87" s="176"/>
+      <c r="W87" s="118"/>
+      <c r="X87" s="119"/>
     </row>
     <row r="88" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q88" s="177"/>
-      <c r="R88" s="178"/>
-      <c r="S88" s="178"/>
-      <c r="T88" s="178"/>
-      <c r="U88" s="178"/>
-      <c r="V88" s="179"/>
-      <c r="W88" s="119"/>
-      <c r="X88" s="120"/>
+      <c r="Q88" s="174"/>
+      <c r="R88" s="175"/>
+      <c r="S88" s="175"/>
+      <c r="T88" s="175"/>
+      <c r="U88" s="175"/>
+      <c r="V88" s="176"/>
+      <c r="W88" s="118"/>
+      <c r="X88" s="119"/>
     </row>
     <row r="89" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q89" s="177"/>
-      <c r="R89" s="178"/>
-      <c r="S89" s="178"/>
-      <c r="T89" s="178"/>
-      <c r="U89" s="178"/>
-      <c r="V89" s="179"/>
-      <c r="W89" s="119"/>
-      <c r="X89" s="120"/>
+      <c r="Q89" s="174"/>
+      <c r="R89" s="175"/>
+      <c r="S89" s="175"/>
+      <c r="T89" s="175"/>
+      <c r="U89" s="175"/>
+      <c r="V89" s="176"/>
+      <c r="W89" s="118"/>
+      <c r="X89" s="119"/>
     </row>
     <row r="90" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q90" s="177"/>
-      <c r="R90" s="178"/>
-      <c r="S90" s="178"/>
-      <c r="T90" s="178"/>
-      <c r="U90" s="178"/>
-      <c r="V90" s="179"/>
-      <c r="W90" s="119"/>
-      <c r="X90" s="120"/>
+      <c r="Q90" s="174"/>
+      <c r="R90" s="175"/>
+      <c r="S90" s="175"/>
+      <c r="T90" s="175"/>
+      <c r="U90" s="175"/>
+      <c r="V90" s="176"/>
+      <c r="W90" s="118"/>
+      <c r="X90" s="119"/>
     </row>
     <row r="91" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q91" s="177"/>
-      <c r="R91" s="178"/>
-      <c r="S91" s="178"/>
-      <c r="T91" s="178"/>
-      <c r="U91" s="178"/>
-      <c r="V91" s="179"/>
-      <c r="W91" s="119"/>
-      <c r="X91" s="120"/>
+      <c r="Q91" s="174"/>
+      <c r="R91" s="175"/>
+      <c r="S91" s="175"/>
+      <c r="T91" s="175"/>
+      <c r="U91" s="175"/>
+      <c r="V91" s="176"/>
+      <c r="W91" s="118"/>
+      <c r="X91" s="119"/>
     </row>
     <row r="92" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q92" s="177"/>
-      <c r="R92" s="178"/>
-      <c r="S92" s="178"/>
-      <c r="T92" s="178"/>
-      <c r="U92" s="178"/>
-      <c r="V92" s="179"/>
-      <c r="W92" s="119"/>
-      <c r="X92" s="120"/>
+      <c r="Q92" s="174"/>
+      <c r="R92" s="175"/>
+      <c r="S92" s="175"/>
+      <c r="T92" s="175"/>
+      <c r="U92" s="175"/>
+      <c r="V92" s="176"/>
+      <c r="W92" s="118"/>
+      <c r="X92" s="119"/>
     </row>
     <row r="93" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q93" s="177"/>
-      <c r="R93" s="178"/>
-      <c r="S93" s="178"/>
-      <c r="T93" s="178"/>
-      <c r="U93" s="178"/>
-      <c r="V93" s="179"/>
-      <c r="W93" s="119"/>
-      <c r="X93" s="120"/>
+      <c r="Q93" s="174"/>
+      <c r="R93" s="175"/>
+      <c r="S93" s="175"/>
+      <c r="T93" s="175"/>
+      <c r="U93" s="175"/>
+      <c r="V93" s="176"/>
+      <c r="W93" s="118"/>
+      <c r="X93" s="119"/>
     </row>
     <row r="94" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q94" s="177"/>
-      <c r="R94" s="178"/>
-      <c r="S94" s="178"/>
-      <c r="T94" s="178"/>
-      <c r="U94" s="178"/>
-      <c r="V94" s="179"/>
-      <c r="W94" s="119"/>
-      <c r="X94" s="120"/>
+      <c r="Q94" s="174"/>
+      <c r="R94" s="175"/>
+      <c r="S94" s="175"/>
+      <c r="T94" s="175"/>
+      <c r="U94" s="175"/>
+      <c r="V94" s="176"/>
+      <c r="W94" s="118"/>
+      <c r="X94" s="119"/>
     </row>
     <row r="95" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q95" s="177"/>
-      <c r="R95" s="178"/>
-      <c r="S95" s="178"/>
-      <c r="T95" s="178"/>
-      <c r="U95" s="178"/>
-      <c r="V95" s="179"/>
-      <c r="W95" s="119"/>
-      <c r="X95" s="120"/>
+      <c r="Q95" s="174"/>
+      <c r="R95" s="175"/>
+      <c r="S95" s="175"/>
+      <c r="T95" s="175"/>
+      <c r="U95" s="175"/>
+      <c r="V95" s="176"/>
+      <c r="W95" s="118"/>
+      <c r="X95" s="119"/>
     </row>
     <row r="96" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q96" s="177"/>
-      <c r="R96" s="178"/>
-      <c r="S96" s="178"/>
-      <c r="T96" s="178"/>
-      <c r="U96" s="178"/>
-      <c r="V96" s="179"/>
-      <c r="W96" s="119"/>
-      <c r="X96" s="120"/>
+      <c r="Q96" s="174"/>
+      <c r="R96" s="175"/>
+      <c r="S96" s="175"/>
+      <c r="T96" s="175"/>
+      <c r="U96" s="175"/>
+      <c r="V96" s="176"/>
+      <c r="W96" s="118"/>
+      <c r="X96" s="119"/>
     </row>
     <row r="97" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q97" s="177"/>
-      <c r="R97" s="178"/>
-      <c r="S97" s="178"/>
-      <c r="T97" s="178"/>
-      <c r="U97" s="178"/>
-      <c r="V97" s="179"/>
-      <c r="W97" s="119"/>
-      <c r="X97" s="120"/>
+      <c r="Q97" s="174"/>
+      <c r="R97" s="175"/>
+      <c r="S97" s="175"/>
+      <c r="T97" s="175"/>
+      <c r="U97" s="175"/>
+      <c r="V97" s="176"/>
+      <c r="W97" s="118"/>
+      <c r="X97" s="119"/>
     </row>
     <row r="98" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q98" s="177"/>
-      <c r="R98" s="178"/>
-      <c r="S98" s="178"/>
-      <c r="T98" s="178"/>
-      <c r="U98" s="178"/>
-      <c r="V98" s="179"/>
-      <c r="W98" s="119"/>
-      <c r="X98" s="120"/>
+      <c r="Q98" s="174"/>
+      <c r="R98" s="175"/>
+      <c r="S98" s="175"/>
+      <c r="T98" s="175"/>
+      <c r="U98" s="175"/>
+      <c r="V98" s="176"/>
+      <c r="W98" s="118"/>
+      <c r="X98" s="119"/>
     </row>
     <row r="99" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q99" s="177"/>
-      <c r="R99" s="178"/>
-      <c r="S99" s="178"/>
-      <c r="T99" s="178"/>
-      <c r="U99" s="178"/>
-      <c r="V99" s="179"/>
-      <c r="W99" s="119"/>
-      <c r="X99" s="120"/>
+      <c r="Q99" s="174"/>
+      <c r="R99" s="175"/>
+      <c r="S99" s="175"/>
+      <c r="T99" s="175"/>
+      <c r="U99" s="175"/>
+      <c r="V99" s="176"/>
+      <c r="W99" s="118"/>
+      <c r="X99" s="119"/>
     </row>
     <row r="100" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q100" s="177"/>
-      <c r="R100" s="178"/>
-      <c r="S100" s="178"/>
-      <c r="T100" s="178"/>
-      <c r="U100" s="178"/>
-      <c r="V100" s="179"/>
-      <c r="W100" s="119"/>
-      <c r="X100" s="120"/>
+      <c r="Q100" s="174"/>
+      <c r="R100" s="175"/>
+      <c r="S100" s="175"/>
+      <c r="T100" s="175"/>
+      <c r="U100" s="175"/>
+      <c r="V100" s="176"/>
+      <c r="W100" s="118"/>
+      <c r="X100" s="119"/>
     </row>
     <row r="101" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q101" s="177"/>
-      <c r="R101" s="178"/>
-      <c r="S101" s="178"/>
-      <c r="T101" s="178"/>
-      <c r="U101" s="178"/>
-      <c r="V101" s="179"/>
-      <c r="W101" s="119"/>
-      <c r="X101" s="120"/>
+      <c r="Q101" s="174"/>
+      <c r="R101" s="175"/>
+      <c r="S101" s="175"/>
+      <c r="T101" s="175"/>
+      <c r="U101" s="175"/>
+      <c r="V101" s="176"/>
+      <c r="W101" s="118"/>
+      <c r="X101" s="119"/>
     </row>
     <row r="102" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q102" s="177"/>
-      <c r="R102" s="178"/>
-      <c r="S102" s="178"/>
-      <c r="T102" s="178"/>
-      <c r="U102" s="178"/>
-      <c r="V102" s="179"/>
-      <c r="W102" s="119"/>
-      <c r="X102" s="120"/>
+      <c r="Q102" s="174"/>
+      <c r="R102" s="175"/>
+      <c r="S102" s="175"/>
+      <c r="T102" s="175"/>
+      <c r="U102" s="175"/>
+      <c r="V102" s="176"/>
+      <c r="W102" s="118"/>
+      <c r="X102" s="119"/>
     </row>
     <row r="103" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q103" s="177"/>
-      <c r="R103" s="178"/>
-      <c r="S103" s="178"/>
-      <c r="T103" s="178"/>
-      <c r="U103" s="178"/>
-      <c r="V103" s="179"/>
-      <c r="W103" s="119"/>
-      <c r="X103" s="120"/>
+      <c r="Q103" s="174"/>
+      <c r="R103" s="175"/>
+      <c r="S103" s="175"/>
+      <c r="T103" s="175"/>
+      <c r="U103" s="175"/>
+      <c r="V103" s="176"/>
+      <c r="W103" s="118"/>
+      <c r="X103" s="119"/>
     </row>
     <row r="104" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q104" s="177"/>
-      <c r="R104" s="178"/>
-      <c r="S104" s="178"/>
-      <c r="T104" s="178"/>
-      <c r="U104" s="178"/>
-      <c r="V104" s="179"/>
-      <c r="W104" s="119"/>
-      <c r="X104" s="120"/>
+      <c r="Q104" s="174"/>
+      <c r="R104" s="175"/>
+      <c r="S104" s="175"/>
+      <c r="T104" s="175"/>
+      <c r="U104" s="175"/>
+      <c r="V104" s="176"/>
+      <c r="W104" s="118"/>
+      <c r="X104" s="119"/>
     </row>
     <row r="105" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q105" s="177"/>
-      <c r="R105" s="178"/>
-      <c r="S105" s="178"/>
-      <c r="T105" s="178"/>
-      <c r="U105" s="178"/>
-      <c r="V105" s="179"/>
-      <c r="W105" s="119"/>
-      <c r="X105" s="120"/>
+      <c r="Q105" s="174"/>
+      <c r="R105" s="175"/>
+      <c r="S105" s="175"/>
+      <c r="T105" s="175"/>
+      <c r="U105" s="175"/>
+      <c r="V105" s="176"/>
+      <c r="W105" s="118"/>
+      <c r="X105" s="119"/>
     </row>
     <row r="106" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q106" s="177"/>
-      <c r="R106" s="178"/>
-      <c r="S106" s="178"/>
-      <c r="T106" s="178"/>
-      <c r="U106" s="178"/>
-      <c r="V106" s="179"/>
-      <c r="W106" s="119"/>
-      <c r="X106" s="120"/>
+      <c r="Q106" s="174"/>
+      <c r="R106" s="175"/>
+      <c r="S106" s="175"/>
+      <c r="T106" s="175"/>
+      <c r="U106" s="175"/>
+      <c r="V106" s="176"/>
+      <c r="W106" s="118"/>
+      <c r="X106" s="119"/>
     </row>
     <row r="107" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q107" s="177"/>
-      <c r="R107" s="178"/>
-      <c r="S107" s="178"/>
-      <c r="T107" s="178"/>
-      <c r="U107" s="178"/>
-      <c r="V107" s="179"/>
-      <c r="W107" s="119"/>
-      <c r="X107" s="120"/>
+      <c r="Q107" s="174"/>
+      <c r="R107" s="175"/>
+      <c r="S107" s="175"/>
+      <c r="T107" s="175"/>
+      <c r="U107" s="175"/>
+      <c r="V107" s="176"/>
+      <c r="W107" s="118"/>
+      <c r="X107" s="119"/>
     </row>
     <row r="108" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q108" s="180"/>
@@ -5821,511 +5817,511 @@
       <c r="T108" s="181"/>
       <c r="U108" s="181"/>
       <c r="V108" s="182"/>
-      <c r="W108" s="115"/>
-      <c r="X108" s="141"/>
+      <c r="W108" s="114"/>
+      <c r="X108" s="140"/>
     </row>
     <row r="109" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q109" s="177"/>
-      <c r="R109" s="178"/>
-      <c r="S109" s="178"/>
-      <c r="T109" s="178"/>
-      <c r="U109" s="178"/>
-      <c r="V109" s="179"/>
-      <c r="W109" s="119"/>
-      <c r="X109" s="120"/>
+      <c r="Q109" s="174"/>
+      <c r="R109" s="175"/>
+      <c r="S109" s="175"/>
+      <c r="T109" s="175"/>
+      <c r="U109" s="175"/>
+      <c r="V109" s="176"/>
+      <c r="W109" s="118"/>
+      <c r="X109" s="119"/>
       <c r="Z109" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="110" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q110" s="177"/>
-      <c r="R110" s="178"/>
-      <c r="S110" s="178"/>
-      <c r="T110" s="178"/>
-      <c r="U110" s="178"/>
-      <c r="V110" s="179"/>
-      <c r="W110" s="119"/>
-      <c r="X110" s="120"/>
+      <c r="Q110" s="174"/>
+      <c r="R110" s="175"/>
+      <c r="S110" s="175"/>
+      <c r="T110" s="175"/>
+      <c r="U110" s="175"/>
+      <c r="V110" s="176"/>
+      <c r="W110" s="118"/>
+      <c r="X110" s="119"/>
     </row>
     <row r="111" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q111" s="177"/>
-      <c r="R111" s="178"/>
-      <c r="S111" s="178"/>
-      <c r="T111" s="178"/>
-      <c r="U111" s="178"/>
-      <c r="V111" s="179"/>
-      <c r="W111" s="119"/>
-      <c r="X111" s="120"/>
+      <c r="Q111" s="174"/>
+      <c r="R111" s="175"/>
+      <c r="S111" s="175"/>
+      <c r="T111" s="175"/>
+      <c r="U111" s="175"/>
+      <c r="V111" s="176"/>
+      <c r="W111" s="118"/>
+      <c r="X111" s="119"/>
     </row>
     <row r="112" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q112" s="259"/>
-      <c r="R112" s="260"/>
-      <c r="S112" s="260"/>
-      <c r="T112" s="260"/>
-      <c r="U112" s="260"/>
-      <c r="V112" s="261"/>
-      <c r="W112" s="119"/>
-      <c r="X112" s="120"/>
+      <c r="Q112" s="183"/>
+      <c r="R112" s="184"/>
+      <c r="S112" s="184"/>
+      <c r="T112" s="184"/>
+      <c r="U112" s="184"/>
+      <c r="V112" s="185"/>
+      <c r="W112" s="118"/>
+      <c r="X112" s="119"/>
     </row>
     <row r="113" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q113" s="177"/>
-      <c r="R113" s="178"/>
-      <c r="S113" s="178"/>
-      <c r="T113" s="178"/>
-      <c r="U113" s="178"/>
-      <c r="V113" s="179"/>
-      <c r="W113" s="119"/>
-      <c r="X113" s="120"/>
+      <c r="Q113" s="174"/>
+      <c r="R113" s="175"/>
+      <c r="S113" s="175"/>
+      <c r="T113" s="175"/>
+      <c r="U113" s="175"/>
+      <c r="V113" s="176"/>
+      <c r="W113" s="118"/>
+      <c r="X113" s="119"/>
     </row>
     <row r="114" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q114" s="177"/>
-      <c r="R114" s="178"/>
-      <c r="S114" s="178"/>
-      <c r="T114" s="178"/>
-      <c r="U114" s="178"/>
-      <c r="V114" s="179"/>
-      <c r="W114" s="119"/>
-      <c r="X114" s="120"/>
+      <c r="Q114" s="174"/>
+      <c r="R114" s="175"/>
+      <c r="S114" s="175"/>
+      <c r="T114" s="175"/>
+      <c r="U114" s="175"/>
+      <c r="V114" s="176"/>
+      <c r="W114" s="118"/>
+      <c r="X114" s="119"/>
     </row>
     <row r="115" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q115" s="177"/>
-      <c r="R115" s="178"/>
-      <c r="S115" s="178"/>
-      <c r="T115" s="178"/>
-      <c r="U115" s="178"/>
-      <c r="V115" s="179"/>
-      <c r="W115" s="119"/>
-      <c r="X115" s="120"/>
+      <c r="Q115" s="174"/>
+      <c r="R115" s="175"/>
+      <c r="S115" s="175"/>
+      <c r="T115" s="175"/>
+      <c r="U115" s="175"/>
+      <c r="V115" s="176"/>
+      <c r="W115" s="118"/>
+      <c r="X115" s="119"/>
     </row>
     <row r="116" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q116" s="177"/>
-      <c r="R116" s="178"/>
-      <c r="S116" s="178"/>
-      <c r="T116" s="178"/>
-      <c r="U116" s="178"/>
-      <c r="V116" s="179"/>
-      <c r="W116" s="119"/>
-      <c r="X116" s="120"/>
+      <c r="Q116" s="174"/>
+      <c r="R116" s="175"/>
+      <c r="S116" s="175"/>
+      <c r="T116" s="175"/>
+      <c r="U116" s="175"/>
+      <c r="V116" s="176"/>
+      <c r="W116" s="118"/>
+      <c r="X116" s="119"/>
     </row>
     <row r="117" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q117" s="177"/>
-      <c r="R117" s="178"/>
-      <c r="S117" s="178"/>
-      <c r="T117" s="178"/>
-      <c r="U117" s="178"/>
-      <c r="V117" s="179"/>
-      <c r="W117" s="119"/>
-      <c r="X117" s="120"/>
+      <c r="Q117" s="174"/>
+      <c r="R117" s="175"/>
+      <c r="S117" s="175"/>
+      <c r="T117" s="175"/>
+      <c r="U117" s="175"/>
+      <c r="V117" s="176"/>
+      <c r="W117" s="118"/>
+      <c r="X117" s="119"/>
     </row>
     <row r="118" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q118" s="177"/>
-      <c r="R118" s="178"/>
-      <c r="S118" s="178"/>
-      <c r="T118" s="178"/>
-      <c r="U118" s="178"/>
-      <c r="V118" s="179"/>
-      <c r="W118" s="119"/>
-      <c r="X118" s="120"/>
+      <c r="Q118" s="174"/>
+      <c r="R118" s="175"/>
+      <c r="S118" s="175"/>
+      <c r="T118" s="175"/>
+      <c r="U118" s="175"/>
+      <c r="V118" s="176"/>
+      <c r="W118" s="118"/>
+      <c r="X118" s="119"/>
     </row>
     <row r="119" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q119" s="177"/>
-      <c r="R119" s="178"/>
-      <c r="S119" s="178"/>
-      <c r="T119" s="178"/>
-      <c r="U119" s="178"/>
-      <c r="V119" s="179"/>
-      <c r="W119" s="119"/>
-      <c r="X119" s="120"/>
+      <c r="Q119" s="174"/>
+      <c r="R119" s="175"/>
+      <c r="S119" s="175"/>
+      <c r="T119" s="175"/>
+      <c r="U119" s="175"/>
+      <c r="V119" s="176"/>
+      <c r="W119" s="118"/>
+      <c r="X119" s="119"/>
     </row>
     <row r="120" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q120" s="177"/>
-      <c r="R120" s="178"/>
-      <c r="S120" s="178"/>
-      <c r="T120" s="178"/>
-      <c r="U120" s="178"/>
-      <c r="V120" s="179"/>
-      <c r="W120" s="119"/>
-      <c r="X120" s="120"/>
+      <c r="Q120" s="174"/>
+      <c r="R120" s="175"/>
+      <c r="S120" s="175"/>
+      <c r="T120" s="175"/>
+      <c r="U120" s="175"/>
+      <c r="V120" s="176"/>
+      <c r="W120" s="118"/>
+      <c r="X120" s="119"/>
     </row>
     <row r="121" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q121" s="177"/>
-      <c r="R121" s="178"/>
-      <c r="S121" s="178"/>
-      <c r="T121" s="178"/>
-      <c r="U121" s="178"/>
-      <c r="V121" s="179"/>
-      <c r="W121" s="119"/>
-      <c r="X121" s="120"/>
+      <c r="Q121" s="174"/>
+      <c r="R121" s="175"/>
+      <c r="S121" s="175"/>
+      <c r="T121" s="175"/>
+      <c r="U121" s="175"/>
+      <c r="V121" s="176"/>
+      <c r="W121" s="118"/>
+      <c r="X121" s="119"/>
     </row>
     <row r="122" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q122" s="177"/>
-      <c r="R122" s="178"/>
-      <c r="S122" s="178"/>
-      <c r="T122" s="178"/>
-      <c r="U122" s="178"/>
-      <c r="V122" s="179"/>
-      <c r="W122" s="119"/>
-      <c r="X122" s="120"/>
+      <c r="Q122" s="174"/>
+      <c r="R122" s="175"/>
+      <c r="S122" s="175"/>
+      <c r="T122" s="175"/>
+      <c r="U122" s="175"/>
+      <c r="V122" s="176"/>
+      <c r="W122" s="118"/>
+      <c r="X122" s="119"/>
     </row>
     <row r="123" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q123" s="177"/>
-      <c r="R123" s="178"/>
-      <c r="S123" s="178"/>
-      <c r="T123" s="178"/>
-      <c r="U123" s="178"/>
-      <c r="V123" s="179"/>
-      <c r="W123" s="119"/>
-      <c r="X123" s="120"/>
+      <c r="Q123" s="174"/>
+      <c r="R123" s="175"/>
+      <c r="S123" s="175"/>
+      <c r="T123" s="175"/>
+      <c r="U123" s="175"/>
+      <c r="V123" s="176"/>
+      <c r="W123" s="118"/>
+      <c r="X123" s="119"/>
     </row>
     <row r="124" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q124" s="177"/>
-      <c r="R124" s="178"/>
-      <c r="S124" s="178"/>
-      <c r="T124" s="178"/>
-      <c r="U124" s="178"/>
-      <c r="V124" s="179"/>
-      <c r="W124" s="119"/>
-      <c r="X124" s="120"/>
+      <c r="Q124" s="174"/>
+      <c r="R124" s="175"/>
+      <c r="S124" s="175"/>
+      <c r="T124" s="175"/>
+      <c r="U124" s="175"/>
+      <c r="V124" s="176"/>
+      <c r="W124" s="118"/>
+      <c r="X124" s="119"/>
     </row>
     <row r="125" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q125" s="177"/>
-      <c r="R125" s="178"/>
-      <c r="S125" s="178"/>
-      <c r="T125" s="178"/>
-      <c r="U125" s="178"/>
-      <c r="V125" s="179"/>
-      <c r="W125" s="119"/>
-      <c r="X125" s="120"/>
+      <c r="Q125" s="174"/>
+      <c r="R125" s="175"/>
+      <c r="S125" s="175"/>
+      <c r="T125" s="175"/>
+      <c r="U125" s="175"/>
+      <c r="V125" s="176"/>
+      <c r="W125" s="118"/>
+      <c r="X125" s="119"/>
     </row>
     <row r="126" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q126" s="177"/>
-      <c r="R126" s="178"/>
-      <c r="S126" s="178"/>
-      <c r="T126" s="178"/>
-      <c r="U126" s="178"/>
-      <c r="V126" s="179"/>
-      <c r="W126" s="119"/>
-      <c r="X126" s="120"/>
+      <c r="Q126" s="174"/>
+      <c r="R126" s="175"/>
+      <c r="S126" s="175"/>
+      <c r="T126" s="175"/>
+      <c r="U126" s="175"/>
+      <c r="V126" s="176"/>
+      <c r="W126" s="118"/>
+      <c r="X126" s="119"/>
     </row>
     <row r="127" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q127" s="259"/>
-      <c r="R127" s="260"/>
-      <c r="S127" s="260"/>
-      <c r="T127" s="260"/>
-      <c r="U127" s="260"/>
-      <c r="V127" s="261"/>
-      <c r="W127" s="119"/>
-      <c r="X127" s="120"/>
+      <c r="Q127" s="183"/>
+      <c r="R127" s="184"/>
+      <c r="S127" s="184"/>
+      <c r="T127" s="184"/>
+      <c r="U127" s="184"/>
+      <c r="V127" s="185"/>
+      <c r="W127" s="118"/>
+      <c r="X127" s="119"/>
     </row>
     <row r="128" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q128" s="177"/>
-      <c r="R128" s="178"/>
-      <c r="S128" s="178"/>
-      <c r="T128" s="178"/>
-      <c r="U128" s="178"/>
-      <c r="V128" s="179"/>
-      <c r="W128" s="119"/>
-      <c r="X128" s="120"/>
+      <c r="Q128" s="174"/>
+      <c r="R128" s="175"/>
+      <c r="S128" s="175"/>
+      <c r="T128" s="175"/>
+      <c r="U128" s="175"/>
+      <c r="V128" s="176"/>
+      <c r="W128" s="118"/>
+      <c r="X128" s="119"/>
     </row>
     <row r="129" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q129" s="177"/>
-      <c r="R129" s="178"/>
-      <c r="S129" s="178"/>
-      <c r="T129" s="178"/>
-      <c r="U129" s="178"/>
-      <c r="V129" s="179"/>
-      <c r="W129" s="119"/>
-      <c r="X129" s="120"/>
+      <c r="Q129" s="174"/>
+      <c r="R129" s="175"/>
+      <c r="S129" s="175"/>
+      <c r="T129" s="175"/>
+      <c r="U129" s="175"/>
+      <c r="V129" s="176"/>
+      <c r="W129" s="118"/>
+      <c r="X129" s="119"/>
     </row>
     <row r="130" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q130" s="177"/>
-      <c r="R130" s="178"/>
-      <c r="S130" s="178"/>
-      <c r="T130" s="178"/>
-      <c r="U130" s="178"/>
-      <c r="V130" s="179"/>
-      <c r="W130" s="119"/>
-      <c r="X130" s="120"/>
+      <c r="Q130" s="174"/>
+      <c r="R130" s="175"/>
+      <c r="S130" s="175"/>
+      <c r="T130" s="175"/>
+      <c r="U130" s="175"/>
+      <c r="V130" s="176"/>
+      <c r="W130" s="118"/>
+      <c r="X130" s="119"/>
     </row>
     <row r="131" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q131" s="177"/>
-      <c r="R131" s="178"/>
-      <c r="S131" s="178"/>
-      <c r="T131" s="178"/>
-      <c r="U131" s="178"/>
-      <c r="V131" s="179"/>
-      <c r="W131" s="119"/>
-      <c r="X131" s="120"/>
+      <c r="Q131" s="174"/>
+      <c r="R131" s="175"/>
+      <c r="S131" s="175"/>
+      <c r="T131" s="175"/>
+      <c r="U131" s="175"/>
+      <c r="V131" s="176"/>
+      <c r="W131" s="118"/>
+      <c r="X131" s="119"/>
     </row>
     <row r="132" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q132" s="177"/>
-      <c r="R132" s="178"/>
-      <c r="S132" s="178"/>
-      <c r="T132" s="178"/>
-      <c r="U132" s="178"/>
-      <c r="V132" s="179"/>
-      <c r="W132" s="119"/>
-      <c r="X132" s="120"/>
+      <c r="Q132" s="174"/>
+      <c r="R132" s="175"/>
+      <c r="S132" s="175"/>
+      <c r="T132" s="175"/>
+      <c r="U132" s="175"/>
+      <c r="V132" s="176"/>
+      <c r="W132" s="118"/>
+      <c r="X132" s="119"/>
     </row>
     <row r="133" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q133" s="177"/>
-      <c r="R133" s="178"/>
-      <c r="S133" s="178"/>
-      <c r="T133" s="178"/>
-      <c r="U133" s="178"/>
-      <c r="V133" s="179"/>
-      <c r="W133" s="119"/>
-      <c r="X133" s="120"/>
+      <c r="Q133" s="174"/>
+      <c r="R133" s="175"/>
+      <c r="S133" s="175"/>
+      <c r="T133" s="175"/>
+      <c r="U133" s="175"/>
+      <c r="V133" s="176"/>
+      <c r="W133" s="118"/>
+      <c r="X133" s="119"/>
     </row>
     <row r="134" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q134" s="177"/>
-      <c r="R134" s="178"/>
-      <c r="S134" s="178"/>
-      <c r="T134" s="178"/>
-      <c r="U134" s="178"/>
-      <c r="V134" s="179"/>
-      <c r="W134" s="119"/>
-      <c r="X134" s="120"/>
+      <c r="Q134" s="174"/>
+      <c r="R134" s="175"/>
+      <c r="S134" s="175"/>
+      <c r="T134" s="175"/>
+      <c r="U134" s="175"/>
+      <c r="V134" s="176"/>
+      <c r="W134" s="118"/>
+      <c r="X134" s="119"/>
     </row>
     <row r="135" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q135" s="177"/>
-      <c r="R135" s="178"/>
-      <c r="S135" s="178"/>
-      <c r="T135" s="178"/>
-      <c r="U135" s="178"/>
-      <c r="V135" s="179"/>
-      <c r="W135" s="119"/>
-      <c r="X135" s="120"/>
+      <c r="Q135" s="174"/>
+      <c r="R135" s="175"/>
+      <c r="S135" s="175"/>
+      <c r="T135" s="175"/>
+      <c r="U135" s="175"/>
+      <c r="V135" s="176"/>
+      <c r="W135" s="118"/>
+      <c r="X135" s="119"/>
     </row>
     <row r="136" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q136" s="177"/>
-      <c r="R136" s="178"/>
-      <c r="S136" s="178"/>
-      <c r="T136" s="178"/>
-      <c r="U136" s="178"/>
-      <c r="V136" s="179"/>
-      <c r="W136" s="119"/>
-      <c r="X136" s="120"/>
+      <c r="Q136" s="174"/>
+      <c r="R136" s="175"/>
+      <c r="S136" s="175"/>
+      <c r="T136" s="175"/>
+      <c r="U136" s="175"/>
+      <c r="V136" s="176"/>
+      <c r="W136" s="118"/>
+      <c r="X136" s="119"/>
     </row>
     <row r="137" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q137" s="177"/>
-      <c r="R137" s="178"/>
-      <c r="S137" s="178"/>
-      <c r="T137" s="178"/>
-      <c r="U137" s="178"/>
-      <c r="V137" s="179"/>
-      <c r="W137" s="119"/>
-      <c r="X137" s="120"/>
+      <c r="Q137" s="174"/>
+      <c r="R137" s="175"/>
+      <c r="S137" s="175"/>
+      <c r="T137" s="175"/>
+      <c r="U137" s="175"/>
+      <c r="V137" s="176"/>
+      <c r="W137" s="118"/>
+      <c r="X137" s="119"/>
     </row>
     <row r="138" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q138" s="177"/>
-      <c r="R138" s="178"/>
-      <c r="S138" s="178"/>
-      <c r="T138" s="178"/>
-      <c r="U138" s="178"/>
-      <c r="V138" s="179"/>
-      <c r="W138" s="119"/>
-      <c r="X138" s="120"/>
+      <c r="Q138" s="174"/>
+      <c r="R138" s="175"/>
+      <c r="S138" s="175"/>
+      <c r="T138" s="175"/>
+      <c r="U138" s="175"/>
+      <c r="V138" s="176"/>
+      <c r="W138" s="118"/>
+      <c r="X138" s="119"/>
     </row>
     <row r="139" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q139" s="177"/>
-      <c r="R139" s="178"/>
-      <c r="S139" s="178"/>
-      <c r="T139" s="178"/>
-      <c r="U139" s="178"/>
-      <c r="V139" s="179"/>
-      <c r="W139" s="119"/>
-      <c r="X139" s="120"/>
+      <c r="Q139" s="174"/>
+      <c r="R139" s="175"/>
+      <c r="S139" s="175"/>
+      <c r="T139" s="175"/>
+      <c r="U139" s="175"/>
+      <c r="V139" s="176"/>
+      <c r="W139" s="118"/>
+      <c r="X139" s="119"/>
     </row>
     <row r="140" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q140" s="177"/>
-      <c r="R140" s="178"/>
-      <c r="S140" s="178"/>
-      <c r="T140" s="178"/>
-      <c r="U140" s="178"/>
-      <c r="V140" s="179"/>
-      <c r="W140" s="119"/>
-      <c r="X140" s="120"/>
+      <c r="Q140" s="174"/>
+      <c r="R140" s="175"/>
+      <c r="S140" s="175"/>
+      <c r="T140" s="175"/>
+      <c r="U140" s="175"/>
+      <c r="V140" s="176"/>
+      <c r="W140" s="118"/>
+      <c r="X140" s="119"/>
     </row>
     <row r="141" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q141" s="177"/>
-      <c r="R141" s="178"/>
-      <c r="S141" s="178"/>
-      <c r="T141" s="178"/>
-      <c r="U141" s="178"/>
-      <c r="V141" s="179"/>
-      <c r="W141" s="119"/>
-      <c r="X141" s="120"/>
+      <c r="Q141" s="174"/>
+      <c r="R141" s="175"/>
+      <c r="S141" s="175"/>
+      <c r="T141" s="175"/>
+      <c r="U141" s="175"/>
+      <c r="V141" s="176"/>
+      <c r="W141" s="118"/>
+      <c r="X141" s="119"/>
     </row>
     <row r="142" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q142" s="177"/>
-      <c r="R142" s="178"/>
-      <c r="S142" s="178"/>
-      <c r="T142" s="178"/>
-      <c r="U142" s="178"/>
-      <c r="V142" s="179"/>
-      <c r="W142" s="119"/>
-      <c r="X142" s="120"/>
+      <c r="Q142" s="174"/>
+      <c r="R142" s="175"/>
+      <c r="S142" s="175"/>
+      <c r="T142" s="175"/>
+      <c r="U142" s="175"/>
+      <c r="V142" s="176"/>
+      <c r="W142" s="118"/>
+      <c r="X142" s="119"/>
     </row>
     <row r="143" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q143" s="177"/>
-      <c r="R143" s="178"/>
-      <c r="S143" s="178"/>
-      <c r="T143" s="178"/>
-      <c r="U143" s="178"/>
-      <c r="V143" s="179"/>
-      <c r="W143" s="119"/>
-      <c r="X143" s="120"/>
+      <c r="Q143" s="174"/>
+      <c r="R143" s="175"/>
+      <c r="S143" s="175"/>
+      <c r="T143" s="175"/>
+      <c r="U143" s="175"/>
+      <c r="V143" s="176"/>
+      <c r="W143" s="118"/>
+      <c r="X143" s="119"/>
     </row>
     <row r="144" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q144" s="177"/>
-      <c r="R144" s="178"/>
-      <c r="S144" s="178"/>
-      <c r="T144" s="178"/>
-      <c r="U144" s="178"/>
-      <c r="V144" s="179"/>
-      <c r="W144" s="119"/>
-      <c r="X144" s="120"/>
+      <c r="Q144" s="174"/>
+      <c r="R144" s="175"/>
+      <c r="S144" s="175"/>
+      <c r="T144" s="175"/>
+      <c r="U144" s="175"/>
+      <c r="V144" s="176"/>
+      <c r="W144" s="118"/>
+      <c r="X144" s="119"/>
     </row>
     <row r="145" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q145" s="177"/>
-      <c r="R145" s="178"/>
-      <c r="S145" s="178"/>
-      <c r="T145" s="178"/>
-      <c r="U145" s="178"/>
-      <c r="V145" s="179"/>
-      <c r="W145" s="119"/>
-      <c r="X145" s="120"/>
+      <c r="Q145" s="174"/>
+      <c r="R145" s="175"/>
+      <c r="S145" s="175"/>
+      <c r="T145" s="175"/>
+      <c r="U145" s="175"/>
+      <c r="V145" s="176"/>
+      <c r="W145" s="118"/>
+      <c r="X145" s="119"/>
     </row>
     <row r="146" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q146" s="177"/>
-      <c r="R146" s="178"/>
-      <c r="S146" s="178"/>
-      <c r="T146" s="178"/>
-      <c r="U146" s="178"/>
-      <c r="V146" s="179"/>
-      <c r="W146" s="119"/>
-      <c r="X146" s="120"/>
+      <c r="Q146" s="174"/>
+      <c r="R146" s="175"/>
+      <c r="S146" s="175"/>
+      <c r="T146" s="175"/>
+      <c r="U146" s="175"/>
+      <c r="V146" s="176"/>
+      <c r="W146" s="118"/>
+      <c r="X146" s="119"/>
     </row>
     <row r="147" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q147" s="177"/>
-      <c r="R147" s="178"/>
-      <c r="S147" s="178"/>
-      <c r="T147" s="178"/>
-      <c r="U147" s="178"/>
-      <c r="V147" s="179"/>
-      <c r="W147" s="119"/>
-      <c r="X147" s="120"/>
+      <c r="Q147" s="174"/>
+      <c r="R147" s="175"/>
+      <c r="S147" s="175"/>
+      <c r="T147" s="175"/>
+      <c r="U147" s="175"/>
+      <c r="V147" s="176"/>
+      <c r="W147" s="118"/>
+      <c r="X147" s="119"/>
     </row>
     <row r="148" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q148" s="177"/>
-      <c r="R148" s="178"/>
-      <c r="S148" s="178"/>
-      <c r="T148" s="178"/>
-      <c r="U148" s="178"/>
-      <c r="V148" s="179"/>
-      <c r="W148" s="119"/>
-      <c r="X148" s="120"/>
+      <c r="Q148" s="174"/>
+      <c r="R148" s="175"/>
+      <c r="S148" s="175"/>
+      <c r="T148" s="175"/>
+      <c r="U148" s="175"/>
+      <c r="V148" s="176"/>
+      <c r="W148" s="118"/>
+      <c r="X148" s="119"/>
     </row>
     <row r="149" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q149" s="177"/>
-      <c r="R149" s="178"/>
-      <c r="S149" s="178"/>
-      <c r="T149" s="178"/>
-      <c r="U149" s="178"/>
-      <c r="V149" s="179"/>
-      <c r="W149" s="119"/>
-      <c r="X149" s="120"/>
+      <c r="Q149" s="174"/>
+      <c r="R149" s="175"/>
+      <c r="S149" s="175"/>
+      <c r="T149" s="175"/>
+      <c r="U149" s="175"/>
+      <c r="V149" s="176"/>
+      <c r="W149" s="118"/>
+      <c r="X149" s="119"/>
     </row>
     <row r="150" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q150" s="177"/>
-      <c r="R150" s="178"/>
-      <c r="S150" s="178"/>
-      <c r="T150" s="178"/>
-      <c r="U150" s="178"/>
-      <c r="V150" s="179"/>
-      <c r="W150" s="119"/>
-      <c r="X150" s="120"/>
+      <c r="Q150" s="174"/>
+      <c r="R150" s="175"/>
+      <c r="S150" s="175"/>
+      <c r="T150" s="175"/>
+      <c r="U150" s="175"/>
+      <c r="V150" s="176"/>
+      <c r="W150" s="118"/>
+      <c r="X150" s="119"/>
     </row>
     <row r="151" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q151" s="177"/>
-      <c r="R151" s="178"/>
-      <c r="S151" s="178"/>
-      <c r="T151" s="178"/>
-      <c r="U151" s="178"/>
-      <c r="V151" s="179"/>
-      <c r="W151" s="119"/>
-      <c r="X151" s="120"/>
+      <c r="Q151" s="174"/>
+      <c r="R151" s="175"/>
+      <c r="S151" s="175"/>
+      <c r="T151" s="175"/>
+      <c r="U151" s="175"/>
+      <c r="V151" s="176"/>
+      <c r="W151" s="118"/>
+      <c r="X151" s="119"/>
     </row>
     <row r="152" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q152" s="177"/>
-      <c r="R152" s="178"/>
-      <c r="S152" s="178"/>
-      <c r="T152" s="178"/>
-      <c r="U152" s="178"/>
-      <c r="V152" s="179"/>
-      <c r="W152" s="119"/>
-      <c r="X152" s="120"/>
+      <c r="Q152" s="174"/>
+      <c r="R152" s="175"/>
+      <c r="S152" s="175"/>
+      <c r="T152" s="175"/>
+      <c r="U152" s="175"/>
+      <c r="V152" s="176"/>
+      <c r="W152" s="118"/>
+      <c r="X152" s="119"/>
     </row>
     <row r="153" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q153" s="177"/>
-      <c r="R153" s="178"/>
-      <c r="S153" s="178"/>
-      <c r="T153" s="178"/>
-      <c r="U153" s="178"/>
-      <c r="V153" s="179"/>
-      <c r="W153" s="119"/>
-      <c r="X153" s="120"/>
+      <c r="Q153" s="174"/>
+      <c r="R153" s="175"/>
+      <c r="S153" s="175"/>
+      <c r="T153" s="175"/>
+      <c r="U153" s="175"/>
+      <c r="V153" s="176"/>
+      <c r="W153" s="118"/>
+      <c r="X153" s="119"/>
     </row>
     <row r="154" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q154" s="177"/>
-      <c r="R154" s="178"/>
-      <c r="S154" s="178"/>
-      <c r="T154" s="178"/>
-      <c r="U154" s="178"/>
-      <c r="V154" s="179"/>
-      <c r="W154" s="119"/>
-      <c r="X154" s="120"/>
+      <c r="Q154" s="174"/>
+      <c r="R154" s="175"/>
+      <c r="S154" s="175"/>
+      <c r="T154" s="175"/>
+      <c r="U154" s="175"/>
+      <c r="V154" s="176"/>
+      <c r="W154" s="118"/>
+      <c r="X154" s="119"/>
     </row>
     <row r="155" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q155" s="177"/>
-      <c r="R155" s="178"/>
-      <c r="S155" s="178"/>
-      <c r="T155" s="178"/>
-      <c r="U155" s="178"/>
-      <c r="V155" s="179"/>
-      <c r="W155" s="119"/>
-      <c r="X155" s="120"/>
+      <c r="Q155" s="174"/>
+      <c r="R155" s="175"/>
+      <c r="S155" s="175"/>
+      <c r="T155" s="175"/>
+      <c r="U155" s="175"/>
+      <c r="V155" s="176"/>
+      <c r="W155" s="118"/>
+      <c r="X155" s="119"/>
     </row>
     <row r="156" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q156" s="177"/>
-      <c r="R156" s="178"/>
-      <c r="S156" s="178"/>
-      <c r="T156" s="178"/>
-      <c r="U156" s="178"/>
-      <c r="V156" s="179"/>
-      <c r="W156" s="119"/>
-      <c r="X156" s="120"/>
+      <c r="Q156" s="174"/>
+      <c r="R156" s="175"/>
+      <c r="S156" s="175"/>
+      <c r="T156" s="175"/>
+      <c r="U156" s="175"/>
+      <c r="V156" s="176"/>
+      <c r="W156" s="118"/>
+      <c r="X156" s="119"/>
     </row>
     <row r="157" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q157" s="177"/>
-      <c r="R157" s="178"/>
-      <c r="S157" s="178"/>
-      <c r="T157" s="178"/>
-      <c r="U157" s="178"/>
-      <c r="V157" s="179"/>
-      <c r="W157" s="119"/>
-      <c r="X157" s="120"/>
+      <c r="Q157" s="174"/>
+      <c r="R157" s="175"/>
+      <c r="S157" s="175"/>
+      <c r="T157" s="175"/>
+      <c r="U157" s="175"/>
+      <c r="V157" s="176"/>
+      <c r="W157" s="118"/>
+      <c r="X157" s="119"/>
     </row>
     <row r="158" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q158" s="177"/>
-      <c r="R158" s="178"/>
-      <c r="S158" s="178"/>
-      <c r="T158" s="178"/>
-      <c r="U158" s="178"/>
-      <c r="V158" s="179"/>
-      <c r="W158" s="119"/>
-      <c r="X158" s="120"/>
+      <c r="Q158" s="174"/>
+      <c r="R158" s="175"/>
+      <c r="S158" s="175"/>
+      <c r="T158" s="175"/>
+      <c r="U158" s="175"/>
+      <c r="V158" s="176"/>
+      <c r="W158" s="118"/>
+      <c r="X158" s="119"/>
     </row>
     <row r="159" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q159" s="180"/>
@@ -6334,518 +6330,518 @@
       <c r="T159" s="181"/>
       <c r="U159" s="181"/>
       <c r="V159" s="182"/>
-      <c r="W159" s="115"/>
-      <c r="X159" s="141"/>
+      <c r="W159" s="114"/>
+      <c r="X159" s="140"/>
     </row>
     <row r="160" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q160" s="177"/>
-      <c r="R160" s="178"/>
-      <c r="S160" s="178"/>
-      <c r="T160" s="178"/>
-      <c r="U160" s="178"/>
-      <c r="V160" s="179"/>
-      <c r="W160" s="119"/>
-      <c r="X160" s="120"/>
+      <c r="Q160" s="174"/>
+      <c r="R160" s="175"/>
+      <c r="S160" s="175"/>
+      <c r="T160" s="175"/>
+      <c r="U160" s="175"/>
+      <c r="V160" s="176"/>
+      <c r="W160" s="118"/>
+      <c r="X160" s="119"/>
     </row>
     <row r="161" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q161" s="177"/>
-      <c r="R161" s="178"/>
-      <c r="S161" s="178"/>
-      <c r="T161" s="178"/>
-      <c r="U161" s="178"/>
-      <c r="V161" s="179"/>
-      <c r="W161" s="119"/>
-      <c r="X161" s="120"/>
+      <c r="Q161" s="174"/>
+      <c r="R161" s="175"/>
+      <c r="S161" s="175"/>
+      <c r="T161" s="175"/>
+      <c r="U161" s="175"/>
+      <c r="V161" s="176"/>
+      <c r="W161" s="118"/>
+      <c r="X161" s="119"/>
     </row>
     <row r="162" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q162" s="177"/>
-      <c r="R162" s="178"/>
-      <c r="S162" s="178"/>
-      <c r="T162" s="178"/>
-      <c r="U162" s="178"/>
-      <c r="V162" s="179"/>
-      <c r="W162" s="119"/>
-      <c r="X162" s="120"/>
+      <c r="Q162" s="174"/>
+      <c r="R162" s="175"/>
+      <c r="S162" s="175"/>
+      <c r="T162" s="175"/>
+      <c r="U162" s="175"/>
+      <c r="V162" s="176"/>
+      <c r="W162" s="118"/>
+      <c r="X162" s="119"/>
     </row>
     <row r="163" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q163" s="177"/>
-      <c r="R163" s="178"/>
-      <c r="S163" s="178"/>
-      <c r="T163" s="178"/>
-      <c r="U163" s="178"/>
-      <c r="V163" s="179"/>
-      <c r="W163" s="119"/>
-      <c r="X163" s="120"/>
+      <c r="Q163" s="174"/>
+      <c r="R163" s="175"/>
+      <c r="S163" s="175"/>
+      <c r="T163" s="175"/>
+      <c r="U163" s="175"/>
+      <c r="V163" s="176"/>
+      <c r="W163" s="118"/>
+      <c r="X163" s="119"/>
     </row>
     <row r="164" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q164" s="177"/>
-      <c r="R164" s="178"/>
-      <c r="S164" s="178"/>
-      <c r="T164" s="178"/>
-      <c r="U164" s="178"/>
-      <c r="V164" s="179"/>
-      <c r="W164" s="119"/>
-      <c r="X164" s="120"/>
+      <c r="Q164" s="174"/>
+      <c r="R164" s="175"/>
+      <c r="S164" s="175"/>
+      <c r="T164" s="175"/>
+      <c r="U164" s="175"/>
+      <c r="V164" s="176"/>
+      <c r="W164" s="118"/>
+      <c r="X164" s="119"/>
     </row>
     <row r="165" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q165" s="177"/>
-      <c r="R165" s="178"/>
-      <c r="S165" s="178"/>
-      <c r="T165" s="178"/>
-      <c r="U165" s="178"/>
-      <c r="V165" s="179"/>
-      <c r="W165" s="119"/>
-      <c r="X165" s="120"/>
+      <c r="Q165" s="174"/>
+      <c r="R165" s="175"/>
+      <c r="S165" s="175"/>
+      <c r="T165" s="175"/>
+      <c r="U165" s="175"/>
+      <c r="V165" s="176"/>
+      <c r="W165" s="118"/>
+      <c r="X165" s="119"/>
     </row>
     <row r="166" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q166" s="177"/>
-      <c r="R166" s="178"/>
-      <c r="S166" s="178"/>
-      <c r="T166" s="178"/>
-      <c r="U166" s="178"/>
-      <c r="V166" s="179"/>
-      <c r="W166" s="119"/>
-      <c r="X166" s="120"/>
+      <c r="Q166" s="174"/>
+      <c r="R166" s="175"/>
+      <c r="S166" s="175"/>
+      <c r="T166" s="175"/>
+      <c r="U166" s="175"/>
+      <c r="V166" s="176"/>
+      <c r="W166" s="118"/>
+      <c r="X166" s="119"/>
     </row>
     <row r="167" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q167" s="177"/>
-      <c r="R167" s="178"/>
-      <c r="S167" s="178"/>
-      <c r="T167" s="178"/>
-      <c r="U167" s="178"/>
-      <c r="V167" s="179"/>
-      <c r="W167" s="119"/>
-      <c r="X167" s="120"/>
+      <c r="Q167" s="174"/>
+      <c r="R167" s="175"/>
+      <c r="S167" s="175"/>
+      <c r="T167" s="175"/>
+      <c r="U167" s="175"/>
+      <c r="V167" s="176"/>
+      <c r="W167" s="118"/>
+      <c r="X167" s="119"/>
     </row>
     <row r="168" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q168" s="177"/>
-      <c r="R168" s="178"/>
-      <c r="S168" s="178"/>
-      <c r="T168" s="178"/>
-      <c r="U168" s="178"/>
-      <c r="V168" s="179"/>
-      <c r="W168" s="119"/>
-      <c r="X168" s="120"/>
+      <c r="Q168" s="174"/>
+      <c r="R168" s="175"/>
+      <c r="S168" s="175"/>
+      <c r="T168" s="175"/>
+      <c r="U168" s="175"/>
+      <c r="V168" s="176"/>
+      <c r="W168" s="118"/>
+      <c r="X168" s="119"/>
     </row>
     <row r="169" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q169" s="177"/>
-      <c r="R169" s="178"/>
-      <c r="S169" s="178"/>
-      <c r="T169" s="178"/>
-      <c r="U169" s="178"/>
-      <c r="V169" s="179"/>
-      <c r="W169" s="119"/>
-      <c r="X169" s="120"/>
+      <c r="Q169" s="174"/>
+      <c r="R169" s="175"/>
+      <c r="S169" s="175"/>
+      <c r="T169" s="175"/>
+      <c r="U169" s="175"/>
+      <c r="V169" s="176"/>
+      <c r="W169" s="118"/>
+      <c r="X169" s="119"/>
     </row>
     <row r="170" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q170" s="177"/>
-      <c r="R170" s="178"/>
-      <c r="S170" s="178"/>
-      <c r="T170" s="178"/>
-      <c r="U170" s="178"/>
-      <c r="V170" s="179"/>
-      <c r="W170" s="119"/>
-      <c r="X170" s="120"/>
+      <c r="Q170" s="174"/>
+      <c r="R170" s="175"/>
+      <c r="S170" s="175"/>
+      <c r="T170" s="175"/>
+      <c r="U170" s="175"/>
+      <c r="V170" s="176"/>
+      <c r="W170" s="118"/>
+      <c r="X170" s="119"/>
     </row>
     <row r="171" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q171" s="177"/>
-      <c r="R171" s="178"/>
-      <c r="S171" s="178"/>
-      <c r="T171" s="178"/>
-      <c r="U171" s="178"/>
-      <c r="V171" s="179"/>
-      <c r="W171" s="119"/>
-      <c r="X171" s="120"/>
+      <c r="Q171" s="174"/>
+      <c r="R171" s="175"/>
+      <c r="S171" s="175"/>
+      <c r="T171" s="175"/>
+      <c r="U171" s="175"/>
+      <c r="V171" s="176"/>
+      <c r="W171" s="118"/>
+      <c r="X171" s="119"/>
     </row>
     <row r="172" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q172" s="177"/>
-      <c r="R172" s="178"/>
-      <c r="S172" s="178"/>
-      <c r="T172" s="178"/>
-      <c r="U172" s="178"/>
-      <c r="V172" s="179"/>
-      <c r="W172" s="119"/>
-      <c r="X172" s="120"/>
+      <c r="Q172" s="174"/>
+      <c r="R172" s="175"/>
+      <c r="S172" s="175"/>
+      <c r="T172" s="175"/>
+      <c r="U172" s="175"/>
+      <c r="V172" s="176"/>
+      <c r="W172" s="118"/>
+      <c r="X172" s="119"/>
     </row>
     <row r="173" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q173" s="177"/>
-      <c r="R173" s="178"/>
-      <c r="S173" s="178"/>
-      <c r="T173" s="178"/>
-      <c r="U173" s="178"/>
-      <c r="V173" s="179"/>
-      <c r="W173" s="119"/>
-      <c r="X173" s="120"/>
+      <c r="Q173" s="174"/>
+      <c r="R173" s="175"/>
+      <c r="S173" s="175"/>
+      <c r="T173" s="175"/>
+      <c r="U173" s="175"/>
+      <c r="V173" s="176"/>
+      <c r="W173" s="118"/>
+      <c r="X173" s="119"/>
     </row>
     <row r="174" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q174" s="177"/>
-      <c r="R174" s="178"/>
-      <c r="S174" s="178"/>
-      <c r="T174" s="178"/>
-      <c r="U174" s="178"/>
-      <c r="V174" s="179"/>
-      <c r="W174" s="119"/>
-      <c r="X174" s="120"/>
+      <c r="Q174" s="174"/>
+      <c r="R174" s="175"/>
+      <c r="S174" s="175"/>
+      <c r="T174" s="175"/>
+      <c r="U174" s="175"/>
+      <c r="V174" s="176"/>
+      <c r="W174" s="118"/>
+      <c r="X174" s="119"/>
     </row>
     <row r="175" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q175" s="177"/>
-      <c r="R175" s="178"/>
-      <c r="S175" s="178"/>
-      <c r="T175" s="178"/>
-      <c r="U175" s="178"/>
-      <c r="V175" s="179"/>
-      <c r="W175" s="119"/>
-      <c r="X175" s="120"/>
+      <c r="Q175" s="174"/>
+      <c r="R175" s="175"/>
+      <c r="S175" s="175"/>
+      <c r="T175" s="175"/>
+      <c r="U175" s="175"/>
+      <c r="V175" s="176"/>
+      <c r="W175" s="118"/>
+      <c r="X175" s="119"/>
     </row>
     <row r="176" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q176" s="177"/>
-      <c r="R176" s="178"/>
-      <c r="S176" s="178"/>
-      <c r="T176" s="178"/>
-      <c r="U176" s="178"/>
-      <c r="V176" s="179"/>
-      <c r="W176" s="119"/>
-      <c r="X176" s="120"/>
+      <c r="Q176" s="174"/>
+      <c r="R176" s="175"/>
+      <c r="S176" s="175"/>
+      <c r="T176" s="175"/>
+      <c r="U176" s="175"/>
+      <c r="V176" s="176"/>
+      <c r="W176" s="118"/>
+      <c r="X176" s="119"/>
     </row>
     <row r="177" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q177" s="177"/>
-      <c r="R177" s="178"/>
-      <c r="S177" s="178"/>
-      <c r="T177" s="178"/>
-      <c r="U177" s="178"/>
-      <c r="V177" s="179"/>
-      <c r="W177" s="119"/>
-      <c r="X177" s="120"/>
+      <c r="Q177" s="174"/>
+      <c r="R177" s="175"/>
+      <c r="S177" s="175"/>
+      <c r="T177" s="175"/>
+      <c r="U177" s="175"/>
+      <c r="V177" s="176"/>
+      <c r="W177" s="118"/>
+      <c r="X177" s="119"/>
     </row>
     <row r="178" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q178" s="177"/>
-      <c r="R178" s="178"/>
-      <c r="S178" s="178"/>
-      <c r="T178" s="178"/>
-      <c r="U178" s="178"/>
-      <c r="V178" s="179"/>
-      <c r="W178" s="119"/>
-      <c r="X178" s="120"/>
+      <c r="Q178" s="174"/>
+      <c r="R178" s="175"/>
+      <c r="S178" s="175"/>
+      <c r="T178" s="175"/>
+      <c r="U178" s="175"/>
+      <c r="V178" s="176"/>
+      <c r="W178" s="118"/>
+      <c r="X178" s="119"/>
     </row>
     <row r="179" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q179" s="177"/>
-      <c r="R179" s="178"/>
-      <c r="S179" s="178"/>
-      <c r="T179" s="178"/>
-      <c r="U179" s="178"/>
-      <c r="V179" s="179"/>
-      <c r="W179" s="119"/>
-      <c r="X179" s="120"/>
+      <c r="Q179" s="174"/>
+      <c r="R179" s="175"/>
+      <c r="S179" s="175"/>
+      <c r="T179" s="175"/>
+      <c r="U179" s="175"/>
+      <c r="V179" s="176"/>
+      <c r="W179" s="118"/>
+      <c r="X179" s="119"/>
     </row>
     <row r="180" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q180" s="177"/>
-      <c r="R180" s="178"/>
-      <c r="S180" s="178"/>
-      <c r="T180" s="178"/>
-      <c r="U180" s="178"/>
-      <c r="V180" s="179"/>
-      <c r="W180" s="119"/>
-      <c r="X180" s="120"/>
+      <c r="Q180" s="174"/>
+      <c r="R180" s="175"/>
+      <c r="S180" s="175"/>
+      <c r="T180" s="175"/>
+      <c r="U180" s="175"/>
+      <c r="V180" s="176"/>
+      <c r="W180" s="118"/>
+      <c r="X180" s="119"/>
     </row>
     <row r="181" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q181" s="177"/>
-      <c r="R181" s="178"/>
-      <c r="S181" s="178"/>
-      <c r="T181" s="178"/>
-      <c r="U181" s="178"/>
-      <c r="V181" s="179"/>
-      <c r="W181" s="119"/>
-      <c r="X181" s="120"/>
+      <c r="Q181" s="174"/>
+      <c r="R181" s="175"/>
+      <c r="S181" s="175"/>
+      <c r="T181" s="175"/>
+      <c r="U181" s="175"/>
+      <c r="V181" s="176"/>
+      <c r="W181" s="118"/>
+      <c r="X181" s="119"/>
     </row>
     <row r="182" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q182" s="177"/>
-      <c r="R182" s="178"/>
-      <c r="S182" s="178"/>
-      <c r="T182" s="178"/>
-      <c r="U182" s="178"/>
-      <c r="V182" s="179"/>
-      <c r="W182" s="119"/>
-      <c r="X182" s="120"/>
+      <c r="Q182" s="174"/>
+      <c r="R182" s="175"/>
+      <c r="S182" s="175"/>
+      <c r="T182" s="175"/>
+      <c r="U182" s="175"/>
+      <c r="V182" s="176"/>
+      <c r="W182" s="118"/>
+      <c r="X182" s="119"/>
     </row>
     <row r="183" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q183" s="177"/>
-      <c r="R183" s="178"/>
-      <c r="S183" s="178"/>
-      <c r="T183" s="178"/>
-      <c r="U183" s="178"/>
-      <c r="V183" s="179"/>
-      <c r="W183" s="119"/>
-      <c r="X183" s="120"/>
+      <c r="Q183" s="174"/>
+      <c r="R183" s="175"/>
+      <c r="S183" s="175"/>
+      <c r="T183" s="175"/>
+      <c r="U183" s="175"/>
+      <c r="V183" s="176"/>
+      <c r="W183" s="118"/>
+      <c r="X183" s="119"/>
     </row>
     <row r="184" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q184" s="177"/>
-      <c r="R184" s="178"/>
-      <c r="S184" s="178"/>
-      <c r="T184" s="178"/>
-      <c r="U184" s="178"/>
-      <c r="V184" s="179"/>
-      <c r="W184" s="119"/>
-      <c r="X184" s="120"/>
+      <c r="Q184" s="174"/>
+      <c r="R184" s="175"/>
+      <c r="S184" s="175"/>
+      <c r="T184" s="175"/>
+      <c r="U184" s="175"/>
+      <c r="V184" s="176"/>
+      <c r="W184" s="118"/>
+      <c r="X184" s="119"/>
     </row>
     <row r="185" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q185" s="177"/>
-      <c r="R185" s="178"/>
-      <c r="S185" s="178"/>
-      <c r="T185" s="178"/>
-      <c r="U185" s="178"/>
-      <c r="V185" s="179"/>
-      <c r="W185" s="119"/>
-      <c r="X185" s="120"/>
+      <c r="Q185" s="174"/>
+      <c r="R185" s="175"/>
+      <c r="S185" s="175"/>
+      <c r="T185" s="175"/>
+      <c r="U185" s="175"/>
+      <c r="V185" s="176"/>
+      <c r="W185" s="118"/>
+      <c r="X185" s="119"/>
     </row>
     <row r="186" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q186" s="177"/>
-      <c r="R186" s="178"/>
-      <c r="S186" s="178"/>
-      <c r="T186" s="178"/>
-      <c r="U186" s="178"/>
-      <c r="V186" s="179"/>
-      <c r="W186" s="119"/>
-      <c r="X186" s="120"/>
+      <c r="Q186" s="174"/>
+      <c r="R186" s="175"/>
+      <c r="S186" s="175"/>
+      <c r="T186" s="175"/>
+      <c r="U186" s="175"/>
+      <c r="V186" s="176"/>
+      <c r="W186" s="118"/>
+      <c r="X186" s="119"/>
     </row>
     <row r="187" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q187" s="177"/>
-      <c r="R187" s="178"/>
-      <c r="S187" s="178"/>
-      <c r="T187" s="178"/>
-      <c r="U187" s="178"/>
-      <c r="V187" s="179"/>
-      <c r="W187" s="119"/>
-      <c r="X187" s="120"/>
+      <c r="Q187" s="174"/>
+      <c r="R187" s="175"/>
+      <c r="S187" s="175"/>
+      <c r="T187" s="175"/>
+      <c r="U187" s="175"/>
+      <c r="V187" s="176"/>
+      <c r="W187" s="118"/>
+      <c r="X187" s="119"/>
     </row>
     <row r="188" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q188" s="177"/>
-      <c r="R188" s="178"/>
-      <c r="S188" s="178"/>
-      <c r="T188" s="178"/>
-      <c r="U188" s="178"/>
-      <c r="V188" s="179"/>
-      <c r="W188" s="119"/>
-      <c r="X188" s="120"/>
+      <c r="Q188" s="174"/>
+      <c r="R188" s="175"/>
+      <c r="S188" s="175"/>
+      <c r="T188" s="175"/>
+      <c r="U188" s="175"/>
+      <c r="V188" s="176"/>
+      <c r="W188" s="118"/>
+      <c r="X188" s="119"/>
     </row>
     <row r="189" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q189" s="177"/>
-      <c r="R189" s="178"/>
-      <c r="S189" s="178"/>
-      <c r="T189" s="178"/>
-      <c r="U189" s="178"/>
-      <c r="V189" s="179"/>
-      <c r="W189" s="119"/>
-      <c r="X189" s="120"/>
+      <c r="Q189" s="174"/>
+      <c r="R189" s="175"/>
+      <c r="S189" s="175"/>
+      <c r="T189" s="175"/>
+      <c r="U189" s="175"/>
+      <c r="V189" s="176"/>
+      <c r="W189" s="118"/>
+      <c r="X189" s="119"/>
     </row>
     <row r="190" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q190" s="177"/>
-      <c r="R190" s="178"/>
-      <c r="S190" s="178"/>
-      <c r="T190" s="178"/>
-      <c r="U190" s="178"/>
-      <c r="V190" s="179"/>
-      <c r="W190" s="119"/>
-      <c r="X190" s="120"/>
+      <c r="Q190" s="174"/>
+      <c r="R190" s="175"/>
+      <c r="S190" s="175"/>
+      <c r="T190" s="175"/>
+      <c r="U190" s="175"/>
+      <c r="V190" s="176"/>
+      <c r="W190" s="118"/>
+      <c r="X190" s="119"/>
     </row>
     <row r="191" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q191" s="177"/>
-      <c r="R191" s="178"/>
-      <c r="S191" s="178"/>
-      <c r="T191" s="178"/>
-      <c r="U191" s="178"/>
-      <c r="V191" s="179"/>
-      <c r="W191" s="119"/>
-      <c r="X191" s="120"/>
+      <c r="Q191" s="174"/>
+      <c r="R191" s="175"/>
+      <c r="S191" s="175"/>
+      <c r="T191" s="175"/>
+      <c r="U191" s="175"/>
+      <c r="V191" s="176"/>
+      <c r="W191" s="118"/>
+      <c r="X191" s="119"/>
     </row>
     <row r="192" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q192" s="177"/>
-      <c r="R192" s="178"/>
-      <c r="S192" s="178"/>
-      <c r="T192" s="178"/>
-      <c r="U192" s="178"/>
-      <c r="V192" s="179"/>
-      <c r="W192" s="119"/>
-      <c r="X192" s="120"/>
+      <c r="Q192" s="174"/>
+      <c r="R192" s="175"/>
+      <c r="S192" s="175"/>
+      <c r="T192" s="175"/>
+      <c r="U192" s="175"/>
+      <c r="V192" s="176"/>
+      <c r="W192" s="118"/>
+      <c r="X192" s="119"/>
     </row>
     <row r="193" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q193" s="177"/>
-      <c r="R193" s="178"/>
-      <c r="S193" s="178"/>
-      <c r="T193" s="178"/>
-      <c r="U193" s="178"/>
-      <c r="V193" s="179"/>
-      <c r="W193" s="119"/>
-      <c r="X193" s="120"/>
+      <c r="Q193" s="174"/>
+      <c r="R193" s="175"/>
+      <c r="S193" s="175"/>
+      <c r="T193" s="175"/>
+      <c r="U193" s="175"/>
+      <c r="V193" s="176"/>
+      <c r="W193" s="118"/>
+      <c r="X193" s="119"/>
     </row>
     <row r="194" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q194" s="177"/>
-      <c r="R194" s="178"/>
-      <c r="S194" s="178"/>
-      <c r="T194" s="178"/>
-      <c r="U194" s="178"/>
-      <c r="V194" s="179"/>
-      <c r="W194" s="119"/>
-      <c r="X194" s="120"/>
+      <c r="Q194" s="174"/>
+      <c r="R194" s="175"/>
+      <c r="S194" s="175"/>
+      <c r="T194" s="175"/>
+      <c r="U194" s="175"/>
+      <c r="V194" s="176"/>
+      <c r="W194" s="118"/>
+      <c r="X194" s="119"/>
     </row>
     <row r="195" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q195" s="177"/>
-      <c r="R195" s="178"/>
-      <c r="S195" s="178"/>
-      <c r="T195" s="178"/>
-      <c r="U195" s="178"/>
-      <c r="V195" s="179"/>
-      <c r="W195" s="119"/>
-      <c r="X195" s="120"/>
+      <c r="Q195" s="174"/>
+      <c r="R195" s="175"/>
+      <c r="S195" s="175"/>
+      <c r="T195" s="175"/>
+      <c r="U195" s="175"/>
+      <c r="V195" s="176"/>
+      <c r="W195" s="118"/>
+      <c r="X195" s="119"/>
     </row>
     <row r="196" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q196" s="177"/>
-      <c r="R196" s="178"/>
-      <c r="S196" s="178"/>
-      <c r="T196" s="178"/>
-      <c r="U196" s="178"/>
-      <c r="V196" s="179"/>
-      <c r="W196" s="119"/>
-      <c r="X196" s="120"/>
+      <c r="Q196" s="174"/>
+      <c r="R196" s="175"/>
+      <c r="S196" s="175"/>
+      <c r="T196" s="175"/>
+      <c r="U196" s="175"/>
+      <c r="V196" s="176"/>
+      <c r="W196" s="118"/>
+      <c r="X196" s="119"/>
     </row>
     <row r="197" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q197" s="177"/>
-      <c r="R197" s="178"/>
-      <c r="S197" s="178"/>
-      <c r="T197" s="178"/>
-      <c r="U197" s="178"/>
-      <c r="V197" s="179"/>
-      <c r="W197" s="119"/>
-      <c r="X197" s="120"/>
+      <c r="Q197" s="174"/>
+      <c r="R197" s="175"/>
+      <c r="S197" s="175"/>
+      <c r="T197" s="175"/>
+      <c r="U197" s="175"/>
+      <c r="V197" s="176"/>
+      <c r="W197" s="118"/>
+      <c r="X197" s="119"/>
     </row>
     <row r="198" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q198" s="177"/>
-      <c r="R198" s="178"/>
-      <c r="S198" s="178"/>
-      <c r="T198" s="178"/>
-      <c r="U198" s="178"/>
-      <c r="V198" s="179"/>
-      <c r="W198" s="119"/>
-      <c r="X198" s="120"/>
+      <c r="Q198" s="174"/>
+      <c r="R198" s="175"/>
+      <c r="S198" s="175"/>
+      <c r="T198" s="175"/>
+      <c r="U198" s="175"/>
+      <c r="V198" s="176"/>
+      <c r="W198" s="118"/>
+      <c r="X198" s="119"/>
     </row>
     <row r="199" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q199" s="177"/>
-      <c r="R199" s="178"/>
-      <c r="S199" s="178"/>
-      <c r="T199" s="178"/>
-      <c r="U199" s="178"/>
-      <c r="V199" s="179"/>
-      <c r="W199" s="119"/>
-      <c r="X199" s="120"/>
+      <c r="Q199" s="174"/>
+      <c r="R199" s="175"/>
+      <c r="S199" s="175"/>
+      <c r="T199" s="175"/>
+      <c r="U199" s="175"/>
+      <c r="V199" s="176"/>
+      <c r="W199" s="118"/>
+      <c r="X199" s="119"/>
     </row>
     <row r="200" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q200" s="177"/>
-      <c r="R200" s="178"/>
-      <c r="S200" s="178"/>
-      <c r="T200" s="178"/>
-      <c r="U200" s="178"/>
-      <c r="V200" s="179"/>
-      <c r="W200" s="119"/>
-      <c r="X200" s="120"/>
+      <c r="Q200" s="174"/>
+      <c r="R200" s="175"/>
+      <c r="S200" s="175"/>
+      <c r="T200" s="175"/>
+      <c r="U200" s="175"/>
+      <c r="V200" s="176"/>
+      <c r="W200" s="118"/>
+      <c r="X200" s="119"/>
     </row>
     <row r="201" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q201" s="177"/>
-      <c r="R201" s="178"/>
-      <c r="S201" s="178"/>
-      <c r="T201" s="178"/>
-      <c r="U201" s="178"/>
-      <c r="V201" s="179"/>
-      <c r="W201" s="119"/>
-      <c r="X201" s="120"/>
+      <c r="Q201" s="174"/>
+      <c r="R201" s="175"/>
+      <c r="S201" s="175"/>
+      <c r="T201" s="175"/>
+      <c r="U201" s="175"/>
+      <c r="V201" s="176"/>
+      <c r="W201" s="118"/>
+      <c r="X201" s="119"/>
     </row>
     <row r="202" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q202" s="177"/>
-      <c r="R202" s="178"/>
-      <c r="S202" s="178"/>
-      <c r="T202" s="178"/>
-      <c r="U202" s="178"/>
-      <c r="V202" s="179"/>
-      <c r="W202" s="119"/>
-      <c r="X202" s="120"/>
+      <c r="Q202" s="174"/>
+      <c r="R202" s="175"/>
+      <c r="S202" s="175"/>
+      <c r="T202" s="175"/>
+      <c r="U202" s="175"/>
+      <c r="V202" s="176"/>
+      <c r="W202" s="118"/>
+      <c r="X202" s="119"/>
     </row>
     <row r="203" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q203" s="177"/>
-      <c r="R203" s="178"/>
-      <c r="S203" s="178"/>
-      <c r="T203" s="178"/>
-      <c r="U203" s="178"/>
-      <c r="V203" s="179"/>
-      <c r="W203" s="119"/>
-      <c r="X203" s="120"/>
+      <c r="Q203" s="174"/>
+      <c r="R203" s="175"/>
+      <c r="S203" s="175"/>
+      <c r="T203" s="175"/>
+      <c r="U203" s="175"/>
+      <c r="V203" s="176"/>
+      <c r="W203" s="118"/>
+      <c r="X203" s="119"/>
     </row>
     <row r="204" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q204" s="177"/>
-      <c r="R204" s="178"/>
-      <c r="S204" s="178"/>
-      <c r="T204" s="178"/>
-      <c r="U204" s="178"/>
-      <c r="V204" s="179"/>
-      <c r="W204" s="119"/>
-      <c r="X204" s="120"/>
+      <c r="Q204" s="174"/>
+      <c r="R204" s="175"/>
+      <c r="S204" s="175"/>
+      <c r="T204" s="175"/>
+      <c r="U204" s="175"/>
+      <c r="V204" s="176"/>
+      <c r="W204" s="118"/>
+      <c r="X204" s="119"/>
     </row>
     <row r="205" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q205" s="177"/>
-      <c r="R205" s="178"/>
-      <c r="S205" s="178"/>
-      <c r="T205" s="178"/>
-      <c r="U205" s="178"/>
-      <c r="V205" s="179"/>
-      <c r="W205" s="119"/>
-      <c r="X205" s="120"/>
+      <c r="Q205" s="174"/>
+      <c r="R205" s="175"/>
+      <c r="S205" s="175"/>
+      <c r="T205" s="175"/>
+      <c r="U205" s="175"/>
+      <c r="V205" s="176"/>
+      <c r="W205" s="118"/>
+      <c r="X205" s="119"/>
     </row>
     <row r="206" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q206" s="177"/>
-      <c r="R206" s="178"/>
-      <c r="S206" s="178"/>
-      <c r="T206" s="178"/>
-      <c r="U206" s="178"/>
-      <c r="V206" s="179"/>
-      <c r="W206" s="119"/>
-      <c r="X206" s="120"/>
+      <c r="Q206" s="174"/>
+      <c r="R206" s="175"/>
+      <c r="S206" s="175"/>
+      <c r="T206" s="175"/>
+      <c r="U206" s="175"/>
+      <c r="V206" s="176"/>
+      <c r="W206" s="118"/>
+      <c r="X206" s="119"/>
     </row>
     <row r="207" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q207" s="177"/>
-      <c r="R207" s="178"/>
-      <c r="S207" s="178"/>
-      <c r="T207" s="178"/>
-      <c r="U207" s="178"/>
-      <c r="V207" s="179"/>
-      <c r="W207" s="119"/>
-      <c r="X207" s="120"/>
+      <c r="Q207" s="174"/>
+      <c r="R207" s="175"/>
+      <c r="S207" s="175"/>
+      <c r="T207" s="175"/>
+      <c r="U207" s="175"/>
+      <c r="V207" s="176"/>
+      <c r="W207" s="118"/>
+      <c r="X207" s="119"/>
     </row>
     <row r="208" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q208" s="177"/>
-      <c r="R208" s="178"/>
-      <c r="S208" s="178"/>
-      <c r="T208" s="178"/>
-      <c r="U208" s="178"/>
-      <c r="V208" s="179"/>
-      <c r="W208" s="119"/>
-      <c r="X208" s="120"/>
+      <c r="Q208" s="174"/>
+      <c r="R208" s="175"/>
+      <c r="S208" s="175"/>
+      <c r="T208" s="175"/>
+      <c r="U208" s="175"/>
+      <c r="V208" s="176"/>
+      <c r="W208" s="118"/>
+      <c r="X208" s="119"/>
     </row>
     <row r="209" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q209" s="177"/>
-      <c r="R209" s="178"/>
-      <c r="S209" s="178"/>
-      <c r="T209" s="178"/>
-      <c r="U209" s="178"/>
-      <c r="V209" s="179"/>
-      <c r="W209" s="119"/>
-      <c r="X209" s="120"/>
+      <c r="Q209" s="174"/>
+      <c r="R209" s="175"/>
+      <c r="S209" s="175"/>
+      <c r="T209" s="175"/>
+      <c r="U209" s="175"/>
+      <c r="V209" s="176"/>
+      <c r="W209" s="118"/>
+      <c r="X209" s="119"/>
     </row>
     <row r="210" spans="17:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q210" s="269"/>
-      <c r="R210" s="270"/>
-      <c r="S210" s="270"/>
-      <c r="T210" s="270"/>
-      <c r="U210" s="270"/>
-      <c r="V210" s="271"/>
-      <c r="W210" s="142"/>
-      <c r="X210" s="143"/>
+      <c r="Q210" s="177"/>
+      <c r="R210" s="178"/>
+      <c r="S210" s="178"/>
+      <c r="T210" s="178"/>
+      <c r="U210" s="178"/>
+      <c r="V210" s="179"/>
+      <c r="W210" s="141"/>
+      <c r="X210" s="142"/>
     </row>
   </sheetData>
   <sheetProtection password="9CDD" sheet="1" objects="1" scenarios="1"/>
@@ -6853,6 +6849,255 @@
     <protectedRange sqref="Y6 E6:F7 G7 I6:J7" name="Диапазон1_1_2_1"/>
   </protectedRanges>
   <mergeCells count="273">
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Q106:V106"/>
+    <mergeCell ref="Q107:V107"/>
+    <mergeCell ref="Q101:V101"/>
+    <mergeCell ref="Q102:V102"/>
+    <mergeCell ref="Q103:V103"/>
+    <mergeCell ref="Q104:V104"/>
+    <mergeCell ref="Q105:V105"/>
+    <mergeCell ref="Q96:V96"/>
+    <mergeCell ref="Q97:V97"/>
+    <mergeCell ref="Q98:V98"/>
+    <mergeCell ref="Q99:V99"/>
+    <mergeCell ref="Q100:V100"/>
+    <mergeCell ref="Q91:V91"/>
+    <mergeCell ref="Q92:V92"/>
+    <mergeCell ref="Q93:V93"/>
+    <mergeCell ref="Q94:V94"/>
+    <mergeCell ref="Q95:V95"/>
+    <mergeCell ref="Q86:V86"/>
+    <mergeCell ref="Q87:V87"/>
+    <mergeCell ref="Q88:V88"/>
+    <mergeCell ref="Q89:V89"/>
+    <mergeCell ref="Q90:V90"/>
+    <mergeCell ref="Q83:V83"/>
+    <mergeCell ref="Q84:V84"/>
+    <mergeCell ref="Q85:V85"/>
+    <mergeCell ref="Q76:V76"/>
+    <mergeCell ref="Q77:V77"/>
+    <mergeCell ref="Q78:V78"/>
+    <mergeCell ref="Q79:V79"/>
+    <mergeCell ref="Q80:V80"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="Q74:V74"/>
+    <mergeCell ref="Q75:V75"/>
+    <mergeCell ref="Q66:V66"/>
+    <mergeCell ref="Q67:V67"/>
+    <mergeCell ref="Q68:V68"/>
+    <mergeCell ref="Q69:V69"/>
+    <mergeCell ref="Q70:V70"/>
+    <mergeCell ref="Q81:V81"/>
+    <mergeCell ref="Q82:V82"/>
+    <mergeCell ref="Q65:V65"/>
+    <mergeCell ref="Q56:V56"/>
+    <mergeCell ref="Q57:V57"/>
+    <mergeCell ref="Q58:V58"/>
+    <mergeCell ref="Q59:V59"/>
+    <mergeCell ref="Q60:V60"/>
+    <mergeCell ref="Q71:V71"/>
+    <mergeCell ref="Q72:V72"/>
+    <mergeCell ref="Q73:V73"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q109:V109"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Q55:V55"/>
+    <mergeCell ref="Q50:V50"/>
+    <mergeCell ref="Q51:V51"/>
+    <mergeCell ref="Q52:V52"/>
+    <mergeCell ref="Q46:V46"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q47:V47"/>
+    <mergeCell ref="Q48:V48"/>
+    <mergeCell ref="Q49:V49"/>
+    <mergeCell ref="Q108:V108"/>
+    <mergeCell ref="Q53:V53"/>
+    <mergeCell ref="Q54:V54"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="Q34:V34"/>
+    <mergeCell ref="Q35:V35"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="Q61:V61"/>
+    <mergeCell ref="Q62:V62"/>
+    <mergeCell ref="Q63:V63"/>
+    <mergeCell ref="Q64:V64"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q41:V41"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="Q45:V45"/>
+    <mergeCell ref="Q36:V36"/>
+    <mergeCell ref="Q37:V37"/>
+    <mergeCell ref="Q38:V38"/>
+    <mergeCell ref="Q39:V39"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="Q121:V121"/>
+    <mergeCell ref="Q122:V122"/>
+    <mergeCell ref="Q123:V123"/>
+    <mergeCell ref="Q124:V124"/>
+    <mergeCell ref="Q125:V125"/>
+    <mergeCell ref="Q126:V126"/>
+    <mergeCell ref="Q127:V127"/>
+    <mergeCell ref="Q128:V128"/>
+    <mergeCell ref="Q110:V110"/>
+    <mergeCell ref="Q111:V111"/>
+    <mergeCell ref="Q112:V112"/>
+    <mergeCell ref="Q113:V113"/>
+    <mergeCell ref="Q114:V114"/>
+    <mergeCell ref="Q115:V115"/>
+    <mergeCell ref="Q116:V116"/>
+    <mergeCell ref="Q117:V117"/>
+    <mergeCell ref="Q118:V118"/>
+    <mergeCell ref="Q119:V119"/>
+    <mergeCell ref="Q120:V120"/>
+    <mergeCell ref="Q139:V139"/>
+    <mergeCell ref="Q140:V140"/>
+    <mergeCell ref="Q141:V141"/>
+    <mergeCell ref="Q142:V142"/>
+    <mergeCell ref="Q143:V143"/>
+    <mergeCell ref="Q144:V144"/>
+    <mergeCell ref="Q145:V145"/>
+    <mergeCell ref="Q146:V146"/>
+    <mergeCell ref="Q129:V129"/>
+    <mergeCell ref="Q137:V137"/>
+    <mergeCell ref="Q138:V138"/>
+    <mergeCell ref="Q130:V130"/>
+    <mergeCell ref="Q131:V131"/>
+    <mergeCell ref="Q132:V132"/>
+    <mergeCell ref="Q133:V133"/>
+    <mergeCell ref="Q134:V134"/>
+    <mergeCell ref="Q135:V135"/>
+    <mergeCell ref="Q136:V136"/>
+    <mergeCell ref="Q164:V164"/>
+    <mergeCell ref="Q147:V147"/>
+    <mergeCell ref="Q155:V155"/>
+    <mergeCell ref="Q156:V156"/>
+    <mergeCell ref="Q148:V148"/>
+    <mergeCell ref="Q149:V149"/>
+    <mergeCell ref="Q150:V150"/>
+    <mergeCell ref="Q151:V151"/>
+    <mergeCell ref="Q152:V152"/>
+    <mergeCell ref="Q153:V153"/>
+    <mergeCell ref="Q154:V154"/>
+    <mergeCell ref="Q163:V163"/>
+    <mergeCell ref="Q157:V157"/>
+    <mergeCell ref="Q158:V158"/>
+    <mergeCell ref="Q159:V159"/>
+    <mergeCell ref="Q160:V160"/>
+    <mergeCell ref="Q161:V161"/>
+    <mergeCell ref="Q162:V162"/>
+    <mergeCell ref="Q210:V210"/>
+    <mergeCell ref="Q198:V198"/>
+    <mergeCell ref="Q199:V199"/>
+    <mergeCell ref="Q200:V200"/>
+    <mergeCell ref="Q201:V201"/>
+    <mergeCell ref="Q202:V202"/>
+    <mergeCell ref="Q203:V203"/>
+    <mergeCell ref="Q204:V204"/>
+    <mergeCell ref="Q205:V205"/>
+    <mergeCell ref="Q206:V206"/>
+    <mergeCell ref="Q165:V165"/>
+    <mergeCell ref="Q182:V182"/>
+    <mergeCell ref="Q190:V190"/>
+    <mergeCell ref="Q167:V167"/>
+    <mergeCell ref="Q168:V168"/>
+    <mergeCell ref="Q169:V169"/>
+    <mergeCell ref="Q170:V170"/>
+    <mergeCell ref="Q171:V171"/>
+    <mergeCell ref="Q172:V172"/>
+    <mergeCell ref="Q173:V173"/>
+    <mergeCell ref="Q189:V189"/>
+    <mergeCell ref="Q183:V183"/>
+    <mergeCell ref="Q184:V184"/>
+    <mergeCell ref="Q185:V185"/>
+    <mergeCell ref="Q186:V186"/>
+    <mergeCell ref="Q187:V187"/>
+    <mergeCell ref="Q188:V188"/>
     <mergeCell ref="C40:D41"/>
     <mergeCell ref="E40:F41"/>
     <mergeCell ref="N6:N7"/>
@@ -6877,255 +7122,6 @@
     <mergeCell ref="Q196:V196"/>
     <mergeCell ref="Q166:V166"/>
     <mergeCell ref="Q174:V174"/>
-    <mergeCell ref="Q165:V165"/>
-    <mergeCell ref="Q182:V182"/>
-    <mergeCell ref="Q190:V190"/>
-    <mergeCell ref="Q167:V167"/>
-    <mergeCell ref="Q168:V168"/>
-    <mergeCell ref="Q169:V169"/>
-    <mergeCell ref="Q170:V170"/>
-    <mergeCell ref="Q171:V171"/>
-    <mergeCell ref="Q172:V172"/>
-    <mergeCell ref="Q173:V173"/>
-    <mergeCell ref="Q189:V189"/>
-    <mergeCell ref="Q183:V183"/>
-    <mergeCell ref="Q184:V184"/>
-    <mergeCell ref="Q185:V185"/>
-    <mergeCell ref="Q186:V186"/>
-    <mergeCell ref="Q187:V187"/>
-    <mergeCell ref="Q188:V188"/>
-    <mergeCell ref="Q210:V210"/>
-    <mergeCell ref="Q198:V198"/>
-    <mergeCell ref="Q199:V199"/>
-    <mergeCell ref="Q200:V200"/>
-    <mergeCell ref="Q201:V201"/>
-    <mergeCell ref="Q202:V202"/>
-    <mergeCell ref="Q203:V203"/>
-    <mergeCell ref="Q204:V204"/>
-    <mergeCell ref="Q205:V205"/>
-    <mergeCell ref="Q206:V206"/>
-    <mergeCell ref="Q164:V164"/>
-    <mergeCell ref="Q147:V147"/>
-    <mergeCell ref="Q155:V155"/>
-    <mergeCell ref="Q156:V156"/>
-    <mergeCell ref="Q148:V148"/>
-    <mergeCell ref="Q149:V149"/>
-    <mergeCell ref="Q150:V150"/>
-    <mergeCell ref="Q151:V151"/>
-    <mergeCell ref="Q152:V152"/>
-    <mergeCell ref="Q153:V153"/>
-    <mergeCell ref="Q154:V154"/>
-    <mergeCell ref="Q163:V163"/>
-    <mergeCell ref="Q139:V139"/>
-    <mergeCell ref="Q140:V140"/>
-    <mergeCell ref="Q141:V141"/>
-    <mergeCell ref="Q142:V142"/>
-    <mergeCell ref="Q143:V143"/>
-    <mergeCell ref="Q144:V144"/>
-    <mergeCell ref="Q145:V145"/>
-    <mergeCell ref="Q146:V146"/>
-    <mergeCell ref="Q129:V129"/>
-    <mergeCell ref="Q137:V137"/>
-    <mergeCell ref="Q138:V138"/>
-    <mergeCell ref="Q157:V157"/>
-    <mergeCell ref="Q158:V158"/>
-    <mergeCell ref="Q159:V159"/>
-    <mergeCell ref="Q160:V160"/>
-    <mergeCell ref="Q161:V161"/>
-    <mergeCell ref="Q162:V162"/>
-    <mergeCell ref="Q130:V130"/>
-    <mergeCell ref="Q131:V131"/>
-    <mergeCell ref="Q132:V132"/>
-    <mergeCell ref="Q133:V133"/>
-    <mergeCell ref="Q134:V134"/>
-    <mergeCell ref="Q135:V135"/>
-    <mergeCell ref="Q136:V136"/>
-    <mergeCell ref="Q112:V112"/>
-    <mergeCell ref="Q113:V113"/>
-    <mergeCell ref="Q114:V114"/>
-    <mergeCell ref="Q115:V115"/>
-    <mergeCell ref="Q116:V116"/>
-    <mergeCell ref="Q117:V117"/>
-    <mergeCell ref="Q118:V118"/>
-    <mergeCell ref="Q119:V119"/>
-    <mergeCell ref="Q120:V120"/>
-    <mergeCell ref="Q121:V121"/>
-    <mergeCell ref="Q122:V122"/>
-    <mergeCell ref="Q123:V123"/>
-    <mergeCell ref="Q124:V124"/>
-    <mergeCell ref="Q125:V125"/>
-    <mergeCell ref="Q126:V126"/>
-    <mergeCell ref="Q127:V127"/>
-    <mergeCell ref="Q128:V128"/>
-    <mergeCell ref="Q110:V110"/>
-    <mergeCell ref="Q111:V111"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q41:V41"/>
-    <mergeCell ref="Q42:V42"/>
-    <mergeCell ref="Q43:V43"/>
-    <mergeCell ref="Q44:V44"/>
-    <mergeCell ref="Q45:V45"/>
-    <mergeCell ref="Q36:V36"/>
-    <mergeCell ref="Q37:V37"/>
-    <mergeCell ref="Q38:V38"/>
-    <mergeCell ref="Q39:V39"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="Q46:V46"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q47:V47"/>
-    <mergeCell ref="Q48:V48"/>
-    <mergeCell ref="Q49:V49"/>
-    <mergeCell ref="Q108:V108"/>
-    <mergeCell ref="Q109:V109"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="Q55:V55"/>
-    <mergeCell ref="Q50:V50"/>
-    <mergeCell ref="Q51:V51"/>
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q52:V52"/>
-    <mergeCell ref="Q53:V53"/>
-    <mergeCell ref="Q54:V54"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="Q34:V34"/>
-    <mergeCell ref="Q35:V35"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="Q61:V61"/>
-    <mergeCell ref="Q62:V62"/>
-    <mergeCell ref="Q63:V63"/>
-    <mergeCell ref="Q64:V64"/>
-    <mergeCell ref="Q65:V65"/>
-    <mergeCell ref="Q56:V56"/>
-    <mergeCell ref="Q57:V57"/>
-    <mergeCell ref="Q58:V58"/>
-    <mergeCell ref="Q59:V59"/>
-    <mergeCell ref="Q60:V60"/>
-    <mergeCell ref="Q71:V71"/>
-    <mergeCell ref="Q72:V72"/>
-    <mergeCell ref="Q73:V73"/>
-    <mergeCell ref="Q74:V74"/>
-    <mergeCell ref="Q75:V75"/>
-    <mergeCell ref="Q66:V66"/>
-    <mergeCell ref="Q67:V67"/>
-    <mergeCell ref="Q68:V68"/>
-    <mergeCell ref="Q69:V69"/>
-    <mergeCell ref="Q70:V70"/>
-    <mergeCell ref="Q81:V81"/>
-    <mergeCell ref="Q82:V82"/>
-    <mergeCell ref="Q83:V83"/>
-    <mergeCell ref="Q84:V84"/>
-    <mergeCell ref="Q85:V85"/>
-    <mergeCell ref="Q76:V76"/>
-    <mergeCell ref="Q77:V77"/>
-    <mergeCell ref="Q78:V78"/>
-    <mergeCell ref="Q79:V79"/>
-    <mergeCell ref="Q80:V80"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Q106:V106"/>
-    <mergeCell ref="Q107:V107"/>
-    <mergeCell ref="Q101:V101"/>
-    <mergeCell ref="Q102:V102"/>
-    <mergeCell ref="Q103:V103"/>
-    <mergeCell ref="Q104:V104"/>
-    <mergeCell ref="Q105:V105"/>
-    <mergeCell ref="Q96:V96"/>
-    <mergeCell ref="Q97:V97"/>
-    <mergeCell ref="Q98:V98"/>
-    <mergeCell ref="Q99:V99"/>
-    <mergeCell ref="Q100:V100"/>
-    <mergeCell ref="Q91:V91"/>
-    <mergeCell ref="Q92:V92"/>
-    <mergeCell ref="Q93:V93"/>
-    <mergeCell ref="Q94:V94"/>
-    <mergeCell ref="Q95:V95"/>
-    <mergeCell ref="Q86:V86"/>
-    <mergeCell ref="Q87:V87"/>
-    <mergeCell ref="Q88:V88"/>
-    <mergeCell ref="Q89:V89"/>
-    <mergeCell ref="Q90:V90"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="360" r:id="rId1"/>
@@ -7251,22 +7247,22 @@
         <v>5</v>
       </c>
       <c r="N2" s="53"/>
-      <c r="O2" s="343" t="s">
+      <c r="O2" s="285" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="344"/>
-      <c r="Q2" s="345"/>
-      <c r="R2" s="349" t="s">
+      <c r="P2" s="286"/>
+      <c r="Q2" s="287"/>
+      <c r="R2" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="335" t="s">
+      <c r="S2" s="310" t="s">
         <v>16</v>
       </c>
       <c r="T2" s="53"/>
       <c r="U2" s="53"/>
       <c r="V2" s="53"/>
-      <c r="W2" s="328"/>
-      <c r="X2" s="328"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -7301,31 +7297,31 @@
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="352">
+      <c r="C3" s="294">
         <f>НалБанки!C3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="338">
+      <c r="D3" s="280">
         <f>НалБанки!D3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="338">
+      <c r="E3" s="280">
         <f>НалБанки!E3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="338">
+      <c r="F3" s="280">
         <f>НалБанки!F3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="338">
+      <c r="G3" s="280">
         <f>НалБанки!G3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="338">
+      <c r="H3" s="280">
         <f>НалБанки!H3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="340">
+      <c r="I3" s="282">
         <f>НалБанки!I3</f>
         <v>40</v>
       </c>
@@ -7337,25 +7333,25 @@
         <f>ROUNDUP(((SUM(D3:F4,H3:I4)+(SUM(G3:G4)*0.75))*L3+((SUM(D3:F4,I3)+SUM(G3:G4)*0.75)*20%+(SUM(D3:F4,H3:I4)+SUM(G3:G4)*0.75)))*M3,0)</f>
         <v>167</v>
       </c>
-      <c r="L3" s="329">
+      <c r="L3" s="304">
         <f>8/92*1.2</f>
         <v>0.10434782608695652</v>
       </c>
-      <c r="M3" s="331">
+      <c r="M3" s="306">
         <f>НалБанки!J3</f>
         <v>3.2</v>
       </c>
       <c r="N3" s="53"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="347"/>
-      <c r="Q3" s="348"/>
-      <c r="R3" s="350"/>
-      <c r="S3" s="336"/>
+      <c r="O3" s="288"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="290"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="311"/>
       <c r="T3" s="53"/>
       <c r="U3" s="53"/>
       <c r="V3" s="53"/>
-      <c r="W3" s="328"/>
-      <c r="X3" s="328"/>
+      <c r="W3" s="303"/>
+      <c r="X3" s="303"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -7390,13 +7386,13 @@
     <row r="4" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="353"/>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354"/>
-      <c r="F4" s="354"/>
-      <c r="G4" s="354"/>
-      <c r="H4" s="339"/>
-      <c r="I4" s="341"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="50">
         <f>J3-(J3-H3*M3)/6</f>
         <v>139.16666666666666</v>
@@ -7405,8 +7401,8 @@
         <f>K3-(K3-H3*M3)/6</f>
         <v>139.16666666666666</v>
       </c>
-      <c r="L4" s="330"/>
-      <c r="M4" s="332"/>
+      <c r="L4" s="305"/>
+      <c r="M4" s="307"/>
       <c r="N4" s="53"/>
       <c r="O4" s="15" t="s">
         <v>7</v>
@@ -7417,8 +7413,8 @@
       <c r="Q4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="351"/>
-      <c r="S4" s="337"/>
+      <c r="R4" s="293"/>
+      <c r="S4" s="312"/>
       <c r="T4" s="53"/>
       <c r="U4" s="53"/>
       <c r="V4" s="62" t="s">
@@ -7460,15 +7456,15 @@
     <row r="5" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="355">
+      <c r="C5" s="297">
         <f ca="1">TODAY()</f>
-        <v>45188</v>
-      </c>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
+        <v>45364</v>
+      </c>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="298"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
@@ -7535,10 +7531,10 @@
     <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="342"/>
-      <c r="D6" s="342"/>
-      <c r="E6" s="342"/>
-      <c r="F6" s="342"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
       <c r="G6" s="9"/>
       <c r="H6" s="29"/>
       <c r="I6" s="10"/>
@@ -7679,17 +7675,17 @@
     <row r="8" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="300" t="s">
+      <c r="C8" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="301"/>
-      <c r="E8" s="302"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="315"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="306" t="s">
+      <c r="G8" s="319" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="307"/>
-      <c r="I8" s="308"/>
+      <c r="H8" s="320"/>
+      <c r="I8" s="321"/>
       <c r="J8" s="54"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
@@ -7755,13 +7751,13 @@
     <row r="9" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="304"/>
-      <c r="E9" s="305"/>
+      <c r="C9" s="316"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="318"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="310"/>
-      <c r="I9" s="311"/>
+      <c r="G9" s="322"/>
+      <c r="H9" s="323"/>
+      <c r="I9" s="324"/>
       <c r="J9" s="54"/>
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
@@ -7827,23 +7823,23 @@
     <row r="10" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="312" t="s">
+      <c r="C10" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="314" t="s">
+      <c r="D10" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="316" t="s">
+      <c r="E10" s="329" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="318" t="s">
+      <c r="G10" s="331" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="320" t="s">
+      <c r="H10" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="322" t="s">
+      <c r="I10" s="335" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="54"/>
@@ -7895,13 +7891,13 @@
     <row r="11" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="313"/>
-      <c r="D11" s="315"/>
-      <c r="E11" s="317"/>
+      <c r="C11" s="326"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="330"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="319"/>
-      <c r="H11" s="321"/>
-      <c r="I11" s="323"/>
+      <c r="G11" s="332"/>
+      <c r="H11" s="334"/>
+      <c r="I11" s="336"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
@@ -7981,14 +7977,14 @@
       <c r="N12" s="53"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="R12" s="324" t="s">
+      <c r="R12" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="325"/>
-      <c r="T12" s="333" t="s">
+      <c r="S12" s="300"/>
+      <c r="T12" s="308" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="334"/>
+      <c r="U12" s="309"/>
       <c r="V12" s="53"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -8056,8 +8052,8 @@
       <c r="N13" s="53"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="R13" s="326"/>
-      <c r="S13" s="327"/>
+      <c r="R13" s="301"/>
+      <c r="S13" s="302"/>
       <c r="T13" s="56" t="s">
         <v>21</v>
       </c>
@@ -8129,23 +8125,23 @@
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
       <c r="N14" s="53"/>
-      <c r="O14" s="288" t="s">
+      <c r="O14" s="343" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="289"/>
-      <c r="Q14" s="292">
+      <c r="P14" s="344"/>
+      <c r="Q14" s="347">
         <v>0.02</v>
       </c>
-      <c r="R14" s="298">
+      <c r="R14" s="353">
         <f>IF(R12="ЖЕЛ",J4*Q14,K4*Q14)</f>
         <v>2.7833333333333332</v>
       </c>
-      <c r="S14" s="299"/>
-      <c r="T14" s="282">
+      <c r="S14" s="354"/>
+      <c r="T14" s="337">
         <f>J4</f>
         <v>139.16666666666666</v>
       </c>
-      <c r="U14" s="285">
+      <c r="U14" s="340">
         <f>K4</f>
         <v>139.16666666666666</v>
       </c>
@@ -8214,13 +8210,13 @@
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
       <c r="N15" s="36"/>
-      <c r="O15" s="290"/>
-      <c r="P15" s="291"/>
-      <c r="Q15" s="293"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="297"/>
-      <c r="T15" s="283"/>
-      <c r="U15" s="286"/>
+      <c r="O15" s="345"/>
+      <c r="P15" s="346"/>
+      <c r="Q15" s="348"/>
+      <c r="R15" s="351"/>
+      <c r="S15" s="352"/>
+      <c r="T15" s="338"/>
+      <c r="U15" s="341"/>
       <c r="V15" s="9"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -8286,20 +8282,20 @@
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="288" t="s">
+      <c r="O16" s="343" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="289"/>
-      <c r="Q16" s="292">
+      <c r="P16" s="344"/>
+      <c r="Q16" s="347">
         <v>0</v>
       </c>
-      <c r="R16" s="294">
+      <c r="R16" s="349">
         <f>IF(R12="ЖЕЛ",J4*Q16,K4*Q16)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="295"/>
-      <c r="T16" s="283"/>
-      <c r="U16" s="286"/>
+      <c r="S16" s="350"/>
+      <c r="T16" s="338"/>
+      <c r="U16" s="341"/>
       <c r="V16" s="9"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
@@ -8349,13 +8345,13 @@
       <c r="L17" s="43"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="290"/>
-      <c r="P17" s="291"/>
-      <c r="Q17" s="293"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="297"/>
-      <c r="T17" s="284"/>
-      <c r="U17" s="287"/>
+      <c r="O17" s="345"/>
+      <c r="P17" s="346"/>
+      <c r="Q17" s="348"/>
+      <c r="R17" s="351"/>
+      <c r="S17" s="352"/>
+      <c r="T17" s="339"/>
+      <c r="U17" s="342"/>
       <c r="V17" s="9"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
@@ -15476,6 +15472,29 @@
     <protectedRange sqref="L3:L4 J3:K3" name="Диапазон1_1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="34">
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:S15"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S2:S4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C6:F6"/>
@@ -15487,29 +15506,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:S17"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:S15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">

--- a/out/production/MScanner/file/MScanner.xlsx
+++ b/out/production/MScanner/file/MScanner.xlsx
@@ -2145,60 +2145,60 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="26" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="1" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2213,16 +2213,12 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2235,162 +2231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2497,6 +2337,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="19" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -2505,6 +2353,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="19" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -2513,6 +2369,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2565,140 +2429,372 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2757,175 +2853,79 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="26" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3345,7 +3345,7 @@
   <dimension ref="A1:BT210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="C3:H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3419,10 +3419,10 @@
       <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="201" t="s">
+      <c r="K2" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="202"/>
+      <c r="L2" s="238"/>
       <c r="M2" s="107" t="s">
         <v>31</v>
       </c>
@@ -3430,18 +3430,18 @@
       <c r="O2" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="195" t="s">
+      <c r="Q2" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="197"/>
-      <c r="W2" s="265" t="s">
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="267" t="s">
+      <c r="X2" s="172" t="s">
         <v>25</v>
       </c>
       <c r="Y2" s="105"/>
@@ -3472,26 +3472,26 @@
       <c r="I3" s="104">
         <v>40</v>
       </c>
-      <c r="J3" s="355">
+      <c r="J3" s="160">
         <v>3.2</v>
       </c>
-      <c r="K3" s="203"/>
-      <c r="L3" s="204"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="240"/>
       <c r="M3" s="109">
-        <v>45188</v>
+        <v>45490</v>
       </c>
       <c r="N3" s="110"/>
       <c r="O3" s="151">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="200"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="268"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="173"/>
       <c r="Y3" s="105"/>
       <c r="Z3" s="111"/>
       <c r="AA3" s="105"/>
@@ -3499,34 +3499,34 @@
     <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="211">
+      <c r="C4" s="250">
         <f ca="1">TODAY()</f>
-        <v>45364</v>
-      </c>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="205">
-        <f>ROUNDUP((SUM(C3:I3)*O3 +SUM(C3:I3) )*J3,0)</f>
-        <v>164</v>
-      </c>
-      <c r="J4" s="208">
-        <f>ROUNDUP((((SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)*0.75))*O3)+(SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)*0.75)))*J3,0)</f>
-        <v>164</v>
+        <v>45490</v>
+      </c>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="241">
+        <f>ROUNDUP((SUM(C3:I3)*O3 +SUM(C3:I3) )*J3,-1)</f>
+        <v>170</v>
+      </c>
+      <c r="J4" s="244">
+        <f>ROUNDUP((((SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)*0.75))*O3)+(SUM(D3:F3)+SUM(H3:I3)+(SUM(G3)*0.75)))*J3,-1)</f>
+        <v>170</v>
       </c>
       <c r="K4" s="112"/>
       <c r="L4" s="112"/>
       <c r="M4" s="113"/>
       <c r="N4" s="113"/>
       <c r="O4" s="113"/>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="187"/>
-      <c r="U4" s="187"/>
-      <c r="V4" s="188"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="248"/>
+      <c r="U4" s="248"/>
+      <c r="V4" s="249"/>
       <c r="W4" s="114"/>
       <c r="X4" s="115"/>
       <c r="Y4" s="1"/>
@@ -3535,16 +3535,16 @@
     <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="209"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="245"/>
       <c r="K5" s="112"/>
       <c r="L5" s="112"/>
       <c r="N5" s="116" t="s">
@@ -3567,21 +3567,21 @@
     <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="210"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="246"/>
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
-      <c r="N6" s="168">
-        <v>0.184</v>
-      </c>
-      <c r="O6" s="220">
-        <v>0.27900000000000003</v>
+      <c r="N6" s="279">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="O6" s="259">
+        <v>0.19989999999999999</v>
       </c>
       <c r="Q6" s="174"/>
       <c r="R6" s="175"/>
@@ -3607,8 +3607,8 @@
       <c r="J7" s="103"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="221"/>
+      <c r="N7" s="280"/>
+      <c r="O7" s="260"/>
       <c r="Q7" s="174"/>
       <c r="R7" s="175"/>
       <c r="S7" s="175"/>
@@ -3624,24 +3624,24 @@
     <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="234" t="s">
+      <c r="C8" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="235"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="193" t="s">
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="193" t="s">
+      <c r="G8" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="240" t="s">
+      <c r="H8" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="242"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="202"/>
       <c r="M8" s="121"/>
       <c r="N8" s="122" t="s">
         <v>36</v>
@@ -3664,29 +3664,29 @@
     <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="237"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="205"/>
       <c r="M9" s="121"/>
-      <c r="N9" s="232">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="O9" s="232">
-        <v>0.22</v>
-      </c>
-      <c r="Q9" s="183"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="185"/>
+      <c r="N9" s="192">
+        <v>0.17</v>
+      </c>
+      <c r="O9" s="192">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="262"/>
+      <c r="T9" s="262"/>
+      <c r="U9" s="262"/>
+      <c r="V9" s="263"/>
       <c r="W9" s="118"/>
       <c r="X9" s="119"/>
       <c r="Y9" s="105"/>
@@ -3705,22 +3705,22 @@
       <c r="E10" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
       <c r="H10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="246" t="s">
+      <c r="I10" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="247"/>
-      <c r="K10" s="189" t="s">
+      <c r="J10" s="207"/>
+      <c r="K10" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="190"/>
+      <c r="L10" s="265"/>
       <c r="M10" s="121"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
       <c r="Q10" s="174"/>
       <c r="R10" s="175"/>
       <c r="S10" s="175"/>
@@ -3740,34 +3740,34 @@
         <v>38</v>
       </c>
       <c r="D11" s="124">
-        <f>ROUNDUP($N$20*1.016,0)</f>
-        <v>167</v>
+        <f>ROUNDUP($N$20*1.016,-1)</f>
+        <v>180</v>
       </c>
       <c r="E11" s="125">
-        <f>ROUNDUP($O$20*1.016,0)</f>
-        <v>167</v>
+        <f>ROUNDUP($O$20*1.016,-1)</f>
+        <v>180</v>
       </c>
       <c r="F11" s="65">
         <f>ROUNDUP(PMT($N$9/12,3,-D11),0)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G11" s="77">
         <f>ROUNDUP(PMT($N$9/12,3,-E11),0)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="250">
+      <c r="I11" s="214">
         <f>ROUNDUP(PMT($O$9/12,6,-$N$20),0)</f>
-        <v>30</v>
-      </c>
-      <c r="J11" s="251"/>
-      <c r="K11" s="172">
+        <v>31</v>
+      </c>
+      <c r="J11" s="215"/>
+      <c r="K11" s="208">
         <f>ROUNDUP(PMT($O$9/12,6,-$O$20),0)</f>
-        <v>30</v>
-      </c>
-      <c r="L11" s="173"/>
+        <v>31</v>
+      </c>
+      <c r="L11" s="209"/>
       <c r="M11" s="121"/>
       <c r="N11" s="126" t="s">
         <v>54</v>
@@ -3795,37 +3795,37 @@
         <v>9</v>
       </c>
       <c r="D12" s="124">
-        <f>ROUNDUP($N$20*1.021,0)</f>
-        <v>168</v>
+        <f>ROUNDUP($N$20*1.021,-1)</f>
+        <v>180</v>
       </c>
       <c r="E12" s="125">
-        <f>ROUNDUP($O$20*1.021,0)</f>
-        <v>168</v>
+        <f>ROUNDUP($O$20*1.021,-1)</f>
+        <v>180</v>
       </c>
       <c r="F12" s="67">
         <f>ROUNDUP(PMT($N$9/12,6,-D12),0)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="78">
         <f>ROUNDUP(PMT($N$9/12,6,-E12),0)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="170">
+      <c r="I12" s="216">
         <f>ROUNDUP(PMT($O$9/12,12,-$N$20),0)</f>
         <v>16</v>
       </c>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172">
+      <c r="J12" s="217"/>
+      <c r="K12" s="208">
         <f>ROUNDUP(PMT($O$9/12,12,-$O$20),0)</f>
         <v>16</v>
       </c>
-      <c r="L12" s="173"/>
+      <c r="L12" s="209"/>
       <c r="M12" s="121"/>
       <c r="N12" s="125">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O12" s="124">
         <v>0</v>
@@ -3850,37 +3850,37 @@
         <v>39</v>
       </c>
       <c r="D13" s="124">
-        <f>ROUNDUP($N$20*1.031,0)</f>
-        <v>170</v>
+        <f>ROUNDUP($N$20*1.031,-1)</f>
+        <v>180</v>
       </c>
       <c r="E13" s="125">
-        <f>ROUNDUP($O$20*1.031,0)</f>
-        <v>170</v>
+        <f>ROUNDUP($O$20*1.031,-1)</f>
+        <v>180</v>
       </c>
       <c r="F13" s="67">
         <f>ROUNDUP(PMT($N$9/12,10,-D13),0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="78">
         <f>ROUNDUP(PMT($N$9/12,10,-E13),0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="170">
+      <c r="I13" s="216">
         <f>ROUNDUP(PMT($O$9/12,18,-$N$20),0)</f>
-        <v>11</v>
-      </c>
-      <c r="J13" s="171"/>
-      <c r="K13" s="172">
+        <v>12</v>
+      </c>
+      <c r="J13" s="217"/>
+      <c r="K13" s="208">
         <f>ROUNDUP(PMT($O$9/12,18,-$O$20),0)</f>
-        <v>11</v>
-      </c>
-      <c r="L13" s="173"/>
+        <v>12</v>
+      </c>
+      <c r="L13" s="209"/>
       <c r="M13" s="121"/>
       <c r="N13" s="125">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O13" s="129">
         <v>0</v>
@@ -3905,37 +3905,37 @@
         <v>10</v>
       </c>
       <c r="D14" s="124">
-        <f>ROUNDUP($N$20*1.037,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.037,-1)</f>
+        <v>180</v>
       </c>
       <c r="E14" s="125">
-        <f>ROUNDUP($O$20*1.037,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.037,-1)</f>
+        <v>180</v>
       </c>
       <c r="F14" s="67">
         <f>ROUNDUP(PMT($N$9/12,12,-D14),0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="78">
         <f>ROUNDUP(PMT($N$9/12,12,-E14),0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="170">
+      <c r="I14" s="216">
         <f>ROUNDUP(PMT($O$9/12,24,-$N$20),0)</f>
         <v>9</v>
       </c>
-      <c r="J14" s="171"/>
-      <c r="K14" s="172">
+      <c r="J14" s="217"/>
+      <c r="K14" s="208">
         <f>ROUNDUP(PMT($O$9/12,24,-$O$20),0)</f>
         <v>9</v>
       </c>
-      <c r="L14" s="173"/>
+      <c r="L14" s="209"/>
       <c r="M14" s="121"/>
       <c r="N14" s="125">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O14" s="129">
         <v>0</v>
@@ -3960,37 +3960,37 @@
         <v>40</v>
       </c>
       <c r="D15" s="124">
-        <f>ROUNDUP($N$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="E15" s="125">
-        <f>ROUNDUP($O$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="F15" s="67">
         <f>ROUNDUP(PMT($N$9/12,15,-D15),0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="78">
         <f>ROUNDUP(PMT($N$9/12,15,-E15),0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="170">
+      <c r="I15" s="216">
         <f>ROUNDUP(PMT($O$9/12,36,-$N$20),0)</f>
         <v>7</v>
       </c>
-      <c r="J15" s="171"/>
-      <c r="K15" s="172">
+      <c r="J15" s="217"/>
+      <c r="K15" s="208">
         <f>ROUNDUP(PMT($O$9/12,36,-$O$20),0)</f>
         <v>7</v>
       </c>
-      <c r="L15" s="173"/>
+      <c r="L15" s="209"/>
       <c r="M15" s="121"/>
       <c r="N15" s="125">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O15" s="129">
         <v>0</v>
@@ -4015,37 +4015,37 @@
         <v>11</v>
       </c>
       <c r="D16" s="124">
-        <f>ROUNDUP($N$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="E16" s="125">
-        <f>ROUNDUP($O$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="F16" s="67">
         <f>ROUNDUP(PMT($N$9/12,18,-D16),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="78">
         <f>ROUNDUP(PMT($N$9/12,18,-E16),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="263">
+      <c r="I16" s="229">
         <f>ROUNDUP(PMT($O$9/12,48,-$N$20),0)</f>
         <v>6</v>
       </c>
-      <c r="J16" s="264"/>
-      <c r="K16" s="248">
+      <c r="J16" s="230"/>
+      <c r="K16" s="210">
         <f>ROUNDUP(PMT($O$9/12,48,-$O$20),0)</f>
         <v>6</v>
       </c>
-      <c r="L16" s="249"/>
+      <c r="L16" s="211"/>
       <c r="M16" s="121"/>
-      <c r="N16" s="132">
-        <v>1.6</v>
+      <c r="N16" s="125">
+        <v>0</v>
       </c>
       <c r="O16" s="129">
         <v>0</v>
@@ -4070,12 +4070,12 @@
         <v>12</v>
       </c>
       <c r="D17" s="124">
-        <f>ROUNDUP($N$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="E17" s="125">
-        <f>ROUNDUP($O$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="F17" s="67">
         <f>ROUNDUP(PMT($N$9/12,24,-D17),0)</f>
@@ -4085,15 +4085,15 @@
         <f>ROUNDUP(PMT($N$9/12,24,-E17),0)</f>
         <v>9</v>
       </c>
-      <c r="H17" s="258" t="s">
+      <c r="H17" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="259"/>
-      <c r="J17" s="260"/>
-      <c r="K17" s="193" t="s">
+      <c r="I17" s="225"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="193" t="s">
+      <c r="L17" s="212" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="121"/>
@@ -4121,12 +4121,12 @@
         <v>13</v>
       </c>
       <c r="D18" s="124">
-        <f>ROUNDUP($N$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="E18" s="125">
-        <f>ROUNDUP($O$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="F18" s="67">
         <f>ROUNDUP(PMT($N$9/12,36,-D18),0)</f>
@@ -4145,13 +4145,13 @@
       <c r="J18" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
       <c r="M18" s="121"/>
-      <c r="N18" s="230" t="s">
+      <c r="N18" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="231"/>
+      <c r="O18" s="191"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="174"/>
       <c r="R18" s="175"/>
@@ -4170,39 +4170,39 @@
         <v>32</v>
       </c>
       <c r="D19" s="134">
-        <f>ROUNDUP($N$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="E19" s="132">
-        <f>ROUNDUP($O$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="F19" s="83">
         <f>ROUNDUP(PMT($N$9/12,48,-D19),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="84">
         <f>ROUNDUP(PMT($N$9/12,48,-E19),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="91">
-        <f>ROUNDUP($N$20/100*(100+O22),0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20/100*(100+O22),-1)</f>
+        <v>180</v>
       </c>
       <c r="J19" s="91">
-        <f>ROUNDUP($O$20/100*(100+O22),0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20/100*(100+O22),-1)</f>
+        <v>180</v>
       </c>
       <c r="K19" s="125">
         <f>ROUNDUP(I19/4,0)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L19" s="137">
         <f>ROUNDUP(J19/4,0)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M19" s="121"/>
       <c r="N19" s="85" t="s">
@@ -4225,44 +4225,44 @@
     <row r="20" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="255" t="s">
+      <c r="C20" s="221" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="256"/>
-      <c r="E20" s="257"/>
-      <c r="F20" s="261" t="s">
+      <c r="D20" s="222"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="261" t="s">
+      <c r="G20" s="227" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="68" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="71">
-        <f>ROUNDUP($N$20/100*(100+O23),0)</f>
-        <v>173</v>
+        <f>ROUNDUP($N$20/100*(100+O23),-1)</f>
+        <v>180</v>
       </c>
       <c r="J20" s="71">
-        <f>ROUNDUP($O$20/100*(100+O23),0)</f>
-        <v>173</v>
+        <f>ROUNDUP($O$20/100*(100+O23),-1)</f>
+        <v>180</v>
       </c>
       <c r="K20" s="138">
         <f>ROUNDUP(I20/5,0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L20" s="133">
         <f>ROUNDUP(J20/5,0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M20" s="121"/>
       <c r="N20" s="86">
         <f>I4-E37</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O20" s="86">
         <f>J4-E37</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="174"/>
@@ -4287,17 +4287,17 @@
       <c r="E21" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="262"/>
-      <c r="G21" s="262"/>
-      <c r="H21" s="252" t="s">
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="218" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="253"/>
-      <c r="J21" s="254"/>
-      <c r="K21" s="191" t="s">
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="191" t="s">
+      <c r="L21" s="266" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="121"/>
@@ -4325,20 +4325,20 @@
         <v>9</v>
       </c>
       <c r="D22" s="91">
-        <f>ROUNDUP($N$20/100*(100+N12),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($N$20/100*(100+N12),-1)</f>
+        <v>170</v>
       </c>
       <c r="E22" s="91">
-        <f>ROUNDUP($O$20/100*(100+N12),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($O$20/100*(100+N12),-1)</f>
+        <v>170</v>
       </c>
       <c r="F22" s="72" t="str">
         <f>"~"&amp;ROUNDUP(PMT($N$6/12,6,-D22),0)</f>
-        <v>~30</v>
+        <v>~31</v>
       </c>
       <c r="G22" s="72" t="str">
         <f>"~"&amp;ROUNDUP(PMT($N$6/12,6,-E22),0)</f>
-        <v>~30</v>
+        <v>~31</v>
       </c>
       <c r="H22" s="99" t="s">
         <v>7</v>
@@ -4349,10 +4349,10 @@
       <c r="J22" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
+      <c r="K22" s="267"/>
+      <c r="L22" s="267"/>
       <c r="M22" s="121"/>
-      <c r="N22" s="274">
+      <c r="N22" s="166">
         <v>0.14599999999999999</v>
       </c>
       <c r="O22" s="124">
@@ -4376,12 +4376,12 @@
         <v>10</v>
       </c>
       <c r="D23" s="70">
-        <f>ROUNDUP($N$20/100*(100+N13),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($N$20/100*(100+N13),-1)</f>
+        <v>170</v>
       </c>
       <c r="E23" s="70">
-        <f>ROUNDUP($O$20/100*(100+N13),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($O$20/100*(100+N13),-1)</f>
+        <v>170</v>
       </c>
       <c r="F23" s="73" t="str">
         <f>"~"&amp;ROUNDUP(PMT($N$6/12,12,-D23),0)</f>
@@ -4395,23 +4395,23 @@
         <v>9</v>
       </c>
       <c r="I23" s="91">
-        <f t="shared" ref="I23:I28" si="0">ROUNDUP($N$20/100*(100+O12),0)</f>
-        <v>164</v>
+        <f t="shared" ref="I23:I28" si="0">ROUNDUP($N$20/100*(100+O12),-1)</f>
+        <v>170</v>
       </c>
       <c r="J23" s="91">
-        <f t="shared" ref="J23:J28" si="1">ROUNDUP($O$20/100*(100+O12),0)</f>
-        <v>164</v>
+        <f t="shared" ref="J23:J28" si="1">ROUNDUP($O$20/100*(100+O12),-1)</f>
+        <v>170</v>
       </c>
       <c r="K23" s="72" t="str">
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,6,-I23),0)</f>
-        <v>~30</v>
+        <v>~31</v>
       </c>
       <c r="L23" s="72" t="str">
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,6,-J23),0)</f>
-        <v>~30</v>
+        <v>~31</v>
       </c>
       <c r="M23" s="121"/>
-      <c r="N23" s="275"/>
+      <c r="N23" s="167"/>
       <c r="O23" s="133">
         <v>5.3</v>
       </c>
@@ -4433,31 +4433,31 @@
         <v>11</v>
       </c>
       <c r="D24" s="70">
-        <f>ROUNDUP($N$20/100*(100+N14),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($N$20/100*(100+N14),-1)</f>
+        <v>170</v>
       </c>
       <c r="E24" s="70">
-        <f>ROUNDUP($O$20/100*(100+N14),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($O$20/100*(100+N14),-1)</f>
+        <v>170</v>
       </c>
       <c r="F24" s="73" t="str">
         <f>"~"&amp;ROUNDUP(PMT($N$6/12,18,-D24),0)</f>
-        <v>~11</v>
+        <v>~12</v>
       </c>
       <c r="G24" s="79" t="str">
         <f>"~"&amp;ROUNDUP(PMT($N$6/12,18,-E24),0)</f>
-        <v>~11</v>
+        <v>~12</v>
       </c>
       <c r="H24" s="69" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="70">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J24" s="70">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K24" s="73" t="str">
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,12,-I24),0)</f>
@@ -4471,12 +4471,12 @@
       <c r="N24" s="94"/>
       <c r="O24" s="121"/>
       <c r="P24" s="136"/>
-      <c r="Q24" s="183"/>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="184"/>
-      <c r="V24" s="185"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="262"/>
+      <c r="T24" s="262"/>
+      <c r="U24" s="262"/>
+      <c r="V24" s="263"/>
       <c r="W24" s="118"/>
       <c r="X24" s="119"/>
       <c r="Z24" s="105"/>
@@ -4488,12 +4488,12 @@
         <v>12</v>
       </c>
       <c r="D25" s="70">
-        <f>ROUNDUP($N$20/100*(100+N15),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($N$20/100*(100+N15),-1)</f>
+        <v>170</v>
       </c>
       <c r="E25" s="70">
-        <f>ROUNDUP($O$20/100*(100+N15),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($O$20/100*(100+N15),-1)</f>
+        <v>170</v>
       </c>
       <c r="F25" s="73" t="str">
         <f>"~"&amp;ROUNDUP(PMT($N$6/12,24,-D25),0)</f>
@@ -4508,11 +4508,11 @@
       </c>
       <c r="I25" s="70">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J25" s="70">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K25" s="73" t="str">
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,18,-I25),0)</f>
@@ -4542,12 +4542,12 @@
         <v>13</v>
       </c>
       <c r="D26" s="70">
-        <f>ROUNDUP($N$20/100*(100+N16),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($N$20/100*(100+N16),-1)</f>
+        <v>170</v>
       </c>
       <c r="E26" s="70">
-        <f>ROUNDUP($O$20/100*(100+N16),0)</f>
-        <v>167</v>
+        <f>ROUNDUP($O$20/100*(100+N16),-1)</f>
+        <v>170</v>
       </c>
       <c r="F26" s="73" t="str">
         <f>"~"&amp;ROUNDUP(PMT($N$6/12,36,-D26),0)</f>
@@ -4562,11 +4562,11 @@
       </c>
       <c r="I26" s="70">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J26" s="70">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K26" s="73" t="str">
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,24,-I26),0)</f>
@@ -4592,23 +4592,23 @@
     <row r="27" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="269" t="s">
+      <c r="C27" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="270"/>
-      <c r="E27" s="270"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="271"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="163"/>
       <c r="H27" s="69" t="s">
         <v>13</v>
       </c>
       <c r="I27" s="70">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J27" s="70">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K27" s="73" t="str">
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,36,-I27),0)</f>
@@ -4637,32 +4637,32 @@
       <c r="C28" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="278" t="s">
+      <c r="D28" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="279"/>
-      <c r="F28" s="278" t="s">
+      <c r="E28" s="171"/>
+      <c r="F28" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="279"/>
+      <c r="G28" s="171"/>
       <c r="H28" s="75" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="71">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J28" s="71">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K28" s="74" t="str">
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,60,-I28),0)</f>
-        <v>~6</v>
+        <v>~5</v>
       </c>
       <c r="L28" s="74" t="str">
         <f>"~"&amp;ROUNDUP(PMT($O$6/12,60,-J28),0)</f>
-        <v>~6</v>
+        <v>~5</v>
       </c>
       <c r="M28" s="121"/>
       <c r="N28" s="121"/>
@@ -4683,25 +4683,25 @@
       <c r="C29" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="276">
+      <c r="D29" s="168">
         <f>ROUNDUP(PMT($N$22/12,13,-$N$20),0)</f>
-        <v>14</v>
-      </c>
-      <c r="E29" s="277"/>
-      <c r="F29" s="276">
+        <v>15</v>
+      </c>
+      <c r="E29" s="169"/>
+      <c r="F29" s="168">
         <f>ROUNDUP(PMT($N$22/12,13,-$O$20),0)</f>
-        <v>14</v>
-      </c>
-      <c r="G29" s="277"/>
-      <c r="H29" s="269" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="169"/>
+      <c r="H29" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="270"/>
-      <c r="J29" s="271"/>
-      <c r="K29" s="272" t="s">
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="272" t="s">
+      <c r="L29" s="164" t="s">
         <v>16</v>
       </c>
       <c r="M29" s="139"/>
@@ -4724,16 +4724,16 @@
       <c r="C30" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="276">
+      <c r="D30" s="168">
         <f>ROUNDUP(PMT($N$22/12,15,-$N$20),0)</f>
         <v>13</v>
       </c>
-      <c r="E30" s="277"/>
-      <c r="F30" s="276">
+      <c r="E30" s="169"/>
+      <c r="F30" s="168">
         <f>ROUNDUP(PMT($N$22/12,15,-$O$20),0)</f>
         <v>13</v>
       </c>
-      <c r="G30" s="277"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="157" t="s">
         <v>7</v>
       </c>
@@ -4743,8 +4743,8 @@
       <c r="J30" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="273"/>
-      <c r="L30" s="273"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
       <c r="M30" s="139"/>
       <c r="N30" s="139"/>
       <c r="O30" s="139"/>
@@ -4765,26 +4765,26 @@
       <c r="C31" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="276">
+      <c r="D31" s="168">
         <f>ROUNDUP(PMT($N$22/12,18,-$N$20),0)</f>
         <v>11</v>
       </c>
-      <c r="E31" s="277"/>
-      <c r="F31" s="276">
+      <c r="E31" s="169"/>
+      <c r="F31" s="168">
         <f>ROUNDUP(PMT($N$22/12,18,-$O$20),0)</f>
         <v>11</v>
       </c>
-      <c r="G31" s="277"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="155" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="154">
-        <f>ROUNDUP($N$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="J31" s="154">
-        <f>ROUNDUP($O$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="K31" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,24,-I31),0)</f>
@@ -4814,34 +4814,34 @@
       <c r="C32" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="276">
+      <c r="D32" s="168">
         <f>ROUNDUP(PMT($N$22/12,24,-$N$20),0)</f>
-        <v>8</v>
-      </c>
-      <c r="E32" s="277"/>
-      <c r="F32" s="276">
+        <v>9</v>
+      </c>
+      <c r="E32" s="169"/>
+      <c r="F32" s="168">
         <f>ROUNDUP(PMT($N$22/12,24,-$O$20),0)</f>
-        <v>8</v>
-      </c>
-      <c r="G32" s="277"/>
+        <v>9</v>
+      </c>
+      <c r="G32" s="169"/>
       <c r="H32" s="152" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="154">
-        <f t="shared" ref="I32:I34" si="2">ROUNDUP($N$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="J32" s="154">
-        <f t="shared" ref="J32:J34" si="3">ROUNDUP($O$20*1.042,0)</f>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="K32" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,36,-I32),0)</f>
-        <v>&lt; 6</v>
+        <v>&lt; 7</v>
       </c>
       <c r="L32" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,36,-J32),0)</f>
-        <v>&lt; 6</v>
+        <v>&lt; 7</v>
       </c>
       <c r="M32" s="139"/>
       <c r="N32" s="139"/>
@@ -4863,26 +4863,26 @@
       <c r="C33" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="276">
+      <c r="D33" s="168">
         <f>ROUNDUP(PMT($N$22/12,36,-$N$20),0)</f>
         <v>6</v>
       </c>
-      <c r="E33" s="277"/>
-      <c r="F33" s="276">
+      <c r="E33" s="169"/>
+      <c r="F33" s="168">
         <f>ROUNDUP(PMT($N$22/12,36,-$O$20),0)</f>
         <v>6</v>
       </c>
-      <c r="G33" s="277"/>
+      <c r="G33" s="169"/>
       <c r="H33" s="152" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="154">
-        <f t="shared" si="2"/>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="J33" s="154">
-        <f t="shared" si="3"/>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="K33" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,48,-I33),0)</f>
@@ -4912,26 +4912,26 @@
       <c r="C34" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="276">
+      <c r="D34" s="168">
         <f>ROUNDUP(PMT($N$22/12,48,-$N$20),0)</f>
         <v>5</v>
       </c>
-      <c r="E34" s="277"/>
-      <c r="F34" s="276">
+      <c r="E34" s="169"/>
+      <c r="F34" s="168">
         <f>ROUNDUP(PMT($N$22/12,48,-$O$20),0)</f>
         <v>5</v>
       </c>
-      <c r="G34" s="277"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="153" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="154">
-        <f t="shared" si="2"/>
-        <v>171</v>
+        <f>ROUNDUP($N$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="J34" s="154">
-        <f t="shared" si="3"/>
-        <v>171</v>
+        <f>ROUNDUP($O$20*1.042,-1)</f>
+        <v>180</v>
       </c>
       <c r="K34" s="156" t="str">
         <f>"&lt; "&amp;ROUNDUP(PMT($N$22/12,60,-I34),0)</f>
@@ -4961,16 +4961,16 @@
       <c r="C35" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="276">
+      <c r="D35" s="168">
         <f>ROUNDUP(PMT($N$22/12,60,-$N$20),0)</f>
-        <v>4</v>
-      </c>
-      <c r="E35" s="277"/>
-      <c r="F35" s="276">
+        <v>5</v>
+      </c>
+      <c r="E35" s="169"/>
+      <c r="F35" s="168">
         <f>ROUNDUP(PMT($N$22/12,60,-$O$20),0)</f>
-        <v>4</v>
-      </c>
-      <c r="G35" s="277"/>
+        <v>5</v>
+      </c>
+      <c r="G35" s="169"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
@@ -5009,14 +5009,14 @@
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="222" t="s">
+      <c r="C37" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="223"/>
-      <c r="E37" s="226">
+      <c r="D37" s="183"/>
+      <c r="E37" s="186">
         <v>0</v>
       </c>
-      <c r="F37" s="227"/>
+      <c r="F37" s="187"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
@@ -5034,10 +5034,10 @@
     <row r="38" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="224"/>
-      <c r="D38" s="225"/>
-      <c r="E38" s="228"/>
-      <c r="F38" s="229"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="189"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
@@ -5082,15 +5082,15 @@
     <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="271" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="161"/>
-      <c r="E40" s="164">
+      <c r="D40" s="272"/>
+      <c r="E40" s="275">
         <f>C3*J3</f>
         <v>0</v>
       </c>
-      <c r="F40" s="165"/>
+      <c r="F40" s="276"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -5113,10 +5113,10 @@
     <row r="41" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="167"/>
+      <c r="C41" s="273"/>
+      <c r="D41" s="274"/>
+      <c r="E41" s="277"/>
+      <c r="F41" s="278"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -5291,12 +5291,12 @@
       <c r="X55" s="119"/>
     </row>
     <row r="56" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q56" s="180"/>
-      <c r="R56" s="181"/>
-      <c r="S56" s="181"/>
-      <c r="T56" s="181"/>
-      <c r="U56" s="181"/>
-      <c r="V56" s="182"/>
+      <c r="Q56" s="179"/>
+      <c r="R56" s="180"/>
+      <c r="S56" s="180"/>
+      <c r="T56" s="180"/>
+      <c r="U56" s="180"/>
+      <c r="V56" s="181"/>
       <c r="W56" s="114"/>
       <c r="X56" s="140"/>
     </row>
@@ -5811,12 +5811,12 @@
       <c r="X107" s="119"/>
     </row>
     <row r="108" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q108" s="180"/>
-      <c r="R108" s="181"/>
-      <c r="S108" s="181"/>
-      <c r="T108" s="181"/>
-      <c r="U108" s="181"/>
-      <c r="V108" s="182"/>
+      <c r="Q108" s="179"/>
+      <c r="R108" s="180"/>
+      <c r="S108" s="180"/>
+      <c r="T108" s="180"/>
+      <c r="U108" s="180"/>
+      <c r="V108" s="181"/>
       <c r="W108" s="114"/>
       <c r="X108" s="140"/>
     </row>
@@ -5854,12 +5854,12 @@
       <c r="X111" s="119"/>
     </row>
     <row r="112" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q112" s="183"/>
-      <c r="R112" s="184"/>
-      <c r="S112" s="184"/>
-      <c r="T112" s="184"/>
-      <c r="U112" s="184"/>
-      <c r="V112" s="185"/>
+      <c r="Q112" s="261"/>
+      <c r="R112" s="262"/>
+      <c r="S112" s="262"/>
+      <c r="T112" s="262"/>
+      <c r="U112" s="262"/>
+      <c r="V112" s="263"/>
       <c r="W112" s="118"/>
       <c r="X112" s="119"/>
     </row>
@@ -6004,12 +6004,12 @@
       <c r="X126" s="119"/>
     </row>
     <row r="127" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q127" s="183"/>
-      <c r="R127" s="184"/>
-      <c r="S127" s="184"/>
-      <c r="T127" s="184"/>
-      <c r="U127" s="184"/>
-      <c r="V127" s="185"/>
+      <c r="Q127" s="261"/>
+      <c r="R127" s="262"/>
+      <c r="S127" s="262"/>
+      <c r="T127" s="262"/>
+      <c r="U127" s="262"/>
+      <c r="V127" s="263"/>
       <c r="W127" s="118"/>
       <c r="X127" s="119"/>
     </row>
@@ -6324,12 +6324,12 @@
       <c r="X158" s="119"/>
     </row>
     <row r="159" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q159" s="180"/>
-      <c r="R159" s="181"/>
-      <c r="S159" s="181"/>
-      <c r="T159" s="181"/>
-      <c r="U159" s="181"/>
-      <c r="V159" s="182"/>
+      <c r="Q159" s="179"/>
+      <c r="R159" s="180"/>
+      <c r="S159" s="180"/>
+      <c r="T159" s="180"/>
+      <c r="U159" s="180"/>
+      <c r="V159" s="181"/>
       <c r="W159" s="114"/>
       <c r="X159" s="140"/>
     </row>
@@ -6834,12 +6834,12 @@
       <c r="X209" s="119"/>
     </row>
     <row r="210" spans="17:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q210" s="177"/>
-      <c r="R210" s="178"/>
-      <c r="S210" s="178"/>
-      <c r="T210" s="178"/>
-      <c r="U210" s="178"/>
-      <c r="V210" s="179"/>
+      <c r="Q210" s="268"/>
+      <c r="R210" s="269"/>
+      <c r="S210" s="269"/>
+      <c r="T210" s="269"/>
+      <c r="U210" s="269"/>
+      <c r="V210" s="270"/>
       <c r="W210" s="141"/>
       <c r="X210" s="142"/>
     </row>
@@ -6849,27 +6849,234 @@
     <protectedRange sqref="Y6 E6:F7 G7 I6:J7" name="Диапазон1_1_2_1"/>
   </protectedRanges>
   <mergeCells count="273">
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="Q207:V207"/>
+    <mergeCell ref="Q208:V208"/>
+    <mergeCell ref="Q209:V209"/>
+    <mergeCell ref="Q175:V175"/>
+    <mergeCell ref="Q176:V176"/>
+    <mergeCell ref="Q177:V177"/>
+    <mergeCell ref="Q178:V178"/>
+    <mergeCell ref="Q179:V179"/>
+    <mergeCell ref="Q197:V197"/>
+    <mergeCell ref="Q180:V180"/>
+    <mergeCell ref="Q181:V181"/>
+    <mergeCell ref="Q191:V191"/>
+    <mergeCell ref="Q192:V192"/>
+    <mergeCell ref="Q193:V193"/>
+    <mergeCell ref="Q194:V194"/>
+    <mergeCell ref="Q195:V195"/>
+    <mergeCell ref="Q196:V196"/>
+    <mergeCell ref="Q166:V166"/>
+    <mergeCell ref="Q174:V174"/>
+    <mergeCell ref="Q165:V165"/>
+    <mergeCell ref="Q182:V182"/>
+    <mergeCell ref="Q190:V190"/>
+    <mergeCell ref="Q167:V167"/>
+    <mergeCell ref="Q168:V168"/>
+    <mergeCell ref="Q169:V169"/>
+    <mergeCell ref="Q170:V170"/>
+    <mergeCell ref="Q171:V171"/>
+    <mergeCell ref="Q172:V172"/>
+    <mergeCell ref="Q173:V173"/>
+    <mergeCell ref="Q189:V189"/>
+    <mergeCell ref="Q183:V183"/>
+    <mergeCell ref="Q184:V184"/>
+    <mergeCell ref="Q185:V185"/>
+    <mergeCell ref="Q186:V186"/>
+    <mergeCell ref="Q187:V187"/>
+    <mergeCell ref="Q188:V188"/>
+    <mergeCell ref="Q210:V210"/>
+    <mergeCell ref="Q198:V198"/>
+    <mergeCell ref="Q199:V199"/>
+    <mergeCell ref="Q200:V200"/>
+    <mergeCell ref="Q201:V201"/>
+    <mergeCell ref="Q202:V202"/>
+    <mergeCell ref="Q203:V203"/>
+    <mergeCell ref="Q204:V204"/>
+    <mergeCell ref="Q205:V205"/>
+    <mergeCell ref="Q206:V206"/>
+    <mergeCell ref="Q164:V164"/>
+    <mergeCell ref="Q147:V147"/>
+    <mergeCell ref="Q155:V155"/>
+    <mergeCell ref="Q156:V156"/>
+    <mergeCell ref="Q148:V148"/>
+    <mergeCell ref="Q149:V149"/>
+    <mergeCell ref="Q150:V150"/>
+    <mergeCell ref="Q151:V151"/>
+    <mergeCell ref="Q152:V152"/>
+    <mergeCell ref="Q153:V153"/>
+    <mergeCell ref="Q154:V154"/>
+    <mergeCell ref="Q163:V163"/>
+    <mergeCell ref="Q157:V157"/>
+    <mergeCell ref="Q158:V158"/>
+    <mergeCell ref="Q159:V159"/>
+    <mergeCell ref="Q160:V160"/>
+    <mergeCell ref="Q161:V161"/>
+    <mergeCell ref="Q162:V162"/>
+    <mergeCell ref="Q139:V139"/>
+    <mergeCell ref="Q140:V140"/>
+    <mergeCell ref="Q141:V141"/>
+    <mergeCell ref="Q142:V142"/>
+    <mergeCell ref="Q143:V143"/>
+    <mergeCell ref="Q144:V144"/>
+    <mergeCell ref="Q145:V145"/>
+    <mergeCell ref="Q146:V146"/>
+    <mergeCell ref="Q129:V129"/>
+    <mergeCell ref="Q137:V137"/>
+    <mergeCell ref="Q138:V138"/>
+    <mergeCell ref="Q130:V130"/>
+    <mergeCell ref="Q131:V131"/>
+    <mergeCell ref="Q132:V132"/>
+    <mergeCell ref="Q133:V133"/>
+    <mergeCell ref="Q134:V134"/>
+    <mergeCell ref="Q135:V135"/>
+    <mergeCell ref="Q136:V136"/>
+    <mergeCell ref="Q121:V121"/>
+    <mergeCell ref="Q122:V122"/>
+    <mergeCell ref="Q123:V123"/>
+    <mergeCell ref="Q124:V124"/>
+    <mergeCell ref="Q125:V125"/>
+    <mergeCell ref="Q126:V126"/>
+    <mergeCell ref="Q127:V127"/>
+    <mergeCell ref="Q128:V128"/>
+    <mergeCell ref="Q110:V110"/>
+    <mergeCell ref="Q111:V111"/>
+    <mergeCell ref="Q112:V112"/>
+    <mergeCell ref="Q113:V113"/>
+    <mergeCell ref="Q114:V114"/>
+    <mergeCell ref="Q115:V115"/>
+    <mergeCell ref="Q116:V116"/>
+    <mergeCell ref="Q117:V117"/>
+    <mergeCell ref="Q118:V118"/>
+    <mergeCell ref="Q119:V119"/>
+    <mergeCell ref="Q120:V120"/>
+    <mergeCell ref="Q108:V108"/>
+    <mergeCell ref="Q53:V53"/>
+    <mergeCell ref="Q54:V54"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="Q34:V34"/>
+    <mergeCell ref="Q35:V35"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="Q61:V61"/>
+    <mergeCell ref="Q62:V62"/>
+    <mergeCell ref="Q63:V63"/>
+    <mergeCell ref="Q64:V64"/>
+    <mergeCell ref="Q41:V41"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="Q45:V45"/>
+    <mergeCell ref="Q36:V36"/>
+    <mergeCell ref="Q37:V37"/>
+    <mergeCell ref="Q38:V38"/>
+    <mergeCell ref="Q50:V50"/>
+    <mergeCell ref="Q51:V51"/>
+    <mergeCell ref="Q52:V52"/>
+    <mergeCell ref="Q46:V46"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q47:V47"/>
+    <mergeCell ref="Q48:V48"/>
+    <mergeCell ref="Q49:V49"/>
+    <mergeCell ref="Q39:V39"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q109:V109"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Q55:V55"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q72:V72"/>
+    <mergeCell ref="Q73:V73"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="Q84:V84"/>
+    <mergeCell ref="Q85:V85"/>
+    <mergeCell ref="Q76:V76"/>
+    <mergeCell ref="Q77:V77"/>
+    <mergeCell ref="Q78:V78"/>
+    <mergeCell ref="Q79:V79"/>
+    <mergeCell ref="Q80:V80"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="Q74:V74"/>
+    <mergeCell ref="Q75:V75"/>
+    <mergeCell ref="Q66:V66"/>
+    <mergeCell ref="Q67:V67"/>
+    <mergeCell ref="Q68:V68"/>
+    <mergeCell ref="Q69:V69"/>
+    <mergeCell ref="Q70:V70"/>
+    <mergeCell ref="Q81:V81"/>
+    <mergeCell ref="Q82:V82"/>
+    <mergeCell ref="Q65:V65"/>
+    <mergeCell ref="Q56:V56"/>
+    <mergeCell ref="Q57:V57"/>
+    <mergeCell ref="Q58:V58"/>
+    <mergeCell ref="Q59:V59"/>
+    <mergeCell ref="Q60:V60"/>
+    <mergeCell ref="Q71:V71"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Q106:V106"/>
     <mergeCell ref="Q107:V107"/>
@@ -6894,234 +7101,27 @@
     <mergeCell ref="Q89:V89"/>
     <mergeCell ref="Q90:V90"/>
     <mergeCell ref="Q83:V83"/>
-    <mergeCell ref="Q84:V84"/>
-    <mergeCell ref="Q85:V85"/>
-    <mergeCell ref="Q76:V76"/>
-    <mergeCell ref="Q77:V77"/>
-    <mergeCell ref="Q78:V78"/>
-    <mergeCell ref="Q79:V79"/>
-    <mergeCell ref="Q80:V80"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="Q74:V74"/>
-    <mergeCell ref="Q75:V75"/>
-    <mergeCell ref="Q66:V66"/>
-    <mergeCell ref="Q67:V67"/>
-    <mergeCell ref="Q68:V68"/>
-    <mergeCell ref="Q69:V69"/>
-    <mergeCell ref="Q70:V70"/>
-    <mergeCell ref="Q81:V81"/>
-    <mergeCell ref="Q82:V82"/>
-    <mergeCell ref="Q65:V65"/>
-    <mergeCell ref="Q56:V56"/>
-    <mergeCell ref="Q57:V57"/>
-    <mergeCell ref="Q58:V58"/>
-    <mergeCell ref="Q59:V59"/>
-    <mergeCell ref="Q60:V60"/>
-    <mergeCell ref="Q71:V71"/>
-    <mergeCell ref="Q72:V72"/>
-    <mergeCell ref="Q73:V73"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q109:V109"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="Q55:V55"/>
-    <mergeCell ref="Q50:V50"/>
-    <mergeCell ref="Q51:V51"/>
-    <mergeCell ref="Q52:V52"/>
-    <mergeCell ref="Q46:V46"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q47:V47"/>
-    <mergeCell ref="Q48:V48"/>
-    <mergeCell ref="Q49:V49"/>
-    <mergeCell ref="Q108:V108"/>
-    <mergeCell ref="Q53:V53"/>
-    <mergeCell ref="Q54:V54"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="Q34:V34"/>
-    <mergeCell ref="Q35:V35"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="Q61:V61"/>
-    <mergeCell ref="Q62:V62"/>
-    <mergeCell ref="Q63:V63"/>
-    <mergeCell ref="Q64:V64"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q41:V41"/>
-    <mergeCell ref="Q42:V42"/>
-    <mergeCell ref="Q43:V43"/>
-    <mergeCell ref="Q44:V44"/>
-    <mergeCell ref="Q45:V45"/>
-    <mergeCell ref="Q36:V36"/>
-    <mergeCell ref="Q37:V37"/>
-    <mergeCell ref="Q38:V38"/>
-    <mergeCell ref="Q39:V39"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="Q121:V121"/>
-    <mergeCell ref="Q122:V122"/>
-    <mergeCell ref="Q123:V123"/>
-    <mergeCell ref="Q124:V124"/>
-    <mergeCell ref="Q125:V125"/>
-    <mergeCell ref="Q126:V126"/>
-    <mergeCell ref="Q127:V127"/>
-    <mergeCell ref="Q128:V128"/>
-    <mergeCell ref="Q110:V110"/>
-    <mergeCell ref="Q111:V111"/>
-    <mergeCell ref="Q112:V112"/>
-    <mergeCell ref="Q113:V113"/>
-    <mergeCell ref="Q114:V114"/>
-    <mergeCell ref="Q115:V115"/>
-    <mergeCell ref="Q116:V116"/>
-    <mergeCell ref="Q117:V117"/>
-    <mergeCell ref="Q118:V118"/>
-    <mergeCell ref="Q119:V119"/>
-    <mergeCell ref="Q120:V120"/>
-    <mergeCell ref="Q139:V139"/>
-    <mergeCell ref="Q140:V140"/>
-    <mergeCell ref="Q141:V141"/>
-    <mergeCell ref="Q142:V142"/>
-    <mergeCell ref="Q143:V143"/>
-    <mergeCell ref="Q144:V144"/>
-    <mergeCell ref="Q145:V145"/>
-    <mergeCell ref="Q146:V146"/>
-    <mergeCell ref="Q129:V129"/>
-    <mergeCell ref="Q137:V137"/>
-    <mergeCell ref="Q138:V138"/>
-    <mergeCell ref="Q130:V130"/>
-    <mergeCell ref="Q131:V131"/>
-    <mergeCell ref="Q132:V132"/>
-    <mergeCell ref="Q133:V133"/>
-    <mergeCell ref="Q134:V134"/>
-    <mergeCell ref="Q135:V135"/>
-    <mergeCell ref="Q136:V136"/>
-    <mergeCell ref="Q164:V164"/>
-    <mergeCell ref="Q147:V147"/>
-    <mergeCell ref="Q155:V155"/>
-    <mergeCell ref="Q156:V156"/>
-    <mergeCell ref="Q148:V148"/>
-    <mergeCell ref="Q149:V149"/>
-    <mergeCell ref="Q150:V150"/>
-    <mergeCell ref="Q151:V151"/>
-    <mergeCell ref="Q152:V152"/>
-    <mergeCell ref="Q153:V153"/>
-    <mergeCell ref="Q154:V154"/>
-    <mergeCell ref="Q163:V163"/>
-    <mergeCell ref="Q157:V157"/>
-    <mergeCell ref="Q158:V158"/>
-    <mergeCell ref="Q159:V159"/>
-    <mergeCell ref="Q160:V160"/>
-    <mergeCell ref="Q161:V161"/>
-    <mergeCell ref="Q162:V162"/>
-    <mergeCell ref="Q210:V210"/>
-    <mergeCell ref="Q198:V198"/>
-    <mergeCell ref="Q199:V199"/>
-    <mergeCell ref="Q200:V200"/>
-    <mergeCell ref="Q201:V201"/>
-    <mergeCell ref="Q202:V202"/>
-    <mergeCell ref="Q203:V203"/>
-    <mergeCell ref="Q204:V204"/>
-    <mergeCell ref="Q205:V205"/>
-    <mergeCell ref="Q206:V206"/>
-    <mergeCell ref="Q165:V165"/>
-    <mergeCell ref="Q182:V182"/>
-    <mergeCell ref="Q190:V190"/>
-    <mergeCell ref="Q167:V167"/>
-    <mergeCell ref="Q168:V168"/>
-    <mergeCell ref="Q169:V169"/>
-    <mergeCell ref="Q170:V170"/>
-    <mergeCell ref="Q171:V171"/>
-    <mergeCell ref="Q172:V172"/>
-    <mergeCell ref="Q173:V173"/>
-    <mergeCell ref="Q189:V189"/>
-    <mergeCell ref="Q183:V183"/>
-    <mergeCell ref="Q184:V184"/>
-    <mergeCell ref="Q185:V185"/>
-    <mergeCell ref="Q186:V186"/>
-    <mergeCell ref="Q187:V187"/>
-    <mergeCell ref="Q188:V188"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="Q207:V207"/>
-    <mergeCell ref="Q208:V208"/>
-    <mergeCell ref="Q209:V209"/>
-    <mergeCell ref="Q175:V175"/>
-    <mergeCell ref="Q176:V176"/>
-    <mergeCell ref="Q177:V177"/>
-    <mergeCell ref="Q178:V178"/>
-    <mergeCell ref="Q179:V179"/>
-    <mergeCell ref="Q197:V197"/>
-    <mergeCell ref="Q180:V180"/>
-    <mergeCell ref="Q181:V181"/>
-    <mergeCell ref="Q191:V191"/>
-    <mergeCell ref="Q192:V192"/>
-    <mergeCell ref="Q193:V193"/>
-    <mergeCell ref="Q194:V194"/>
-    <mergeCell ref="Q195:V195"/>
-    <mergeCell ref="Q196:V196"/>
-    <mergeCell ref="Q166:V166"/>
-    <mergeCell ref="Q174:V174"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="360" r:id="rId1"/>
@@ -7135,7 +7135,7 @@
   <dimension ref="A1:BT326"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7247,22 +7247,22 @@
         <v>5</v>
       </c>
       <c r="N2" s="53"/>
-      <c r="O2" s="285" t="s">
+      <c r="O2" s="342" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="287"/>
-      <c r="R2" s="291" t="s">
+      <c r="P2" s="343"/>
+      <c r="Q2" s="344"/>
+      <c r="R2" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="310" t="s">
+      <c r="S2" s="334" t="s">
         <v>16</v>
       </c>
       <c r="T2" s="53"/>
       <c r="U2" s="53"/>
       <c r="V2" s="53"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
+      <c r="W2" s="327"/>
+      <c r="X2" s="327"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -7297,31 +7297,31 @@
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="294">
+      <c r="C3" s="351">
         <f>НалБанки!C3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="280">
+      <c r="D3" s="337">
         <f>НалБанки!D3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="280">
+      <c r="E3" s="337">
         <f>НалБанки!E3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="280">
+      <c r="F3" s="337">
         <f>НалБанки!F3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="280">
+      <c r="G3" s="337">
         <f>НалБанки!G3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="280">
+      <c r="H3" s="337">
         <f>НалБанки!H3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="282">
+      <c r="I3" s="339">
         <f>НалБанки!I3</f>
         <v>40</v>
       </c>
@@ -7333,25 +7333,25 @@
         <f>ROUNDUP(((SUM(D3:F4,H3:I4)+(SUM(G3:G4)*0.75))*L3+((SUM(D3:F4,I3)+SUM(G3:G4)*0.75)*20%+(SUM(D3:F4,H3:I4)+SUM(G3:G4)*0.75)))*M3,0)</f>
         <v>167</v>
       </c>
-      <c r="L3" s="304">
+      <c r="L3" s="328">
         <f>8/92*1.2</f>
         <v>0.10434782608695652</v>
       </c>
-      <c r="M3" s="306">
+      <c r="M3" s="330">
         <f>НалБанки!J3</f>
         <v>3.2</v>
       </c>
       <c r="N3" s="53"/>
-      <c r="O3" s="288"/>
-      <c r="P3" s="289"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="311"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="347"/>
+      <c r="R3" s="349"/>
+      <c r="S3" s="335"/>
       <c r="T3" s="53"/>
       <c r="U3" s="53"/>
       <c r="V3" s="53"/>
-      <c r="W3" s="303"/>
-      <c r="X3" s="303"/>
+      <c r="W3" s="327"/>
+      <c r="X3" s="327"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -7386,13 +7386,13 @@
     <row r="4" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="295"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="283"/>
+      <c r="C4" s="352"/>
+      <c r="D4" s="353"/>
+      <c r="E4" s="353"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="340"/>
       <c r="J4" s="50">
         <f>J3-(J3-H3*M3)/6</f>
         <v>139.16666666666666</v>
@@ -7401,8 +7401,8 @@
         <f>K3-(K3-H3*M3)/6</f>
         <v>139.16666666666666</v>
       </c>
-      <c r="L4" s="305"/>
-      <c r="M4" s="307"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="331"/>
       <c r="N4" s="53"/>
       <c r="O4" s="15" t="s">
         <v>7</v>
@@ -7413,8 +7413,8 @@
       <c r="Q4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="293"/>
-      <c r="S4" s="312"/>
+      <c r="R4" s="350"/>
+      <c r="S4" s="336"/>
       <c r="T4" s="53"/>
       <c r="U4" s="53"/>
       <c r="V4" s="62" t="s">
@@ -7456,15 +7456,15 @@
     <row r="5" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="297">
+      <c r="C5" s="354">
         <f ca="1">TODAY()</f>
-        <v>45364</v>
-      </c>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="298"/>
+        <v>45490</v>
+      </c>
+      <c r="D5" s="355"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
+      <c r="G5" s="355"/>
+      <c r="H5" s="355"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
@@ -7475,20 +7475,20 @@
         <v>19</v>
       </c>
       <c r="P5" s="18">
-        <f>ROUNDUP($J$3/100*(100+V5),0)</f>
-        <v>239</v>
+        <f>ROUNDUP($J$3/100*(100+V5),-1)</f>
+        <v>240</v>
       </c>
       <c r="Q5" s="18">
-        <f>ROUNDUP($K$3/100*(100+V5),0)</f>
-        <v>239</v>
+        <f>ROUNDUP($K$3/100*(100+V5),-1)</f>
+        <v>240</v>
       </c>
       <c r="R5" s="19">
         <f>P5/4</f>
-        <v>59.75</v>
+        <v>60</v>
       </c>
       <c r="S5" s="20">
         <f>Q5/4</f>
-        <v>59.75</v>
+        <v>60</v>
       </c>
       <c r="T5" s="53"/>
       <c r="U5" s="53"/>
@@ -7531,10 +7531,10 @@
     <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
+      <c r="C6" s="341"/>
+      <c r="D6" s="341"/>
+      <c r="E6" s="341"/>
+      <c r="F6" s="341"/>
       <c r="G6" s="9"/>
       <c r="H6" s="29"/>
       <c r="I6" s="10"/>
@@ -7547,20 +7547,20 @@
         <v>9</v>
       </c>
       <c r="P6" s="18">
-        <f t="shared" ref="P6:P9" si="0">ROUNDUP($J$3/100*(100+V6),0)</f>
-        <v>248</v>
+        <f>ROUNDUP($J$3/100*(100+V6),-1)</f>
+        <v>250</v>
       </c>
       <c r="Q6" s="18">
-        <f t="shared" ref="Q6:Q9" si="1">ROUNDUP($K$3/100*(100+V6),0)</f>
-        <v>248</v>
+        <f>ROUNDUP($K$3/100*(100+V6),-1)</f>
+        <v>250</v>
       </c>
       <c r="R6" s="22">
         <f>P6/6</f>
-        <v>41.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="S6" s="23">
         <f>Q6/6</f>
-        <v>41.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="T6" s="53"/>
       <c r="U6" s="53"/>
@@ -7619,20 +7619,20 @@
         <v>10</v>
       </c>
       <c r="P7" s="18">
-        <f t="shared" si="0"/>
-        <v>272</v>
+        <f>ROUNDUP($J$3/100*(100+V7),-1)</f>
+        <v>280</v>
       </c>
       <c r="Q7" s="18">
-        <f t="shared" si="1"/>
-        <v>272</v>
+        <f>ROUNDUP($K$3/100*(100+V7),-1)</f>
+        <v>280</v>
       </c>
       <c r="R7" s="22">
         <f>P7/12</f>
-        <v>22.666666666666668</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="S7" s="23">
         <f>Q7/12</f>
-        <v>22.666666666666668</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="T7" s="53"/>
       <c r="U7" s="53"/>
@@ -7675,17 +7675,17 @@
     <row r="8" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="313" t="s">
+      <c r="C8" s="299" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="314"/>
-      <c r="E8" s="315"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="301"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="319" t="s">
+      <c r="G8" s="305" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="320"/>
-      <c r="I8" s="321"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="307"/>
       <c r="J8" s="54"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
@@ -7695,20 +7695,20 @@
         <v>20</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" si="0"/>
-        <v>322</v>
+        <f>ROUNDUP($J$3/100*(100+V8),-1)</f>
+        <v>330</v>
       </c>
       <c r="Q8" s="18">
-        <f t="shared" si="1"/>
-        <v>322</v>
+        <f>ROUNDUP($K$3/100*(100+V8),-1)</f>
+        <v>330</v>
       </c>
       <c r="R8" s="22">
         <f>P8/20</f>
-        <v>16.100000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="S8" s="23">
         <f>Q8/20</f>
-        <v>16.100000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="T8" s="53"/>
       <c r="U8" s="53"/>
@@ -7751,13 +7751,13 @@
     <row r="9" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="316"/>
-      <c r="D9" s="317"/>
-      <c r="E9" s="318"/>
+      <c r="C9" s="302"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="304"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="322"/>
-      <c r="H9" s="323"/>
-      <c r="I9" s="324"/>
+      <c r="G9" s="308"/>
+      <c r="H9" s="309"/>
+      <c r="I9" s="310"/>
       <c r="J9" s="54"/>
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
@@ -7767,20 +7767,20 @@
         <v>12</v>
       </c>
       <c r="P9" s="18">
-        <f t="shared" si="0"/>
-        <v>329</v>
+        <f>ROUNDUP($J$3/100*(100+V9),-1)</f>
+        <v>330</v>
       </c>
       <c r="Q9" s="18">
-        <f t="shared" si="1"/>
-        <v>329</v>
+        <f>ROUNDUP($K$3/100*(100+V9),-1)</f>
+        <v>330</v>
       </c>
       <c r="R9" s="25">
         <f>P9/24</f>
-        <v>13.708333333333334</v>
+        <v>13.75</v>
       </c>
       <c r="S9" s="26">
         <f>Q9/24</f>
-        <v>13.708333333333334</v>
+        <v>13.75</v>
       </c>
       <c r="T9" s="53"/>
       <c r="U9" s="53"/>
@@ -7823,23 +7823,23 @@
     <row r="10" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="325" t="s">
+      <c r="C10" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="327" t="s">
+      <c r="D10" s="313" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="329" t="s">
+      <c r="E10" s="315" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="331" t="s">
+      <c r="G10" s="317" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="333" t="s">
+      <c r="H10" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="335" t="s">
+      <c r="I10" s="321" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="54"/>
@@ -7891,13 +7891,13 @@
     <row r="11" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="326"/>
-      <c r="D11" s="328"/>
-      <c r="E11" s="330"/>
+      <c r="C11" s="312"/>
+      <c r="D11" s="314"/>
+      <c r="E11" s="316"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="334"/>
-      <c r="I11" s="336"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="320"/>
+      <c r="I11" s="322"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
@@ -7951,12 +7951,12 @@
         <v>19</v>
       </c>
       <c r="D12" s="39">
-        <f t="shared" ref="D12:E16" si="2">P5*0.03</f>
-        <v>7.17</v>
+        <f t="shared" ref="D12:E16" si="0">P5*0.03</f>
+        <v>7.1999999999999993</v>
       </c>
       <c r="E12" s="40">
-        <f t="shared" si="2"/>
-        <v>7.17</v>
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="38" t="s">
@@ -7964,11 +7964,11 @@
       </c>
       <c r="H12" s="41">
         <f>(P5-(SUM(H3:H4)*M3))/6</f>
-        <v>39.833333333333336</v>
+        <v>40</v>
       </c>
       <c r="I12" s="42">
         <f>(Q5-(SUM(H3:H4)*M3))/6</f>
-        <v>39.833333333333336</v>
+        <v>40</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="55"/>
@@ -7977,14 +7977,14 @@
       <c r="N12" s="53"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="R12" s="299" t="s">
+      <c r="R12" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="300"/>
-      <c r="T12" s="308" t="s">
+      <c r="S12" s="324"/>
+      <c r="T12" s="332" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="309"/>
+      <c r="U12" s="333"/>
       <c r="V12" s="53"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -8026,12 +8026,12 @@
         <v>9</v>
       </c>
       <c r="D13" s="39">
-        <f t="shared" si="2"/>
-        <v>7.4399999999999995</v>
+        <f t="shared" si="0"/>
+        <v>7.5</v>
       </c>
       <c r="E13" s="40">
-        <f t="shared" si="2"/>
-        <v>7.4399999999999995</v>
+        <f t="shared" si="0"/>
+        <v>7.5</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="21" t="s">
@@ -8039,11 +8039,11 @@
       </c>
       <c r="H13" s="41">
         <f>(P6-(SUM(H3:H4)*M3))/6</f>
-        <v>41.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="I13" s="42">
         <f>(Q6-(SUM(H3:H4)*M3))/6</f>
-        <v>41.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="J13" s="54"/>
       <c r="K13" s="55"/>
@@ -8052,8 +8052,8 @@
       <c r="N13" s="53"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="302"/>
+      <c r="R13" s="325"/>
+      <c r="S13" s="326"/>
       <c r="T13" s="56" t="s">
         <v>21</v>
       </c>
@@ -8101,12 +8101,12 @@
         <v>10</v>
       </c>
       <c r="D14" s="39">
-        <f t="shared" si="2"/>
-        <v>8.16</v>
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="E14" s="40">
-        <f t="shared" si="2"/>
-        <v>8.16</v>
+        <f t="shared" si="0"/>
+        <v>8.4</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="21" t="s">
@@ -8114,34 +8114,34 @@
       </c>
       <c r="H14" s="41">
         <f>(P7-(SUM(H3:H4)*M3))/6</f>
-        <v>45.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="I14" s="42">
         <f>(Q7-(SUM(H3:H4)*M3))/6</f>
-        <v>45.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="J14" s="54"/>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
       <c r="N14" s="53"/>
-      <c r="O14" s="343" t="s">
+      <c r="O14" s="287" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="344"/>
-      <c r="Q14" s="347">
+      <c r="P14" s="288"/>
+      <c r="Q14" s="291">
         <v>0.02</v>
       </c>
-      <c r="R14" s="353">
+      <c r="R14" s="297">
         <f>IF(R12="ЖЕЛ",J4*Q14,K4*Q14)</f>
         <v>2.7833333333333332</v>
       </c>
-      <c r="S14" s="354"/>
-      <c r="T14" s="337">
+      <c r="S14" s="298"/>
+      <c r="T14" s="281">
         <f>J4</f>
         <v>139.16666666666666</v>
       </c>
-      <c r="U14" s="340">
+      <c r="U14" s="284">
         <f>K4</f>
         <v>139.16666666666666</v>
       </c>
@@ -8186,12 +8186,12 @@
         <v>20</v>
       </c>
       <c r="D15" s="39">
-        <f t="shared" si="2"/>
-        <v>9.66</v>
+        <f t="shared" si="0"/>
+        <v>9.9</v>
       </c>
       <c r="E15" s="40">
-        <f t="shared" si="2"/>
-        <v>9.66</v>
+        <f t="shared" si="0"/>
+        <v>9.9</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="21" t="s">
@@ -8199,24 +8199,24 @@
       </c>
       <c r="H15" s="41">
         <f>(P8-(SUM(H3:H4)*M3))/6</f>
-        <v>53.666666666666664</v>
+        <v>55</v>
       </c>
       <c r="I15" s="42">
         <f>(Q8-(SUM(H3:H4)*M3))/6</f>
-        <v>53.666666666666664</v>
+        <v>55</v>
       </c>
       <c r="J15" s="54"/>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
       <c r="N15" s="36"/>
-      <c r="O15" s="345"/>
-      <c r="P15" s="346"/>
-      <c r="Q15" s="348"/>
-      <c r="R15" s="351"/>
-      <c r="S15" s="352"/>
-      <c r="T15" s="338"/>
-      <c r="U15" s="341"/>
+      <c r="O15" s="289"/>
+      <c r="P15" s="290"/>
+      <c r="Q15" s="292"/>
+      <c r="R15" s="295"/>
+      <c r="S15" s="296"/>
+      <c r="T15" s="282"/>
+      <c r="U15" s="285"/>
       <c r="V15" s="9"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -8258,12 +8258,12 @@
         <v>12</v>
       </c>
       <c r="D16" s="44">
-        <f t="shared" si="2"/>
-        <v>9.8699999999999992</v>
+        <f t="shared" si="0"/>
+        <v>9.9</v>
       </c>
       <c r="E16" s="45">
-        <f t="shared" si="2"/>
-        <v>9.8699999999999992</v>
+        <f t="shared" si="0"/>
+        <v>9.9</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="24" t="s">
@@ -8271,31 +8271,31 @@
       </c>
       <c r="H16" s="46">
         <f>(P9-(SUM(H3:H4)*M3))/6</f>
-        <v>54.833333333333336</v>
+        <v>55</v>
       </c>
       <c r="I16" s="47">
         <f>(Q9-(SUM(H3:H4)*M3))/6</f>
-        <v>54.833333333333336</v>
+        <v>55</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="343" t="s">
+      <c r="O16" s="287" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="344"/>
-      <c r="Q16" s="347">
+      <c r="P16" s="288"/>
+      <c r="Q16" s="291">
         <v>0</v>
       </c>
-      <c r="R16" s="349">
+      <c r="R16" s="293">
         <f>IF(R12="ЖЕЛ",J4*Q16,K4*Q16)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="350"/>
-      <c r="T16" s="338"/>
-      <c r="U16" s="341"/>
+      <c r="S16" s="294"/>
+      <c r="T16" s="282"/>
+      <c r="U16" s="285"/>
       <c r="V16" s="9"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
@@ -8345,13 +8345,13 @@
       <c r="L17" s="43"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="345"/>
-      <c r="P17" s="346"/>
-      <c r="Q17" s="348"/>
-      <c r="R17" s="351"/>
-      <c r="S17" s="352"/>
-      <c r="T17" s="339"/>
-      <c r="U17" s="342"/>
+      <c r="O17" s="289"/>
+      <c r="P17" s="290"/>
+      <c r="Q17" s="292"/>
+      <c r="R17" s="295"/>
+      <c r="S17" s="296"/>
+      <c r="T17" s="283"/>
+      <c r="U17" s="286"/>
       <c r="V17" s="9"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
@@ -15472,29 +15472,6 @@
     <protectedRange sqref="L3:L4 J3:K3" name="Диапазон1_1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="34">
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:S17"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:S15"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="S2:S4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C6:F6"/>
@@ -15506,6 +15483,29 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C5:H5"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="U14:U17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:S15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">
